--- a/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>BAK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3121700</v>
+        <v>2338800</v>
       </c>
       <c r="E8" s="3">
-        <v>6145100</v>
+        <v>2473500</v>
       </c>
       <c r="F8" s="3">
-        <v>3030600</v>
+        <v>4869100</v>
       </c>
       <c r="G8" s="3">
-        <v>3464700</v>
+        <v>2401300</v>
       </c>
       <c r="H8" s="3">
-        <v>3817600</v>
+        <v>2745200</v>
       </c>
       <c r="I8" s="3">
-        <v>6261800</v>
+        <v>3024900</v>
       </c>
       <c r="J8" s="3">
+        <v>4961600</v>
+      </c>
+      <c r="K8" s="3">
         <v>3042500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3237700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3118100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3043300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3125700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2988400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2972300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2720800</v>
+        <v>2047300</v>
       </c>
       <c r="E9" s="3">
-        <v>5362500</v>
+        <v>2155800</v>
       </c>
       <c r="F9" s="3">
-        <v>2619200</v>
+        <v>4249000</v>
       </c>
       <c r="G9" s="3">
-        <v>3003700</v>
+        <v>2075400</v>
       </c>
       <c r="H9" s="3">
-        <v>2977000</v>
+        <v>2386300</v>
       </c>
       <c r="I9" s="3">
-        <v>4882400</v>
+        <v>2358800</v>
       </c>
       <c r="J9" s="3">
+        <v>3868600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2411600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2405700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2349100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2319300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2210800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2269000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2174500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>401000</v>
+        <v>291500</v>
       </c>
       <c r="E10" s="3">
-        <v>782700</v>
+        <v>317700</v>
       </c>
       <c r="F10" s="3">
-        <v>411400</v>
+        <v>620200</v>
       </c>
       <c r="G10" s="3">
-        <v>461000</v>
+        <v>326000</v>
       </c>
       <c r="H10" s="3">
-        <v>840600</v>
+        <v>359000</v>
       </c>
       <c r="I10" s="3">
-        <v>1379400</v>
+        <v>666100</v>
       </c>
       <c r="J10" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="K10" s="3">
         <v>630900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>831900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>769000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>724100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>914900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>719400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>797900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>13700</v>
+        <v>14500</v>
       </c>
       <c r="E12" s="3">
-        <v>25900</v>
+        <v>10900</v>
       </c>
       <c r="F12" s="3">
-        <v>11400</v>
+        <v>20500</v>
       </c>
       <c r="G12" s="3">
-        <v>14300</v>
+        <v>9100</v>
       </c>
       <c r="H12" s="3">
-        <v>13500</v>
+        <v>12200</v>
       </c>
       <c r="I12" s="3">
-        <v>22400</v>
+        <v>10700</v>
       </c>
       <c r="J12" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K12" s="3">
         <v>9100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,52 +985,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>21000</v>
+        <v>652900</v>
       </c>
       <c r="E14" s="3">
-        <v>-47800</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="3">
-        <v>-44100</v>
+        <v>53400</v>
       </c>
       <c r="G14" s="3">
-        <v>-23600</v>
+        <v>40900</v>
       </c>
       <c r="H14" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>-38900</v>
-      </c>
       <c r="J14" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="K14" s="3">
         <v>-6500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-65200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>26900</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2991300</v>
+        <v>2999900</v>
       </c>
       <c r="E17" s="3">
-        <v>5454400</v>
+        <v>2370200</v>
       </c>
       <c r="F17" s="3">
-        <v>2536700</v>
+        <v>4321800</v>
       </c>
       <c r="G17" s="3">
-        <v>3193100</v>
+        <v>2010000</v>
       </c>
       <c r="H17" s="3">
-        <v>3166000</v>
+        <v>2530000</v>
       </c>
       <c r="I17" s="3">
-        <v>5245900</v>
+        <v>2508600</v>
       </c>
       <c r="J17" s="3">
+        <v>4156600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2595500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2671600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2622900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2450700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2404300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3295900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2402600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>130500</v>
+        <v>-661100</v>
       </c>
       <c r="E18" s="3">
-        <v>690800</v>
+        <v>103400</v>
       </c>
       <c r="F18" s="3">
-        <v>493900</v>
+        <v>547300</v>
       </c>
       <c r="G18" s="3">
-        <v>271600</v>
+        <v>391400</v>
       </c>
       <c r="H18" s="3">
-        <v>651600</v>
+        <v>215200</v>
       </c>
       <c r="I18" s="3">
-        <v>1015900</v>
+        <v>516300</v>
       </c>
       <c r="J18" s="3">
+        <v>805000</v>
+      </c>
+      <c r="K18" s="3">
         <v>447000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>566000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>495200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>592600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>721500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-307500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>569700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1210,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-330800</v>
+        <v>-51600</v>
       </c>
       <c r="E20" s="3">
-        <v>-168400</v>
+        <v>-376100</v>
       </c>
       <c r="F20" s="3">
-        <v>-88100</v>
+        <v>-340800</v>
       </c>
       <c r="G20" s="3">
-        <v>-134700</v>
+        <v>-69800</v>
       </c>
       <c r="H20" s="3">
-        <v>-88800</v>
+        <v>-106700</v>
       </c>
       <c r="I20" s="3">
-        <v>-375900</v>
+        <v>-70400</v>
       </c>
       <c r="J20" s="3">
+        <v>-297800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-365400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-99500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-26500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>46800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-229800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-283500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4400</v>
+        <v>-523200</v>
       </c>
       <c r="E21" s="3">
-        <v>926500</v>
+        <v>-110500</v>
       </c>
       <c r="F21" s="3">
-        <v>607100</v>
+        <v>526800</v>
       </c>
       <c r="G21" s="3">
-        <v>310100</v>
+        <v>481000</v>
       </c>
       <c r="H21" s="3">
-        <v>746800</v>
+        <v>245700</v>
       </c>
       <c r="I21" s="3">
-        <v>981200</v>
+        <v>591800</v>
       </c>
       <c r="J21" s="3">
+        <v>777500</v>
+      </c>
+      <c r="K21" s="3">
         <v>616300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>395300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>586700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>751200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>942400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-356700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>462600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>143800</v>
-      </c>
-      <c r="E22" s="3">
-        <v>261600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>127400</v>
+        <v>109800</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="3">
-        <v>120200</v>
+        <v>101000</v>
       </c>
       <c r="H22" s="3">
-        <v>128700</v>
+        <v>95300</v>
       </c>
       <c r="I22" s="3">
-        <v>238000</v>
+        <v>101900</v>
       </c>
       <c r="J22" s="3">
+        <v>188500</v>
+      </c>
+      <c r="K22" s="3">
         <v>110300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>131700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>141600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>147200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>142400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>159500</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-344200</v>
+        <v>-822500</v>
       </c>
       <c r="E23" s="3">
-        <v>260700</v>
+        <v>-272700</v>
       </c>
       <c r="F23" s="3">
-        <v>278400</v>
+        <v>206600</v>
       </c>
       <c r="G23" s="3">
-        <v>16700</v>
+        <v>220600</v>
       </c>
       <c r="H23" s="3">
-        <v>434100</v>
+        <v>13200</v>
       </c>
       <c r="I23" s="3">
-        <v>402100</v>
+        <v>344000</v>
       </c>
       <c r="J23" s="3">
+        <v>318600</v>
+      </c>
+      <c r="K23" s="3">
         <v>333200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>68800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>254200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>418900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>625800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-696900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>286200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-113800</v>
+        <v>-288700</v>
       </c>
       <c r="E24" s="3">
-        <v>33100</v>
+        <v>-90200</v>
       </c>
       <c r="F24" s="3">
-        <v>64200</v>
+        <v>26200</v>
       </c>
       <c r="G24" s="3">
+        <v>50900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>46300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>77100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K24" s="3">
+        <v>64500</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="M24" s="3">
         <v>58400</v>
       </c>
-      <c r="H24" s="3">
-        <v>97400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>18300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>64500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>58400</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>126000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>153200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-46600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-230300</v>
+        <v>-533800</v>
       </c>
       <c r="E26" s="3">
-        <v>227600</v>
+        <v>-182500</v>
       </c>
       <c r="F26" s="3">
-        <v>214200</v>
+        <v>180300</v>
       </c>
       <c r="G26" s="3">
-        <v>-41700</v>
+        <v>169700</v>
       </c>
       <c r="H26" s="3">
-        <v>336800</v>
+        <v>-33000</v>
       </c>
       <c r="I26" s="3">
-        <v>383800</v>
+        <v>266800</v>
       </c>
       <c r="J26" s="3">
+        <v>304100</v>
+      </c>
+      <c r="K26" s="3">
         <v>268800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>80200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>195800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>292900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>472700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-650200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>201700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-207300</v>
+        <v>-540600</v>
       </c>
       <c r="E27" s="3">
-        <v>236400</v>
+        <v>-164300</v>
       </c>
       <c r="F27" s="3">
-        <v>216800</v>
+        <v>187300</v>
       </c>
       <c r="G27" s="3">
-        <v>-18300</v>
+        <v>171800</v>
       </c>
       <c r="H27" s="3">
-        <v>313900</v>
+        <v>-14500</v>
       </c>
       <c r="I27" s="3">
-        <v>373800</v>
+        <v>248700</v>
       </c>
       <c r="J27" s="3">
+        <v>296200</v>
+      </c>
+      <c r="K27" s="3">
         <v>246000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>99000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>204900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>279400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>446200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-628800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>219400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,8 +1648,8 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1610,16 +1670,19 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>2200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>330800</v>
+        <v>51600</v>
       </c>
       <c r="E32" s="3">
-        <v>168400</v>
+        <v>376100</v>
       </c>
       <c r="F32" s="3">
-        <v>88100</v>
+        <v>340800</v>
       </c>
       <c r="G32" s="3">
-        <v>134700</v>
+        <v>69800</v>
       </c>
       <c r="H32" s="3">
-        <v>88800</v>
+        <v>106700</v>
       </c>
       <c r="I32" s="3">
-        <v>375900</v>
+        <v>70400</v>
       </c>
       <c r="J32" s="3">
+        <v>297800</v>
+      </c>
+      <c r="K32" s="3">
         <v>3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>365400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>99500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>26500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-46800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>229800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>283500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-207300</v>
+        <v>-540600</v>
       </c>
       <c r="E33" s="3">
-        <v>236400</v>
+        <v>-164300</v>
       </c>
       <c r="F33" s="3">
-        <v>216800</v>
+        <v>187300</v>
       </c>
       <c r="G33" s="3">
-        <v>-18300</v>
+        <v>171800</v>
       </c>
       <c r="H33" s="3">
-        <v>313900</v>
+        <v>-14500</v>
       </c>
       <c r="I33" s="3">
-        <v>373800</v>
+        <v>248700</v>
       </c>
       <c r="J33" s="3">
+        <v>296200</v>
+      </c>
+      <c r="K33" s="3">
         <v>246000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>99000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>204900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>279400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>448400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-628000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-207300</v>
+        <v>-540600</v>
       </c>
       <c r="E35" s="3">
-        <v>236400</v>
+        <v>-164300</v>
       </c>
       <c r="F35" s="3">
-        <v>216800</v>
+        <v>187300</v>
       </c>
       <c r="G35" s="3">
-        <v>-18300</v>
+        <v>171800</v>
       </c>
       <c r="H35" s="3">
-        <v>313900</v>
+        <v>-14500</v>
       </c>
       <c r="I35" s="3">
-        <v>373800</v>
+        <v>248700</v>
       </c>
       <c r="J35" s="3">
+        <v>296200</v>
+      </c>
+      <c r="K35" s="3">
         <v>246000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>99000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>204900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>279400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>448400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-628000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2052,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1334600</v>
+        <v>1258900</v>
       </c>
       <c r="E41" s="3">
-        <v>1351700</v>
+        <v>1057500</v>
       </c>
       <c r="F41" s="3">
-        <v>1425400</v>
+        <v>1071000</v>
       </c>
       <c r="G41" s="3">
-        <v>1295500</v>
+        <v>1129400</v>
       </c>
       <c r="H41" s="3">
-        <v>1142200</v>
+        <v>1026500</v>
       </c>
       <c r="I41" s="3">
-        <v>1202600</v>
+        <v>905000</v>
       </c>
       <c r="J41" s="3">
+        <v>952900</v>
+      </c>
+      <c r="K41" s="3">
         <v>797100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>967900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1397900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1464300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1641600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1662600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2034300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>300800</v>
+        <v>312200</v>
       </c>
       <c r="E42" s="3">
-        <v>158700</v>
+        <v>238300</v>
       </c>
       <c r="F42" s="3">
-        <v>401700</v>
+        <v>125700</v>
       </c>
       <c r="G42" s="3">
-        <v>550500</v>
+        <v>318300</v>
       </c>
       <c r="H42" s="3">
-        <v>485900</v>
+        <v>436200</v>
       </c>
       <c r="I42" s="3">
-        <v>480100</v>
+        <v>385000</v>
       </c>
       <c r="J42" s="3">
+        <v>380400</v>
+      </c>
+      <c r="K42" s="3">
         <v>569800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>590400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>585700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>686500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>250900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>295300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>107400</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1277500</v>
+        <v>1323600</v>
       </c>
       <c r="E43" s="3">
-        <v>1178800</v>
+        <v>1012200</v>
       </c>
       <c r="F43" s="3">
-        <v>1074900</v>
+        <v>934000</v>
       </c>
       <c r="G43" s="3">
-        <v>1103300</v>
+        <v>851700</v>
       </c>
       <c r="H43" s="3">
-        <v>1377300</v>
+        <v>874200</v>
       </c>
       <c r="I43" s="3">
-        <v>1055500</v>
+        <v>1091300</v>
       </c>
       <c r="J43" s="3">
+        <v>836300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1029700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1263800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1077900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1019500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>752400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>658900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>796900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1837400</v>
+        <v>1410900</v>
       </c>
       <c r="E44" s="3">
-        <v>1930700</v>
+        <v>1455900</v>
       </c>
       <c r="F44" s="3">
-        <v>1899400</v>
+        <v>1529800</v>
       </c>
       <c r="G44" s="3">
-        <v>1981800</v>
+        <v>1505000</v>
       </c>
       <c r="H44" s="3">
-        <v>2088800</v>
+        <v>1570300</v>
       </c>
       <c r="I44" s="3">
-        <v>1894800</v>
+        <v>1655100</v>
       </c>
       <c r="J44" s="3">
+        <v>1501300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1559800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1755400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1473200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1514600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1375900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1299400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1209100</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37000</v>
+        <v>22200</v>
       </c>
       <c r="E45" s="3">
-        <v>52600</v>
+        <v>29300</v>
       </c>
       <c r="F45" s="3">
-        <v>66200</v>
+        <v>41700</v>
       </c>
       <c r="G45" s="3">
-        <v>62400</v>
+        <v>52500</v>
       </c>
       <c r="H45" s="3">
+        <v>49400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>24700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K45" s="3">
         <v>31200</v>
       </c>
-      <c r="I45" s="3">
-        <v>36700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>31200</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>35400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>51200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>52400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>111400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>116600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4787200</v>
+        <v>4327800</v>
       </c>
       <c r="E46" s="3">
-        <v>4672400</v>
+        <v>3793200</v>
       </c>
       <c r="F46" s="3">
-        <v>4867600</v>
+        <v>3702200</v>
       </c>
       <c r="G46" s="3">
-        <v>4993600</v>
+        <v>3856900</v>
       </c>
       <c r="H46" s="3">
-        <v>5125300</v>
+        <v>3956700</v>
       </c>
       <c r="I46" s="3">
-        <v>4669700</v>
+        <v>4061100</v>
       </c>
       <c r="J46" s="3">
+        <v>3700000</v>
+      </c>
+      <c r="K46" s="3">
         <v>3987600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4612900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4585900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4737400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4132100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4032900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4186700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>486700</v>
+        <v>467700</v>
       </c>
       <c r="E47" s="3">
-        <v>613400</v>
+        <v>385600</v>
       </c>
       <c r="F47" s="3">
-        <v>648200</v>
+        <v>486000</v>
       </c>
       <c r="G47" s="3">
-        <v>442400</v>
+        <v>513600</v>
       </c>
       <c r="H47" s="3">
-        <v>300900</v>
+        <v>350500</v>
       </c>
       <c r="I47" s="3">
-        <v>316500</v>
+        <v>238400</v>
       </c>
       <c r="J47" s="3">
+        <v>250800</v>
+      </c>
+      <c r="K47" s="3">
         <v>309100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>329600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>378500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>380000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>362800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>345300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>426900</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7913600</v>
+        <v>6461400</v>
       </c>
       <c r="E48" s="3">
-        <v>7728200</v>
+        <v>6270400</v>
       </c>
       <c r="F48" s="3">
-        <v>7817500</v>
+        <v>6123400</v>
       </c>
       <c r="G48" s="3">
-        <v>7416600</v>
+        <v>6194200</v>
       </c>
       <c r="H48" s="3">
-        <v>7647000</v>
+        <v>5876500</v>
       </c>
       <c r="I48" s="3">
-        <v>7385300</v>
+        <v>6059100</v>
       </c>
       <c r="J48" s="3">
+        <v>5851700</v>
+      </c>
+      <c r="K48" s="3">
         <v>7088700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7630300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7640900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7806300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7344800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7277900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7403700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>641600</v>
+        <v>511100</v>
       </c>
       <c r="E49" s="3">
-        <v>637000</v>
+        <v>508400</v>
       </c>
       <c r="F49" s="3">
-        <v>637400</v>
+        <v>504700</v>
       </c>
       <c r="G49" s="3">
-        <v>640100</v>
+        <v>505000</v>
       </c>
       <c r="H49" s="3">
-        <v>641800</v>
+        <v>507200</v>
       </c>
       <c r="I49" s="3">
-        <v>639800</v>
+        <v>508500</v>
       </c>
       <c r="J49" s="3">
+        <v>506900</v>
+      </c>
+      <c r="K49" s="3">
         <v>633500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>699300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>704400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>714300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>689900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>696900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>699100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1457900</v>
+        <v>837900</v>
       </c>
       <c r="E52" s="3">
-        <v>1248100</v>
+        <v>1155200</v>
       </c>
       <c r="F52" s="3">
-        <v>376200</v>
+        <v>989000</v>
       </c>
       <c r="G52" s="3">
-        <v>330400</v>
+        <v>298100</v>
       </c>
       <c r="H52" s="3">
-        <v>480900</v>
+        <v>261800</v>
       </c>
       <c r="I52" s="3">
-        <v>569300</v>
+        <v>381100</v>
       </c>
       <c r="J52" s="3">
+        <v>451100</v>
+      </c>
+      <c r="K52" s="3">
         <v>313100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>403600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>326100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>353300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>386600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>503100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>457300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15287100</v>
+        <v>12605900</v>
       </c>
       <c r="E54" s="3">
-        <v>14899200</v>
+        <v>12112800</v>
       </c>
       <c r="F54" s="3">
-        <v>14346800</v>
+        <v>11805400</v>
       </c>
       <c r="G54" s="3">
-        <v>13823000</v>
+        <v>11367700</v>
       </c>
       <c r="H54" s="3">
-        <v>14195900</v>
+        <v>10952700</v>
       </c>
       <c r="I54" s="3">
-        <v>13580600</v>
+        <v>11248200</v>
       </c>
       <c r="J54" s="3">
+        <v>10760600</v>
+      </c>
+      <c r="K54" s="3">
         <v>12332000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13675700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13635900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13991200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12916200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12856000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13173700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2748,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2125000</v>
+        <v>1686900</v>
       </c>
       <c r="E57" s="3">
-        <v>2128500</v>
+        <v>1683700</v>
       </c>
       <c r="F57" s="3">
-        <v>1925800</v>
+        <v>1686500</v>
       </c>
       <c r="G57" s="3">
-        <v>1947800</v>
+        <v>1525900</v>
       </c>
       <c r="H57" s="3">
-        <v>2191200</v>
+        <v>1543400</v>
       </c>
       <c r="I57" s="3">
-        <v>1928400</v>
+        <v>1736200</v>
       </c>
       <c r="J57" s="3">
+        <v>1528000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1323600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1350000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1233400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1348000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1257900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1623700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1777600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3236200</v>
+        <v>414900</v>
       </c>
       <c r="E58" s="3">
-        <v>3030700</v>
+        <v>2564200</v>
       </c>
       <c r="F58" s="3">
-        <v>2644000</v>
+        <v>2401400</v>
       </c>
       <c r="G58" s="3">
-        <v>2631700</v>
+        <v>2095000</v>
       </c>
       <c r="H58" s="3">
-        <v>2821700</v>
+        <v>2085200</v>
       </c>
       <c r="I58" s="3">
-        <v>2831600</v>
+        <v>2235800</v>
       </c>
       <c r="J58" s="3">
+        <v>2243600</v>
+      </c>
+      <c r="K58" s="3">
         <v>2379100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2795400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3374100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3695000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3205900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3233000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>845300</v>
+        <v>898700</v>
       </c>
       <c r="E59" s="3">
-        <v>754200</v>
+        <v>669800</v>
       </c>
       <c r="F59" s="3">
-        <v>682300</v>
+        <v>597600</v>
       </c>
       <c r="G59" s="3">
-        <v>818500</v>
+        <v>540600</v>
       </c>
       <c r="H59" s="3">
-        <v>658800</v>
+        <v>648600</v>
       </c>
       <c r="I59" s="3">
-        <v>629400</v>
+        <v>522000</v>
       </c>
       <c r="J59" s="3">
+        <v>498700</v>
+      </c>
+      <c r="K59" s="3">
         <v>526100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>761100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>719900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>760100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>881200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>858600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>814100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6206500</v>
+        <v>3000500</v>
       </c>
       <c r="E60" s="3">
-        <v>5913400</v>
+        <v>4917700</v>
       </c>
       <c r="F60" s="3">
-        <v>5252000</v>
+        <v>4685500</v>
       </c>
       <c r="G60" s="3">
-        <v>5398100</v>
+        <v>4161400</v>
       </c>
       <c r="H60" s="3">
-        <v>5671800</v>
+        <v>4277200</v>
       </c>
       <c r="I60" s="3">
-        <v>5389400</v>
+        <v>4494000</v>
       </c>
       <c r="J60" s="3">
+        <v>4270300</v>
+      </c>
+      <c r="K60" s="3">
         <v>4228800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4906500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5327400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5803000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5344900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5715300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3323500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6170900</v>
+        <v>7347100</v>
       </c>
       <c r="E61" s="3">
-        <v>5753000</v>
+        <v>4889500</v>
       </c>
       <c r="F61" s="3">
-        <v>6100600</v>
+        <v>4558400</v>
       </c>
       <c r="G61" s="3">
-        <v>5642000</v>
+        <v>4882400</v>
       </c>
       <c r="H61" s="3">
-        <v>5601600</v>
+        <v>4470500</v>
       </c>
       <c r="I61" s="3">
-        <v>5675300</v>
+        <v>4438500</v>
       </c>
       <c r="J61" s="3">
+        <v>4496800</v>
+      </c>
+      <c r="K61" s="3">
         <v>4981500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5685600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4740400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4970200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4871100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5144300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7597500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1460700</v>
+        <v>1528400</v>
       </c>
       <c r="E62" s="3">
-        <v>1466800</v>
+        <v>1157400</v>
       </c>
       <c r="F62" s="3">
-        <v>1314300</v>
+        <v>1162200</v>
       </c>
       <c r="G62" s="3">
-        <v>1402500</v>
+        <v>992800</v>
       </c>
       <c r="H62" s="3">
-        <v>1425300</v>
+        <v>1111300</v>
       </c>
       <c r="I62" s="3">
-        <v>1383700</v>
+        <v>1129300</v>
       </c>
       <c r="J62" s="3">
+        <v>1096400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1408600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1624600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1772800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1746400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1575400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1569400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1162700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13590900</v>
+        <v>11702000</v>
       </c>
       <c r="E66" s="3">
-        <v>12931100</v>
+        <v>10768800</v>
       </c>
       <c r="F66" s="3">
-        <v>12462900</v>
+        <v>10246000</v>
       </c>
       <c r="G66" s="3">
-        <v>12237900</v>
+        <v>9875000</v>
       </c>
       <c r="H66" s="3">
-        <v>12520900</v>
+        <v>9696700</v>
       </c>
       <c r="I66" s="3">
-        <v>12238000</v>
+        <v>9920900</v>
       </c>
       <c r="J66" s="3">
+        <v>9696800</v>
+      </c>
+      <c r="K66" s="3">
         <v>10466600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12004700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11654000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12338600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11595600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12176600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11845300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1179700</v>
+        <v>395500</v>
       </c>
       <c r="E72" s="3">
-        <v>1385400</v>
+        <v>934700</v>
       </c>
       <c r="F72" s="3">
-        <v>1387100</v>
+        <v>1097700</v>
       </c>
       <c r="G72" s="3">
-        <v>1145600</v>
+        <v>1099100</v>
       </c>
       <c r="H72" s="3">
-        <v>1318100</v>
+        <v>907700</v>
       </c>
       <c r="I72" s="3">
-        <v>1002600</v>
+        <v>1044400</v>
       </c>
       <c r="J72" s="3">
+        <v>794400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1223400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1071200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1226800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1020100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>714900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>264700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>914200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1696200</v>
+        <v>903900</v>
       </c>
       <c r="E76" s="3">
-        <v>1968100</v>
+        <v>1344000</v>
       </c>
       <c r="F76" s="3">
-        <v>1883900</v>
+        <v>1559400</v>
       </c>
       <c r="G76" s="3">
-        <v>1585100</v>
+        <v>1492700</v>
       </c>
       <c r="H76" s="3">
-        <v>1675100</v>
+        <v>1255900</v>
       </c>
       <c r="I76" s="3">
-        <v>1342600</v>
+        <v>1327200</v>
       </c>
       <c r="J76" s="3">
+        <v>1063800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1865400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1671000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1981900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1652600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1320600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>679400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1328400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-207300</v>
+        <v>-540600</v>
       </c>
       <c r="E81" s="3">
-        <v>236400</v>
+        <v>-164300</v>
       </c>
       <c r="F81" s="3">
-        <v>216800</v>
+        <v>187300</v>
       </c>
       <c r="G81" s="3">
-        <v>-18300</v>
+        <v>171800</v>
       </c>
       <c r="H81" s="3">
-        <v>313900</v>
+        <v>-14500</v>
       </c>
       <c r="I81" s="3">
-        <v>373800</v>
+        <v>248700</v>
       </c>
       <c r="J81" s="3">
+        <v>296200</v>
+      </c>
+      <c r="K81" s="3">
         <v>246000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>99000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>204900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>279400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>448400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-628000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>204800</v>
+        <v>189500</v>
       </c>
       <c r="E83" s="3">
-        <v>404200</v>
+        <v>162200</v>
       </c>
       <c r="F83" s="3">
-        <v>201200</v>
+        <v>320300</v>
       </c>
       <c r="G83" s="3">
-        <v>173200</v>
+        <v>159400</v>
       </c>
       <c r="H83" s="3">
-        <v>184000</v>
+        <v>137200</v>
       </c>
       <c r="I83" s="3">
-        <v>341100</v>
+        <v>145800</v>
       </c>
       <c r="J83" s="3">
+        <v>270300</v>
+      </c>
+      <c r="K83" s="3">
         <v>172800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>194800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>191000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>185100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>174200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>177700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>187300</v>
+        <v>169700</v>
       </c>
       <c r="E89" s="3">
-        <v>127500</v>
+        <v>148400</v>
       </c>
       <c r="F89" s="3">
-        <v>243900</v>
+        <v>101100</v>
       </c>
       <c r="G89" s="3">
-        <v>235400</v>
+        <v>193200</v>
       </c>
       <c r="H89" s="3">
-        <v>493700</v>
+        <v>186500</v>
       </c>
       <c r="I89" s="3">
-        <v>1431000</v>
+        <v>391200</v>
       </c>
       <c r="J89" s="3">
+        <v>1133900</v>
+      </c>
+      <c r="K89" s="3">
         <v>420500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>341000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>377300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-232900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>141000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>179800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>704800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-147000</v>
+        <v>-165200</v>
       </c>
       <c r="E91" s="3">
-        <v>-270900</v>
+        <v>-116500</v>
       </c>
       <c r="F91" s="3">
-        <v>-106500</v>
+        <v>-214700</v>
       </c>
       <c r="G91" s="3">
-        <v>-210400</v>
+        <v>-84400</v>
       </c>
       <c r="H91" s="3">
-        <v>-154100</v>
+        <v>-166700</v>
       </c>
       <c r="I91" s="3">
-        <v>-267500</v>
+        <v>-122100</v>
       </c>
       <c r="J91" s="3">
+        <v>-211900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-94500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-187200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-198300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-120300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-67700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-418100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-262200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-211300</v>
+        <v>-163200</v>
       </c>
       <c r="E94" s="3">
-        <v>-205400</v>
+        <v>-167500</v>
       </c>
       <c r="F94" s="3">
-        <v>-106500</v>
+        <v>-162800</v>
       </c>
       <c r="G94" s="3">
-        <v>-197300</v>
+        <v>-84400</v>
       </c>
       <c r="H94" s="3">
-        <v>-135500</v>
+        <v>-156400</v>
       </c>
       <c r="I94" s="3">
-        <v>-248300</v>
+        <v>-107300</v>
       </c>
       <c r="J94" s="3">
+        <v>-196700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-94200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-341100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-195500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-68200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-206800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-130100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,19 +4380,20 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-123300</v>
       </c>
       <c r="E96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -4169,17 +4402,17 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-350200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-277500</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-256100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4187,13 +4420,16 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-247800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-31000</v>
+        <v>212500</v>
       </c>
       <c r="E100" s="3">
-        <v>145000</v>
+        <v>-24500</v>
       </c>
       <c r="F100" s="3">
-        <v>-17300</v>
+        <v>114900</v>
       </c>
       <c r="G100" s="3">
-        <v>96200</v>
+        <v>-13700</v>
       </c>
       <c r="H100" s="3">
-        <v>-376000</v>
+        <v>76200</v>
       </c>
       <c r="I100" s="3">
-        <v>-795200</v>
+        <v>-297900</v>
       </c>
       <c r="J100" s="3">
+        <v>-630100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-405100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-416900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-275700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>35200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-105200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-237800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-197800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>37900</v>
+        <v>-17600</v>
       </c>
       <c r="E101" s="3">
-        <v>-10900</v>
+        <v>30000</v>
       </c>
       <c r="F101" s="3">
-        <v>9900</v>
+        <v>-8600</v>
       </c>
       <c r="G101" s="3">
-        <v>19000</v>
+        <v>7800</v>
       </c>
       <c r="H101" s="3">
-        <v>-42700</v>
+        <v>15100</v>
       </c>
       <c r="I101" s="3">
-        <v>-66500</v>
+        <v>-33800</v>
       </c>
       <c r="J101" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-5700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-13000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>27500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-24500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>11300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>14900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-17100</v>
+        <v>201500</v>
       </c>
       <c r="E102" s="3">
-        <v>56200</v>
+        <v>-13600</v>
       </c>
       <c r="F102" s="3">
-        <v>129900</v>
+        <v>44500</v>
       </c>
       <c r="G102" s="3">
-        <v>153300</v>
+        <v>102900</v>
       </c>
       <c r="H102" s="3">
-        <v>-60400</v>
+        <v>121500</v>
       </c>
       <c r="I102" s="3">
-        <v>321000</v>
+        <v>-47900</v>
       </c>
       <c r="J102" s="3">
+        <v>254400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-84500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-430000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-66400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-232200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-21000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-254500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>362100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>BAK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,244 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2338800</v>
+        <v>1996000</v>
       </c>
       <c r="E8" s="3">
-        <v>2473500</v>
+        <v>2252200</v>
       </c>
       <c r="F8" s="3">
-        <v>4869100</v>
+        <v>2255000</v>
       </c>
       <c r="G8" s="3">
-        <v>2401300</v>
+        <v>2384900</v>
       </c>
       <c r="H8" s="3">
-        <v>2745200</v>
+        <v>4694600</v>
       </c>
       <c r="I8" s="3">
+        <v>2315300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2646900</v>
+      </c>
+      <c r="K8" s="3">
         <v>3024900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4961600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3042500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3237700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3118100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3043300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3125700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2988400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2972300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2047300</v>
+        <v>1722500</v>
       </c>
       <c r="E9" s="3">
-        <v>2155800</v>
+        <v>2042900</v>
       </c>
       <c r="F9" s="3">
-        <v>4249000</v>
+        <v>1974000</v>
       </c>
       <c r="G9" s="3">
-        <v>2075400</v>
+        <v>2078600</v>
       </c>
       <c r="H9" s="3">
-        <v>2386300</v>
+        <v>4096700</v>
       </c>
       <c r="I9" s="3">
+        <v>2009400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2300800</v>
+      </c>
+      <c r="K9" s="3">
         <v>2358800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3868600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2411600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2405700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2349100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2319300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2210800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2269000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2174500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>291500</v>
+        <v>273500</v>
       </c>
       <c r="E10" s="3">
-        <v>317700</v>
+        <v>209300</v>
       </c>
       <c r="F10" s="3">
-        <v>620200</v>
+        <v>281000</v>
       </c>
       <c r="G10" s="3">
-        <v>326000</v>
+        <v>306300</v>
       </c>
       <c r="H10" s="3">
-        <v>359000</v>
+        <v>597900</v>
       </c>
       <c r="I10" s="3">
+        <v>305800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>346100</v>
+      </c>
+      <c r="K10" s="3">
         <v>666100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1093000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>630900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>831900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>769000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>724100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>914900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>719400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>797900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10500</v>
+      </c>
+      <c r="H12" s="3">
+        <v>19800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K12" s="3">
+        <v>10700</v>
+      </c>
+      <c r="L12" s="3">
+        <v>17700</v>
+      </c>
+      <c r="M12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="N12" s="3">
         <v>14500</v>
       </c>
-      <c r="E12" s="3">
-        <v>10900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>20500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>12200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>10700</v>
-      </c>
-      <c r="J12" s="3">
-        <v>17700</v>
-      </c>
-      <c r="K12" s="3">
-        <v>9100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>14500</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>10000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>9900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>8400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>10500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,55 +1022,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>652900</v>
+        <v>265000</v>
       </c>
       <c r="E14" s="3">
-        <v>1200</v>
+        <v>-2700</v>
       </c>
       <c r="F14" s="3">
-        <v>53400</v>
-      </c>
-      <c r="G14" s="3">
-        <v>40900</v>
+        <v>629500</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
-        <v>-15400</v>
+        <v>62400</v>
       </c>
       <c r="I14" s="3">
+        <v>58000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-30900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-6500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>15100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>10600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-65200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>26900</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2999900</v>
+        <v>2173600</v>
       </c>
       <c r="E17" s="3">
-        <v>2370200</v>
+        <v>2185000</v>
       </c>
       <c r="F17" s="3">
-        <v>4321800</v>
+        <v>2892500</v>
       </c>
       <c r="G17" s="3">
-        <v>2010000</v>
+        <v>2285200</v>
       </c>
       <c r="H17" s="3">
-        <v>2530000</v>
+        <v>4166900</v>
       </c>
       <c r="I17" s="3">
+        <v>1937900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2439400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2508600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4156600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2595500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2671600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2622900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2450700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2404300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3295900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2402600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-661100</v>
+        <v>-177600</v>
       </c>
       <c r="E18" s="3">
-        <v>103400</v>
+        <v>67200</v>
       </c>
       <c r="F18" s="3">
-        <v>547300</v>
+        <v>-637500</v>
       </c>
       <c r="G18" s="3">
-        <v>391400</v>
+        <v>99700</v>
       </c>
       <c r="H18" s="3">
-        <v>215200</v>
+        <v>527700</v>
       </c>
       <c r="I18" s="3">
+        <v>377300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>207500</v>
+      </c>
+      <c r="K18" s="3">
         <v>516300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>805000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>447000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>566000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>495200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>592600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>721500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-307500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>569700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1277,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-51600</v>
+        <v>-293300</v>
       </c>
       <c r="E20" s="3">
-        <v>-376100</v>
+        <v>-973400</v>
       </c>
       <c r="F20" s="3">
-        <v>-340800</v>
+        <v>-49800</v>
       </c>
       <c r="G20" s="3">
-        <v>-69800</v>
+        <v>-362600</v>
       </c>
       <c r="H20" s="3">
-        <v>-106700</v>
+        <v>-128700</v>
       </c>
       <c r="I20" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-102900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-70400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-297800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-365400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-99500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-26500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>46800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-229800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-283500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-523200</v>
+        <v>-298000</v>
       </c>
       <c r="E21" s="3">
-        <v>-110500</v>
+        <v>-732500</v>
       </c>
       <c r="F21" s="3">
-        <v>526800</v>
+        <v>-504500</v>
       </c>
       <c r="G21" s="3">
-        <v>481000</v>
+        <v>-106500</v>
       </c>
       <c r="H21" s="3">
-        <v>245700</v>
+        <v>707800</v>
       </c>
       <c r="I21" s="3">
+        <v>463800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>236900</v>
+      </c>
+      <c r="K21" s="3">
         <v>591800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>777500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>616300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>395300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>586700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>751200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>942400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-356700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>462600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>109800</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>139100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>142300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>105900</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="H22" s="3">
+        <v>199900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>97400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>91800</v>
+      </c>
+      <c r="K22" s="3">
+        <v>101900</v>
+      </c>
+      <c r="L22" s="3">
+        <v>188500</v>
+      </c>
+      <c r="M22" s="3">
+        <v>110300</v>
+      </c>
+      <c r="N22" s="3">
+        <v>131700</v>
+      </c>
+      <c r="O22" s="3">
+        <v>141600</v>
+      </c>
+      <c r="P22" s="3">
+        <v>147200</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>142400</v>
+      </c>
+      <c r="R22" s="3">
+        <v>159500</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="3">
-        <v>101000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>95300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>101900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>188500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>110300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>131700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>141600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>147200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>142400</v>
-      </c>
-      <c r="P22" s="3">
-        <v>159500</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-822500</v>
+        <v>-610000</v>
       </c>
       <c r="E23" s="3">
-        <v>-272700</v>
+        <v>-1048400</v>
       </c>
       <c r="F23" s="3">
-        <v>206600</v>
+        <v>-793100</v>
       </c>
       <c r="G23" s="3">
-        <v>220600</v>
+        <v>-262900</v>
       </c>
       <c r="H23" s="3">
-        <v>13200</v>
+        <v>199200</v>
       </c>
       <c r="I23" s="3">
+        <v>212700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K23" s="3">
         <v>344000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>318600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>333200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>68800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>254200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>418900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>625800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-696900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>286200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-288700</v>
+        <v>-164700</v>
       </c>
       <c r="E24" s="3">
-        <v>-90200</v>
+        <v>-324300</v>
       </c>
       <c r="F24" s="3">
-        <v>26200</v>
+        <v>-278400</v>
       </c>
       <c r="G24" s="3">
-        <v>50900</v>
+        <v>-87000</v>
       </c>
       <c r="H24" s="3">
-        <v>46300</v>
+        <v>25300</v>
       </c>
       <c r="I24" s="3">
+        <v>49100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K24" s="3">
         <v>77100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>14500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>64500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-11400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>58400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>126000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>153200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-46600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-533800</v>
+        <v>-445400</v>
       </c>
       <c r="E26" s="3">
-        <v>-182500</v>
+        <v>-724100</v>
       </c>
       <c r="F26" s="3">
-        <v>180300</v>
+        <v>-514700</v>
       </c>
       <c r="G26" s="3">
-        <v>169700</v>
+        <v>-176000</v>
       </c>
       <c r="H26" s="3">
-        <v>-33000</v>
+        <v>173900</v>
       </c>
       <c r="I26" s="3">
+        <v>163600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="K26" s="3">
         <v>266800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>304100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>268800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>80200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>195800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>292900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>472700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-650200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>201700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-540600</v>
+        <v>-441700</v>
       </c>
       <c r="E27" s="3">
-        <v>-164300</v>
+        <v>-651000</v>
       </c>
       <c r="F27" s="3">
-        <v>187300</v>
+        <v>-521300</v>
       </c>
       <c r="G27" s="3">
-        <v>171800</v>
+        <v>-158400</v>
       </c>
       <c r="H27" s="3">
-        <v>-14500</v>
+        <v>180600</v>
       </c>
       <c r="I27" s="3">
+        <v>165600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K27" s="3">
         <v>248700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>296200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>246000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>99000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>204900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>279400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>446200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-628800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>219400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,22 +1750,28 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1673,16 +1795,22 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>2200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>51600</v>
+        <v>293300</v>
       </c>
       <c r="E32" s="3">
-        <v>376100</v>
+        <v>973400</v>
       </c>
       <c r="F32" s="3">
-        <v>340800</v>
+        <v>49800</v>
       </c>
       <c r="G32" s="3">
-        <v>69800</v>
+        <v>362600</v>
       </c>
       <c r="H32" s="3">
-        <v>106700</v>
+        <v>128700</v>
       </c>
       <c r="I32" s="3">
+        <v>67300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>102900</v>
+      </c>
+      <c r="K32" s="3">
         <v>70400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>297800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>365400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>99500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>26500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-46800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>229800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>283500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-540600</v>
+        <v>-441700</v>
       </c>
       <c r="E33" s="3">
-        <v>-164300</v>
+        <v>-651000</v>
       </c>
       <c r="F33" s="3">
-        <v>187300</v>
+        <v>-521300</v>
       </c>
       <c r="G33" s="3">
-        <v>171800</v>
+        <v>-158400</v>
       </c>
       <c r="H33" s="3">
-        <v>-14500</v>
+        <v>180600</v>
       </c>
       <c r="I33" s="3">
+        <v>165600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K33" s="3">
         <v>248700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>296200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>246000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>99000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>204900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>279400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>448400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-628000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-540600</v>
+        <v>-441700</v>
       </c>
       <c r="E35" s="3">
-        <v>-164300</v>
+        <v>-651000</v>
       </c>
       <c r="F35" s="3">
-        <v>187300</v>
+        <v>-521300</v>
       </c>
       <c r="G35" s="3">
-        <v>171800</v>
+        <v>-158400</v>
       </c>
       <c r="H35" s="3">
-        <v>-14500</v>
+        <v>180600</v>
       </c>
       <c r="I35" s="3">
+        <v>165600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K35" s="3">
         <v>248700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>296200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>246000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>99000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>204900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>279400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>448400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-628000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,431 +2225,487 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1258900</v>
+        <v>2673300</v>
       </c>
       <c r="E41" s="3">
-        <v>1057500</v>
+        <v>1794000</v>
       </c>
       <c r="F41" s="3">
-        <v>1071000</v>
+        <v>1213800</v>
       </c>
       <c r="G41" s="3">
-        <v>1129400</v>
+        <v>1019600</v>
       </c>
       <c r="H41" s="3">
-        <v>1026500</v>
+        <v>1032600</v>
       </c>
       <c r="I41" s="3">
+        <v>1089000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>989700</v>
+      </c>
+      <c r="K41" s="3">
         <v>905000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>952900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>797100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>967900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1397900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1464300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1641600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1662600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2034300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>312200</v>
+        <v>491100</v>
       </c>
       <c r="E42" s="3">
-        <v>238300</v>
+        <v>408800</v>
       </c>
       <c r="F42" s="3">
-        <v>125700</v>
+        <v>301100</v>
       </c>
       <c r="G42" s="3">
-        <v>318300</v>
+        <v>229800</v>
       </c>
       <c r="H42" s="3">
-        <v>436200</v>
+        <v>121200</v>
       </c>
       <c r="I42" s="3">
+        <v>306900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>420600</v>
+      </c>
+      <c r="K42" s="3">
         <v>385000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>380400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>569800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>590400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>585700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>686500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>250900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>295300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>107400</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1323600</v>
+        <v>1047800</v>
       </c>
       <c r="E43" s="3">
-        <v>1012200</v>
+        <v>981500</v>
       </c>
       <c r="F43" s="3">
-        <v>934000</v>
+        <v>1276100</v>
       </c>
       <c r="G43" s="3">
-        <v>851700</v>
+        <v>975900</v>
       </c>
       <c r="H43" s="3">
-        <v>874200</v>
+        <v>900500</v>
       </c>
       <c r="I43" s="3">
+        <v>821200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>842900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1091300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>836300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1029700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1263800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1077900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1019500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>752400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>658900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>796900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1410900</v>
+        <v>1314700</v>
       </c>
       <c r="E44" s="3">
-        <v>1455900</v>
+        <v>1397600</v>
       </c>
       <c r="F44" s="3">
-        <v>1529800</v>
+        <v>1360300</v>
       </c>
       <c r="G44" s="3">
-        <v>1505000</v>
+        <v>1403700</v>
       </c>
       <c r="H44" s="3">
-        <v>1570300</v>
+        <v>1475000</v>
       </c>
       <c r="I44" s="3">
+        <v>1451100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1514000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1655100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1501300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1559800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1755400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1473200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1514600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1375900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1299400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1209100</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22200</v>
+        <v>72000</v>
       </c>
       <c r="E45" s="3">
-        <v>29300</v>
+        <v>16900</v>
       </c>
       <c r="F45" s="3">
-        <v>41700</v>
+        <v>21400</v>
       </c>
       <c r="G45" s="3">
-        <v>52500</v>
+        <v>28200</v>
       </c>
       <c r="H45" s="3">
-        <v>49400</v>
+        <v>40200</v>
       </c>
       <c r="I45" s="3">
+        <v>50600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>47700</v>
+      </c>
+      <c r="K45" s="3">
         <v>24700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>29100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>31200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>35400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>51200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>52400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>111400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>116600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4327800</v>
+        <v>5599000</v>
       </c>
       <c r="E46" s="3">
-        <v>3793200</v>
+        <v>4598700</v>
       </c>
       <c r="F46" s="3">
-        <v>3702200</v>
+        <v>4172700</v>
       </c>
       <c r="G46" s="3">
-        <v>3856900</v>
+        <v>3657300</v>
       </c>
       <c r="H46" s="3">
-        <v>3956700</v>
+        <v>3569500</v>
       </c>
       <c r="I46" s="3">
+        <v>3718700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3814900</v>
+      </c>
+      <c r="K46" s="3">
         <v>4061100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3700000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3987600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4612900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4585900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4737400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4132100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4032900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4186700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>467700</v>
+        <v>424700</v>
       </c>
       <c r="E47" s="3">
-        <v>385600</v>
+        <v>525600</v>
       </c>
       <c r="F47" s="3">
-        <v>486000</v>
+        <v>451000</v>
       </c>
       <c r="G47" s="3">
-        <v>513600</v>
+        <v>371800</v>
       </c>
       <c r="H47" s="3">
-        <v>350500</v>
+        <v>468600</v>
       </c>
       <c r="I47" s="3">
+        <v>495200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>338000</v>
+      </c>
+      <c r="K47" s="3">
         <v>238400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>250800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>309100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>329600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>378500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>380000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>362800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>345300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>426900</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6461400</v>
+        <v>6776900</v>
       </c>
       <c r="E48" s="3">
-        <v>6270400</v>
+        <v>6618300</v>
       </c>
       <c r="F48" s="3">
-        <v>6123400</v>
+        <v>6229900</v>
       </c>
       <c r="G48" s="3">
-        <v>6194200</v>
+        <v>6045700</v>
       </c>
       <c r="H48" s="3">
-        <v>5876500</v>
+        <v>5904000</v>
       </c>
       <c r="I48" s="3">
+        <v>5972200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5666000</v>
+      </c>
+      <c r="K48" s="3">
         <v>6059100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5851700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>7088700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>7630300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>7640900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>7806300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>7344800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>7277900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>7403700</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>511100</v>
+        <v>496400</v>
       </c>
       <c r="E49" s="3">
-        <v>508400</v>
+        <v>494900</v>
       </c>
       <c r="F49" s="3">
-        <v>504700</v>
+        <v>492800</v>
       </c>
       <c r="G49" s="3">
-        <v>505000</v>
+        <v>490200</v>
       </c>
       <c r="H49" s="3">
-        <v>507200</v>
+        <v>486700</v>
       </c>
       <c r="I49" s="3">
+        <v>486900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>489000</v>
+      </c>
+      <c r="K49" s="3">
         <v>508500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>506900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>633500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>699300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>704400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>714300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>689900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>696900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>699100</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>837900</v>
+        <v>1787700</v>
       </c>
       <c r="E52" s="3">
-        <v>1155200</v>
+        <v>1530800</v>
       </c>
       <c r="F52" s="3">
-        <v>989000</v>
+        <v>807900</v>
       </c>
       <c r="G52" s="3">
-        <v>298100</v>
+        <v>1113800</v>
       </c>
       <c r="H52" s="3">
-        <v>261800</v>
+        <v>953500</v>
       </c>
       <c r="I52" s="3">
+        <v>287400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>252400</v>
+      </c>
+      <c r="K52" s="3">
         <v>381100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>451100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>313100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>403600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>326100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>353300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>386600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>503100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>457300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12605900</v>
+        <v>15084700</v>
       </c>
       <c r="E54" s="3">
-        <v>12112800</v>
+        <v>13768400</v>
       </c>
       <c r="F54" s="3">
-        <v>11805400</v>
+        <v>12154200</v>
       </c>
       <c r="G54" s="3">
-        <v>11367700</v>
+        <v>11678700</v>
       </c>
       <c r="H54" s="3">
-        <v>10952700</v>
+        <v>11382400</v>
       </c>
       <c r="I54" s="3">
+        <v>10960400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>10560200</v>
+      </c>
+      <c r="K54" s="3">
         <v>11248200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10760600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>12332000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>13675700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>13635900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>13991200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>12916200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>12856000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>13173700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +3009,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1686900</v>
+        <v>1528300</v>
       </c>
       <c r="E57" s="3">
-        <v>1683700</v>
+        <v>1760400</v>
       </c>
       <c r="F57" s="3">
-        <v>1686500</v>
+        <v>1626500</v>
       </c>
       <c r="G57" s="3">
-        <v>1525900</v>
+        <v>1623400</v>
       </c>
       <c r="H57" s="3">
-        <v>1543400</v>
+        <v>1626100</v>
       </c>
       <c r="I57" s="3">
+        <v>1471200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1488100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1736200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1528000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1323600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1350000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1233400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1348000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1257900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1623700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1777600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>414900</v>
+        <v>995400</v>
       </c>
       <c r="E58" s="3">
-        <v>2564200</v>
+        <v>711800</v>
       </c>
       <c r="F58" s="3">
-        <v>2401400</v>
+        <v>400000</v>
       </c>
       <c r="G58" s="3">
-        <v>2095000</v>
+        <v>2472300</v>
       </c>
       <c r="H58" s="3">
-        <v>2085200</v>
+        <v>2315400</v>
       </c>
       <c r="I58" s="3">
+        <v>2019900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2010500</v>
+      </c>
+      <c r="K58" s="3">
         <v>2235800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2243600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2379100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2795400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3374100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3695000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3205900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3233000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>898700</v>
+        <v>1314200</v>
       </c>
       <c r="E59" s="3">
-        <v>669800</v>
+        <v>1083500</v>
       </c>
       <c r="F59" s="3">
-        <v>597600</v>
+        <v>866500</v>
       </c>
       <c r="G59" s="3">
-        <v>540600</v>
+        <v>645800</v>
       </c>
       <c r="H59" s="3">
-        <v>648600</v>
+        <v>576100</v>
       </c>
       <c r="I59" s="3">
+        <v>521200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>625300</v>
+      </c>
+      <c r="K59" s="3">
         <v>522000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>498700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>526100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>761100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>719900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>760100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>881200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>858600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>814100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3000500</v>
+        <v>3837900</v>
       </c>
       <c r="E60" s="3">
-        <v>4917700</v>
+        <v>3555800</v>
       </c>
       <c r="F60" s="3">
-        <v>4685500</v>
+        <v>2893000</v>
       </c>
       <c r="G60" s="3">
-        <v>4161400</v>
+        <v>4741500</v>
       </c>
       <c r="H60" s="3">
-        <v>4277200</v>
+        <v>4517600</v>
       </c>
       <c r="I60" s="3">
+        <v>4012300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4123900</v>
+      </c>
+      <c r="K60" s="3">
         <v>4494000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4270300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4228800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4906500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5327400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5803000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5344900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5715300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3323500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7347100</v>
+        <v>10391900</v>
       </c>
       <c r="E61" s="3">
-        <v>4889500</v>
+        <v>9088700</v>
       </c>
       <c r="F61" s="3">
-        <v>4558400</v>
+        <v>7083900</v>
       </c>
       <c r="G61" s="3">
-        <v>4882400</v>
+        <v>4714300</v>
       </c>
       <c r="H61" s="3">
-        <v>4470500</v>
+        <v>4395100</v>
       </c>
       <c r="I61" s="3">
+        <v>4707400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4310300</v>
+      </c>
+      <c r="K61" s="3">
         <v>4438500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4496800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4981500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5685600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4740400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4970200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4871100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5144300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>7597500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1528400</v>
+        <v>1807200</v>
       </c>
       <c r="E62" s="3">
-        <v>1157400</v>
+        <v>1635300</v>
       </c>
       <c r="F62" s="3">
-        <v>1162200</v>
+        <v>1473600</v>
       </c>
       <c r="G62" s="3">
-        <v>992800</v>
+        <v>1115900</v>
       </c>
       <c r="H62" s="3">
-        <v>1111300</v>
+        <v>1120600</v>
       </c>
       <c r="I62" s="3">
+        <v>957200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1071500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1129300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1096400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1408600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1624600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1772800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1746400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1575400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1569400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1162700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11702000</v>
+        <v>15687800</v>
       </c>
       <c r="E66" s="3">
-        <v>10768800</v>
+        <v>13946800</v>
       </c>
       <c r="F66" s="3">
-        <v>10246000</v>
+        <v>11282700</v>
       </c>
       <c r="G66" s="3">
-        <v>9875000</v>
+        <v>10382900</v>
       </c>
       <c r="H66" s="3">
-        <v>9696700</v>
+        <v>9878800</v>
       </c>
       <c r="I66" s="3">
+        <v>9521200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>9349300</v>
+      </c>
+      <c r="K66" s="3">
         <v>9920900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9696800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10466600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12004700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11654000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>12338600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>11595600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>12176600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>11845300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>395500</v>
+        <v>-708900</v>
       </c>
       <c r="E72" s="3">
-        <v>934700</v>
+        <v>-268400</v>
       </c>
       <c r="F72" s="3">
-        <v>1097700</v>
+        <v>381400</v>
       </c>
       <c r="G72" s="3">
-        <v>1099100</v>
+        <v>901200</v>
       </c>
       <c r="H72" s="3">
-        <v>907700</v>
+        <v>1058400</v>
       </c>
       <c r="I72" s="3">
+        <v>1059700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>875200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1044400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>794400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1223400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1071200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1226800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1020100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>714900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>264700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>914200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>903900</v>
+        <v>-603000</v>
       </c>
       <c r="E76" s="3">
-        <v>1344000</v>
+        <v>-178400</v>
       </c>
       <c r="F76" s="3">
-        <v>1559400</v>
+        <v>871500</v>
       </c>
       <c r="G76" s="3">
-        <v>1492700</v>
+        <v>1295900</v>
       </c>
       <c r="H76" s="3">
-        <v>1255900</v>
+        <v>1503500</v>
       </c>
       <c r="I76" s="3">
+        <v>1439200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1210900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1327200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1063800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1865400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1671000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1981900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1652600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1320600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>679400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1328400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-540600</v>
+        <v>-441700</v>
       </c>
       <c r="E81" s="3">
-        <v>-164300</v>
+        <v>-651000</v>
       </c>
       <c r="F81" s="3">
-        <v>187300</v>
+        <v>-521300</v>
       </c>
       <c r="G81" s="3">
-        <v>171800</v>
+        <v>-158400</v>
       </c>
       <c r="H81" s="3">
-        <v>-14500</v>
+        <v>180600</v>
       </c>
       <c r="I81" s="3">
+        <v>165600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K81" s="3">
         <v>248700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>296200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>246000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>99000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>204900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>279400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>448400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-628000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>189500</v>
+        <v>172900</v>
       </c>
       <c r="E83" s="3">
-        <v>162200</v>
+        <v>173700</v>
       </c>
       <c r="F83" s="3">
-        <v>320300</v>
+        <v>182800</v>
       </c>
       <c r="G83" s="3">
-        <v>159400</v>
+        <v>156400</v>
       </c>
       <c r="H83" s="3">
-        <v>137200</v>
+        <v>308800</v>
       </c>
       <c r="I83" s="3">
+        <v>153700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>132300</v>
+      </c>
+      <c r="K83" s="3">
         <v>145800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>270300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>172800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>194800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>191000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>185100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>174200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>177700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>169700</v>
+        <v>-117600</v>
       </c>
       <c r="E89" s="3">
-        <v>148400</v>
+        <v>382000</v>
       </c>
       <c r="F89" s="3">
-        <v>101100</v>
+        <v>163600</v>
       </c>
       <c r="G89" s="3">
-        <v>193200</v>
+        <v>143100</v>
       </c>
       <c r="H89" s="3">
-        <v>186500</v>
+        <v>97400</v>
       </c>
       <c r="I89" s="3">
+        <v>186300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>179800</v>
+      </c>
+      <c r="K89" s="3">
         <v>391200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1133900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>420500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>341000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>377300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-232900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>141000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>179800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>704800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-165200</v>
+        <v>-101600</v>
       </c>
       <c r="E91" s="3">
-        <v>-116500</v>
+        <v>-161500</v>
       </c>
       <c r="F91" s="3">
-        <v>-214700</v>
+        <v>-159300</v>
       </c>
       <c r="G91" s="3">
-        <v>-84400</v>
+        <v>-112300</v>
       </c>
       <c r="H91" s="3">
-        <v>-166700</v>
+        <v>-207000</v>
       </c>
       <c r="I91" s="3">
+        <v>-81400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-160800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-122100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-211900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-94500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-187200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-198300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-120300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-67700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-418100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-262200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-163200</v>
+        <v>-99200</v>
       </c>
       <c r="E94" s="3">
-        <v>-167500</v>
+        <v>-161000</v>
       </c>
       <c r="F94" s="3">
-        <v>-162800</v>
+        <v>-157300</v>
       </c>
       <c r="G94" s="3">
-        <v>-84400</v>
+        <v>-161500</v>
       </c>
       <c r="H94" s="3">
-        <v>-156400</v>
+        <v>-156900</v>
       </c>
       <c r="I94" s="3">
+        <v>-81400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-150800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-107300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-196700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-94200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-341100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-195500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-9900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-68200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-206800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-130100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4847,63 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-123300</v>
+        <v>-400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-500</v>
+        <v>-118900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-277500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-256100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-247800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>212500</v>
+        <v>1019600</v>
       </c>
       <c r="E100" s="3">
-        <v>-24500</v>
+        <v>167000</v>
       </c>
       <c r="F100" s="3">
-        <v>114900</v>
+        <v>204900</v>
       </c>
       <c r="G100" s="3">
-        <v>-13700</v>
+        <v>-23700</v>
       </c>
       <c r="H100" s="3">
-        <v>76200</v>
+        <v>110700</v>
       </c>
       <c r="I100" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>73500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-297900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-630100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-405100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-416900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-275700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>35200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-105200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-237800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-197800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17600</v>
+        <v>76600</v>
       </c>
       <c r="E101" s="3">
-        <v>30000</v>
+        <v>192100</v>
       </c>
       <c r="F101" s="3">
-        <v>-8600</v>
+        <v>-17000</v>
       </c>
       <c r="G101" s="3">
-        <v>7800</v>
+        <v>29000</v>
       </c>
       <c r="H101" s="3">
-        <v>15100</v>
+        <v>-8300</v>
       </c>
       <c r="I101" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-33800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-52700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-5700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-13000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>27500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-24500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>11300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>14900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>201500</v>
+        <v>879400</v>
       </c>
       <c r="E102" s="3">
-        <v>-13600</v>
+        <v>580200</v>
       </c>
       <c r="F102" s="3">
-        <v>44500</v>
+        <v>194200</v>
       </c>
       <c r="G102" s="3">
-        <v>102900</v>
+        <v>-13100</v>
       </c>
       <c r="H102" s="3">
-        <v>121500</v>
+        <v>42900</v>
       </c>
       <c r="I102" s="3">
+        <v>99300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>117100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-47900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>254400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-84500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-430000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-66400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-232200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-21000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-254500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>362100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1996000</v>
+        <v>2992600</v>
       </c>
       <c r="E8" s="3">
-        <v>2252200</v>
+        <v>2093700</v>
       </c>
       <c r="F8" s="3">
-        <v>2255000</v>
+        <v>2362400</v>
       </c>
       <c r="G8" s="3">
-        <v>2384900</v>
+        <v>2365300</v>
       </c>
       <c r="H8" s="3">
-        <v>4694600</v>
+        <v>2501600</v>
       </c>
       <c r="I8" s="3">
-        <v>2315300</v>
+        <v>2495800</v>
       </c>
       <c r="J8" s="3">
+        <v>2428600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2646900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3024900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4961600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3042500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3237700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3118100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3043300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3125700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2988400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2972300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1722500</v>
+        <v>2325400</v>
       </c>
       <c r="E9" s="3">
-        <v>2042900</v>
+        <v>1806800</v>
       </c>
       <c r="F9" s="3">
-        <v>1974000</v>
+        <v>2142900</v>
       </c>
       <c r="G9" s="3">
-        <v>2078600</v>
+        <v>2070500</v>
       </c>
       <c r="H9" s="3">
-        <v>4096700</v>
+        <v>2180300</v>
       </c>
       <c r="I9" s="3">
-        <v>2009400</v>
+        <v>2189400</v>
       </c>
       <c r="J9" s="3">
+        <v>2107800</v>
+      </c>
+      <c r="K9" s="3">
         <v>2300800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2358800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3868600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2411600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2405700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2349100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2319300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2210800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2269000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2174500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>273500</v>
+        <v>667200</v>
       </c>
       <c r="E10" s="3">
-        <v>209300</v>
+        <v>286800</v>
       </c>
       <c r="F10" s="3">
-        <v>281000</v>
+        <v>219600</v>
       </c>
       <c r="G10" s="3">
-        <v>306300</v>
+        <v>294800</v>
       </c>
       <c r="H10" s="3">
-        <v>597900</v>
+        <v>321300</v>
       </c>
       <c r="I10" s="3">
-        <v>305800</v>
+        <v>306400</v>
       </c>
       <c r="J10" s="3">
+        <v>320800</v>
+      </c>
+      <c r="K10" s="3">
         <v>346100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>666100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1093000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>630900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>831900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>769000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>724100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>914900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>719400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>797900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>9600</v>
+        <v>11900</v>
       </c>
       <c r="E12" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>14600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>10500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K12" s="3">
+        <v>11700</v>
+      </c>
+      <c r="L12" s="3">
+        <v>10700</v>
+      </c>
+      <c r="M12" s="3">
+        <v>17700</v>
+      </c>
+      <c r="N12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="O12" s="3">
+        <v>14500</v>
+      </c>
+      <c r="P12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Q12" s="3">
         <v>9900</v>
       </c>
-      <c r="F12" s="3">
-        <v>14000</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="R12" s="3">
+        <v>8400</v>
+      </c>
+      <c r="S12" s="3">
         <v>10500</v>
       </c>
-      <c r="H12" s="3">
-        <v>19800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>9800</v>
-      </c>
-      <c r="J12" s="3">
-        <v>11700</v>
-      </c>
-      <c r="K12" s="3">
-        <v>10700</v>
-      </c>
-      <c r="L12" s="3">
-        <v>17700</v>
-      </c>
-      <c r="M12" s="3">
-        <v>9100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>14500</v>
-      </c>
-      <c r="O12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P12" s="3">
-        <v>9900</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>8400</v>
-      </c>
-      <c r="R12" s="3">
-        <v>10500</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>265000</v>
+        <v>638500</v>
       </c>
       <c r="E14" s="3">
-        <v>-2700</v>
+        <v>278000</v>
       </c>
       <c r="F14" s="3">
-        <v>629500</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>-2800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>660300</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>62400</v>
-      </c>
       <c r="I14" s="3">
-        <v>58000</v>
+        <v>81400</v>
       </c>
       <c r="J14" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K14" s="3">
         <v>-15700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-30900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-6500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-65200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>26900</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2173600</v>
+        <v>3101900</v>
       </c>
       <c r="E17" s="3">
-        <v>2185000</v>
+        <v>2280000</v>
       </c>
       <c r="F17" s="3">
-        <v>2892500</v>
+        <v>2291900</v>
       </c>
       <c r="G17" s="3">
-        <v>2285200</v>
+        <v>3034000</v>
       </c>
       <c r="H17" s="3">
-        <v>4166900</v>
+        <v>2397100</v>
       </c>
       <c r="I17" s="3">
-        <v>1937900</v>
+        <v>2338100</v>
       </c>
       <c r="J17" s="3">
+        <v>2032800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2439400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2508600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4156600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2595500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2671600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2622900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2450700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2404300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3295900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2402600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-177600</v>
+        <v>-109300</v>
       </c>
       <c r="E18" s="3">
-        <v>67200</v>
+        <v>-186300</v>
       </c>
       <c r="F18" s="3">
-        <v>-637500</v>
+        <v>70500</v>
       </c>
       <c r="G18" s="3">
-        <v>99700</v>
+        <v>-668700</v>
       </c>
       <c r="H18" s="3">
-        <v>527700</v>
+        <v>104500</v>
       </c>
       <c r="I18" s="3">
-        <v>377300</v>
+        <v>157700</v>
       </c>
       <c r="J18" s="3">
+        <v>395800</v>
+      </c>
+      <c r="K18" s="3">
         <v>207500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>516300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>805000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>447000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>566000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>495200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>592600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>721500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-307500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>569700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-293300</v>
+        <v>-197200</v>
       </c>
       <c r="E20" s="3">
-        <v>-973400</v>
+        <v>-307600</v>
       </c>
       <c r="F20" s="3">
-        <v>-49800</v>
+        <v>-1021000</v>
       </c>
       <c r="G20" s="3">
-        <v>-362600</v>
+        <v>-52200</v>
       </c>
       <c r="H20" s="3">
-        <v>-128700</v>
+        <v>-380300</v>
       </c>
       <c r="I20" s="3">
-        <v>-67300</v>
+        <v>-64400</v>
       </c>
       <c r="J20" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-102900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-70400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-297800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-365400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-99500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>46800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-229800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-283500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-298000</v>
+        <v>-108400</v>
       </c>
       <c r="E21" s="3">
-        <v>-732500</v>
+        <v>-312500</v>
       </c>
       <c r="F21" s="3">
-        <v>-504500</v>
+        <v>-768300</v>
       </c>
       <c r="G21" s="3">
-        <v>-106500</v>
+        <v>-529100</v>
       </c>
       <c r="H21" s="3">
-        <v>707800</v>
+        <v>-111700</v>
       </c>
       <c r="I21" s="3">
-        <v>463800</v>
+        <v>256000</v>
       </c>
       <c r="J21" s="3">
+        <v>486500</v>
+      </c>
+      <c r="K21" s="3">
         <v>236900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>591800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>777500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>616300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>395300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>586700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>751200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>942400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-356700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>462600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>139100</v>
+        <v>145600</v>
       </c>
       <c r="E22" s="3">
-        <v>142300</v>
+        <v>145900</v>
       </c>
       <c r="F22" s="3">
-        <v>105900</v>
-      </c>
-      <c r="G22" s="3" t="s">
+        <v>149300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>111000</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="3">
-        <v>199900</v>
-      </c>
       <c r="I22" s="3">
-        <v>97400</v>
+        <v>107500</v>
       </c>
       <c r="J22" s="3">
+        <v>102100</v>
+      </c>
+      <c r="K22" s="3">
         <v>91800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>101900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>188500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>110300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>131700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>141600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>147200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>142400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>159500</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-610000</v>
+        <v>-452100</v>
       </c>
       <c r="E23" s="3">
-        <v>-1048400</v>
+        <v>-639900</v>
       </c>
       <c r="F23" s="3">
-        <v>-793100</v>
+        <v>-1099800</v>
       </c>
       <c r="G23" s="3">
-        <v>-262900</v>
+        <v>-831900</v>
       </c>
       <c r="H23" s="3">
-        <v>199200</v>
+        <v>-275800</v>
       </c>
       <c r="I23" s="3">
-        <v>212700</v>
+        <v>-14200</v>
       </c>
       <c r="J23" s="3">
+        <v>223100</v>
+      </c>
+      <c r="K23" s="3">
         <v>12800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>344000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>318600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>333200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>68800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>254200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>418900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>625800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-696900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>286200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-164700</v>
+        <v>-201900</v>
       </c>
       <c r="E24" s="3">
-        <v>-324300</v>
+        <v>-172700</v>
       </c>
       <c r="F24" s="3">
-        <v>-278400</v>
+        <v>-340200</v>
       </c>
       <c r="G24" s="3">
-        <v>-87000</v>
+        <v>-292000</v>
       </c>
       <c r="H24" s="3">
-        <v>25300</v>
+        <v>-91200</v>
       </c>
       <c r="I24" s="3">
-        <v>49100</v>
+        <v>-25000</v>
       </c>
       <c r="J24" s="3">
+        <v>51500</v>
+      </c>
+      <c r="K24" s="3">
         <v>44600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>77100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>64500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-11400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>58400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>126000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>153200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-46600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-445400</v>
+        <v>-250300</v>
       </c>
       <c r="E26" s="3">
-        <v>-724100</v>
+        <v>-467200</v>
       </c>
       <c r="F26" s="3">
-        <v>-514700</v>
+        <v>-759600</v>
       </c>
       <c r="G26" s="3">
-        <v>-176000</v>
+        <v>-539900</v>
       </c>
       <c r="H26" s="3">
-        <v>173900</v>
+        <v>-184600</v>
       </c>
       <c r="I26" s="3">
-        <v>163600</v>
+        <v>10700</v>
       </c>
       <c r="J26" s="3">
+        <v>171600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-31900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>266800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>304100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>268800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>80200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>195800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>292900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>472700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-650200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>201700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-441700</v>
+        <v>-264400</v>
       </c>
       <c r="E27" s="3">
-        <v>-651000</v>
+        <v>-463300</v>
       </c>
       <c r="F27" s="3">
-        <v>-521300</v>
+        <v>-682800</v>
       </c>
       <c r="G27" s="3">
-        <v>-158400</v>
+        <v>-546800</v>
       </c>
       <c r="H27" s="3">
-        <v>180600</v>
+        <v>-166100</v>
       </c>
       <c r="I27" s="3">
-        <v>165600</v>
+        <v>15700</v>
       </c>
       <c r="J27" s="3">
+        <v>173700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-14000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>248700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>296200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>246000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>99000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>204900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>279400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>446200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-628800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>219400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1801,16 +1862,19 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>2200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>293300</v>
+        <v>197200</v>
       </c>
       <c r="E32" s="3">
-        <v>973400</v>
+        <v>307600</v>
       </c>
       <c r="F32" s="3">
-        <v>49800</v>
+        <v>1021000</v>
       </c>
       <c r="G32" s="3">
-        <v>362600</v>
+        <v>52200</v>
       </c>
       <c r="H32" s="3">
-        <v>128700</v>
+        <v>380300</v>
       </c>
       <c r="I32" s="3">
-        <v>67300</v>
+        <v>64400</v>
       </c>
       <c r="J32" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K32" s="3">
         <v>102900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>70400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>297800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>365400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>99500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>26500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-46800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>229800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>283500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-441700</v>
+        <v>-264400</v>
       </c>
       <c r="E33" s="3">
-        <v>-651000</v>
+        <v>-463300</v>
       </c>
       <c r="F33" s="3">
-        <v>-521300</v>
+        <v>-682800</v>
       </c>
       <c r="G33" s="3">
-        <v>-158400</v>
+        <v>-546800</v>
       </c>
       <c r="H33" s="3">
-        <v>180600</v>
+        <v>-166100</v>
       </c>
       <c r="I33" s="3">
-        <v>165600</v>
+        <v>15700</v>
       </c>
       <c r="J33" s="3">
+        <v>173700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-14000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>248700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>296200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>246000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>99000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>204900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>279400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>448400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-628000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-441700</v>
+        <v>-264400</v>
       </c>
       <c r="E35" s="3">
-        <v>-651000</v>
+        <v>-463300</v>
       </c>
       <c r="F35" s="3">
-        <v>-521300</v>
+        <v>-682800</v>
       </c>
       <c r="G35" s="3">
-        <v>-158400</v>
+        <v>-546800</v>
       </c>
       <c r="H35" s="3">
-        <v>180600</v>
+        <v>-166100</v>
       </c>
       <c r="I35" s="3">
-        <v>165600</v>
+        <v>15700</v>
       </c>
       <c r="J35" s="3">
+        <v>173700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-14000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>248700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>296200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>246000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>99000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>204900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>279400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>448400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-628000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2673300</v>
+        <v>2306300</v>
       </c>
       <c r="E41" s="3">
-        <v>1794000</v>
+        <v>2804200</v>
       </c>
       <c r="F41" s="3">
-        <v>1213800</v>
+        <v>1881800</v>
       </c>
       <c r="G41" s="3">
-        <v>1019600</v>
+        <v>1273200</v>
       </c>
       <c r="H41" s="3">
-        <v>1032600</v>
+        <v>1069500</v>
       </c>
       <c r="I41" s="3">
-        <v>1089000</v>
+        <v>1083200</v>
       </c>
       <c r="J41" s="3">
+        <v>1142200</v>
+      </c>
+      <c r="K41" s="3">
         <v>989700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>905000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>952900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>797100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>967900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1397900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1464300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1641600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1662600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2034300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>491100</v>
+        <v>599700</v>
       </c>
       <c r="E42" s="3">
-        <v>408800</v>
+        <v>515100</v>
       </c>
       <c r="F42" s="3">
-        <v>301100</v>
+        <v>428800</v>
       </c>
       <c r="G42" s="3">
-        <v>229800</v>
+        <v>315800</v>
       </c>
       <c r="H42" s="3">
-        <v>121200</v>
+        <v>241000</v>
       </c>
       <c r="I42" s="3">
-        <v>306900</v>
+        <v>127100</v>
       </c>
       <c r="J42" s="3">
+        <v>321900</v>
+      </c>
+      <c r="K42" s="3">
         <v>420600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>385000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>380400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>569800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>590400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>585700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>686500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>250900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>295300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>107400</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1047800</v>
+        <v>1267900</v>
       </c>
       <c r="E43" s="3">
-        <v>981500</v>
+        <v>1099100</v>
       </c>
       <c r="F43" s="3">
-        <v>1276100</v>
+        <v>1029600</v>
       </c>
       <c r="G43" s="3">
-        <v>975900</v>
+        <v>1338600</v>
       </c>
       <c r="H43" s="3">
-        <v>900500</v>
+        <v>1023700</v>
       </c>
       <c r="I43" s="3">
-        <v>821200</v>
+        <v>944600</v>
       </c>
       <c r="J43" s="3">
+        <v>861400</v>
+      </c>
+      <c r="K43" s="3">
         <v>842900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1091300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>836300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1029700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1263800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1077900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1019500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>752400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>658900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>796900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1314700</v>
+        <v>1483900</v>
       </c>
       <c r="E44" s="3">
-        <v>1397600</v>
+        <v>1369900</v>
       </c>
       <c r="F44" s="3">
-        <v>1360300</v>
+        <v>1450200</v>
       </c>
       <c r="G44" s="3">
-        <v>1403700</v>
+        <v>1417100</v>
       </c>
       <c r="H44" s="3">
-        <v>1475000</v>
+        <v>1462900</v>
       </c>
       <c r="I44" s="3">
-        <v>1451100</v>
+        <v>1530800</v>
       </c>
       <c r="J44" s="3">
+        <v>1515400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1514000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1655100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1501300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1559800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1755400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1473200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1514600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1375900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1299400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1209100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>72000</v>
+        <v>106700</v>
       </c>
       <c r="E45" s="3">
-        <v>16900</v>
+        <v>84700</v>
       </c>
       <c r="F45" s="3">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="G45" s="3">
-        <v>28200</v>
+        <v>32200</v>
       </c>
       <c r="H45" s="3">
-        <v>40200</v>
+        <v>39100</v>
       </c>
       <c r="I45" s="3">
-        <v>50600</v>
+        <v>58500</v>
       </c>
       <c r="J45" s="3">
+        <v>59800</v>
+      </c>
+      <c r="K45" s="3">
         <v>47700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>35400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>51200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>52400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>111400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>116600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5599000</v>
+        <v>5764500</v>
       </c>
       <c r="E46" s="3">
-        <v>4598700</v>
+        <v>5873000</v>
       </c>
       <c r="F46" s="3">
-        <v>4172700</v>
+        <v>4823800</v>
       </c>
       <c r="G46" s="3">
-        <v>3657300</v>
+        <v>4376900</v>
       </c>
       <c r="H46" s="3">
-        <v>3569500</v>
+        <v>3836200</v>
       </c>
       <c r="I46" s="3">
-        <v>3718700</v>
+        <v>3744200</v>
       </c>
       <c r="J46" s="3">
+        <v>3900600</v>
+      </c>
+      <c r="K46" s="3">
         <v>3814900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4061100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3700000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3987600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4612900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4585900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4737400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4132100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4032900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4186700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>424700</v>
+        <v>436600</v>
       </c>
       <c r="E47" s="3">
-        <v>525600</v>
+        <v>490900</v>
       </c>
       <c r="F47" s="3">
-        <v>451000</v>
+        <v>596500</v>
       </c>
       <c r="G47" s="3">
-        <v>371800</v>
+        <v>517900</v>
       </c>
       <c r="H47" s="3">
-        <v>468600</v>
+        <v>440100</v>
       </c>
       <c r="I47" s="3">
-        <v>495200</v>
+        <v>535300</v>
       </c>
       <c r="J47" s="3">
+        <v>562700</v>
+      </c>
+      <c r="K47" s="3">
         <v>338000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>238400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>250800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>309100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>329600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>378500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>380000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>362800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>345300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>426900</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6776900</v>
+        <v>7313900</v>
       </c>
       <c r="E48" s="3">
-        <v>6618300</v>
+        <v>7108500</v>
       </c>
       <c r="F48" s="3">
-        <v>6229900</v>
+        <v>6942200</v>
       </c>
       <c r="G48" s="3">
-        <v>6045700</v>
+        <v>6534700</v>
       </c>
       <c r="H48" s="3">
-        <v>5904000</v>
+        <v>6341500</v>
       </c>
       <c r="I48" s="3">
-        <v>5972200</v>
+        <v>6192900</v>
       </c>
       <c r="J48" s="3">
+        <v>6264500</v>
+      </c>
+      <c r="K48" s="3">
         <v>5666000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6059100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5851700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7088700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7630300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7640900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7806300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7344800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7277900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7403700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>496400</v>
+        <v>525900</v>
       </c>
       <c r="E49" s="3">
-        <v>494900</v>
+        <v>520700</v>
       </c>
       <c r="F49" s="3">
-        <v>492800</v>
+        <v>519100</v>
       </c>
       <c r="G49" s="3">
-        <v>490200</v>
+        <v>516900</v>
       </c>
       <c r="H49" s="3">
-        <v>486700</v>
+        <v>514200</v>
       </c>
       <c r="I49" s="3">
-        <v>486900</v>
+        <v>510500</v>
       </c>
       <c r="J49" s="3">
+        <v>510800</v>
+      </c>
+      <c r="K49" s="3">
         <v>489000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>508500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>506900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>633500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>699300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>704400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>714300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>689900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>696900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>699100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1787700</v>
+        <v>2080100</v>
       </c>
       <c r="E52" s="3">
-        <v>1530800</v>
+        <v>1829800</v>
       </c>
       <c r="F52" s="3">
-        <v>807900</v>
+        <v>1560500</v>
       </c>
       <c r="G52" s="3">
-        <v>1113800</v>
+        <v>802600</v>
       </c>
       <c r="H52" s="3">
-        <v>953500</v>
+        <v>1118200</v>
       </c>
       <c r="I52" s="3">
-        <v>287400</v>
+        <v>956400</v>
       </c>
       <c r="J52" s="3">
+        <v>258100</v>
+      </c>
+      <c r="K52" s="3">
         <v>252400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>381100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>451100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>313100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>403600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>326100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>353300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>386600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>503100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>457300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15084700</v>
+        <v>16121000</v>
       </c>
       <c r="E54" s="3">
-        <v>13768400</v>
+        <v>15822900</v>
       </c>
       <c r="F54" s="3">
-        <v>12154200</v>
+        <v>14442100</v>
       </c>
       <c r="G54" s="3">
-        <v>11678700</v>
+        <v>12749000</v>
       </c>
       <c r="H54" s="3">
-        <v>11382400</v>
+        <v>12250200</v>
       </c>
       <c r="I54" s="3">
-        <v>10960400</v>
+        <v>11939400</v>
       </c>
       <c r="J54" s="3">
+        <v>11496800</v>
+      </c>
+      <c r="K54" s="3">
         <v>10560200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11248200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10760600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12332000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13675700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13635900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13991200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12916200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12856000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13173700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1528300</v>
+        <v>1659500</v>
       </c>
       <c r="E57" s="3">
-        <v>1760400</v>
+        <v>1603100</v>
       </c>
       <c r="F57" s="3">
-        <v>1626500</v>
+        <v>1846600</v>
       </c>
       <c r="G57" s="3">
-        <v>1623400</v>
+        <v>1706100</v>
       </c>
       <c r="H57" s="3">
-        <v>1626100</v>
+        <v>1702900</v>
       </c>
       <c r="I57" s="3">
-        <v>1471200</v>
+        <v>1705700</v>
       </c>
       <c r="J57" s="3">
+        <v>1543200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1488100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1736200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1528000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1323600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1350000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1233400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1348000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1257900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1623700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1777600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>995400</v>
+        <v>645800</v>
       </c>
       <c r="E58" s="3">
-        <v>711800</v>
+        <v>1044100</v>
       </c>
       <c r="F58" s="3">
-        <v>400000</v>
+        <v>746700</v>
       </c>
       <c r="G58" s="3">
-        <v>2472300</v>
+        <v>419600</v>
       </c>
       <c r="H58" s="3">
-        <v>2315400</v>
+        <v>2593300</v>
       </c>
       <c r="I58" s="3">
-        <v>2019900</v>
+        <v>2428700</v>
       </c>
       <c r="J58" s="3">
+        <v>2118700</v>
+      </c>
+      <c r="K58" s="3">
         <v>2010500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2235800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2243600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2379100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2795400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3374100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3695000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3205900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3233000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1314200</v>
+        <v>1598700</v>
       </c>
       <c r="E59" s="3">
-        <v>1083500</v>
+        <v>1378500</v>
       </c>
       <c r="F59" s="3">
-        <v>866500</v>
+        <v>1136500</v>
       </c>
       <c r="G59" s="3">
-        <v>645800</v>
+        <v>908900</v>
       </c>
       <c r="H59" s="3">
-        <v>576100</v>
+        <v>677400</v>
       </c>
       <c r="I59" s="3">
-        <v>521200</v>
+        <v>604300</v>
       </c>
       <c r="J59" s="3">
+        <v>546700</v>
+      </c>
+      <c r="K59" s="3">
         <v>625300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>522000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>498700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>526100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>761100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>719900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>760100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>881200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>858600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>814100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3837900</v>
+        <v>3904100</v>
       </c>
       <c r="E60" s="3">
-        <v>3555800</v>
+        <v>4025800</v>
       </c>
       <c r="F60" s="3">
-        <v>2893000</v>
+        <v>3729800</v>
       </c>
       <c r="G60" s="3">
-        <v>4741500</v>
+        <v>3034500</v>
       </c>
       <c r="H60" s="3">
-        <v>4517600</v>
+        <v>4973500</v>
       </c>
       <c r="I60" s="3">
-        <v>4012300</v>
+        <v>4738700</v>
       </c>
       <c r="J60" s="3">
+        <v>4208600</v>
+      </c>
+      <c r="K60" s="3">
         <v>4123900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4494000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4270300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4228800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4906500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5327400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5803000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5344900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5715300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3323500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10391900</v>
+        <v>11050900</v>
       </c>
       <c r="E61" s="3">
-        <v>9088700</v>
+        <v>10900500</v>
       </c>
       <c r="F61" s="3">
-        <v>7083900</v>
+        <v>9533500</v>
       </c>
       <c r="G61" s="3">
-        <v>4714300</v>
+        <v>7430500</v>
       </c>
       <c r="H61" s="3">
-        <v>4395100</v>
+        <v>4945000</v>
       </c>
       <c r="I61" s="3">
-        <v>4707400</v>
+        <v>4610200</v>
       </c>
       <c r="J61" s="3">
+        <v>4937800</v>
+      </c>
+      <c r="K61" s="3">
         <v>4310300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4438500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4496800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4981500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5685600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4740400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4970200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4871100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5144300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7597500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1807200</v>
+        <v>2366000</v>
       </c>
       <c r="E62" s="3">
-        <v>1635300</v>
+        <v>1895600</v>
       </c>
       <c r="F62" s="3">
-        <v>1473600</v>
+        <v>1715400</v>
       </c>
       <c r="G62" s="3">
-        <v>1115900</v>
+        <v>1545700</v>
       </c>
       <c r="H62" s="3">
-        <v>1120600</v>
+        <v>1170600</v>
       </c>
       <c r="I62" s="3">
-        <v>957200</v>
+        <v>1175400</v>
       </c>
       <c r="J62" s="3">
+        <v>1004100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1071500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1129300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1096400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1408600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1624600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1772800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1746400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1575400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1569400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1162700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15687800</v>
+        <v>16956500</v>
       </c>
       <c r="E66" s="3">
-        <v>13946800</v>
+        <v>16455400</v>
       </c>
       <c r="F66" s="3">
-        <v>11282700</v>
+        <v>14629300</v>
       </c>
       <c r="G66" s="3">
-        <v>10382900</v>
+        <v>11834800</v>
       </c>
       <c r="H66" s="3">
-        <v>9878800</v>
+        <v>10891000</v>
       </c>
       <c r="I66" s="3">
-        <v>9521200</v>
+        <v>10362200</v>
       </c>
       <c r="J66" s="3">
+        <v>9987100</v>
+      </c>
+      <c r="K66" s="3">
         <v>9349300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9920900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9696800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10466600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12004700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11654000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12338600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11595600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12176600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11845300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-708900</v>
+        <v>-1006800</v>
       </c>
       <c r="E72" s="3">
-        <v>-268400</v>
+        <v>-743600</v>
       </c>
       <c r="F72" s="3">
-        <v>381400</v>
+        <v>-281500</v>
       </c>
       <c r="G72" s="3">
-        <v>901200</v>
+        <v>400000</v>
       </c>
       <c r="H72" s="3">
-        <v>1058400</v>
+        <v>945300</v>
       </c>
       <c r="I72" s="3">
-        <v>1059700</v>
+        <v>1110200</v>
       </c>
       <c r="J72" s="3">
+        <v>1111600</v>
+      </c>
+      <c r="K72" s="3">
         <v>875200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1044400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>794400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1223400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1071200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1226800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1020100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>714900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>264700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>914200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-603000</v>
+        <v>-835500</v>
       </c>
       <c r="E76" s="3">
-        <v>-178400</v>
+        <v>-632500</v>
       </c>
       <c r="F76" s="3">
-        <v>871500</v>
+        <v>-187200</v>
       </c>
       <c r="G76" s="3">
-        <v>1295900</v>
+        <v>914200</v>
       </c>
       <c r="H76" s="3">
-        <v>1503500</v>
+        <v>1359300</v>
       </c>
       <c r="I76" s="3">
-        <v>1439200</v>
+        <v>1577100</v>
       </c>
       <c r="J76" s="3">
+        <v>1509600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1210900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1327200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1063800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1865400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1671000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1981900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1652600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1320600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>679400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1328400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-441700</v>
+        <v>-264400</v>
       </c>
       <c r="E81" s="3">
-        <v>-651000</v>
+        <v>-463300</v>
       </c>
       <c r="F81" s="3">
-        <v>-521300</v>
+        <v>-682800</v>
       </c>
       <c r="G81" s="3">
-        <v>-158400</v>
+        <v>-546800</v>
       </c>
       <c r="H81" s="3">
-        <v>180600</v>
+        <v>-166100</v>
       </c>
       <c r="I81" s="3">
-        <v>165600</v>
+        <v>15700</v>
       </c>
       <c r="J81" s="3">
+        <v>173700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-14000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>248700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>296200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>246000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>99000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>204900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>279400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>448400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-628000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>172900</v>
+        <v>198100</v>
       </c>
       <c r="E83" s="3">
-        <v>173700</v>
+        <v>181400</v>
       </c>
       <c r="F83" s="3">
-        <v>182800</v>
+        <v>182200</v>
       </c>
       <c r="G83" s="3">
-        <v>156400</v>
+        <v>191700</v>
       </c>
       <c r="H83" s="3">
-        <v>308800</v>
+        <v>164100</v>
       </c>
       <c r="I83" s="3">
-        <v>153700</v>
+        <v>162700</v>
       </c>
       <c r="J83" s="3">
+        <v>161300</v>
+      </c>
+      <c r="K83" s="3">
         <v>132300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>145800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>270300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>172800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>194800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>191000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>185100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>174200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>177700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-117600</v>
+        <v>181700</v>
       </c>
       <c r="E89" s="3">
-        <v>382000</v>
+        <v>-123400</v>
       </c>
       <c r="F89" s="3">
-        <v>163600</v>
+        <v>400700</v>
       </c>
       <c r="G89" s="3">
-        <v>143100</v>
+        <v>171600</v>
       </c>
       <c r="H89" s="3">
-        <v>97400</v>
+        <v>150100</v>
       </c>
       <c r="I89" s="3">
-        <v>186300</v>
+        <v>-93200</v>
       </c>
       <c r="J89" s="3">
+        <v>195400</v>
+      </c>
+      <c r="K89" s="3">
         <v>179800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>391200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1133900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>420500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>341000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>377300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-232900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>141000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>179800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>704800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-101600</v>
+        <v>-85300</v>
       </c>
       <c r="E91" s="3">
-        <v>-161500</v>
+        <v>-106600</v>
       </c>
       <c r="F91" s="3">
-        <v>-159300</v>
+        <v>-169400</v>
       </c>
       <c r="G91" s="3">
-        <v>-112300</v>
+        <v>-167100</v>
       </c>
       <c r="H91" s="3">
-        <v>-207000</v>
+        <v>-117800</v>
       </c>
       <c r="I91" s="3">
-        <v>-81400</v>
+        <v>-131800</v>
       </c>
       <c r="J91" s="3">
+        <v>-85300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-160800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-122100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-211900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-94500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-187200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-198300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-120300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-67700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-418100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-262200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-99200</v>
+        <v>-85300</v>
       </c>
       <c r="E94" s="3">
-        <v>-161000</v>
+        <v>-104100</v>
       </c>
       <c r="F94" s="3">
-        <v>-157300</v>
+        <v>-168800</v>
       </c>
       <c r="G94" s="3">
-        <v>-161500</v>
+        <v>-165000</v>
       </c>
       <c r="H94" s="3">
-        <v>-156900</v>
+        <v>-169400</v>
       </c>
       <c r="I94" s="3">
-        <v>-81400</v>
+        <v>-79300</v>
       </c>
       <c r="J94" s="3">
+        <v>-85300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-150800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-107300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-196700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-94200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-341100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-195500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-68200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-206800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-130100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,28 +5082,29 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-400</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
-        <v>-118900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-124700</v>
       </c>
       <c r="H96" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4879,17 +5113,17 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-277500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-256100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -4897,13 +5131,16 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-247800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1019600</v>
+        <v>-620900</v>
       </c>
       <c r="E100" s="3">
-        <v>167000</v>
+        <v>1069500</v>
       </c>
       <c r="F100" s="3">
-        <v>204900</v>
+        <v>175200</v>
       </c>
       <c r="G100" s="3">
-        <v>-23700</v>
+        <v>215000</v>
       </c>
       <c r="H100" s="3">
-        <v>110700</v>
+        <v>-24800</v>
       </c>
       <c r="I100" s="3">
-        <v>-13200</v>
+        <v>130000</v>
       </c>
       <c r="J100" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="K100" s="3">
         <v>73500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-297900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-630100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-405100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-416900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-275700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>35200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-105200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-237800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-197800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>76600</v>
+        <v>26500</v>
       </c>
       <c r="E101" s="3">
-        <v>192100</v>
+        <v>80300</v>
       </c>
       <c r="F101" s="3">
-        <v>-17000</v>
+        <v>201500</v>
       </c>
       <c r="G101" s="3">
-        <v>29000</v>
+        <v>-17800</v>
       </c>
       <c r="H101" s="3">
-        <v>-8300</v>
+        <v>30400</v>
       </c>
       <c r="I101" s="3">
-        <v>7500</v>
+        <v>-16600</v>
       </c>
       <c r="J101" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K101" s="3">
         <v>14500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-33800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-52700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-13000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>27500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>14900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>879400</v>
+        <v>-497900</v>
       </c>
       <c r="E102" s="3">
-        <v>580200</v>
+        <v>922400</v>
       </c>
       <c r="F102" s="3">
-        <v>194200</v>
+        <v>608500</v>
       </c>
       <c r="G102" s="3">
-        <v>-13100</v>
+        <v>203700</v>
       </c>
       <c r="H102" s="3">
-        <v>42900</v>
+        <v>-13700</v>
       </c>
       <c r="I102" s="3">
-        <v>99300</v>
+        <v>-59100</v>
       </c>
       <c r="J102" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K102" s="3">
         <v>117100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-47900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>254400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-84500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-430000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-66400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-232200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-21000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-254500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>362100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2992600</v>
+        <v>3318000</v>
       </c>
       <c r="E8" s="3">
-        <v>2093700</v>
+        <v>2831700</v>
       </c>
       <c r="F8" s="3">
-        <v>2362400</v>
+        <v>1981100</v>
       </c>
       <c r="G8" s="3">
-        <v>2365300</v>
+        <v>2235400</v>
       </c>
       <c r="H8" s="3">
-        <v>2501600</v>
+        <v>2238200</v>
       </c>
       <c r="I8" s="3">
-        <v>2495800</v>
+        <v>2367100</v>
       </c>
       <c r="J8" s="3">
+        <v>2361600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2428600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2646900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3024900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4961600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3042500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3237700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3118100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3043300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3125700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2988400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2972300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2325400</v>
+        <v>2443200</v>
       </c>
       <c r="E9" s="3">
-        <v>1806800</v>
+        <v>2200400</v>
       </c>
       <c r="F9" s="3">
-        <v>2142900</v>
+        <v>1709700</v>
       </c>
       <c r="G9" s="3">
-        <v>2070500</v>
+        <v>2027700</v>
       </c>
       <c r="H9" s="3">
-        <v>2180300</v>
+        <v>1959200</v>
       </c>
       <c r="I9" s="3">
-        <v>2189400</v>
+        <v>2063100</v>
       </c>
       <c r="J9" s="3">
+        <v>2071700</v>
+      </c>
+      <c r="K9" s="3">
         <v>2107800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2300800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2358800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3868600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2411600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2405700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2349100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2319300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2210800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2269000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2174500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>667200</v>
+        <v>874800</v>
       </c>
       <c r="E10" s="3">
-        <v>286800</v>
+        <v>631400</v>
       </c>
       <c r="F10" s="3">
-        <v>219600</v>
+        <v>271400</v>
       </c>
       <c r="G10" s="3">
-        <v>294800</v>
+        <v>207800</v>
       </c>
       <c r="H10" s="3">
-        <v>321300</v>
+        <v>278900</v>
       </c>
       <c r="I10" s="3">
-        <v>306400</v>
+        <v>304000</v>
       </c>
       <c r="J10" s="3">
+        <v>289900</v>
+      </c>
+      <c r="K10" s="3">
         <v>320800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>346100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>666100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1093000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>630900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>831900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>769000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>724100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>914900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>719400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>797900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11900</v>
+        <v>13800</v>
       </c>
       <c r="E12" s="3">
-        <v>10100</v>
+        <v>11200</v>
       </c>
       <c r="F12" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I12" s="3">
         <v>10400</v>
       </c>
-      <c r="G12" s="3">
-        <v>14600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K12" s="3">
+        <v>10300</v>
+      </c>
+      <c r="L12" s="3">
+        <v>11700</v>
+      </c>
+      <c r="M12" s="3">
+        <v>10700</v>
+      </c>
+      <c r="N12" s="3">
+        <v>17700</v>
+      </c>
+      <c r="O12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="P12" s="3">
+        <v>14500</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="R12" s="3">
+        <v>9900</v>
+      </c>
+      <c r="S12" s="3">
+        <v>8400</v>
+      </c>
+      <c r="T12" s="3">
         <v>10500</v>
       </c>
-      <c r="J12" s="3">
-        <v>10300</v>
-      </c>
-      <c r="K12" s="3">
-        <v>11700</v>
-      </c>
-      <c r="L12" s="3">
-        <v>10700</v>
-      </c>
-      <c r="M12" s="3">
-        <v>17700</v>
-      </c>
-      <c r="N12" s="3">
-        <v>9100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>14500</v>
-      </c>
-      <c r="P12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>9900</v>
-      </c>
-      <c r="R12" s="3">
-        <v>8400</v>
-      </c>
-      <c r="S12" s="3">
-        <v>10500</v>
-      </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,64 +1064,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>638500</v>
+        <v>359000</v>
       </c>
       <c r="E14" s="3">
-        <v>278000</v>
+        <v>604200</v>
       </c>
       <c r="F14" s="3">
-        <v>-2800</v>
+        <v>263000</v>
       </c>
       <c r="G14" s="3">
-        <v>660300</v>
-      </c>
-      <c r="H14" s="3" t="s">
+        <v>-2700</v>
+      </c>
+      <c r="H14" s="3">
+        <v>624800</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>81400</v>
-      </c>
       <c r="J14" s="3">
+        <v>77000</v>
+      </c>
+      <c r="K14" s="3">
         <v>60800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-15700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-30900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-6500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-65200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>26900</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3101900</v>
+        <v>3117700</v>
       </c>
       <c r="E17" s="3">
-        <v>2280000</v>
+        <v>2935200</v>
       </c>
       <c r="F17" s="3">
-        <v>2291900</v>
+        <v>2157400</v>
       </c>
       <c r="G17" s="3">
-        <v>3034000</v>
+        <v>2168700</v>
       </c>
       <c r="H17" s="3">
-        <v>2397100</v>
+        <v>2870900</v>
       </c>
       <c r="I17" s="3">
-        <v>2338100</v>
+        <v>2268200</v>
       </c>
       <c r="J17" s="3">
+        <v>2212400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2032800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2439400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2508600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4156600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2595500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2671600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2622900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2450700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2404300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3295900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2402600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-109300</v>
+        <v>200300</v>
       </c>
       <c r="E18" s="3">
-        <v>-186300</v>
+        <v>-103500</v>
       </c>
       <c r="F18" s="3">
-        <v>70500</v>
+        <v>-176300</v>
       </c>
       <c r="G18" s="3">
-        <v>-668700</v>
+        <v>66700</v>
       </c>
       <c r="H18" s="3">
-        <v>104500</v>
+        <v>-632700</v>
       </c>
       <c r="I18" s="3">
-        <v>157700</v>
+        <v>98900</v>
       </c>
       <c r="J18" s="3">
+        <v>149300</v>
+      </c>
+      <c r="K18" s="3">
         <v>395800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>207500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>516300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>805000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>447000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>566000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>495200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>592600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>721500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-307500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>569700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-197200</v>
+        <v>289500</v>
       </c>
       <c r="E20" s="3">
-        <v>-307600</v>
+        <v>-186600</v>
       </c>
       <c r="F20" s="3">
-        <v>-1021000</v>
+        <v>-291100</v>
       </c>
       <c r="G20" s="3">
-        <v>-52200</v>
+        <v>-966100</v>
       </c>
       <c r="H20" s="3">
-        <v>-380300</v>
+        <v>-49400</v>
       </c>
       <c r="I20" s="3">
-        <v>-64400</v>
+        <v>-359900</v>
       </c>
       <c r="J20" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-70600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-102900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-70400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-297800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-365400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-99500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-26500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>46800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-229800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-283500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-108400</v>
+        <v>675100</v>
       </c>
       <c r="E21" s="3">
-        <v>-312500</v>
+        <v>-102600</v>
       </c>
       <c r="F21" s="3">
-        <v>-768300</v>
+        <v>-295700</v>
       </c>
       <c r="G21" s="3">
-        <v>-529100</v>
+        <v>-727000</v>
       </c>
       <c r="H21" s="3">
-        <v>-111700</v>
+        <v>-500700</v>
       </c>
       <c r="I21" s="3">
-        <v>256000</v>
+        <v>-105700</v>
       </c>
       <c r="J21" s="3">
+        <v>242200</v>
+      </c>
+      <c r="K21" s="3">
         <v>486500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>236900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>591800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>777500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>616300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>395300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>586700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>751200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>942400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-356700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>462600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>145600</v>
+        <v>130500</v>
       </c>
       <c r="E22" s="3">
-        <v>145900</v>
+        <v>137800</v>
       </c>
       <c r="F22" s="3">
-        <v>149300</v>
+        <v>138100</v>
       </c>
       <c r="G22" s="3">
-        <v>111000</v>
-      </c>
-      <c r="H22" s="3" t="s">
+        <v>141300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>105100</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="3">
-        <v>107500</v>
-      </c>
       <c r="J22" s="3">
+        <v>101700</v>
+      </c>
+      <c r="K22" s="3">
         <v>102100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>91800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>101900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>188500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>110300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>131700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>141600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>147200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>142400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>159500</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-452100</v>
+        <v>359200</v>
       </c>
       <c r="E23" s="3">
-        <v>-639900</v>
+        <v>-427800</v>
       </c>
       <c r="F23" s="3">
-        <v>-1099800</v>
+        <v>-605500</v>
       </c>
       <c r="G23" s="3">
-        <v>-831900</v>
+        <v>-1040600</v>
       </c>
       <c r="H23" s="3">
-        <v>-275800</v>
+        <v>-787200</v>
       </c>
       <c r="I23" s="3">
-        <v>-14200</v>
+        <v>-261000</v>
       </c>
       <c r="J23" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K23" s="3">
         <v>223100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>344000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>318600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>333200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>68800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>254200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>418900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>625800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-696900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>286200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-201900</v>
+        <v>203900</v>
       </c>
       <c r="E24" s="3">
-        <v>-172700</v>
+        <v>-191000</v>
       </c>
       <c r="F24" s="3">
-        <v>-340200</v>
+        <v>-163400</v>
       </c>
       <c r="G24" s="3">
-        <v>-292000</v>
+        <v>-321900</v>
       </c>
       <c r="H24" s="3">
-        <v>-91200</v>
+        <v>-276300</v>
       </c>
       <c r="I24" s="3">
-        <v>-25000</v>
+        <v>-86300</v>
       </c>
       <c r="J24" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="K24" s="3">
         <v>51500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>44600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>77100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>64500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-11400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>58400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>126000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>153200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-46600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-250300</v>
+        <v>155400</v>
       </c>
       <c r="E26" s="3">
-        <v>-467200</v>
+        <v>-236800</v>
       </c>
       <c r="F26" s="3">
-        <v>-759600</v>
+        <v>-442100</v>
       </c>
       <c r="G26" s="3">
-        <v>-539900</v>
+        <v>-718700</v>
       </c>
       <c r="H26" s="3">
-        <v>-184600</v>
+        <v>-510900</v>
       </c>
       <c r="I26" s="3">
-        <v>10700</v>
+        <v>-174700</v>
       </c>
       <c r="J26" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K26" s="3">
         <v>171600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-31900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>266800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>304100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>268800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>80200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>195800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>292900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>472700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-650200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>201700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-264400</v>
+        <v>149800</v>
       </c>
       <c r="E27" s="3">
-        <v>-463300</v>
+        <v>-250200</v>
       </c>
       <c r="F27" s="3">
-        <v>-682800</v>
+        <v>-438400</v>
       </c>
       <c r="G27" s="3">
-        <v>-546800</v>
+        <v>-646100</v>
       </c>
       <c r="H27" s="3">
-        <v>-166100</v>
+        <v>-517400</v>
       </c>
       <c r="I27" s="3">
-        <v>15700</v>
+        <v>-157200</v>
       </c>
       <c r="J27" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K27" s="3">
         <v>173700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>248700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>296200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>246000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>99000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>204900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>279400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>446200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-628800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>219400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1865,16 +1925,19 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>2200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>197200</v>
+        <v>-289500</v>
       </c>
       <c r="E32" s="3">
-        <v>307600</v>
+        <v>186600</v>
       </c>
       <c r="F32" s="3">
-        <v>1021000</v>
+        <v>291100</v>
       </c>
       <c r="G32" s="3">
-        <v>52200</v>
+        <v>966100</v>
       </c>
       <c r="H32" s="3">
-        <v>380300</v>
+        <v>49400</v>
       </c>
       <c r="I32" s="3">
-        <v>64400</v>
+        <v>359900</v>
       </c>
       <c r="J32" s="3">
+        <v>61000</v>
+      </c>
+      <c r="K32" s="3">
         <v>70600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>102900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>70400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>297800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>365400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>99500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>26500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-46800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>229800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>283500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-264400</v>
+        <v>149800</v>
       </c>
       <c r="E33" s="3">
-        <v>-463300</v>
+        <v>-250200</v>
       </c>
       <c r="F33" s="3">
-        <v>-682800</v>
+        <v>-438400</v>
       </c>
       <c r="G33" s="3">
-        <v>-546800</v>
+        <v>-646100</v>
       </c>
       <c r="H33" s="3">
-        <v>-166100</v>
+        <v>-517400</v>
       </c>
       <c r="I33" s="3">
-        <v>15700</v>
+        <v>-157200</v>
       </c>
       <c r="J33" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K33" s="3">
         <v>173700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>248700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>296200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>246000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>99000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>204900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>279400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>448400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-628000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-264400</v>
+        <v>149800</v>
       </c>
       <c r="E35" s="3">
-        <v>-463300</v>
+        <v>-250200</v>
       </c>
       <c r="F35" s="3">
-        <v>-682800</v>
+        <v>-438400</v>
       </c>
       <c r="G35" s="3">
-        <v>-546800</v>
+        <v>-646100</v>
       </c>
       <c r="H35" s="3">
-        <v>-166100</v>
+        <v>-517400</v>
       </c>
       <c r="I35" s="3">
-        <v>15700</v>
+        <v>-157200</v>
       </c>
       <c r="J35" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K35" s="3">
         <v>173700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>248700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>296200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>246000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>99000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>204900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>279400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>448400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-628000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2399,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2306300</v>
+        <v>2454700</v>
       </c>
       <c r="E41" s="3">
-        <v>2804200</v>
+        <v>2182300</v>
       </c>
       <c r="F41" s="3">
-        <v>1881800</v>
+        <v>2653400</v>
       </c>
       <c r="G41" s="3">
-        <v>1273200</v>
+        <v>1780600</v>
       </c>
       <c r="H41" s="3">
-        <v>1069500</v>
+        <v>1204800</v>
       </c>
       <c r="I41" s="3">
-        <v>1083200</v>
+        <v>1012000</v>
       </c>
       <c r="J41" s="3">
+        <v>1024900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1142200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>989700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>905000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>952900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>797100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>967900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1397900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1464300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1641600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1662600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2034300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>599700</v>
+        <v>642300</v>
       </c>
       <c r="E42" s="3">
-        <v>515100</v>
+        <v>567500</v>
       </c>
       <c r="F42" s="3">
-        <v>428800</v>
+        <v>487400</v>
       </c>
       <c r="G42" s="3">
-        <v>315800</v>
+        <v>405800</v>
       </c>
       <c r="H42" s="3">
-        <v>241000</v>
+        <v>298800</v>
       </c>
       <c r="I42" s="3">
-        <v>127100</v>
+        <v>228100</v>
       </c>
       <c r="J42" s="3">
+        <v>120300</v>
+      </c>
+      <c r="K42" s="3">
         <v>321900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>420600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>385000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>380400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>569800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>590400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>585700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>686500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>250900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>295300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>107400</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1267900</v>
+        <v>1405600</v>
       </c>
       <c r="E43" s="3">
-        <v>1099100</v>
+        <v>1199700</v>
       </c>
       <c r="F43" s="3">
-        <v>1029600</v>
+        <v>1040000</v>
       </c>
       <c r="G43" s="3">
-        <v>1338600</v>
+        <v>974200</v>
       </c>
       <c r="H43" s="3">
-        <v>1023700</v>
+        <v>1266600</v>
       </c>
       <c r="I43" s="3">
-        <v>944600</v>
+        <v>968700</v>
       </c>
       <c r="J43" s="3">
+        <v>893800</v>
+      </c>
+      <c r="K43" s="3">
         <v>861400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>842900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1091300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>836300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1029700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1263800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1077900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1019500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>752400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>658900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>796900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1483900</v>
+        <v>1484500</v>
       </c>
       <c r="E44" s="3">
-        <v>1369900</v>
+        <v>1428100</v>
       </c>
       <c r="F44" s="3">
-        <v>1450200</v>
+        <v>1304900</v>
       </c>
       <c r="G44" s="3">
-        <v>1417100</v>
+        <v>1387200</v>
       </c>
       <c r="H44" s="3">
-        <v>1462900</v>
+        <v>1350200</v>
       </c>
       <c r="I44" s="3">
-        <v>1530800</v>
+        <v>1393300</v>
       </c>
       <c r="J44" s="3">
+        <v>1464000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1515400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1514000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1655100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1501300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1559800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1755400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1473200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1514600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1375900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1299400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1209100</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>106700</v>
+        <v>67000</v>
       </c>
       <c r="E45" s="3">
-        <v>84700</v>
+        <v>77000</v>
       </c>
       <c r="F45" s="3">
-        <v>33500</v>
+        <v>71500</v>
       </c>
       <c r="G45" s="3">
-        <v>32200</v>
+        <v>16700</v>
       </c>
       <c r="H45" s="3">
-        <v>39100</v>
+        <v>21200</v>
       </c>
       <c r="I45" s="3">
-        <v>58500</v>
+        <v>28000</v>
       </c>
       <c r="J45" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K45" s="3">
         <v>59800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>47700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>29100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>31200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>35400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>51200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>52400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>111400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>116600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5764500</v>
+        <v>6054100</v>
       </c>
       <c r="E46" s="3">
-        <v>5873000</v>
+        <v>5454600</v>
       </c>
       <c r="F46" s="3">
-        <v>4823800</v>
+        <v>5557300</v>
       </c>
       <c r="G46" s="3">
-        <v>4376900</v>
+        <v>4564500</v>
       </c>
       <c r="H46" s="3">
-        <v>3836200</v>
+        <v>4141600</v>
       </c>
       <c r="I46" s="3">
-        <v>3744200</v>
+        <v>3630000</v>
       </c>
       <c r="J46" s="3">
+        <v>3542900</v>
+      </c>
+      <c r="K46" s="3">
         <v>3900600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3814900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4061100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3700000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3987600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4612900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4585900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4737400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4132100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4032900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4186700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>436600</v>
+        <v>257500</v>
       </c>
       <c r="E47" s="3">
-        <v>490900</v>
+        <v>413100</v>
       </c>
       <c r="F47" s="3">
-        <v>596500</v>
+        <v>464500</v>
       </c>
       <c r="G47" s="3">
-        <v>517900</v>
+        <v>564400</v>
       </c>
       <c r="H47" s="3">
-        <v>440100</v>
+        <v>490100</v>
       </c>
       <c r="I47" s="3">
-        <v>535300</v>
+        <v>416400</v>
       </c>
       <c r="J47" s="3">
+        <v>506500</v>
+      </c>
+      <c r="K47" s="3">
         <v>562700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>338000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>238400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>250800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>309100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>329600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>378500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>380000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>362800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>345300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>426900</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7313900</v>
+        <v>6875900</v>
       </c>
       <c r="E48" s="3">
-        <v>7108500</v>
+        <v>6920700</v>
       </c>
       <c r="F48" s="3">
-        <v>6942200</v>
+        <v>6726400</v>
       </c>
       <c r="G48" s="3">
-        <v>6534700</v>
+        <v>6569000</v>
       </c>
       <c r="H48" s="3">
-        <v>6341500</v>
+        <v>6183400</v>
       </c>
       <c r="I48" s="3">
-        <v>6192900</v>
+        <v>6000600</v>
       </c>
       <c r="J48" s="3">
+        <v>5860000</v>
+      </c>
+      <c r="K48" s="3">
         <v>6264500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5666000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6059100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5851700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7088700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7630300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7640900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7806300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7344800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7277900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7403700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>525900</v>
+        <v>500900</v>
       </c>
       <c r="E49" s="3">
-        <v>520700</v>
+        <v>497600</v>
       </c>
       <c r="F49" s="3">
-        <v>519100</v>
+        <v>492700</v>
       </c>
       <c r="G49" s="3">
-        <v>516900</v>
+        <v>491200</v>
       </c>
       <c r="H49" s="3">
-        <v>514200</v>
+        <v>489100</v>
       </c>
       <c r="I49" s="3">
-        <v>510500</v>
+        <v>486500</v>
       </c>
       <c r="J49" s="3">
+        <v>483000</v>
+      </c>
+      <c r="K49" s="3">
         <v>510800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>489000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>508500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>506900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>633500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>699300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>704400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>714300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>689900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>696900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>699100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2080100</v>
+        <v>1554500</v>
       </c>
       <c r="E52" s="3">
-        <v>1829800</v>
+        <v>1968300</v>
       </c>
       <c r="F52" s="3">
-        <v>1560500</v>
+        <v>1731400</v>
       </c>
       <c r="G52" s="3">
-        <v>802600</v>
+        <v>1476600</v>
       </c>
       <c r="H52" s="3">
-        <v>1118200</v>
+        <v>759400</v>
       </c>
       <c r="I52" s="3">
-        <v>956400</v>
+        <v>1058100</v>
       </c>
       <c r="J52" s="3">
+        <v>905000</v>
+      </c>
+      <c r="K52" s="3">
         <v>258100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>252400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>381100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>451100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>313100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>403600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>326100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>353300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>386600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>503100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>457300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16121000</v>
+        <v>15242900</v>
       </c>
       <c r="E54" s="3">
-        <v>15822900</v>
+        <v>15254400</v>
       </c>
       <c r="F54" s="3">
-        <v>14442100</v>
+        <v>14972300</v>
       </c>
       <c r="G54" s="3">
-        <v>12749000</v>
+        <v>13665700</v>
       </c>
       <c r="H54" s="3">
-        <v>12250200</v>
+        <v>12063600</v>
       </c>
       <c r="I54" s="3">
-        <v>11939400</v>
+        <v>11591700</v>
       </c>
       <c r="J54" s="3">
+        <v>11297500</v>
+      </c>
+      <c r="K54" s="3">
         <v>11496800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10560200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11248200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10760600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12332000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13675700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13635900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13991200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12916200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12856000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13173700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1659500</v>
+        <v>1761200</v>
       </c>
       <c r="E57" s="3">
-        <v>1603100</v>
+        <v>1570300</v>
       </c>
       <c r="F57" s="3">
-        <v>1846600</v>
+        <v>1516900</v>
       </c>
       <c r="G57" s="3">
-        <v>1706100</v>
+        <v>1747300</v>
       </c>
       <c r="H57" s="3">
-        <v>1702900</v>
+        <v>1614300</v>
       </c>
       <c r="I57" s="3">
-        <v>1705700</v>
+        <v>1611300</v>
       </c>
       <c r="J57" s="3">
+        <v>1614000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1543200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1488100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1736200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1528000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1323600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1350000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1233400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1348000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1257900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1623700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1777600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>645800</v>
+        <v>1758100</v>
       </c>
       <c r="E58" s="3">
-        <v>1044100</v>
+        <v>611100</v>
       </c>
       <c r="F58" s="3">
-        <v>746700</v>
+        <v>988000</v>
       </c>
       <c r="G58" s="3">
-        <v>419600</v>
+        <v>706500</v>
       </c>
       <c r="H58" s="3">
-        <v>2593300</v>
+        <v>397000</v>
       </c>
       <c r="I58" s="3">
-        <v>2428700</v>
+        <v>2453900</v>
       </c>
       <c r="J58" s="3">
+        <v>2298100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2118700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2010500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2235800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2243600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2379100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2795400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3374100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3695000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3205900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3233000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1598700</v>
+        <v>1507300</v>
       </c>
       <c r="E59" s="3">
-        <v>1378500</v>
+        <v>1512800</v>
       </c>
       <c r="F59" s="3">
-        <v>1136500</v>
+        <v>1304400</v>
       </c>
       <c r="G59" s="3">
-        <v>908900</v>
+        <v>1075400</v>
       </c>
       <c r="H59" s="3">
-        <v>677400</v>
+        <v>860000</v>
       </c>
       <c r="I59" s="3">
-        <v>604300</v>
+        <v>640900</v>
       </c>
       <c r="J59" s="3">
+        <v>571900</v>
+      </c>
+      <c r="K59" s="3">
         <v>546700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>625300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>522000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>498700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>526100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>761100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>719900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>760100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>881200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>858600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>814100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3904100</v>
+        <v>5026500</v>
       </c>
       <c r="E60" s="3">
-        <v>4025800</v>
+        <v>3694200</v>
       </c>
       <c r="F60" s="3">
-        <v>3729800</v>
+        <v>3809300</v>
       </c>
       <c r="G60" s="3">
-        <v>3034500</v>
+        <v>3529300</v>
       </c>
       <c r="H60" s="3">
-        <v>4973500</v>
+        <v>2871400</v>
       </c>
       <c r="I60" s="3">
-        <v>4738700</v>
+        <v>4706100</v>
       </c>
       <c r="J60" s="3">
+        <v>4483900</v>
+      </c>
+      <c r="K60" s="3">
         <v>4208600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4123900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4494000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4270300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4228800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4906500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5327400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5803000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5344900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5715300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3323500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11050900</v>
+        <v>8376600</v>
       </c>
       <c r="E61" s="3">
-        <v>10900500</v>
+        <v>10456800</v>
       </c>
       <c r="F61" s="3">
-        <v>9533500</v>
+        <v>10314500</v>
       </c>
       <c r="G61" s="3">
-        <v>7430500</v>
+        <v>9021000</v>
       </c>
       <c r="H61" s="3">
-        <v>4945000</v>
+        <v>7031100</v>
       </c>
       <c r="I61" s="3">
-        <v>4610200</v>
+        <v>4679200</v>
       </c>
       <c r="J61" s="3">
+        <v>4362300</v>
+      </c>
+      <c r="K61" s="3">
         <v>4937800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4310300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4438500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4496800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4981500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5685600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4740400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4970200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4871100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5144300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7597500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2366000</v>
+        <v>2524400</v>
       </c>
       <c r="E62" s="3">
-        <v>1895600</v>
+        <v>2238800</v>
       </c>
       <c r="F62" s="3">
-        <v>1715400</v>
+        <v>1793700</v>
       </c>
       <c r="G62" s="3">
-        <v>1545700</v>
+        <v>1623100</v>
       </c>
       <c r="H62" s="3">
-        <v>1170600</v>
+        <v>1462700</v>
       </c>
       <c r="I62" s="3">
-        <v>1175400</v>
+        <v>1107600</v>
       </c>
       <c r="J62" s="3">
+        <v>1112200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1004100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1071500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1129300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1096400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1408600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1624600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1772800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1746400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1575400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1569400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1162700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16956500</v>
+        <v>15632800</v>
       </c>
       <c r="E66" s="3">
-        <v>16455400</v>
+        <v>16044900</v>
       </c>
       <c r="F66" s="3">
-        <v>14629300</v>
+        <v>15570800</v>
       </c>
       <c r="G66" s="3">
-        <v>11834800</v>
+        <v>13842800</v>
       </c>
       <c r="H66" s="3">
-        <v>10891000</v>
+        <v>11198600</v>
       </c>
       <c r="I66" s="3">
-        <v>10362200</v>
+        <v>10305500</v>
       </c>
       <c r="J66" s="3">
+        <v>9805200</v>
+      </c>
+      <c r="K66" s="3">
         <v>9987100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9349300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9920900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9696800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10466600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12004700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11654000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12338600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11595600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12176600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11845300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1006800</v>
+        <v>-802000</v>
       </c>
       <c r="E72" s="3">
-        <v>-743600</v>
+        <v>-952700</v>
       </c>
       <c r="F72" s="3">
-        <v>-281500</v>
+        <v>-703600</v>
       </c>
       <c r="G72" s="3">
-        <v>400000</v>
+        <v>-266400</v>
       </c>
       <c r="H72" s="3">
-        <v>945300</v>
+        <v>378500</v>
       </c>
       <c r="I72" s="3">
-        <v>1110200</v>
+        <v>894500</v>
       </c>
       <c r="J72" s="3">
+        <v>1050500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1111600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>875200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1044400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>794400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1223400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1071200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1226800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1020100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>714900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>264700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>914200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-835500</v>
+        <v>-390000</v>
       </c>
       <c r="E76" s="3">
-        <v>-632500</v>
+        <v>-790600</v>
       </c>
       <c r="F76" s="3">
-        <v>-187200</v>
+        <v>-598500</v>
       </c>
       <c r="G76" s="3">
-        <v>914200</v>
+        <v>-177100</v>
       </c>
       <c r="H76" s="3">
-        <v>1359300</v>
+        <v>865000</v>
       </c>
       <c r="I76" s="3">
-        <v>1577100</v>
+        <v>1286200</v>
       </c>
       <c r="J76" s="3">
+        <v>1492300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1509600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1210900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1327200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1063800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1865400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1671000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1981900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1652600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1320600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>679400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1328400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-264400</v>
+        <v>149800</v>
       </c>
       <c r="E81" s="3">
-        <v>-463300</v>
+        <v>-250200</v>
       </c>
       <c r="F81" s="3">
-        <v>-682800</v>
+        <v>-438400</v>
       </c>
       <c r="G81" s="3">
-        <v>-546800</v>
+        <v>-646100</v>
       </c>
       <c r="H81" s="3">
-        <v>-166100</v>
+        <v>-517400</v>
       </c>
       <c r="I81" s="3">
-        <v>15700</v>
+        <v>-157200</v>
       </c>
       <c r="J81" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K81" s="3">
         <v>173700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>248700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>296200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>246000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>99000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>204900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>279400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>448400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-628000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>198100</v>
+        <v>185300</v>
       </c>
       <c r="E83" s="3">
+        <v>187500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>171600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>172400</v>
+      </c>
+      <c r="H83" s="3">
         <v>181400</v>
       </c>
-      <c r="F83" s="3">
-        <v>182200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>191700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>164100</v>
-      </c>
       <c r="I83" s="3">
-        <v>162700</v>
+        <v>155300</v>
       </c>
       <c r="J83" s="3">
+        <v>153900</v>
+      </c>
+      <c r="K83" s="3">
         <v>161300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>132300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>145800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>270300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>172800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>194800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>191000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>185100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>174200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>177700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>181700</v>
+        <v>679900</v>
       </c>
       <c r="E89" s="3">
-        <v>-123400</v>
+        <v>172000</v>
       </c>
       <c r="F89" s="3">
-        <v>400700</v>
+        <v>-116700</v>
       </c>
       <c r="G89" s="3">
-        <v>171600</v>
+        <v>379200</v>
       </c>
       <c r="H89" s="3">
-        <v>150100</v>
+        <v>162400</v>
       </c>
       <c r="I89" s="3">
-        <v>-93200</v>
+        <v>142000</v>
       </c>
       <c r="J89" s="3">
+        <v>-88200</v>
+      </c>
+      <c r="K89" s="3">
         <v>195400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>179800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>391200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1133900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>420500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>341000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>377300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-232900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>141000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>179800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>704800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-146800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-80700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-100900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-160300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-158100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-111500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-124700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-85300</v>
       </c>
-      <c r="E91" s="3">
-        <v>-106600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-169400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-167100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-117800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-131800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-85300</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-160800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-122100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-211900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-94500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-187200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-198300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-120300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-67700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-418100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-262200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-80700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-98500</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-159800</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-156100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-160200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-85300</v>
       </c>
-      <c r="E94" s="3">
-        <v>-104100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-168800</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-165000</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-169400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-79300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-85300</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-150800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-107300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-196700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-94200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-341100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-195500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-68200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-206800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-130100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5092,22 +5325,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-400</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
-        <v>-124700</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-118000</v>
       </c>
       <c r="I96" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -5116,17 +5349,17 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-277500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-256100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5134,13 +5367,16 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-247800</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-620900</v>
+        <v>-205400</v>
       </c>
       <c r="E100" s="3">
-        <v>1069500</v>
+        <v>-587500</v>
       </c>
       <c r="F100" s="3">
-        <v>175200</v>
+        <v>1012000</v>
       </c>
       <c r="G100" s="3">
-        <v>215000</v>
+        <v>165700</v>
       </c>
       <c r="H100" s="3">
-        <v>-24800</v>
+        <v>203400</v>
       </c>
       <c r="I100" s="3">
-        <v>130000</v>
+        <v>-23500</v>
       </c>
       <c r="J100" s="3">
+        <v>123000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-13900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>73500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-297900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-630100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-405100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-416900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-275700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>35200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-105200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-237800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-197800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>26500</v>
+        <v>-59000</v>
       </c>
       <c r="E101" s="3">
-        <v>80300</v>
+        <v>25100</v>
       </c>
       <c r="F101" s="3">
-        <v>201500</v>
+        <v>76000</v>
       </c>
       <c r="G101" s="3">
-        <v>-17800</v>
+        <v>190700</v>
       </c>
       <c r="H101" s="3">
-        <v>30400</v>
+        <v>-16900</v>
       </c>
       <c r="I101" s="3">
-        <v>-16600</v>
+        <v>28700</v>
       </c>
       <c r="J101" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="K101" s="3">
         <v>7900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>14500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-33800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-52700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-13000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>27500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-24500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>14900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-497900</v>
+        <v>272400</v>
       </c>
       <c r="E102" s="3">
-        <v>922400</v>
+        <v>-471100</v>
       </c>
       <c r="F102" s="3">
-        <v>608500</v>
+        <v>872800</v>
       </c>
       <c r="G102" s="3">
-        <v>203700</v>
+        <v>575800</v>
       </c>
       <c r="H102" s="3">
-        <v>-13700</v>
+        <v>192800</v>
       </c>
       <c r="I102" s="3">
-        <v>-59100</v>
+        <v>-13000</v>
       </c>
       <c r="J102" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="K102" s="3">
         <v>104100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>117100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-47900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>254400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-84500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-430000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-66400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-232200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-21000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-254500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>362100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3318000</v>
+        <v>4256600</v>
       </c>
       <c r="E8" s="3">
-        <v>2831700</v>
+        <v>3514900</v>
       </c>
       <c r="F8" s="3">
-        <v>1981100</v>
+        <v>2999800</v>
       </c>
       <c r="G8" s="3">
-        <v>2235400</v>
+        <v>2098700</v>
       </c>
       <c r="H8" s="3">
-        <v>2238200</v>
+        <v>2368100</v>
       </c>
       <c r="I8" s="3">
-        <v>2367100</v>
+        <v>2371000</v>
       </c>
       <c r="J8" s="3">
+        <v>2507600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2361600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2428600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2646900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3024900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4961600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3042500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3237700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3118100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3043300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3125700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2988400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2972300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2443200</v>
+        <v>2898900</v>
       </c>
       <c r="E9" s="3">
-        <v>2200400</v>
+        <v>2588200</v>
       </c>
       <c r="F9" s="3">
-        <v>1709700</v>
+        <v>2331000</v>
       </c>
       <c r="G9" s="3">
-        <v>2027700</v>
+        <v>1811200</v>
       </c>
       <c r="H9" s="3">
-        <v>1959200</v>
+        <v>2148000</v>
       </c>
       <c r="I9" s="3">
-        <v>2063100</v>
+        <v>2075500</v>
       </c>
       <c r="J9" s="3">
+        <v>2185500</v>
+      </c>
+      <c r="K9" s="3">
         <v>2071700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2107800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2300800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2358800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3868600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2411600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2405700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2349100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2319300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2210800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2269000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2174500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>874800</v>
+        <v>1357700</v>
       </c>
       <c r="E10" s="3">
-        <v>631400</v>
+        <v>926700</v>
       </c>
       <c r="F10" s="3">
-        <v>271400</v>
+        <v>668800</v>
       </c>
       <c r="G10" s="3">
-        <v>207800</v>
+        <v>287500</v>
       </c>
       <c r="H10" s="3">
-        <v>278900</v>
+        <v>220100</v>
       </c>
       <c r="I10" s="3">
-        <v>304000</v>
+        <v>295500</v>
       </c>
       <c r="J10" s="3">
+        <v>322100</v>
+      </c>
+      <c r="K10" s="3">
         <v>289900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>320800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>346100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>666100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1093000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>630900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>831900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>769000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>724100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>914900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>719400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>797900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>13800</v>
+        <v>11700</v>
       </c>
       <c r="E12" s="3">
-        <v>11200</v>
+        <v>14600</v>
       </c>
       <c r="F12" s="3">
-        <v>9600</v>
+        <v>11900</v>
       </c>
       <c r="G12" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="H12" s="3">
-        <v>13800</v>
+        <v>10400</v>
       </c>
       <c r="I12" s="3">
-        <v>10400</v>
+        <v>14700</v>
       </c>
       <c r="J12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K12" s="3">
         <v>9900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>17700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,67 +1084,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>359000</v>
+        <v>-12500</v>
       </c>
       <c r="E14" s="3">
-        <v>604200</v>
+        <v>380300</v>
       </c>
       <c r="F14" s="3">
-        <v>263000</v>
+        <v>640100</v>
       </c>
       <c r="G14" s="3">
-        <v>-2700</v>
+        <v>278700</v>
       </c>
       <c r="H14" s="3">
-        <v>624800</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>-2800</v>
+      </c>
+      <c r="I14" s="3">
+        <v>661900</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>77000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>60800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-15700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-30900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-6500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>15100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-65200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>26900</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3117700</v>
+        <v>2992300</v>
       </c>
       <c r="E17" s="3">
-        <v>2935200</v>
+        <v>3302800</v>
       </c>
       <c r="F17" s="3">
-        <v>2157400</v>
+        <v>3109400</v>
       </c>
       <c r="G17" s="3">
-        <v>2168700</v>
+        <v>2285500</v>
       </c>
       <c r="H17" s="3">
-        <v>2870900</v>
+        <v>2297400</v>
       </c>
       <c r="I17" s="3">
-        <v>2268200</v>
+        <v>3041300</v>
       </c>
       <c r="J17" s="3">
+        <v>2402800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2212400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2032800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2439400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2508600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4156600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2595500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2671600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2622900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2450700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2404300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3295900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2402600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>200300</v>
+        <v>1264300</v>
       </c>
       <c r="E18" s="3">
-        <v>-103500</v>
+        <v>212200</v>
       </c>
       <c r="F18" s="3">
-        <v>-176300</v>
+        <v>-109600</v>
       </c>
       <c r="G18" s="3">
-        <v>66700</v>
+        <v>-186800</v>
       </c>
       <c r="H18" s="3">
-        <v>-632700</v>
+        <v>70700</v>
       </c>
       <c r="I18" s="3">
-        <v>98900</v>
+        <v>-670300</v>
       </c>
       <c r="J18" s="3">
+        <v>104800</v>
+      </c>
+      <c r="K18" s="3">
         <v>149300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>395800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>207500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>516300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>805000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>447000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>566000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>495200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>592600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>721500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-307500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>569700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>289500</v>
+        <v>-484700</v>
       </c>
       <c r="E20" s="3">
-        <v>-186600</v>
+        <v>306700</v>
       </c>
       <c r="F20" s="3">
-        <v>-291100</v>
+        <v>-197600</v>
       </c>
       <c r="G20" s="3">
-        <v>-966100</v>
+        <v>-308400</v>
       </c>
       <c r="H20" s="3">
-        <v>-49400</v>
+        <v>-1023500</v>
       </c>
       <c r="I20" s="3">
-        <v>-359900</v>
+        <v>-52300</v>
       </c>
       <c r="J20" s="3">
+        <v>-381300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-61000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-70600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-102900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-70400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-297800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-365400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-99500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-26500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>46800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-229800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-283500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>675100</v>
+        <v>954300</v>
       </c>
       <c r="E21" s="3">
-        <v>-102600</v>
+        <v>715100</v>
       </c>
       <c r="F21" s="3">
-        <v>-295700</v>
+        <v>-108600</v>
       </c>
       <c r="G21" s="3">
-        <v>-727000</v>
+        <v>-313300</v>
       </c>
       <c r="H21" s="3">
-        <v>-500700</v>
+        <v>-770200</v>
       </c>
       <c r="I21" s="3">
-        <v>-105700</v>
+        <v>-530400</v>
       </c>
       <c r="J21" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="K21" s="3">
         <v>242200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>486500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>236900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>591800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>777500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>616300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>395300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>586700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>751200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>942400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-356700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>462600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>130500</v>
+        <v>164900</v>
       </c>
       <c r="E22" s="3">
-        <v>137800</v>
+        <v>138300</v>
       </c>
       <c r="F22" s="3">
-        <v>138100</v>
+        <v>146000</v>
       </c>
       <c r="G22" s="3">
-        <v>141300</v>
+        <v>146300</v>
       </c>
       <c r="H22" s="3">
-        <v>105100</v>
-      </c>
-      <c r="I22" s="3" t="s">
+        <v>149600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>111300</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>101700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>102100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>91800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>101900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>188500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>110300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>131700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>141600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>147200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>142400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>159500</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>359200</v>
+        <v>614600</v>
       </c>
       <c r="E23" s="3">
-        <v>-427800</v>
+        <v>380600</v>
       </c>
       <c r="F23" s="3">
-        <v>-605500</v>
+        <v>-453200</v>
       </c>
       <c r="G23" s="3">
-        <v>-1040600</v>
+        <v>-641400</v>
       </c>
       <c r="H23" s="3">
-        <v>-787200</v>
+        <v>-1102400</v>
       </c>
       <c r="I23" s="3">
-        <v>-261000</v>
+        <v>-833900</v>
       </c>
       <c r="J23" s="3">
+        <v>-276500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-13400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>223100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>344000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>318600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>333200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>68800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>254200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>418900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>625800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-696900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>286200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>203900</v>
+        <v>161800</v>
       </c>
       <c r="E24" s="3">
-        <v>-191000</v>
+        <v>216000</v>
       </c>
       <c r="F24" s="3">
-        <v>-163400</v>
+        <v>-202400</v>
       </c>
       <c r="G24" s="3">
-        <v>-321900</v>
+        <v>-173100</v>
       </c>
       <c r="H24" s="3">
-        <v>-276300</v>
+        <v>-341000</v>
       </c>
       <c r="I24" s="3">
-        <v>-86300</v>
+        <v>-292700</v>
       </c>
       <c r="J24" s="3">
+        <v>-91400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-23600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>51500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>44600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>77100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>64500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>58400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>126000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>153200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-46600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>155400</v>
+        <v>452800</v>
       </c>
       <c r="E26" s="3">
-        <v>-236800</v>
+        <v>164600</v>
       </c>
       <c r="F26" s="3">
-        <v>-442100</v>
+        <v>-250900</v>
       </c>
       <c r="G26" s="3">
-        <v>-718700</v>
+        <v>-468300</v>
       </c>
       <c r="H26" s="3">
-        <v>-510900</v>
+        <v>-761400</v>
       </c>
       <c r="I26" s="3">
-        <v>-174700</v>
+        <v>-541200</v>
       </c>
       <c r="J26" s="3">
+        <v>-185000</v>
+      </c>
+      <c r="K26" s="3">
         <v>10200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>171600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-31900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>266800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>304100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>268800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>80200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>195800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>292900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>472700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-650200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>201700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>149800</v>
+        <v>467900</v>
       </c>
       <c r="E27" s="3">
-        <v>-250200</v>
+        <v>158700</v>
       </c>
       <c r="F27" s="3">
-        <v>-438400</v>
+        <v>-265000</v>
       </c>
       <c r="G27" s="3">
-        <v>-646100</v>
+        <v>-464400</v>
       </c>
       <c r="H27" s="3">
-        <v>-517400</v>
+        <v>-684500</v>
       </c>
       <c r="I27" s="3">
-        <v>-157200</v>
+        <v>-548100</v>
       </c>
       <c r="J27" s="3">
+        <v>-166500</v>
+      </c>
+      <c r="K27" s="3">
         <v>14900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>173700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>248700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>296200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>246000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>99000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>204900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>279400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>446200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-628800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>219400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1928,16 +1989,19 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>2200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-289500</v>
+        <v>484700</v>
       </c>
       <c r="E32" s="3">
-        <v>186600</v>
+        <v>-306700</v>
       </c>
       <c r="F32" s="3">
-        <v>291100</v>
+        <v>197600</v>
       </c>
       <c r="G32" s="3">
-        <v>966100</v>
+        <v>308400</v>
       </c>
       <c r="H32" s="3">
-        <v>49400</v>
+        <v>1023500</v>
       </c>
       <c r="I32" s="3">
-        <v>359900</v>
+        <v>52300</v>
       </c>
       <c r="J32" s="3">
+        <v>381300</v>
+      </c>
+      <c r="K32" s="3">
         <v>61000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>70600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>102900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>70400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>297800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>365400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>99500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>26500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-46800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>229800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>283500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>149800</v>
+        <v>467900</v>
       </c>
       <c r="E33" s="3">
-        <v>-250200</v>
+        <v>158700</v>
       </c>
       <c r="F33" s="3">
-        <v>-438400</v>
+        <v>-265000</v>
       </c>
       <c r="G33" s="3">
-        <v>-646100</v>
+        <v>-464400</v>
       </c>
       <c r="H33" s="3">
-        <v>-517400</v>
+        <v>-684500</v>
       </c>
       <c r="I33" s="3">
-        <v>-157200</v>
+        <v>-548100</v>
       </c>
       <c r="J33" s="3">
+        <v>-166500</v>
+      </c>
+      <c r="K33" s="3">
         <v>14900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>173700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>248700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>296200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>246000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>99000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>204900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>279400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>448400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-628000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>149800</v>
+        <v>467900</v>
       </c>
       <c r="E35" s="3">
-        <v>-250200</v>
+        <v>158700</v>
       </c>
       <c r="F35" s="3">
-        <v>-438400</v>
+        <v>-265000</v>
       </c>
       <c r="G35" s="3">
-        <v>-646100</v>
+        <v>-464400</v>
       </c>
       <c r="H35" s="3">
-        <v>-517400</v>
+        <v>-684500</v>
       </c>
       <c r="I35" s="3">
-        <v>-157200</v>
+        <v>-548100</v>
       </c>
       <c r="J35" s="3">
+        <v>-166500</v>
+      </c>
+      <c r="K35" s="3">
         <v>14900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>173700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>248700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>296200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>246000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>99000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>204900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>279400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>448400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-628000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,244 +2486,257 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2454700</v>
+        <v>2343500</v>
       </c>
       <c r="E41" s="3">
-        <v>2182300</v>
+        <v>2600400</v>
       </c>
       <c r="F41" s="3">
-        <v>2653400</v>
+        <v>2311800</v>
       </c>
       <c r="G41" s="3">
-        <v>1780600</v>
+        <v>2810900</v>
       </c>
       <c r="H41" s="3">
-        <v>1204800</v>
+        <v>1886300</v>
       </c>
       <c r="I41" s="3">
-        <v>1012000</v>
+        <v>1276300</v>
       </c>
       <c r="J41" s="3">
+        <v>1072000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1024900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1142200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>989700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>905000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>952900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>797100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>967900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1397900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1464300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1641600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1662600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2034300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>642300</v>
+        <v>727500</v>
       </c>
       <c r="E42" s="3">
-        <v>567500</v>
+        <v>680400</v>
       </c>
       <c r="F42" s="3">
-        <v>487400</v>
+        <v>601200</v>
       </c>
       <c r="G42" s="3">
-        <v>405800</v>
+        <v>516400</v>
       </c>
       <c r="H42" s="3">
-        <v>298800</v>
+        <v>429800</v>
       </c>
       <c r="I42" s="3">
-        <v>228100</v>
+        <v>316500</v>
       </c>
       <c r="J42" s="3">
+        <v>241600</v>
+      </c>
+      <c r="K42" s="3">
         <v>120300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>321900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>420600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>385000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>380400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>569800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>590400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>585700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>686500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>250900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>295300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>107400</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1405600</v>
+        <v>2068300</v>
       </c>
       <c r="E43" s="3">
-        <v>1199700</v>
+        <v>1489000</v>
       </c>
       <c r="F43" s="3">
-        <v>1040000</v>
+        <v>1270900</v>
       </c>
       <c r="G43" s="3">
-        <v>974200</v>
+        <v>1101800</v>
       </c>
       <c r="H43" s="3">
-        <v>1266600</v>
+        <v>1032000</v>
       </c>
       <c r="I43" s="3">
-        <v>968700</v>
+        <v>1341800</v>
       </c>
       <c r="J43" s="3">
+        <v>1026100</v>
+      </c>
+      <c r="K43" s="3">
         <v>893800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>861400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>842900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1091300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>836300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1029700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1263800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1077900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1019500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>752400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>658900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>796900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1484500</v>
+        <v>2239500</v>
       </c>
       <c r="E44" s="3">
-        <v>1428100</v>
+        <v>1572600</v>
       </c>
       <c r="F44" s="3">
-        <v>1304900</v>
+        <v>1512900</v>
       </c>
       <c r="G44" s="3">
-        <v>1387200</v>
+        <v>1382400</v>
       </c>
       <c r="H44" s="3">
-        <v>1350200</v>
+        <v>1469500</v>
       </c>
       <c r="I44" s="3">
-        <v>1393300</v>
+        <v>1430300</v>
       </c>
       <c r="J44" s="3">
+        <v>1476000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1464000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1515400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1514000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1655100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1501300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1559800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1755400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1473200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1514600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1375900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1299400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1209100</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2645,294 +2744,309 @@
         <v>67000</v>
       </c>
       <c r="E45" s="3">
-        <v>77000</v>
+        <v>71000</v>
       </c>
       <c r="F45" s="3">
-        <v>71500</v>
+        <v>81600</v>
       </c>
       <c r="G45" s="3">
-        <v>16700</v>
+        <v>75700</v>
       </c>
       <c r="H45" s="3">
-        <v>21200</v>
+        <v>17700</v>
       </c>
       <c r="I45" s="3">
-        <v>28000</v>
+        <v>22500</v>
       </c>
       <c r="J45" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K45" s="3">
         <v>39900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>59800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>47700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>24700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>29100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>31200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>35400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>51200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>52400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>111400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>116600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6054100</v>
+        <v>7445900</v>
       </c>
       <c r="E46" s="3">
-        <v>5454600</v>
+        <v>6413400</v>
       </c>
       <c r="F46" s="3">
-        <v>5557300</v>
+        <v>5778400</v>
       </c>
       <c r="G46" s="3">
-        <v>4564500</v>
+        <v>5887100</v>
       </c>
       <c r="H46" s="3">
-        <v>4141600</v>
+        <v>4835400</v>
       </c>
       <c r="I46" s="3">
-        <v>3630000</v>
+        <v>4387400</v>
       </c>
       <c r="J46" s="3">
+        <v>3845500</v>
+      </c>
+      <c r="K46" s="3">
         <v>3542900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3900600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3814900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4061100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3700000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3987600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4612900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4585900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4737400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4132100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4032900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4186700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>257500</v>
+        <v>282600</v>
       </c>
       <c r="E47" s="3">
-        <v>413100</v>
+        <v>272800</v>
       </c>
       <c r="F47" s="3">
-        <v>464500</v>
+        <v>437600</v>
       </c>
       <c r="G47" s="3">
-        <v>564400</v>
+        <v>492100</v>
       </c>
       <c r="H47" s="3">
-        <v>490100</v>
+        <v>597900</v>
       </c>
       <c r="I47" s="3">
-        <v>416400</v>
+        <v>519200</v>
       </c>
       <c r="J47" s="3">
+        <v>441100</v>
+      </c>
+      <c r="K47" s="3">
         <v>506500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>562700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>338000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>238400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>250800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>309100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>329600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>378500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>380000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>362800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>345300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>426900</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6875900</v>
+        <v>7561600</v>
       </c>
       <c r="E48" s="3">
-        <v>6920700</v>
+        <v>7284000</v>
       </c>
       <c r="F48" s="3">
-        <v>6726400</v>
+        <v>7331500</v>
       </c>
       <c r="G48" s="3">
-        <v>6569000</v>
+        <v>7125600</v>
       </c>
       <c r="H48" s="3">
-        <v>6183400</v>
+        <v>6958900</v>
       </c>
       <c r="I48" s="3">
-        <v>6000600</v>
+        <v>6550500</v>
       </c>
       <c r="J48" s="3">
+        <v>6356800</v>
+      </c>
+      <c r="K48" s="3">
         <v>5860000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6264500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5666000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6059100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5851700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7088700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7630300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7640900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7806300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7344800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7277900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7403700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>500900</v>
+        <v>532800</v>
       </c>
       <c r="E49" s="3">
-        <v>497600</v>
+        <v>530600</v>
       </c>
       <c r="F49" s="3">
-        <v>492700</v>
+        <v>527200</v>
       </c>
       <c r="G49" s="3">
-        <v>491200</v>
+        <v>522000</v>
       </c>
       <c r="H49" s="3">
-        <v>489100</v>
+        <v>520400</v>
       </c>
       <c r="I49" s="3">
-        <v>486500</v>
+        <v>518100</v>
       </c>
       <c r="J49" s="3">
+        <v>515400</v>
+      </c>
+      <c r="K49" s="3">
         <v>483000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>510800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>489000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>508500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>506900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>633500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>699300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>704400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>714300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>689900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>696900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>699100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1554500</v>
+        <v>1822900</v>
       </c>
       <c r="E52" s="3">
-        <v>1968300</v>
+        <v>1646800</v>
       </c>
       <c r="F52" s="3">
-        <v>1731400</v>
+        <v>2085100</v>
       </c>
       <c r="G52" s="3">
-        <v>1476600</v>
+        <v>1834200</v>
       </c>
       <c r="H52" s="3">
-        <v>759400</v>
+        <v>1564300</v>
       </c>
       <c r="I52" s="3">
-        <v>1058100</v>
+        <v>804500</v>
       </c>
       <c r="J52" s="3">
+        <v>1120900</v>
+      </c>
+      <c r="K52" s="3">
         <v>905000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>258100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>252400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>381100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>451100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>313100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>403600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>326100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>353300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>386600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>503100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>457300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15242900</v>
+        <v>17645700</v>
       </c>
       <c r="E54" s="3">
-        <v>15254400</v>
+        <v>16147600</v>
       </c>
       <c r="F54" s="3">
-        <v>14972300</v>
+        <v>16159800</v>
       </c>
       <c r="G54" s="3">
-        <v>13665700</v>
+        <v>15860900</v>
       </c>
       <c r="H54" s="3">
-        <v>12063600</v>
+        <v>14476900</v>
       </c>
       <c r="I54" s="3">
-        <v>11591700</v>
+        <v>12779600</v>
       </c>
       <c r="J54" s="3">
+        <v>12279700</v>
+      </c>
+      <c r="K54" s="3">
         <v>11297500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11496800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10560200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11248200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10760600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12332000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13675700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13635900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13991200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12916200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12856000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13173700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1761200</v>
+        <v>2570900</v>
       </c>
       <c r="E57" s="3">
-        <v>1570300</v>
+        <v>1865700</v>
       </c>
       <c r="F57" s="3">
-        <v>1516900</v>
+        <v>1663500</v>
       </c>
       <c r="G57" s="3">
-        <v>1747300</v>
+        <v>1607000</v>
       </c>
       <c r="H57" s="3">
-        <v>1614300</v>
+        <v>1851000</v>
       </c>
       <c r="I57" s="3">
-        <v>1611300</v>
+        <v>1710200</v>
       </c>
       <c r="J57" s="3">
+        <v>1707000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1614000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1543200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1488100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1736200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1528000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1323600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1350000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1233400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1348000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1257900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1623700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1777600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1758100</v>
+        <v>1959500</v>
       </c>
       <c r="E58" s="3">
-        <v>611100</v>
+        <v>1862400</v>
       </c>
       <c r="F58" s="3">
-        <v>988000</v>
+        <v>647300</v>
       </c>
       <c r="G58" s="3">
-        <v>706500</v>
+        <v>1046600</v>
       </c>
       <c r="H58" s="3">
-        <v>397000</v>
+        <v>748500</v>
       </c>
       <c r="I58" s="3">
-        <v>2453900</v>
+        <v>420600</v>
       </c>
       <c r="J58" s="3">
+        <v>2599500</v>
+      </c>
+      <c r="K58" s="3">
         <v>2298100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2118700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2010500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2235800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2243600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2379100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2795400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3374100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3695000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3205900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3233000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1507300</v>
+        <v>1740100</v>
       </c>
       <c r="E59" s="3">
-        <v>1512800</v>
+        <v>1596700</v>
       </c>
       <c r="F59" s="3">
-        <v>1304400</v>
+        <v>1602600</v>
       </c>
       <c r="G59" s="3">
-        <v>1075400</v>
+        <v>1381800</v>
       </c>
       <c r="H59" s="3">
-        <v>860000</v>
+        <v>1139300</v>
       </c>
       <c r="I59" s="3">
-        <v>640900</v>
+        <v>911100</v>
       </c>
       <c r="J59" s="3">
+        <v>679000</v>
+      </c>
+      <c r="K59" s="3">
         <v>571900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>546700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>625300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>522000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>498700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>526100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>761100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>719900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>760100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>881200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>858600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>814100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5026500</v>
+        <v>6270500</v>
       </c>
       <c r="E60" s="3">
-        <v>3694200</v>
+        <v>5324900</v>
       </c>
       <c r="F60" s="3">
-        <v>3809300</v>
+        <v>3913500</v>
       </c>
       <c r="G60" s="3">
-        <v>3529300</v>
+        <v>4035400</v>
       </c>
       <c r="H60" s="3">
-        <v>2871400</v>
+        <v>3738800</v>
       </c>
       <c r="I60" s="3">
-        <v>4706100</v>
+        <v>3041800</v>
       </c>
       <c r="J60" s="3">
+        <v>4985500</v>
+      </c>
+      <c r="K60" s="3">
         <v>4483900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4208600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4123900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4494000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4270300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4228800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4906500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5327400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5803000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5344900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5715300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3323500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8376600</v>
+        <v>9053600</v>
       </c>
       <c r="E61" s="3">
-        <v>10456800</v>
+        <v>8873800</v>
       </c>
       <c r="F61" s="3">
-        <v>10314500</v>
+        <v>11077500</v>
       </c>
       <c r="G61" s="3">
-        <v>9021000</v>
+        <v>10926700</v>
       </c>
       <c r="H61" s="3">
-        <v>7031100</v>
+        <v>9556400</v>
       </c>
       <c r="I61" s="3">
-        <v>4679200</v>
+        <v>7448400</v>
       </c>
       <c r="J61" s="3">
+        <v>4956900</v>
+      </c>
+      <c r="K61" s="3">
         <v>4362300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4937800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4310300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4438500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4496800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4981500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5685600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4740400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4970200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4871100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5144300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7597500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2524400</v>
+        <v>2601100</v>
       </c>
       <c r="E62" s="3">
-        <v>2238800</v>
+        <v>2674200</v>
       </c>
       <c r="F62" s="3">
-        <v>1793700</v>
+        <v>2371600</v>
       </c>
       <c r="G62" s="3">
-        <v>1623100</v>
+        <v>1900200</v>
       </c>
       <c r="H62" s="3">
-        <v>1462700</v>
+        <v>1719500</v>
       </c>
       <c r="I62" s="3">
-        <v>1107600</v>
+        <v>1549500</v>
       </c>
       <c r="J62" s="3">
+        <v>1173400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1112200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1004100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1071500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1129300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1096400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1408600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1624600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1772800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1746400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1575400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1569400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1162700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15632800</v>
+        <v>17565000</v>
       </c>
       <c r="E66" s="3">
-        <v>16044900</v>
+        <v>16560700</v>
       </c>
       <c r="F66" s="3">
-        <v>15570800</v>
+        <v>16997300</v>
       </c>
       <c r="G66" s="3">
-        <v>13842800</v>
+        <v>16495000</v>
       </c>
       <c r="H66" s="3">
-        <v>11198600</v>
+        <v>14664500</v>
       </c>
       <c r="I66" s="3">
-        <v>10305500</v>
+        <v>11863300</v>
       </c>
       <c r="J66" s="3">
+        <v>10917200</v>
+      </c>
+      <c r="K66" s="3">
         <v>9805200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9987100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9349300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9920900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9696800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10466600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12004700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11654000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12338600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11595600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12176600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11845300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-802000</v>
+        <v>-380500</v>
       </c>
       <c r="E72" s="3">
-        <v>-952700</v>
+        <v>-849700</v>
       </c>
       <c r="F72" s="3">
-        <v>-703600</v>
+        <v>-1009200</v>
       </c>
       <c r="G72" s="3">
-        <v>-266400</v>
+        <v>-745400</v>
       </c>
       <c r="H72" s="3">
-        <v>378500</v>
+        <v>-282200</v>
       </c>
       <c r="I72" s="3">
-        <v>894500</v>
+        <v>401000</v>
       </c>
       <c r="J72" s="3">
+        <v>947600</v>
+      </c>
+      <c r="K72" s="3">
         <v>1050500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1111600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>875200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1044400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>794400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1223400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1071200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1226800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1020100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>714900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>264700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>914200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-390000</v>
+        <v>80700</v>
       </c>
       <c r="E76" s="3">
-        <v>-790600</v>
+        <v>-413100</v>
       </c>
       <c r="F76" s="3">
-        <v>-598500</v>
+        <v>-837500</v>
       </c>
       <c r="G76" s="3">
-        <v>-177100</v>
+        <v>-634100</v>
       </c>
       <c r="H76" s="3">
-        <v>865000</v>
+        <v>-187600</v>
       </c>
       <c r="I76" s="3">
-        <v>1286200</v>
+        <v>916400</v>
       </c>
       <c r="J76" s="3">
+        <v>1362500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1492300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1509600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1210900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1327200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1063800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1865400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1671000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1981900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1652600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1320600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>679400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1328400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>149800</v>
+        <v>467900</v>
       </c>
       <c r="E81" s="3">
-        <v>-250200</v>
+        <v>158700</v>
       </c>
       <c r="F81" s="3">
-        <v>-438400</v>
+        <v>-265000</v>
       </c>
       <c r="G81" s="3">
-        <v>-646100</v>
+        <v>-464400</v>
       </c>
       <c r="H81" s="3">
-        <v>-517400</v>
+        <v>-684500</v>
       </c>
       <c r="I81" s="3">
-        <v>-157200</v>
+        <v>-548100</v>
       </c>
       <c r="J81" s="3">
+        <v>-166500</v>
+      </c>
+      <c r="K81" s="3">
         <v>14900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>173700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>248700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>296200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>246000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>99000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>204900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>279400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>448400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-628000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>185300</v>
+        <v>174800</v>
       </c>
       <c r="E83" s="3">
-        <v>187500</v>
+        <v>196300</v>
       </c>
       <c r="F83" s="3">
-        <v>171600</v>
+        <v>198600</v>
       </c>
       <c r="G83" s="3">
-        <v>172400</v>
+        <v>181800</v>
       </c>
       <c r="H83" s="3">
-        <v>181400</v>
+        <v>182600</v>
       </c>
       <c r="I83" s="3">
-        <v>155300</v>
+        <v>192200</v>
       </c>
       <c r="J83" s="3">
+        <v>164500</v>
+      </c>
+      <c r="K83" s="3">
         <v>153900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>161300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>132300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>145800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>270300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>172800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>194800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>191000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>185100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>174200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>177700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>679900</v>
+        <v>432100</v>
       </c>
       <c r="E89" s="3">
+        <v>720200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>182200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-123700</v>
+      </c>
+      <c r="H89" s="3">
+        <v>401700</v>
+      </c>
+      <c r="I89" s="3">
         <v>172000</v>
       </c>
-      <c r="F89" s="3">
-        <v>-116700</v>
-      </c>
-      <c r="G89" s="3">
-        <v>379200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>162400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>142000</v>
-      </c>
       <c r="J89" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-88200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>195400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>179800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>391200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1133900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>420500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>341000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>377300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-232900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>141000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>179800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>704800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-146800</v>
+        <v>-92000</v>
       </c>
       <c r="E91" s="3">
-        <v>-80700</v>
+        <v>-155600</v>
       </c>
       <c r="F91" s="3">
-        <v>-100900</v>
+        <v>-85500</v>
       </c>
       <c r="G91" s="3">
-        <v>-160300</v>
+        <v>-106900</v>
       </c>
       <c r="H91" s="3">
-        <v>-158100</v>
+        <v>-169800</v>
       </c>
       <c r="I91" s="3">
-        <v>-111500</v>
+        <v>-167500</v>
       </c>
       <c r="J91" s="3">
+        <v>-118100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-124700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-85300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-160800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-122100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-211900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-94500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-187200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-198300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-120300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-67700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-418100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-262200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-143000</v>
+        <v>-89100</v>
       </c>
       <c r="E94" s="3">
-        <v>-80700</v>
+        <v>-151500</v>
       </c>
       <c r="F94" s="3">
-        <v>-98500</v>
+        <v>-85500</v>
       </c>
       <c r="G94" s="3">
-        <v>-159800</v>
+        <v>-104300</v>
       </c>
       <c r="H94" s="3">
-        <v>-156100</v>
+        <v>-169200</v>
       </c>
       <c r="I94" s="3">
-        <v>-160200</v>
+        <v>-165400</v>
       </c>
       <c r="J94" s="3">
+        <v>-169800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-75000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-85300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-150800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-107300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-196700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-94200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-341100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-195500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-68200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-206800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-130100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5328,23 +5562,23 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-400</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
-        <v>-118000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-125000</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5352,17 +5586,17 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-277500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-256100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -5370,13 +5604,16 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-247800</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-205400</v>
+        <v>-684000</v>
       </c>
       <c r="E100" s="3">
-        <v>-587500</v>
+        <v>-217600</v>
       </c>
       <c r="F100" s="3">
-        <v>1012000</v>
+        <v>-622400</v>
       </c>
       <c r="G100" s="3">
-        <v>165700</v>
+        <v>1072100</v>
       </c>
       <c r="H100" s="3">
-        <v>203400</v>
+        <v>175600</v>
       </c>
       <c r="I100" s="3">
-        <v>-23500</v>
+        <v>215500</v>
       </c>
       <c r="J100" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="K100" s="3">
         <v>123000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>73500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-297900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-630100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-405100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-416900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-275700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>35200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-105200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-237800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-197800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-59000</v>
+        <v>84100</v>
       </c>
       <c r="E101" s="3">
-        <v>25100</v>
+        <v>-62500</v>
       </c>
       <c r="F101" s="3">
-        <v>76000</v>
+        <v>26600</v>
       </c>
       <c r="G101" s="3">
-        <v>190700</v>
+        <v>80500</v>
       </c>
       <c r="H101" s="3">
-        <v>-16900</v>
+        <v>202000</v>
       </c>
       <c r="I101" s="3">
-        <v>28700</v>
+        <v>-17900</v>
       </c>
       <c r="J101" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-15700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>14500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-33800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-52700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>27500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-24500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>11300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>14900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>272400</v>
+        <v>-256900</v>
       </c>
       <c r="E102" s="3">
-        <v>-471100</v>
+        <v>288600</v>
       </c>
       <c r="F102" s="3">
-        <v>872800</v>
+        <v>-499100</v>
       </c>
       <c r="G102" s="3">
-        <v>575800</v>
+        <v>924600</v>
       </c>
       <c r="H102" s="3">
-        <v>192800</v>
+        <v>610000</v>
       </c>
       <c r="I102" s="3">
-        <v>-13000</v>
+        <v>204200</v>
       </c>
       <c r="J102" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-55900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>104100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>117100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-47900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>254400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-84500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-430000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-66400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-232200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-21000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-254500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>362100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4256600</v>
+        <v>4880100</v>
       </c>
       <c r="E8" s="3">
-        <v>3514900</v>
+        <v>4191200</v>
       </c>
       <c r="F8" s="3">
-        <v>2999800</v>
+        <v>3461000</v>
       </c>
       <c r="G8" s="3">
-        <v>2098700</v>
+        <v>2953700</v>
       </c>
       <c r="H8" s="3">
-        <v>2368100</v>
+        <v>2066500</v>
       </c>
       <c r="I8" s="3">
-        <v>2371000</v>
+        <v>2331800</v>
       </c>
       <c r="J8" s="3">
+        <v>2334600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2507600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2361600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2428600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2646900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3024900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4961600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3042500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3237700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3118100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3043300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3125700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2988400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2972300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2898900</v>
+        <v>3067700</v>
       </c>
       <c r="E9" s="3">
-        <v>2588200</v>
+        <v>2854400</v>
       </c>
       <c r="F9" s="3">
-        <v>2331000</v>
+        <v>2548500</v>
       </c>
       <c r="G9" s="3">
-        <v>1811200</v>
+        <v>2295200</v>
       </c>
       <c r="H9" s="3">
-        <v>2148000</v>
+        <v>1783400</v>
       </c>
       <c r="I9" s="3">
-        <v>2075500</v>
+        <v>2115100</v>
       </c>
       <c r="J9" s="3">
+        <v>2043700</v>
+      </c>
+      <c r="K9" s="3">
         <v>2185500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2071700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2107800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2300800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2358800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3868600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2411600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2405700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2349100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2319300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2210800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2269000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2174500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1357700</v>
+        <v>1812400</v>
       </c>
       <c r="E10" s="3">
-        <v>926700</v>
+        <v>1336900</v>
       </c>
       <c r="F10" s="3">
-        <v>668800</v>
+        <v>912500</v>
       </c>
       <c r="G10" s="3">
-        <v>287500</v>
+        <v>658600</v>
       </c>
       <c r="H10" s="3">
-        <v>220100</v>
+        <v>283100</v>
       </c>
       <c r="I10" s="3">
-        <v>295500</v>
+        <v>216700</v>
       </c>
       <c r="J10" s="3">
+        <v>291000</v>
+      </c>
+      <c r="K10" s="3">
         <v>322100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>289900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>320800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>346100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>666100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1093000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>630900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>831900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>769000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>724100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>914900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>719400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>797900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>14400</v>
+      </c>
+      <c r="G12" s="3">
         <v>11700</v>
       </c>
-      <c r="E12" s="3">
-        <v>14600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>11900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>10100</v>
-      </c>
       <c r="H12" s="3">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="I12" s="3">
-        <v>14700</v>
+        <v>10200</v>
       </c>
       <c r="J12" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K12" s="3">
         <v>11000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>17700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,70 +1104,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-12500</v>
+        <v>-13600</v>
       </c>
       <c r="E14" s="3">
-        <v>380300</v>
+        <v>-12300</v>
       </c>
       <c r="F14" s="3">
-        <v>640100</v>
+        <v>374500</v>
       </c>
       <c r="G14" s="3">
-        <v>278700</v>
+        <v>630200</v>
       </c>
       <c r="H14" s="3">
+        <v>274400</v>
+      </c>
+      <c r="I14" s="3">
         <v>-2800</v>
       </c>
-      <c r="I14" s="3">
-        <v>661900</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>651700</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>77000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>60800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-15700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-30900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>15100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-65200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>26900</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2992300</v>
+        <v>3206100</v>
       </c>
       <c r="E17" s="3">
-        <v>3302800</v>
+        <v>2946400</v>
       </c>
       <c r="F17" s="3">
-        <v>3109400</v>
+        <v>3252100</v>
       </c>
       <c r="G17" s="3">
-        <v>2285500</v>
+        <v>3061700</v>
       </c>
       <c r="H17" s="3">
-        <v>2297400</v>
+        <v>2250400</v>
       </c>
       <c r="I17" s="3">
-        <v>3041300</v>
+        <v>2262200</v>
       </c>
       <c r="J17" s="3">
+        <v>2994600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2402800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2212400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2032800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2439400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2508600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4156600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2595500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2671600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2622900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2450700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2404300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3295900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2402600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1264300</v>
+        <v>1674000</v>
       </c>
       <c r="E18" s="3">
-        <v>212200</v>
+        <v>1244900</v>
       </c>
       <c r="F18" s="3">
-        <v>-109600</v>
+        <v>208900</v>
       </c>
       <c r="G18" s="3">
-        <v>-186800</v>
+        <v>-107900</v>
       </c>
       <c r="H18" s="3">
-        <v>70700</v>
+        <v>-183900</v>
       </c>
       <c r="I18" s="3">
-        <v>-670300</v>
+        <v>69600</v>
       </c>
       <c r="J18" s="3">
+        <v>-660000</v>
+      </c>
+      <c r="K18" s="3">
         <v>104800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>149300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>395800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>207500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>516300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>805000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>447000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>566000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>495200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>592600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>721500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-307500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>569700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-484700</v>
+        <v>285600</v>
       </c>
       <c r="E20" s="3">
-        <v>306700</v>
+        <v>-477300</v>
       </c>
       <c r="F20" s="3">
-        <v>-197600</v>
+        <v>301900</v>
       </c>
       <c r="G20" s="3">
-        <v>-308400</v>
+        <v>-194600</v>
       </c>
       <c r="H20" s="3">
-        <v>-1023500</v>
+        <v>-303600</v>
       </c>
       <c r="I20" s="3">
-        <v>-52300</v>
+        <v>-1007700</v>
       </c>
       <c r="J20" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-381300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-61000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-70600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-102900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-70400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-297800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-365400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-99500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-26500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>46800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-229800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-283500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>954300</v>
+        <v>2130000</v>
       </c>
       <c r="E21" s="3">
-        <v>715100</v>
+        <v>939700</v>
       </c>
       <c r="F21" s="3">
-        <v>-108600</v>
+        <v>704100</v>
       </c>
       <c r="G21" s="3">
-        <v>-313300</v>
+        <v>-107000</v>
       </c>
       <c r="H21" s="3">
-        <v>-770200</v>
+        <v>-308500</v>
       </c>
       <c r="I21" s="3">
-        <v>-530400</v>
+        <v>-758300</v>
       </c>
       <c r="J21" s="3">
+        <v>-522300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-112000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>242200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>486500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>236900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>591800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>777500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>616300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>395300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>586700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>751200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>942400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-356700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>462600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>164900</v>
+        <v>108800</v>
       </c>
       <c r="E22" s="3">
-        <v>138300</v>
+        <v>162400</v>
       </c>
       <c r="F22" s="3">
-        <v>146000</v>
+        <v>136100</v>
       </c>
       <c r="G22" s="3">
-        <v>146300</v>
+        <v>143700</v>
       </c>
       <c r="H22" s="3">
-        <v>149600</v>
+        <v>144100</v>
       </c>
       <c r="I22" s="3">
-        <v>111300</v>
-      </c>
-      <c r="J22" s="3" t="s">
+        <v>147300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>109600</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>101700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>102100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>91800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>101900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>188500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>110300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>131700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>141600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>147200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>142400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>159500</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>614600</v>
+        <v>1850800</v>
       </c>
       <c r="E23" s="3">
-        <v>380600</v>
+        <v>605200</v>
       </c>
       <c r="F23" s="3">
-        <v>-453200</v>
+        <v>374700</v>
       </c>
       <c r="G23" s="3">
-        <v>-641400</v>
+        <v>-446300</v>
       </c>
       <c r="H23" s="3">
-        <v>-1102400</v>
+        <v>-631600</v>
       </c>
       <c r="I23" s="3">
-        <v>-833900</v>
+        <v>-1085500</v>
       </c>
       <c r="J23" s="3">
+        <v>-821100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-276500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>223100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>344000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>318600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>333200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>68800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>254200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>418900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>625800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-696900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>286200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>161800</v>
+        <v>454100</v>
       </c>
       <c r="E24" s="3">
-        <v>216000</v>
+        <v>159400</v>
       </c>
       <c r="F24" s="3">
-        <v>-202400</v>
+        <v>212700</v>
       </c>
       <c r="G24" s="3">
-        <v>-173100</v>
+        <v>-199300</v>
       </c>
       <c r="H24" s="3">
-        <v>-341000</v>
+        <v>-170500</v>
       </c>
       <c r="I24" s="3">
-        <v>-292700</v>
+        <v>-335800</v>
       </c>
       <c r="J24" s="3">
+        <v>-288200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-91400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-23600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>51500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>44600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>77100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>64500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-11400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>58400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>126000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>153200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-46600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>452800</v>
+        <v>1396700</v>
       </c>
       <c r="E26" s="3">
-        <v>164600</v>
+        <v>445800</v>
       </c>
       <c r="F26" s="3">
-        <v>-250900</v>
+        <v>162100</v>
       </c>
       <c r="G26" s="3">
-        <v>-468300</v>
+        <v>-247000</v>
       </c>
       <c r="H26" s="3">
-        <v>-761400</v>
+        <v>-461100</v>
       </c>
       <c r="I26" s="3">
-        <v>-541200</v>
+        <v>-749700</v>
       </c>
       <c r="J26" s="3">
+        <v>-532900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-185000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>171600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-31900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>266800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>304100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>268800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>80200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>195800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>292900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>472700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-650200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>201700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>467900</v>
+        <v>1371100</v>
       </c>
       <c r="E27" s="3">
-        <v>158700</v>
+        <v>460700</v>
       </c>
       <c r="F27" s="3">
-        <v>-265000</v>
+        <v>156300</v>
       </c>
       <c r="G27" s="3">
-        <v>-464400</v>
+        <v>-261000</v>
       </c>
       <c r="H27" s="3">
-        <v>-684500</v>
+        <v>-457300</v>
       </c>
       <c r="I27" s="3">
-        <v>-548100</v>
+        <v>-674000</v>
       </c>
       <c r="J27" s="3">
+        <v>-539700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-166500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>173700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>248700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>296200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>246000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>99000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>204900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>279400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>446200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-628800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>219400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1992,16 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>2200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>484700</v>
+        <v>-285600</v>
       </c>
       <c r="E32" s="3">
-        <v>-306700</v>
+        <v>477300</v>
       </c>
       <c r="F32" s="3">
-        <v>197600</v>
+        <v>-301900</v>
       </c>
       <c r="G32" s="3">
-        <v>308400</v>
+        <v>194600</v>
       </c>
       <c r="H32" s="3">
-        <v>1023500</v>
+        <v>303600</v>
       </c>
       <c r="I32" s="3">
-        <v>52300</v>
+        <v>1007700</v>
       </c>
       <c r="J32" s="3">
+        <v>51500</v>
+      </c>
+      <c r="K32" s="3">
         <v>381300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>61000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>70600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>102900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>70400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>297800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>365400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>99500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>26500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-46800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>229800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>283500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>467900</v>
+        <v>1371100</v>
       </c>
       <c r="E33" s="3">
-        <v>158700</v>
+        <v>460700</v>
       </c>
       <c r="F33" s="3">
-        <v>-265000</v>
+        <v>156300</v>
       </c>
       <c r="G33" s="3">
-        <v>-464400</v>
+        <v>-261000</v>
       </c>
       <c r="H33" s="3">
-        <v>-684500</v>
+        <v>-457300</v>
       </c>
       <c r="I33" s="3">
-        <v>-548100</v>
+        <v>-674000</v>
       </c>
       <c r="J33" s="3">
+        <v>-539700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-166500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>173700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>248700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>296200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>246000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>99000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>204900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>279400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>448400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-628000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>467900</v>
+        <v>1371100</v>
       </c>
       <c r="E35" s="3">
-        <v>158700</v>
+        <v>460700</v>
       </c>
       <c r="F35" s="3">
-        <v>-265000</v>
+        <v>156300</v>
       </c>
       <c r="G35" s="3">
-        <v>-464400</v>
+        <v>-261000</v>
       </c>
       <c r="H35" s="3">
-        <v>-684500</v>
+        <v>-457300</v>
       </c>
       <c r="I35" s="3">
-        <v>-548100</v>
+        <v>-674000</v>
       </c>
       <c r="J35" s="3">
+        <v>-539700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-166500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>173700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>248700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>296200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>246000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>99000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>204900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>279400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>448400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-628000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2343500</v>
+        <v>1803600</v>
       </c>
       <c r="E41" s="3">
-        <v>2600400</v>
+        <v>2307500</v>
       </c>
       <c r="F41" s="3">
-        <v>2311800</v>
+        <v>2560500</v>
       </c>
       <c r="G41" s="3">
-        <v>2810900</v>
+        <v>2276300</v>
       </c>
       <c r="H41" s="3">
-        <v>1886300</v>
+        <v>2767700</v>
       </c>
       <c r="I41" s="3">
-        <v>1276300</v>
+        <v>1857300</v>
       </c>
       <c r="J41" s="3">
+        <v>1256700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1072000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1024900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1142200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>989700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>905000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>952900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>797100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>967900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1397900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1464300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1641600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1662600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2034300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>727500</v>
+        <v>702900</v>
       </c>
       <c r="E42" s="3">
-        <v>680400</v>
+        <v>716400</v>
       </c>
       <c r="F42" s="3">
-        <v>601200</v>
+        <v>669900</v>
       </c>
       <c r="G42" s="3">
-        <v>516400</v>
+        <v>591900</v>
       </c>
       <c r="H42" s="3">
-        <v>429800</v>
+        <v>508400</v>
       </c>
       <c r="I42" s="3">
-        <v>316500</v>
+        <v>423200</v>
       </c>
       <c r="J42" s="3">
+        <v>311700</v>
+      </c>
+      <c r="K42" s="3">
         <v>241600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>120300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>321900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>420600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>385000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>380400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>569800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>590400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>585700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>686500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>250900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>295300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>107400</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2068300</v>
+        <v>2292400</v>
       </c>
       <c r="E43" s="3">
-        <v>1489000</v>
+        <v>2036500</v>
       </c>
       <c r="F43" s="3">
-        <v>1270900</v>
+        <v>1466100</v>
       </c>
       <c r="G43" s="3">
-        <v>1101800</v>
+        <v>1251400</v>
       </c>
       <c r="H43" s="3">
-        <v>1032000</v>
+        <v>1084900</v>
       </c>
       <c r="I43" s="3">
-        <v>1341800</v>
+        <v>1016200</v>
       </c>
       <c r="J43" s="3">
+        <v>1321200</v>
+      </c>
+      <c r="K43" s="3">
         <v>1026100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>893800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>861400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>842900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1091300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>836300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1029700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1263800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1077900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1019500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>752400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>658900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>796900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2239500</v>
+        <v>2347200</v>
       </c>
       <c r="E44" s="3">
-        <v>1572600</v>
+        <v>2205200</v>
       </c>
       <c r="F44" s="3">
-        <v>1512900</v>
+        <v>1548500</v>
       </c>
       <c r="G44" s="3">
-        <v>1382400</v>
+        <v>1489700</v>
       </c>
       <c r="H44" s="3">
-        <v>1469500</v>
+        <v>1361100</v>
       </c>
       <c r="I44" s="3">
-        <v>1430300</v>
+        <v>1446900</v>
       </c>
       <c r="J44" s="3">
+        <v>1408400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1476000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1464000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1515400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1514000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1655100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1501300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1559800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1755400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1473200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1514600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1375900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1299400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1209100</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>67000</v>
+        <v>64500</v>
       </c>
       <c r="E45" s="3">
-        <v>71000</v>
+        <v>66000</v>
       </c>
       <c r="F45" s="3">
-        <v>81600</v>
+        <v>69900</v>
       </c>
       <c r="G45" s="3">
-        <v>75700</v>
+        <v>80300</v>
       </c>
       <c r="H45" s="3">
-        <v>17700</v>
+        <v>74600</v>
       </c>
       <c r="I45" s="3">
-        <v>22500</v>
+        <v>17500</v>
       </c>
       <c r="J45" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K45" s="3">
         <v>29700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>59800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>47700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>24700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>29100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>31200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>35400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>51200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>52400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>111400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>116600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7445900</v>
+        <v>7210600</v>
       </c>
       <c r="E46" s="3">
-        <v>6413400</v>
+        <v>7331500</v>
       </c>
       <c r="F46" s="3">
-        <v>5778400</v>
+        <v>6314900</v>
       </c>
       <c r="G46" s="3">
-        <v>5887100</v>
+        <v>5689600</v>
       </c>
       <c r="H46" s="3">
-        <v>4835400</v>
+        <v>5796700</v>
       </c>
       <c r="I46" s="3">
-        <v>4387400</v>
+        <v>4761100</v>
       </c>
       <c r="J46" s="3">
+        <v>4320100</v>
+      </c>
+      <c r="K46" s="3">
         <v>3845500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3542900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3900600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3814900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4061100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3700000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3987600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4612900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4585900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4737400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4132100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4032900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4186700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>282600</v>
+        <v>424000</v>
       </c>
       <c r="E47" s="3">
-        <v>272800</v>
+        <v>278200</v>
       </c>
       <c r="F47" s="3">
-        <v>437600</v>
+        <v>268600</v>
       </c>
       <c r="G47" s="3">
-        <v>492100</v>
+        <v>430900</v>
       </c>
       <c r="H47" s="3">
-        <v>597900</v>
+        <v>484500</v>
       </c>
       <c r="I47" s="3">
-        <v>519200</v>
+        <v>588800</v>
       </c>
       <c r="J47" s="3">
+        <v>511200</v>
+      </c>
+      <c r="K47" s="3">
         <v>441100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>506500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>562700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>338000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>238400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>250800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>309100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>329600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>378500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>380000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>362800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>345300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>426900</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7561600</v>
+        <v>6942400</v>
       </c>
       <c r="E48" s="3">
-        <v>7284000</v>
+        <v>7445500</v>
       </c>
       <c r="F48" s="3">
-        <v>7331500</v>
+        <v>7172200</v>
       </c>
       <c r="G48" s="3">
-        <v>7125600</v>
+        <v>7219000</v>
       </c>
       <c r="H48" s="3">
-        <v>6958900</v>
+        <v>7016200</v>
       </c>
       <c r="I48" s="3">
-        <v>6550500</v>
+        <v>6852100</v>
       </c>
       <c r="J48" s="3">
+        <v>6449900</v>
+      </c>
+      <c r="K48" s="3">
         <v>6356800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5860000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6264500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5666000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6059100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5851700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7088700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7630300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7640900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7806300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7344800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7277900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7403700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>532800</v>
+        <v>518200</v>
       </c>
       <c r="E49" s="3">
-        <v>530600</v>
+        <v>524600</v>
       </c>
       <c r="F49" s="3">
-        <v>527200</v>
+        <v>522500</v>
       </c>
       <c r="G49" s="3">
-        <v>522000</v>
+        <v>519100</v>
       </c>
       <c r="H49" s="3">
-        <v>520400</v>
+        <v>513900</v>
       </c>
       <c r="I49" s="3">
-        <v>518100</v>
+        <v>512400</v>
       </c>
       <c r="J49" s="3">
+        <v>510200</v>
+      </c>
+      <c r="K49" s="3">
         <v>515400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>483000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>510800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>489000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>508500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>506900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>633500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>699300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>704400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>714300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>689900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>696900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>699100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1822900</v>
+        <v>1146200</v>
       </c>
       <c r="E52" s="3">
-        <v>1646800</v>
+        <v>1794900</v>
       </c>
       <c r="F52" s="3">
-        <v>2085100</v>
+        <v>1621500</v>
       </c>
       <c r="G52" s="3">
-        <v>1834200</v>
+        <v>2053100</v>
       </c>
       <c r="H52" s="3">
-        <v>1564300</v>
+        <v>1806000</v>
       </c>
       <c r="I52" s="3">
-        <v>804500</v>
+        <v>1540300</v>
       </c>
       <c r="J52" s="3">
+        <v>792100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1120900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>905000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>258100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>252400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>381100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>451100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>313100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>403600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>326100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>353300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>386600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>503100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>457300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17645700</v>
+        <v>16241400</v>
       </c>
       <c r="E54" s="3">
-        <v>16147600</v>
+        <v>17374800</v>
       </c>
       <c r="F54" s="3">
-        <v>16159800</v>
+        <v>15899700</v>
       </c>
       <c r="G54" s="3">
-        <v>15860900</v>
+        <v>15911700</v>
       </c>
       <c r="H54" s="3">
-        <v>14476900</v>
+        <v>15617400</v>
       </c>
       <c r="I54" s="3">
-        <v>12779600</v>
+        <v>14254600</v>
       </c>
       <c r="J54" s="3">
+        <v>12583400</v>
+      </c>
+      <c r="K54" s="3">
         <v>12279700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11297500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11496800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10560200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11248200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10760600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12332000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13675700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13635900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13991200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12916200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12856000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13173700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2570900</v>
+        <v>1972400</v>
       </c>
       <c r="E57" s="3">
-        <v>1865700</v>
+        <v>2531400</v>
       </c>
       <c r="F57" s="3">
-        <v>1663500</v>
+        <v>1837100</v>
       </c>
       <c r="G57" s="3">
-        <v>1607000</v>
+        <v>1638000</v>
       </c>
       <c r="H57" s="3">
-        <v>1851000</v>
+        <v>1582300</v>
       </c>
       <c r="I57" s="3">
-        <v>1710200</v>
+        <v>1822600</v>
       </c>
       <c r="J57" s="3">
+        <v>1683900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1707000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1614000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1543200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1488100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1736200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1528000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1323600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1350000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1233400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1348000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1257900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1623700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1777600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1959500</v>
+        <v>1885200</v>
       </c>
       <c r="E58" s="3">
-        <v>1862400</v>
+        <v>1929500</v>
       </c>
       <c r="F58" s="3">
-        <v>647300</v>
+        <v>1833800</v>
       </c>
       <c r="G58" s="3">
-        <v>1046600</v>
+        <v>637400</v>
       </c>
       <c r="H58" s="3">
-        <v>748500</v>
+        <v>1030600</v>
       </c>
       <c r="I58" s="3">
-        <v>420600</v>
+        <v>737000</v>
       </c>
       <c r="J58" s="3">
+        <v>414200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2599500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2298100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2118700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2010500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2235800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2243600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2379100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2795400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3374100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3695000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3205900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3233000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1740100</v>
+        <v>1876000</v>
       </c>
       <c r="E59" s="3">
-        <v>1596700</v>
+        <v>1713400</v>
       </c>
       <c r="F59" s="3">
-        <v>1602600</v>
+        <v>1572200</v>
       </c>
       <c r="G59" s="3">
-        <v>1381800</v>
+        <v>1578000</v>
       </c>
       <c r="H59" s="3">
-        <v>1139300</v>
+        <v>1360600</v>
       </c>
       <c r="I59" s="3">
-        <v>911100</v>
+        <v>1121800</v>
       </c>
       <c r="J59" s="3">
+        <v>897100</v>
+      </c>
+      <c r="K59" s="3">
         <v>679000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>571900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>546700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>625300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>522000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>498700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>526100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>761100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>719900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>760100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>881200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>858600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>814100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6270500</v>
+        <v>5733600</v>
       </c>
       <c r="E60" s="3">
-        <v>5324900</v>
+        <v>6174200</v>
       </c>
       <c r="F60" s="3">
-        <v>3913500</v>
+        <v>5243100</v>
       </c>
       <c r="G60" s="3">
-        <v>4035400</v>
+        <v>3853400</v>
       </c>
       <c r="H60" s="3">
-        <v>3738800</v>
+        <v>3973500</v>
       </c>
       <c r="I60" s="3">
-        <v>3041800</v>
+        <v>3681400</v>
       </c>
       <c r="J60" s="3">
+        <v>2995100</v>
+      </c>
+      <c r="K60" s="3">
         <v>4985500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4483900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4208600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4123900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4494000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4270300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4228800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4906500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5327400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5803000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5344900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5715300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3323500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9053600</v>
+        <v>6981900</v>
       </c>
       <c r="E61" s="3">
-        <v>8873800</v>
+        <v>8914600</v>
       </c>
       <c r="F61" s="3">
-        <v>11077500</v>
+        <v>8737600</v>
       </c>
       <c r="G61" s="3">
-        <v>10926700</v>
+        <v>10907400</v>
       </c>
       <c r="H61" s="3">
-        <v>9556400</v>
+        <v>10758900</v>
       </c>
       <c r="I61" s="3">
-        <v>7448400</v>
+        <v>9409700</v>
       </c>
       <c r="J61" s="3">
+        <v>7334000</v>
+      </c>
+      <c r="K61" s="3">
         <v>4956900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4362300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4937800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4310300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4438500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4496800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4981500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5685600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4740400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4970200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4871100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5144300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7597500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2601100</v>
+        <v>2202100</v>
       </c>
       <c r="E62" s="3">
-        <v>2674200</v>
+        <v>2561200</v>
       </c>
       <c r="F62" s="3">
-        <v>2371600</v>
+        <v>2633200</v>
       </c>
       <c r="G62" s="3">
-        <v>1900200</v>
+        <v>2335200</v>
       </c>
       <c r="H62" s="3">
-        <v>1719500</v>
+        <v>1871000</v>
       </c>
       <c r="I62" s="3">
-        <v>1549500</v>
+        <v>1693100</v>
       </c>
       <c r="J62" s="3">
+        <v>1525700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1173400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1112200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1004100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1071500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1129300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1096400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1408600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1624600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1772800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1746400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1575400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1569400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1162700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17565000</v>
+        <v>14641900</v>
       </c>
       <c r="E66" s="3">
-        <v>16560700</v>
+        <v>17295300</v>
       </c>
       <c r="F66" s="3">
-        <v>16997300</v>
+        <v>16306500</v>
       </c>
       <c r="G66" s="3">
-        <v>16495000</v>
+        <v>16736300</v>
       </c>
       <c r="H66" s="3">
-        <v>14664500</v>
+        <v>16241800</v>
       </c>
       <c r="I66" s="3">
-        <v>11863300</v>
+        <v>14439300</v>
       </c>
       <c r="J66" s="3">
+        <v>11681100</v>
+      </c>
+      <c r="K66" s="3">
         <v>10917200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9805200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9987100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9349300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9920900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9696800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10466600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12004700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11654000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12338600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11595600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12176600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11845300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-380500</v>
+        <v>998600</v>
       </c>
       <c r="E72" s="3">
-        <v>-849700</v>
+        <v>-374700</v>
       </c>
       <c r="F72" s="3">
-        <v>-1009200</v>
+        <v>-836600</v>
       </c>
       <c r="G72" s="3">
-        <v>-745400</v>
+        <v>-993700</v>
       </c>
       <c r="H72" s="3">
-        <v>-282200</v>
+        <v>-733900</v>
       </c>
       <c r="I72" s="3">
-        <v>401000</v>
+        <v>-277900</v>
       </c>
       <c r="J72" s="3">
+        <v>394800</v>
+      </c>
+      <c r="K72" s="3">
         <v>947600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1050500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1111600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>875200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1044400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>794400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1223400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1071200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1226800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1020100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>714900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>264700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>914200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>80700</v>
+        <v>1599500</v>
       </c>
       <c r="E76" s="3">
-        <v>-413100</v>
+        <v>79500</v>
       </c>
       <c r="F76" s="3">
-        <v>-837500</v>
+        <v>-406800</v>
       </c>
       <c r="G76" s="3">
-        <v>-634100</v>
+        <v>-824600</v>
       </c>
       <c r="H76" s="3">
-        <v>-187600</v>
+        <v>-624300</v>
       </c>
       <c r="I76" s="3">
-        <v>916400</v>
+        <v>-184700</v>
       </c>
       <c r="J76" s="3">
+        <v>902300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1362500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1492300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1509600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1210900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1327200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1063800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1865400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1671000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1981900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1652600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1320600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>679400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1328400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>467900</v>
+        <v>1371100</v>
       </c>
       <c r="E81" s="3">
-        <v>158700</v>
+        <v>460700</v>
       </c>
       <c r="F81" s="3">
-        <v>-265000</v>
+        <v>156300</v>
       </c>
       <c r="G81" s="3">
-        <v>-464400</v>
+        <v>-261000</v>
       </c>
       <c r="H81" s="3">
-        <v>-684500</v>
+        <v>-457300</v>
       </c>
       <c r="I81" s="3">
-        <v>-548100</v>
+        <v>-674000</v>
       </c>
       <c r="J81" s="3">
+        <v>-539700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-166500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>173700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>248700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>296200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>246000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>99000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>204900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>279400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>448400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-628000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>174800</v>
+        <v>170400</v>
       </c>
       <c r="E83" s="3">
-        <v>196300</v>
+        <v>172100</v>
       </c>
       <c r="F83" s="3">
-        <v>198600</v>
+        <v>193300</v>
       </c>
       <c r="G83" s="3">
-        <v>181800</v>
+        <v>195500</v>
       </c>
       <c r="H83" s="3">
-        <v>182600</v>
+        <v>179000</v>
       </c>
       <c r="I83" s="3">
-        <v>192200</v>
+        <v>179800</v>
       </c>
       <c r="J83" s="3">
+        <v>189200</v>
+      </c>
+      <c r="K83" s="3">
         <v>164500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>153900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>161300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>132300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>145800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>270300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>172800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>194800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>191000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>185100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>174200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>177700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>432100</v>
+        <v>464000</v>
       </c>
       <c r="E89" s="3">
-        <v>720200</v>
+        <v>425500</v>
       </c>
       <c r="F89" s="3">
-        <v>182200</v>
+        <v>709200</v>
       </c>
       <c r="G89" s="3">
-        <v>-123700</v>
+        <v>179400</v>
       </c>
       <c r="H89" s="3">
-        <v>401700</v>
+        <v>-121800</v>
       </c>
       <c r="I89" s="3">
-        <v>172000</v>
+        <v>395500</v>
       </c>
       <c r="J89" s="3">
+        <v>169400</v>
+      </c>
+      <c r="K89" s="3">
         <v>150400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-88200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>195400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>179800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>391200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1133900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>420500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>341000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>377300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-232900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>141000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>179800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>704800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-92000</v>
+        <v>-135500</v>
       </c>
       <c r="E91" s="3">
-        <v>-155600</v>
+        <v>-90500</v>
       </c>
       <c r="F91" s="3">
-        <v>-85500</v>
+        <v>-153200</v>
       </c>
       <c r="G91" s="3">
-        <v>-106900</v>
+        <v>-84200</v>
       </c>
       <c r="H91" s="3">
-        <v>-169800</v>
+        <v>-105200</v>
       </c>
       <c r="I91" s="3">
-        <v>-167500</v>
+        <v>-167200</v>
       </c>
       <c r="J91" s="3">
+        <v>-164900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-118100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-124700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-85300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-160800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-122100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-211900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-94500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-187200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-198300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-120300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-67700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-418100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-262200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-89100</v>
+        <v>-130900</v>
       </c>
       <c r="E94" s="3">
-        <v>-151500</v>
+        <v>-87700</v>
       </c>
       <c r="F94" s="3">
-        <v>-85500</v>
+        <v>-149200</v>
       </c>
       <c r="G94" s="3">
-        <v>-104300</v>
+        <v>-84200</v>
       </c>
       <c r="H94" s="3">
-        <v>-169200</v>
+        <v>-102700</v>
       </c>
       <c r="I94" s="3">
-        <v>-165400</v>
+        <v>-166600</v>
       </c>
       <c r="J94" s="3">
+        <v>-162900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-169800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-75000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-85300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-150800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-107300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-196700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-94200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-341100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-195500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-68200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-206800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-130100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5565,23 +5799,23 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-400</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
-        <v>-125000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-123100</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5589,17 +5823,17 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-277500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-256100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -5607,13 +5841,16 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-247800</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-684000</v>
+        <v>-722500</v>
       </c>
       <c r="E100" s="3">
-        <v>-217600</v>
+        <v>-673500</v>
       </c>
       <c r="F100" s="3">
-        <v>-622400</v>
+        <v>-214200</v>
       </c>
       <c r="G100" s="3">
-        <v>1072100</v>
+        <v>-612900</v>
       </c>
       <c r="H100" s="3">
-        <v>175600</v>
+        <v>1055600</v>
       </c>
       <c r="I100" s="3">
-        <v>215500</v>
+        <v>172900</v>
       </c>
       <c r="J100" s="3">
+        <v>212200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-24900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>123000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>73500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-297900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-630100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-405100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-416900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-275700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>35200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-105200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-237800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-197800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>84100</v>
+        <v>-114500</v>
       </c>
       <c r="E101" s="3">
-        <v>-62500</v>
+        <v>82800</v>
       </c>
       <c r="F101" s="3">
-        <v>26600</v>
+        <v>-61600</v>
       </c>
       <c r="G101" s="3">
-        <v>80500</v>
+        <v>26200</v>
       </c>
       <c r="H101" s="3">
-        <v>202000</v>
+        <v>79300</v>
       </c>
       <c r="I101" s="3">
-        <v>-17900</v>
+        <v>198900</v>
       </c>
       <c r="J101" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="K101" s="3">
         <v>30500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>14500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-33800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-52700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-13000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>27500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-24500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>11300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>14900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-256900</v>
+        <v>-503900</v>
       </c>
       <c r="E102" s="3">
-        <v>288600</v>
+        <v>-252900</v>
       </c>
       <c r="F102" s="3">
-        <v>-499100</v>
+        <v>284200</v>
       </c>
       <c r="G102" s="3">
-        <v>924600</v>
+        <v>-491400</v>
       </c>
       <c r="H102" s="3">
-        <v>610000</v>
+        <v>910400</v>
       </c>
       <c r="I102" s="3">
-        <v>204200</v>
+        <v>600600</v>
       </c>
       <c r="J102" s="3">
+        <v>201100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-13700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-55900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>104100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>117100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-47900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>254400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-84500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-430000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-66400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-232200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-21000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-254500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>362100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4880100</v>
+        <v>5052000</v>
       </c>
       <c r="E8" s="3">
-        <v>4191200</v>
+        <v>4716800</v>
       </c>
       <c r="F8" s="3">
-        <v>3461000</v>
+        <v>4051000</v>
       </c>
       <c r="G8" s="3">
-        <v>2953700</v>
+        <v>3345200</v>
       </c>
       <c r="H8" s="3">
-        <v>2066500</v>
+        <v>2854900</v>
       </c>
       <c r="I8" s="3">
-        <v>2331800</v>
+        <v>1997400</v>
       </c>
       <c r="J8" s="3">
+        <v>2253700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2334600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2507600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2361600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2428600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2646900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3024900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4961600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3042500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3237700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3118100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3043300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3125700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2988400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2972300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3067700</v>
+        <v>3569500</v>
       </c>
       <c r="E9" s="3">
-        <v>2854400</v>
+        <v>2965000</v>
       </c>
       <c r="F9" s="3">
-        <v>2548500</v>
+        <v>2758900</v>
       </c>
       <c r="G9" s="3">
-        <v>2295200</v>
+        <v>2463200</v>
       </c>
       <c r="H9" s="3">
-        <v>1783400</v>
+        <v>2218400</v>
       </c>
       <c r="I9" s="3">
-        <v>2115100</v>
+        <v>1723700</v>
       </c>
       <c r="J9" s="3">
+        <v>2044300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2043700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2185500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2071700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2107800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2300800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2358800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3868600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2411600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2405700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2349100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2319300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2210800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2269000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2174500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1812400</v>
+        <v>1482500</v>
       </c>
       <c r="E10" s="3">
-        <v>1336900</v>
+        <v>1751700</v>
       </c>
       <c r="F10" s="3">
-        <v>912500</v>
+        <v>1292100</v>
       </c>
       <c r="G10" s="3">
-        <v>658600</v>
+        <v>882000</v>
       </c>
       <c r="H10" s="3">
-        <v>283100</v>
+        <v>636500</v>
       </c>
       <c r="I10" s="3">
-        <v>216700</v>
+        <v>273600</v>
       </c>
       <c r="J10" s="3">
+        <v>209500</v>
+      </c>
+      <c r="K10" s="3">
         <v>291000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>322100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>289900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>320800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>346100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>666100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1093000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>630900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>831900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>769000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>724100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>914900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>719400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>797900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11500</v>
+        <v>13200</v>
       </c>
       <c r="E12" s="3">
-        <v>11500</v>
+        <v>11100</v>
       </c>
       <c r="F12" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>13900</v>
+      </c>
+      <c r="H12" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K12" s="3">
         <v>14400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="L12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="M12" s="3">
+        <v>9900</v>
+      </c>
+      <c r="N12" s="3">
+        <v>10300</v>
+      </c>
+      <c r="O12" s="3">
         <v>11700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="P12" s="3">
+        <v>10700</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>17700</v>
+      </c>
+      <c r="R12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="S12" s="3">
+        <v>14500</v>
+      </c>
+      <c r="T12" s="3">
         <v>10000</v>
       </c>
-      <c r="I12" s="3">
-        <v>10200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>14400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>11000</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="U12" s="3">
         <v>9900</v>
       </c>
-      <c r="M12" s="3">
-        <v>10300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>11700</v>
-      </c>
-      <c r="O12" s="3">
-        <v>10700</v>
-      </c>
-      <c r="P12" s="3">
-        <v>17700</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>9100</v>
-      </c>
-      <c r="R12" s="3">
-        <v>14500</v>
-      </c>
-      <c r="S12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="T12" s="3">
-        <v>9900</v>
-      </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>10500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,73 +1124,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-13600</v>
+        <v>-139100</v>
       </c>
       <c r="E14" s="3">
-        <v>-12300</v>
+        <v>-97600</v>
       </c>
       <c r="F14" s="3">
-        <v>374500</v>
+        <v>-111500</v>
       </c>
       <c r="G14" s="3">
-        <v>630200</v>
+        <v>342200</v>
       </c>
       <c r="H14" s="3">
-        <v>274400</v>
+        <v>575200</v>
       </c>
       <c r="I14" s="3">
-        <v>-2800</v>
+        <v>263500</v>
       </c>
       <c r="J14" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K14" s="3">
         <v>651700</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>77000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>60800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-15700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-30900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-6500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>15100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>10600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-65200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>26900</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3206100</v>
+        <v>3706500</v>
       </c>
       <c r="E17" s="3">
-        <v>2946400</v>
+        <v>3098800</v>
       </c>
       <c r="F17" s="3">
-        <v>3252100</v>
+        <v>2847800</v>
       </c>
       <c r="G17" s="3">
-        <v>3061700</v>
+        <v>3143300</v>
       </c>
       <c r="H17" s="3">
-        <v>2250400</v>
+        <v>2959200</v>
       </c>
       <c r="I17" s="3">
-        <v>2262200</v>
+        <v>2175100</v>
       </c>
       <c r="J17" s="3">
+        <v>2186500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2994600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2402800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2212400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2032800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2439400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2508600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4156600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2595500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2671600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2622900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2450700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2404300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3295900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2402600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1674000</v>
+        <v>1345500</v>
       </c>
       <c r="E18" s="3">
-        <v>1244900</v>
+        <v>1617900</v>
       </c>
       <c r="F18" s="3">
-        <v>208900</v>
+        <v>1203200</v>
       </c>
       <c r="G18" s="3">
-        <v>-107900</v>
+        <v>201900</v>
       </c>
       <c r="H18" s="3">
-        <v>-183900</v>
+        <v>-104300</v>
       </c>
       <c r="I18" s="3">
-        <v>69600</v>
+        <v>-177700</v>
       </c>
       <c r="J18" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-660000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>104800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>149300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>395800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>207500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>516300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>805000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>447000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>566000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>495200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>592600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>721500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-307500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>569700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>285600</v>
+        <v>-591300</v>
       </c>
       <c r="E20" s="3">
-        <v>-477300</v>
+        <v>276100</v>
       </c>
       <c r="F20" s="3">
-        <v>301900</v>
+        <v>-461300</v>
       </c>
       <c r="G20" s="3">
-        <v>-194600</v>
+        <v>291800</v>
       </c>
       <c r="H20" s="3">
-        <v>-303600</v>
+        <v>-188100</v>
       </c>
       <c r="I20" s="3">
-        <v>-1007700</v>
+        <v>-293500</v>
       </c>
       <c r="J20" s="3">
+        <v>-974000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-51500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-381300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-61000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-70600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-102900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-70400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-297800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-365400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-99500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-26500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>46800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-229800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-283500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2130000</v>
+        <v>925400</v>
       </c>
       <c r="E21" s="3">
-        <v>939700</v>
+        <v>2058700</v>
       </c>
       <c r="F21" s="3">
-        <v>704100</v>
+        <v>908200</v>
       </c>
       <c r="G21" s="3">
-        <v>-107000</v>
+        <v>680600</v>
       </c>
       <c r="H21" s="3">
-        <v>-308500</v>
+        <v>-103400</v>
       </c>
       <c r="I21" s="3">
-        <v>-758300</v>
+        <v>-298200</v>
       </c>
       <c r="J21" s="3">
+        <v>-733000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-522300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-112000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>242200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>486500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>236900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>591800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>777500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>616300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>395300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>586700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>751200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>942400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-356700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>462600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>108800</v>
+        <v>144400</v>
       </c>
       <c r="E22" s="3">
-        <v>162400</v>
+        <v>105200</v>
       </c>
       <c r="F22" s="3">
-        <v>136100</v>
+        <v>157000</v>
       </c>
       <c r="G22" s="3">
-        <v>143700</v>
+        <v>131600</v>
       </c>
       <c r="H22" s="3">
-        <v>144100</v>
+        <v>138900</v>
       </c>
       <c r="I22" s="3">
-        <v>147300</v>
+        <v>139200</v>
       </c>
       <c r="J22" s="3">
+        <v>142400</v>
+      </c>
+      <c r="K22" s="3">
         <v>109600</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>101700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>102100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>91800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>101900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>188500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>110300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>131700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>141600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>147200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>142400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>159500</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1850800</v>
+        <v>609800</v>
       </c>
       <c r="E23" s="3">
-        <v>605200</v>
+        <v>1788900</v>
       </c>
       <c r="F23" s="3">
-        <v>374700</v>
+        <v>584900</v>
       </c>
       <c r="G23" s="3">
-        <v>-446300</v>
+        <v>362200</v>
       </c>
       <c r="H23" s="3">
-        <v>-631600</v>
+        <v>-431300</v>
       </c>
       <c r="I23" s="3">
-        <v>-1085500</v>
+        <v>-610400</v>
       </c>
       <c r="J23" s="3">
+        <v>-1049200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-821100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-276500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>223100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>344000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>318600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>333200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>68800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>254200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>418900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>625800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-696900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>286200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>454100</v>
+        <v>-18200</v>
       </c>
       <c r="E24" s="3">
-        <v>159400</v>
+        <v>438900</v>
       </c>
       <c r="F24" s="3">
-        <v>212700</v>
+        <v>154000</v>
       </c>
       <c r="G24" s="3">
-        <v>-199300</v>
+        <v>205500</v>
       </c>
       <c r="H24" s="3">
-        <v>-170500</v>
+        <v>-192600</v>
       </c>
       <c r="I24" s="3">
-        <v>-335800</v>
+        <v>-164800</v>
       </c>
       <c r="J24" s="3">
+        <v>-324600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-288200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-91400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-23600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>51500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>44600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>77100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>64500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-11400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>58400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>126000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>153200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-46600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1396700</v>
+        <v>628000</v>
       </c>
       <c r="E26" s="3">
-        <v>445800</v>
+        <v>1350000</v>
       </c>
       <c r="F26" s="3">
-        <v>162100</v>
+        <v>430900</v>
       </c>
       <c r="G26" s="3">
-        <v>-247000</v>
+        <v>156700</v>
       </c>
       <c r="H26" s="3">
-        <v>-461100</v>
+        <v>-238800</v>
       </c>
       <c r="I26" s="3">
-        <v>-749700</v>
+        <v>-445700</v>
       </c>
       <c r="J26" s="3">
+        <v>-724600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-532900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-185000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>171600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-31900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>266800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>304100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>268800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>80200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>195800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>292900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>472700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-650200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>201700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1371100</v>
+        <v>631400</v>
       </c>
       <c r="E27" s="3">
-        <v>460700</v>
+        <v>1325300</v>
       </c>
       <c r="F27" s="3">
-        <v>156300</v>
+        <v>445300</v>
       </c>
       <c r="G27" s="3">
-        <v>-261000</v>
+        <v>151100</v>
       </c>
       <c r="H27" s="3">
-        <v>-457300</v>
+        <v>-252200</v>
       </c>
       <c r="I27" s="3">
-        <v>-674000</v>
+        <v>-442000</v>
       </c>
       <c r="J27" s="3">
+        <v>-651400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-539700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-166500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>173700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>248700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>296200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>246000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>99000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>204900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>279400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>446200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-628800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>219400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2056,16 +2117,19 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>2200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-285600</v>
+        <v>591300</v>
       </c>
       <c r="E32" s="3">
-        <v>477300</v>
+        <v>-276100</v>
       </c>
       <c r="F32" s="3">
-        <v>-301900</v>
+        <v>461300</v>
       </c>
       <c r="G32" s="3">
-        <v>194600</v>
+        <v>-291800</v>
       </c>
       <c r="H32" s="3">
-        <v>303600</v>
+        <v>188100</v>
       </c>
       <c r="I32" s="3">
-        <v>1007700</v>
+        <v>293500</v>
       </c>
       <c r="J32" s="3">
+        <v>974000</v>
+      </c>
+      <c r="K32" s="3">
         <v>51500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>381300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>61000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>70600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>102900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>70400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>297800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>365400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>99500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>26500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-46800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>229800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>283500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1371100</v>
+        <v>631400</v>
       </c>
       <c r="E33" s="3">
-        <v>460700</v>
+        <v>1325300</v>
       </c>
       <c r="F33" s="3">
-        <v>156300</v>
+        <v>445300</v>
       </c>
       <c r="G33" s="3">
-        <v>-261000</v>
+        <v>151100</v>
       </c>
       <c r="H33" s="3">
-        <v>-457300</v>
+        <v>-252200</v>
       </c>
       <c r="I33" s="3">
-        <v>-674000</v>
+        <v>-442000</v>
       </c>
       <c r="J33" s="3">
+        <v>-651400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-539700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-166500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>173700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>248700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>296200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>246000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>99000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>204900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>279400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>448400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-628000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1371100</v>
+        <v>631400</v>
       </c>
       <c r="E35" s="3">
-        <v>460700</v>
+        <v>1325300</v>
       </c>
       <c r="F35" s="3">
-        <v>156300</v>
+        <v>445300</v>
       </c>
       <c r="G35" s="3">
-        <v>-261000</v>
+        <v>151100</v>
       </c>
       <c r="H35" s="3">
-        <v>-457300</v>
+        <v>-252200</v>
       </c>
       <c r="I35" s="3">
-        <v>-674000</v>
+        <v>-442000</v>
       </c>
       <c r="J35" s="3">
+        <v>-651400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-539700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-166500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>173700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>248700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>296200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>246000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>99000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>204900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>279400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>448400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-628000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1803600</v>
+        <v>2146900</v>
       </c>
       <c r="E41" s="3">
-        <v>2307500</v>
+        <v>1743300</v>
       </c>
       <c r="F41" s="3">
-        <v>2560500</v>
+        <v>2230300</v>
       </c>
       <c r="G41" s="3">
-        <v>2276300</v>
+        <v>2474800</v>
       </c>
       <c r="H41" s="3">
-        <v>2767700</v>
+        <v>2200100</v>
       </c>
       <c r="I41" s="3">
-        <v>1857300</v>
+        <v>2675100</v>
       </c>
       <c r="J41" s="3">
+        <v>1795200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1256700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1072000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1024900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1142200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>989700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>905000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>952900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>797100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>967900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1397900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1464300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1641600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1662600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2034300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>702900</v>
+        <v>524200</v>
       </c>
       <c r="E42" s="3">
-        <v>716400</v>
+        <v>679300</v>
       </c>
       <c r="F42" s="3">
-        <v>669900</v>
+        <v>692400</v>
       </c>
       <c r="G42" s="3">
-        <v>591900</v>
+        <v>647500</v>
       </c>
       <c r="H42" s="3">
-        <v>508400</v>
+        <v>572100</v>
       </c>
       <c r="I42" s="3">
-        <v>423200</v>
+        <v>491400</v>
       </c>
       <c r="J42" s="3">
+        <v>409100</v>
+      </c>
+      <c r="K42" s="3">
         <v>311700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>241600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>120300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>321900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>420600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>385000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>380400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>569800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>590400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>585700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>686500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>250900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>295300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>107400</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2292400</v>
+        <v>2427300</v>
       </c>
       <c r="E43" s="3">
-        <v>2036500</v>
+        <v>2215700</v>
       </c>
       <c r="F43" s="3">
-        <v>1466100</v>
+        <v>1968400</v>
       </c>
       <c r="G43" s="3">
-        <v>1251400</v>
+        <v>1417100</v>
       </c>
       <c r="H43" s="3">
-        <v>1084900</v>
+        <v>1209500</v>
       </c>
       <c r="I43" s="3">
-        <v>1016200</v>
+        <v>1048600</v>
       </c>
       <c r="J43" s="3">
+        <v>982200</v>
+      </c>
+      <c r="K43" s="3">
         <v>1321200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1026100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>893800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>861400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>842900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1091300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>836300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1029700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1263800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1077900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1019500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>752400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>658900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>796900</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2347200</v>
+        <v>2564600</v>
       </c>
       <c r="E44" s="3">
-        <v>2205200</v>
+        <v>2268600</v>
       </c>
       <c r="F44" s="3">
-        <v>1548500</v>
+        <v>2131400</v>
       </c>
       <c r="G44" s="3">
-        <v>1489700</v>
+        <v>1496600</v>
       </c>
       <c r="H44" s="3">
-        <v>1361100</v>
+        <v>1439800</v>
       </c>
       <c r="I44" s="3">
-        <v>1446900</v>
+        <v>1315600</v>
       </c>
       <c r="J44" s="3">
+        <v>1398500</v>
+      </c>
+      <c r="K44" s="3">
         <v>1408400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1476000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1464000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1515400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1514000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1655100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1501300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1559800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1755400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1473200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1514600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1375900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1299400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1209100</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>64500</v>
+        <v>34700</v>
       </c>
       <c r="E45" s="3">
-        <v>66000</v>
+        <v>62400</v>
       </c>
       <c r="F45" s="3">
-        <v>69900</v>
+        <v>63800</v>
       </c>
       <c r="G45" s="3">
-        <v>80300</v>
+        <v>67600</v>
       </c>
       <c r="H45" s="3">
-        <v>74600</v>
+        <v>77600</v>
       </c>
       <c r="I45" s="3">
-        <v>17500</v>
+        <v>72100</v>
       </c>
       <c r="J45" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K45" s="3">
         <v>22100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>59800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>47700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>29100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>31200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>35400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>51200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>52400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>111400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>116600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7210600</v>
+        <v>7697600</v>
       </c>
       <c r="E46" s="3">
-        <v>7331500</v>
+        <v>6969300</v>
       </c>
       <c r="F46" s="3">
-        <v>6314900</v>
+        <v>7086200</v>
       </c>
       <c r="G46" s="3">
-        <v>5689600</v>
+        <v>6103600</v>
       </c>
       <c r="H46" s="3">
-        <v>5796700</v>
+        <v>5499300</v>
       </c>
       <c r="I46" s="3">
-        <v>4761100</v>
+        <v>5602800</v>
       </c>
       <c r="J46" s="3">
+        <v>4601800</v>
+      </c>
+      <c r="K46" s="3">
         <v>4320100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3845500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3542900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3900600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3814900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4061100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3700000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3987600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4612900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4585900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4737400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4132100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4032900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4186700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>424000</v>
+        <v>319400</v>
       </c>
       <c r="E47" s="3">
-        <v>278200</v>
+        <v>409800</v>
       </c>
       <c r="F47" s="3">
-        <v>268600</v>
+        <v>268900</v>
       </c>
       <c r="G47" s="3">
-        <v>430900</v>
+        <v>259600</v>
       </c>
       <c r="H47" s="3">
-        <v>484500</v>
+        <v>416500</v>
       </c>
       <c r="I47" s="3">
-        <v>588800</v>
+        <v>468300</v>
       </c>
       <c r="J47" s="3">
+        <v>569100</v>
+      </c>
+      <c r="K47" s="3">
         <v>511200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>441100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>506500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>562700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>338000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>238400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>250800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>309100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>329600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>378500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>380000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>362800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>345300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>426900</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6942400</v>
+        <v>6966800</v>
       </c>
       <c r="E48" s="3">
-        <v>7445500</v>
+        <v>6710100</v>
       </c>
       <c r="F48" s="3">
-        <v>7172200</v>
+        <v>7196400</v>
       </c>
       <c r="G48" s="3">
-        <v>7219000</v>
+        <v>6932200</v>
       </c>
       <c r="H48" s="3">
-        <v>7016200</v>
+        <v>6977400</v>
       </c>
       <c r="I48" s="3">
-        <v>6852100</v>
+        <v>6781500</v>
       </c>
       <c r="J48" s="3">
+        <v>6622800</v>
+      </c>
+      <c r="K48" s="3">
         <v>6449900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6356800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5860000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6264500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5666000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6059100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5851700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7088700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7630300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7640900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7806300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7344800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7277900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7403700</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>518200</v>
+        <v>505100</v>
       </c>
       <c r="E49" s="3">
-        <v>524600</v>
+        <v>500900</v>
       </c>
       <c r="F49" s="3">
-        <v>522500</v>
+        <v>507000</v>
       </c>
       <c r="G49" s="3">
-        <v>519100</v>
+        <v>505000</v>
       </c>
       <c r="H49" s="3">
-        <v>513900</v>
+        <v>501700</v>
       </c>
       <c r="I49" s="3">
-        <v>512400</v>
+        <v>496700</v>
       </c>
       <c r="J49" s="3">
+        <v>495200</v>
+      </c>
+      <c r="K49" s="3">
         <v>510200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>515400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>483000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>510800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>489000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>508500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>506900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>633500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>699300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>704400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>714300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>689900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>696900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>699100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1146200</v>
+        <v>1369600</v>
       </c>
       <c r="E52" s="3">
-        <v>1794900</v>
+        <v>1107900</v>
       </c>
       <c r="F52" s="3">
-        <v>1621500</v>
+        <v>1734900</v>
       </c>
       <c r="G52" s="3">
-        <v>2053100</v>
+        <v>1567200</v>
       </c>
       <c r="H52" s="3">
-        <v>1806000</v>
+        <v>1984400</v>
       </c>
       <c r="I52" s="3">
-        <v>1540300</v>
+        <v>1745600</v>
       </c>
       <c r="J52" s="3">
+        <v>1488700</v>
+      </c>
+      <c r="K52" s="3">
         <v>792100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1120900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>905000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>258100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>252400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>381100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>451100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>313100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>403600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>326100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>353300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>386600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>503100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>457300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16241400</v>
+        <v>16858400</v>
       </c>
       <c r="E54" s="3">
-        <v>17374800</v>
+        <v>15698000</v>
       </c>
       <c r="F54" s="3">
-        <v>15899700</v>
+        <v>16793400</v>
       </c>
       <c r="G54" s="3">
-        <v>15911700</v>
+        <v>15367700</v>
       </c>
       <c r="H54" s="3">
-        <v>15617400</v>
+        <v>15379300</v>
       </c>
       <c r="I54" s="3">
-        <v>14254600</v>
+        <v>15094900</v>
       </c>
       <c r="J54" s="3">
+        <v>13777600</v>
+      </c>
+      <c r="K54" s="3">
         <v>12583400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12279700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11297500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11496800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10560200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11248200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10760600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12332000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13675700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13635900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13991200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12916200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12856000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>13173700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1972400</v>
+        <v>1863400</v>
       </c>
       <c r="E57" s="3">
-        <v>2531400</v>
+        <v>1906400</v>
       </c>
       <c r="F57" s="3">
-        <v>1837100</v>
+        <v>2446700</v>
       </c>
       <c r="G57" s="3">
-        <v>1638000</v>
+        <v>1775600</v>
       </c>
       <c r="H57" s="3">
-        <v>1582300</v>
+        <v>1583200</v>
       </c>
       <c r="I57" s="3">
-        <v>1822600</v>
+        <v>1529400</v>
       </c>
       <c r="J57" s="3">
+        <v>1761600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1683900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1707000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1614000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1543200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1488100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1736200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1528000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1323600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1350000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1233400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1348000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1257900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1623700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1777600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1885200</v>
+        <v>1606400</v>
       </c>
       <c r="E58" s="3">
-        <v>1929500</v>
+        <v>1822200</v>
       </c>
       <c r="F58" s="3">
-        <v>1833800</v>
+        <v>1864900</v>
       </c>
       <c r="G58" s="3">
-        <v>637400</v>
+        <v>1772500</v>
       </c>
       <c r="H58" s="3">
-        <v>1030600</v>
+        <v>616100</v>
       </c>
       <c r="I58" s="3">
-        <v>737000</v>
+        <v>996100</v>
       </c>
       <c r="J58" s="3">
+        <v>712300</v>
+      </c>
+      <c r="K58" s="3">
         <v>414200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2599500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2298100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2118700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2010500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2235800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2243600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2379100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2795400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3374100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3695000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3205900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3233000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1876000</v>
+        <v>2307700</v>
       </c>
       <c r="E59" s="3">
-        <v>1713400</v>
+        <v>1813200</v>
       </c>
       <c r="F59" s="3">
-        <v>1572200</v>
+        <v>1656000</v>
       </c>
       <c r="G59" s="3">
-        <v>1578000</v>
+        <v>1519600</v>
       </c>
       <c r="H59" s="3">
-        <v>1360600</v>
+        <v>1525200</v>
       </c>
       <c r="I59" s="3">
-        <v>1121800</v>
+        <v>1315100</v>
       </c>
       <c r="J59" s="3">
+        <v>1084200</v>
+      </c>
+      <c r="K59" s="3">
         <v>897100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>679000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>571900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>546700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>625300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>522000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>498700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>526100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>761100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>719900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>760100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>881200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>858600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>814100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5733600</v>
+        <v>5777500</v>
       </c>
       <c r="E60" s="3">
-        <v>6174200</v>
+        <v>5541800</v>
       </c>
       <c r="F60" s="3">
-        <v>5243100</v>
+        <v>5967600</v>
       </c>
       <c r="G60" s="3">
-        <v>3853400</v>
+        <v>5067700</v>
       </c>
       <c r="H60" s="3">
-        <v>3973500</v>
+        <v>3724500</v>
       </c>
       <c r="I60" s="3">
-        <v>3681400</v>
+        <v>3840500</v>
       </c>
       <c r="J60" s="3">
+        <v>3558200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2995100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4985500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4483900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4208600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4123900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4494000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4270300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4228800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4906500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5327400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5803000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5344900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5715300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3323500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6981900</v>
+        <v>7084200</v>
       </c>
       <c r="E61" s="3">
-        <v>8914600</v>
+        <v>6748300</v>
       </c>
       <c r="F61" s="3">
-        <v>8737600</v>
+        <v>8616300</v>
       </c>
       <c r="G61" s="3">
-        <v>10907400</v>
+        <v>8445200</v>
       </c>
       <c r="H61" s="3">
-        <v>10758900</v>
+        <v>10542500</v>
       </c>
       <c r="I61" s="3">
-        <v>9409700</v>
+        <v>10398900</v>
       </c>
       <c r="J61" s="3">
+        <v>9094800</v>
+      </c>
+      <c r="K61" s="3">
         <v>7334000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4956900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4362300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4937800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4310300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4438500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4496800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4981500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5685600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4740400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4970200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4871100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5144300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7597500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2202100</v>
+        <v>2009000</v>
       </c>
       <c r="E62" s="3">
-        <v>2561200</v>
+        <v>2128400</v>
       </c>
       <c r="F62" s="3">
-        <v>2633200</v>
+        <v>2475500</v>
       </c>
       <c r="G62" s="3">
-        <v>2335200</v>
+        <v>2545100</v>
       </c>
       <c r="H62" s="3">
-        <v>1871000</v>
+        <v>2257100</v>
       </c>
       <c r="I62" s="3">
-        <v>1693100</v>
+        <v>1808400</v>
       </c>
       <c r="J62" s="3">
+        <v>1636400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1525700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1173400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1112200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1004100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1071500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1129300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1096400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1408600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1624600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1772800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1746400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1575400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1569400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1162700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14641900</v>
+        <v>14579800</v>
       </c>
       <c r="E66" s="3">
-        <v>17295300</v>
+        <v>14152000</v>
       </c>
       <c r="F66" s="3">
-        <v>16306500</v>
+        <v>16716600</v>
       </c>
       <c r="G66" s="3">
-        <v>16736300</v>
+        <v>15760900</v>
       </c>
       <c r="H66" s="3">
-        <v>16241800</v>
+        <v>16176300</v>
       </c>
       <c r="I66" s="3">
-        <v>14439300</v>
+        <v>15698300</v>
       </c>
       <c r="J66" s="3">
+        <v>13956200</v>
+      </c>
+      <c r="K66" s="3">
         <v>11681100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10917200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9805200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9987100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9349300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9920900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9696800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10466600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12004700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11654000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12338600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11595600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12176600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11845300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>998600</v>
+        <v>1597800</v>
       </c>
       <c r="E72" s="3">
-        <v>-374700</v>
+        <v>965200</v>
       </c>
       <c r="F72" s="3">
-        <v>-836600</v>
+        <v>-362100</v>
       </c>
       <c r="G72" s="3">
-        <v>-993700</v>
+        <v>-808600</v>
       </c>
       <c r="H72" s="3">
-        <v>-733900</v>
+        <v>-960500</v>
       </c>
       <c r="I72" s="3">
-        <v>-277900</v>
+        <v>-709400</v>
       </c>
       <c r="J72" s="3">
+        <v>-268600</v>
+      </c>
+      <c r="K72" s="3">
         <v>394800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>947600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1050500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1111600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>875200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1044400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>794400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1223400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1071200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1226800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1020100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>714900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>264700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>914200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1599500</v>
+        <v>2278700</v>
       </c>
       <c r="E76" s="3">
-        <v>79500</v>
+        <v>1546000</v>
       </c>
       <c r="F76" s="3">
-        <v>-406800</v>
+        <v>76800</v>
       </c>
       <c r="G76" s="3">
-        <v>-824600</v>
+        <v>-393200</v>
       </c>
       <c r="H76" s="3">
-        <v>-624300</v>
+        <v>-797000</v>
       </c>
       <c r="I76" s="3">
-        <v>-184700</v>
+        <v>-603400</v>
       </c>
       <c r="J76" s="3">
+        <v>-178500</v>
+      </c>
+      <c r="K76" s="3">
         <v>902300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1362500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1492300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1509600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1210900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1327200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1063800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1865400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1671000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1981900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1652600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1320600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>679400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1328400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1371100</v>
+        <v>631400</v>
       </c>
       <c r="E81" s="3">
-        <v>460700</v>
+        <v>1325300</v>
       </c>
       <c r="F81" s="3">
-        <v>156300</v>
+        <v>445300</v>
       </c>
       <c r="G81" s="3">
-        <v>-261000</v>
+        <v>151100</v>
       </c>
       <c r="H81" s="3">
-        <v>-457300</v>
+        <v>-252200</v>
       </c>
       <c r="I81" s="3">
-        <v>-674000</v>
+        <v>-442000</v>
       </c>
       <c r="J81" s="3">
+        <v>-651400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-539700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-166500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>173700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>248700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>296200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>246000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>99000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>204900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>279400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>448400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-628000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>170400</v>
+        <v>171100</v>
       </c>
       <c r="E83" s="3">
-        <v>172100</v>
+        <v>164700</v>
       </c>
       <c r="F83" s="3">
-        <v>193300</v>
+        <v>166300</v>
       </c>
       <c r="G83" s="3">
-        <v>195500</v>
+        <v>186800</v>
       </c>
       <c r="H83" s="3">
-        <v>179000</v>
+        <v>189000</v>
       </c>
       <c r="I83" s="3">
-        <v>179800</v>
+        <v>173100</v>
       </c>
       <c r="J83" s="3">
+        <v>173800</v>
+      </c>
+      <c r="K83" s="3">
         <v>189200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>164500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>153900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>161300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>132300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>145800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>270300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>172800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>194800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>191000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>185100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>174200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>177700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>464000</v>
+        <v>1024200</v>
       </c>
       <c r="E89" s="3">
-        <v>425500</v>
+        <v>448500</v>
       </c>
       <c r="F89" s="3">
-        <v>709200</v>
+        <v>411300</v>
       </c>
       <c r="G89" s="3">
-        <v>179400</v>
+        <v>685400</v>
       </c>
       <c r="H89" s="3">
-        <v>-121800</v>
+        <v>173400</v>
       </c>
       <c r="I89" s="3">
-        <v>395500</v>
+        <v>-117700</v>
       </c>
       <c r="J89" s="3">
+        <v>382300</v>
+      </c>
+      <c r="K89" s="3">
         <v>169400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>150400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-88200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>195400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>179800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>391200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1133900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>420500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>341000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>377300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-232900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>141000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>179800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>704800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-135500</v>
+        <v>-146300</v>
       </c>
       <c r="E91" s="3">
-        <v>-90500</v>
+        <v>-130900</v>
       </c>
       <c r="F91" s="3">
-        <v>-153200</v>
+        <v>-87500</v>
       </c>
       <c r="G91" s="3">
-        <v>-84200</v>
+        <v>-148000</v>
       </c>
       <c r="H91" s="3">
-        <v>-105200</v>
+        <v>-81300</v>
       </c>
       <c r="I91" s="3">
-        <v>-167200</v>
+        <v>-101700</v>
       </c>
       <c r="J91" s="3">
+        <v>-161600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-164900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-118100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-124700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-85300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-160800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-122100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-211900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-94500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-187200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-198300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-120300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-67700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-418100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-262200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-130900</v>
+        <v>-146200</v>
       </c>
       <c r="E94" s="3">
-        <v>-87700</v>
+        <v>-126600</v>
       </c>
       <c r="F94" s="3">
-        <v>-149200</v>
+        <v>-84800</v>
       </c>
       <c r="G94" s="3">
-        <v>-84200</v>
+        <v>-144200</v>
       </c>
       <c r="H94" s="3">
-        <v>-102700</v>
+        <v>-81300</v>
       </c>
       <c r="I94" s="3">
-        <v>-166600</v>
+        <v>-99300</v>
       </c>
       <c r="J94" s="3">
+        <v>-161100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-162900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-169800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-75000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-85300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-150800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-107300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-196700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-94200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-341100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-195500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-68200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-206800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-130100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,13 +6017,14 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5802,23 +6036,23 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-400</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-123100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5826,17 +6060,17 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-277500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-256100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -5844,13 +6078,16 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-247800</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-722500</v>
+        <v>-537300</v>
       </c>
       <c r="E100" s="3">
-        <v>-673500</v>
+        <v>-698300</v>
       </c>
       <c r="F100" s="3">
-        <v>-214200</v>
+        <v>-651000</v>
       </c>
       <c r="G100" s="3">
-        <v>-612900</v>
+        <v>-207100</v>
       </c>
       <c r="H100" s="3">
-        <v>1055600</v>
+        <v>-592300</v>
       </c>
       <c r="I100" s="3">
-        <v>172900</v>
+        <v>1020300</v>
       </c>
       <c r="J100" s="3">
+        <v>167100</v>
+      </c>
+      <c r="K100" s="3">
         <v>212200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-24900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>123000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>73500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-297900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-630100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-405100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-416900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-275700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>35200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-105200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-237800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-197800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-114500</v>
+        <v>62900</v>
       </c>
       <c r="E101" s="3">
-        <v>82800</v>
+        <v>-110700</v>
       </c>
       <c r="F101" s="3">
-        <v>-61600</v>
+        <v>80000</v>
       </c>
       <c r="G101" s="3">
-        <v>26200</v>
+        <v>-59500</v>
       </c>
       <c r="H101" s="3">
-        <v>79300</v>
+        <v>25300</v>
       </c>
       <c r="I101" s="3">
-        <v>198900</v>
+        <v>76600</v>
       </c>
       <c r="J101" s="3">
+        <v>192200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-17600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>30500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-15700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>14500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-33800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-52700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-13000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>27500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-24500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>11300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>14900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-503900</v>
+        <v>403600</v>
       </c>
       <c r="E102" s="3">
-        <v>-252900</v>
+        <v>-487100</v>
       </c>
       <c r="F102" s="3">
-        <v>284200</v>
+        <v>-244500</v>
       </c>
       <c r="G102" s="3">
-        <v>-491400</v>
+        <v>274600</v>
       </c>
       <c r="H102" s="3">
-        <v>910400</v>
+        <v>-475000</v>
       </c>
       <c r="I102" s="3">
-        <v>600600</v>
+        <v>880000</v>
       </c>
       <c r="J102" s="3">
+        <v>580500</v>
+      </c>
+      <c r="K102" s="3">
         <v>201100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-55900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>104100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>117100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-47900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>254400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-84500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-430000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-66400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-232200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-21000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-254500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>362100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5052000</v>
+        <v>5576700</v>
       </c>
       <c r="E8" s="3">
-        <v>4716800</v>
+        <v>5206600</v>
       </c>
       <c r="F8" s="3">
-        <v>4051000</v>
+        <v>4471700</v>
       </c>
       <c r="G8" s="3">
-        <v>3345200</v>
+        <v>3692600</v>
       </c>
       <c r="H8" s="3">
-        <v>2854900</v>
+        <v>3151400</v>
       </c>
       <c r="I8" s="3">
-        <v>1997400</v>
+        <v>2204800</v>
       </c>
       <c r="J8" s="3">
-        <v>2253700</v>
+        <v>2487800</v>
       </c>
       <c r="K8" s="3">
         <v>2334600</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3569500</v>
+        <v>3940200</v>
       </c>
       <c r="E9" s="3">
-        <v>2965000</v>
+        <v>3272900</v>
       </c>
       <c r="F9" s="3">
-        <v>2758900</v>
+        <v>3045400</v>
       </c>
       <c r="G9" s="3">
-        <v>2463200</v>
+        <v>2719000</v>
       </c>
       <c r="H9" s="3">
-        <v>2218400</v>
+        <v>2448800</v>
       </c>
       <c r="I9" s="3">
-        <v>1723700</v>
+        <v>1902700</v>
       </c>
       <c r="J9" s="3">
-        <v>2044300</v>
+        <v>2256600</v>
       </c>
       <c r="K9" s="3">
         <v>2043700</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1482500</v>
+        <v>1636500</v>
       </c>
       <c r="E10" s="3">
-        <v>1751700</v>
+        <v>1933700</v>
       </c>
       <c r="F10" s="3">
-        <v>1292100</v>
+        <v>1426300</v>
       </c>
       <c r="G10" s="3">
-        <v>882000</v>
+        <v>973500</v>
       </c>
       <c r="H10" s="3">
-        <v>636500</v>
+        <v>702600</v>
       </c>
       <c r="I10" s="3">
-        <v>273600</v>
+        <v>302100</v>
       </c>
       <c r="J10" s="3">
-        <v>209500</v>
+        <v>231200</v>
       </c>
       <c r="K10" s="3">
         <v>291000</v>
@@ -997,25 +997,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>13200</v>
+        <v>14500</v>
       </c>
       <c r="E12" s="3">
-        <v>11100</v>
+        <v>12200</v>
       </c>
       <c r="F12" s="3">
-        <v>11100</v>
+        <v>12300</v>
       </c>
       <c r="G12" s="3">
-        <v>13900</v>
+        <v>15300</v>
       </c>
       <c r="H12" s="3">
-        <v>11300</v>
+        <v>12500</v>
       </c>
       <c r="I12" s="3">
-        <v>9600</v>
+        <v>10600</v>
       </c>
       <c r="J12" s="3">
-        <v>9900</v>
+        <v>10900</v>
       </c>
       <c r="K12" s="3">
         <v>14400</v>
@@ -1133,25 +1133,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-139100</v>
+        <v>-153600</v>
       </c>
       <c r="E14" s="3">
-        <v>-97600</v>
+        <v>-107800</v>
       </c>
       <c r="F14" s="3">
-        <v>-111500</v>
+        <v>-123100</v>
       </c>
       <c r="G14" s="3">
-        <v>342200</v>
+        <v>377700</v>
       </c>
       <c r="H14" s="3">
-        <v>575200</v>
+        <v>635000</v>
       </c>
       <c r="I14" s="3">
-        <v>263500</v>
+        <v>290800</v>
       </c>
       <c r="J14" s="3">
-        <v>-2700</v>
+        <v>-3000</v>
       </c>
       <c r="K14" s="3">
         <v>651700</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3706500</v>
+        <v>4091400</v>
       </c>
       <c r="E17" s="3">
-        <v>3098800</v>
+        <v>3420600</v>
       </c>
       <c r="F17" s="3">
-        <v>2847800</v>
+        <v>3143600</v>
       </c>
       <c r="G17" s="3">
-        <v>3143300</v>
+        <v>3469700</v>
       </c>
       <c r="H17" s="3">
-        <v>2959200</v>
+        <v>3266500</v>
       </c>
       <c r="I17" s="3">
-        <v>2175100</v>
+        <v>2401000</v>
       </c>
       <c r="J17" s="3">
-        <v>2186500</v>
+        <v>2413500</v>
       </c>
       <c r="K17" s="3">
         <v>2994600</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1345500</v>
+        <v>1485300</v>
       </c>
       <c r="E18" s="3">
-        <v>1617900</v>
+        <v>1786000</v>
       </c>
       <c r="F18" s="3">
-        <v>1203200</v>
+        <v>1328200</v>
       </c>
       <c r="G18" s="3">
-        <v>201900</v>
+        <v>222900</v>
       </c>
       <c r="H18" s="3">
-        <v>-104300</v>
+        <v>-115100</v>
       </c>
       <c r="I18" s="3">
-        <v>-177700</v>
+        <v>-196200</v>
       </c>
       <c r="J18" s="3">
-        <v>67300</v>
+        <v>74300</v>
       </c>
       <c r="K18" s="3">
         <v>-660000</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-591300</v>
+        <v>-652700</v>
       </c>
       <c r="E20" s="3">
-        <v>276100</v>
+        <v>304800</v>
       </c>
       <c r="F20" s="3">
-        <v>-461300</v>
+        <v>-509200</v>
       </c>
       <c r="G20" s="3">
-        <v>291800</v>
+        <v>322200</v>
       </c>
       <c r="H20" s="3">
-        <v>-188100</v>
+        <v>-207600</v>
       </c>
       <c r="I20" s="3">
-        <v>-293500</v>
+        <v>-324000</v>
       </c>
       <c r="J20" s="3">
-        <v>-974000</v>
+        <v>-1075200</v>
       </c>
       <c r="K20" s="3">
         <v>-51500</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>925400</v>
+        <v>1021500</v>
       </c>
       <c r="E21" s="3">
-        <v>2058700</v>
+        <v>2272500</v>
       </c>
       <c r="F21" s="3">
-        <v>908200</v>
+        <v>1002500</v>
       </c>
       <c r="G21" s="3">
-        <v>680600</v>
+        <v>751300</v>
       </c>
       <c r="H21" s="3">
-        <v>-103400</v>
+        <v>-114100</v>
       </c>
       <c r="I21" s="3">
-        <v>-298200</v>
+        <v>-329100</v>
       </c>
       <c r="J21" s="3">
-        <v>-733000</v>
+        <v>-809100</v>
       </c>
       <c r="K21" s="3">
         <v>-522300</v>
@@ -1590,25 +1590,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>144400</v>
+        <v>159400</v>
       </c>
       <c r="E22" s="3">
-        <v>105200</v>
+        <v>116100</v>
       </c>
       <c r="F22" s="3">
-        <v>157000</v>
+        <v>173300</v>
       </c>
       <c r="G22" s="3">
-        <v>131600</v>
+        <v>145200</v>
       </c>
       <c r="H22" s="3">
-        <v>138900</v>
+        <v>153400</v>
       </c>
       <c r="I22" s="3">
-        <v>139200</v>
+        <v>153700</v>
       </c>
       <c r="J22" s="3">
-        <v>142400</v>
+        <v>157200</v>
       </c>
       <c r="K22" s="3">
         <v>109600</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>609800</v>
+        <v>673100</v>
       </c>
       <c r="E23" s="3">
-        <v>1788900</v>
+        <v>1974600</v>
       </c>
       <c r="F23" s="3">
-        <v>584900</v>
+        <v>645700</v>
       </c>
       <c r="G23" s="3">
-        <v>362200</v>
+        <v>399800</v>
       </c>
       <c r="H23" s="3">
-        <v>-431300</v>
+        <v>-476100</v>
       </c>
       <c r="I23" s="3">
-        <v>-610400</v>
+        <v>-673800</v>
       </c>
       <c r="J23" s="3">
-        <v>-1049200</v>
+        <v>-1158100</v>
       </c>
       <c r="K23" s="3">
         <v>-821100</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-18200</v>
+        <v>-20100</v>
       </c>
       <c r="E24" s="3">
-        <v>438900</v>
+        <v>484500</v>
       </c>
       <c r="F24" s="3">
-        <v>154000</v>
+        <v>170000</v>
       </c>
       <c r="G24" s="3">
-        <v>205500</v>
+        <v>226900</v>
       </c>
       <c r="H24" s="3">
-        <v>-192600</v>
+        <v>-212600</v>
       </c>
       <c r="I24" s="3">
-        <v>-164800</v>
+        <v>-181900</v>
       </c>
       <c r="J24" s="3">
-        <v>-324600</v>
+        <v>-358300</v>
       </c>
       <c r="K24" s="3">
         <v>-288200</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>628000</v>
+        <v>693200</v>
       </c>
       <c r="E26" s="3">
-        <v>1350000</v>
+        <v>1490200</v>
       </c>
       <c r="F26" s="3">
-        <v>430900</v>
+        <v>475700</v>
       </c>
       <c r="G26" s="3">
-        <v>156700</v>
+        <v>172900</v>
       </c>
       <c r="H26" s="3">
-        <v>-238800</v>
+        <v>-263500</v>
       </c>
       <c r="I26" s="3">
-        <v>-445700</v>
+        <v>-492000</v>
       </c>
       <c r="J26" s="3">
-        <v>-724600</v>
+        <v>-799900</v>
       </c>
       <c r="K26" s="3">
         <v>-532900</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>631400</v>
+        <v>697000</v>
       </c>
       <c r="E27" s="3">
-        <v>1325300</v>
+        <v>1462900</v>
       </c>
       <c r="F27" s="3">
-        <v>445300</v>
+        <v>491500</v>
       </c>
       <c r="G27" s="3">
-        <v>151100</v>
+        <v>166800</v>
       </c>
       <c r="H27" s="3">
-        <v>-252200</v>
+        <v>-278400</v>
       </c>
       <c r="I27" s="3">
-        <v>-442000</v>
+        <v>-487900</v>
       </c>
       <c r="J27" s="3">
-        <v>-651400</v>
+        <v>-719100</v>
       </c>
       <c r="K27" s="3">
         <v>-539700</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>591300</v>
+        <v>652700</v>
       </c>
       <c r="E32" s="3">
-        <v>-276100</v>
+        <v>-304800</v>
       </c>
       <c r="F32" s="3">
-        <v>461300</v>
+        <v>509200</v>
       </c>
       <c r="G32" s="3">
-        <v>-291800</v>
+        <v>-322200</v>
       </c>
       <c r="H32" s="3">
-        <v>188100</v>
+        <v>207600</v>
       </c>
       <c r="I32" s="3">
-        <v>293500</v>
+        <v>324000</v>
       </c>
       <c r="J32" s="3">
-        <v>974000</v>
+        <v>1075200</v>
       </c>
       <c r="K32" s="3">
         <v>51500</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>631400</v>
+        <v>697000</v>
       </c>
       <c r="E33" s="3">
-        <v>1325300</v>
+        <v>1462900</v>
       </c>
       <c r="F33" s="3">
-        <v>445300</v>
+        <v>491500</v>
       </c>
       <c r="G33" s="3">
-        <v>151100</v>
+        <v>166800</v>
       </c>
       <c r="H33" s="3">
-        <v>-252200</v>
+        <v>-278400</v>
       </c>
       <c r="I33" s="3">
-        <v>-442000</v>
+        <v>-487900</v>
       </c>
       <c r="J33" s="3">
-        <v>-651400</v>
+        <v>-719100</v>
       </c>
       <c r="K33" s="3">
         <v>-539700</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>631400</v>
+        <v>697000</v>
       </c>
       <c r="E35" s="3">
-        <v>1325300</v>
+        <v>1462900</v>
       </c>
       <c r="F35" s="3">
-        <v>445300</v>
+        <v>491500</v>
       </c>
       <c r="G35" s="3">
-        <v>151100</v>
+        <v>166800</v>
       </c>
       <c r="H35" s="3">
-        <v>-252200</v>
+        <v>-278400</v>
       </c>
       <c r="I35" s="3">
-        <v>-442000</v>
+        <v>-487900</v>
       </c>
       <c r="J35" s="3">
-        <v>-651400</v>
+        <v>-719100</v>
       </c>
       <c r="K35" s="3">
         <v>-539700</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2146900</v>
+        <v>2369800</v>
       </c>
       <c r="E41" s="3">
-        <v>1743300</v>
+        <v>1924300</v>
       </c>
       <c r="F41" s="3">
-        <v>2230300</v>
+        <v>2462000</v>
       </c>
       <c r="G41" s="3">
-        <v>2474800</v>
+        <v>2731800</v>
       </c>
       <c r="H41" s="3">
-        <v>2200100</v>
+        <v>2428600</v>
       </c>
       <c r="I41" s="3">
-        <v>2675100</v>
+        <v>2953000</v>
       </c>
       <c r="J41" s="3">
-        <v>1795200</v>
+        <v>1981600</v>
       </c>
       <c r="K41" s="3">
         <v>1256700</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>524200</v>
+        <v>578600</v>
       </c>
       <c r="E42" s="3">
-        <v>679300</v>
+        <v>749900</v>
       </c>
       <c r="F42" s="3">
-        <v>692400</v>
+        <v>764300</v>
       </c>
       <c r="G42" s="3">
-        <v>647500</v>
+        <v>714800</v>
       </c>
       <c r="H42" s="3">
-        <v>572100</v>
+        <v>631500</v>
       </c>
       <c r="I42" s="3">
-        <v>491400</v>
+        <v>542500</v>
       </c>
       <c r="J42" s="3">
-        <v>409100</v>
+        <v>451600</v>
       </c>
       <c r="K42" s="3">
         <v>311700</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2427300</v>
+        <v>2679300</v>
       </c>
       <c r="E43" s="3">
-        <v>2215700</v>
+        <v>2445800</v>
       </c>
       <c r="F43" s="3">
-        <v>1968400</v>
+        <v>2172800</v>
       </c>
       <c r="G43" s="3">
-        <v>1417100</v>
+        <v>1564200</v>
       </c>
       <c r="H43" s="3">
-        <v>1209500</v>
+        <v>1335200</v>
       </c>
       <c r="I43" s="3">
-        <v>1048600</v>
+        <v>1157500</v>
       </c>
       <c r="J43" s="3">
-        <v>982200</v>
+        <v>1084200</v>
       </c>
       <c r="K43" s="3">
         <v>1321200</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2564600</v>
+        <v>2831000</v>
       </c>
       <c r="E44" s="3">
-        <v>2268600</v>
+        <v>2504200</v>
       </c>
       <c r="F44" s="3">
-        <v>2131400</v>
+        <v>2352700</v>
       </c>
       <c r="G44" s="3">
-        <v>1496600</v>
+        <v>1652100</v>
       </c>
       <c r="H44" s="3">
-        <v>1439800</v>
+        <v>1589400</v>
       </c>
       <c r="I44" s="3">
-        <v>1315600</v>
+        <v>1452200</v>
       </c>
       <c r="J44" s="3">
-        <v>1398500</v>
+        <v>1543800</v>
       </c>
       <c r="K44" s="3">
         <v>1408400</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34700</v>
+        <v>38300</v>
       </c>
       <c r="E45" s="3">
-        <v>62400</v>
+        <v>68800</v>
       </c>
       <c r="F45" s="3">
-        <v>63800</v>
+        <v>70400</v>
       </c>
       <c r="G45" s="3">
-        <v>67600</v>
+        <v>74600</v>
       </c>
       <c r="H45" s="3">
-        <v>77600</v>
+        <v>85700</v>
       </c>
       <c r="I45" s="3">
-        <v>72100</v>
+        <v>79500</v>
       </c>
       <c r="J45" s="3">
-        <v>16900</v>
+        <v>18600</v>
       </c>
       <c r="K45" s="3">
         <v>22100</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7697600</v>
+        <v>8497000</v>
       </c>
       <c r="E46" s="3">
-        <v>6969300</v>
+        <v>7693100</v>
       </c>
       <c r="F46" s="3">
-        <v>7086200</v>
+        <v>7822200</v>
       </c>
       <c r="G46" s="3">
-        <v>6103600</v>
+        <v>6737500</v>
       </c>
       <c r="H46" s="3">
-        <v>5499300</v>
+        <v>6070400</v>
       </c>
       <c r="I46" s="3">
-        <v>5602800</v>
+        <v>6184600</v>
       </c>
       <c r="J46" s="3">
-        <v>4601800</v>
+        <v>5079800</v>
       </c>
       <c r="K46" s="3">
         <v>4320100</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>319400</v>
+        <v>352600</v>
       </c>
       <c r="E47" s="3">
-        <v>409800</v>
+        <v>452400</v>
       </c>
       <c r="F47" s="3">
-        <v>268900</v>
+        <v>296800</v>
       </c>
       <c r="G47" s="3">
-        <v>259600</v>
+        <v>286600</v>
       </c>
       <c r="H47" s="3">
-        <v>416500</v>
+        <v>459800</v>
       </c>
       <c r="I47" s="3">
-        <v>468300</v>
+        <v>516900</v>
       </c>
       <c r="J47" s="3">
-        <v>569100</v>
+        <v>628100</v>
       </c>
       <c r="K47" s="3">
         <v>511200</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6966800</v>
+        <v>7690300</v>
       </c>
       <c r="E48" s="3">
-        <v>6710100</v>
+        <v>7407000</v>
       </c>
       <c r="F48" s="3">
-        <v>7196400</v>
+        <v>7943800</v>
       </c>
       <c r="G48" s="3">
-        <v>6932200</v>
+        <v>7652100</v>
       </c>
       <c r="H48" s="3">
-        <v>6977400</v>
+        <v>7702000</v>
       </c>
       <c r="I48" s="3">
-        <v>6781500</v>
+        <v>7485700</v>
       </c>
       <c r="J48" s="3">
-        <v>6622800</v>
+        <v>7310600</v>
       </c>
       <c r="K48" s="3">
         <v>6449900</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>505100</v>
+        <v>557500</v>
       </c>
       <c r="E49" s="3">
-        <v>500900</v>
+        <v>552900</v>
       </c>
       <c r="F49" s="3">
-        <v>507000</v>
+        <v>559700</v>
       </c>
       <c r="G49" s="3">
-        <v>505000</v>
+        <v>557400</v>
       </c>
       <c r="H49" s="3">
-        <v>501700</v>
+        <v>553800</v>
       </c>
       <c r="I49" s="3">
-        <v>496700</v>
+        <v>548300</v>
       </c>
       <c r="J49" s="3">
-        <v>495200</v>
+        <v>546700</v>
       </c>
       <c r="K49" s="3">
         <v>510200</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1369600</v>
+        <v>1511800</v>
       </c>
       <c r="E52" s="3">
-        <v>1107900</v>
+        <v>1222900</v>
       </c>
       <c r="F52" s="3">
-        <v>1734900</v>
+        <v>1915000</v>
       </c>
       <c r="G52" s="3">
-        <v>1567200</v>
+        <v>1730000</v>
       </c>
       <c r="H52" s="3">
-        <v>1984400</v>
+        <v>2190500</v>
       </c>
       <c r="I52" s="3">
-        <v>1745600</v>
+        <v>1926900</v>
       </c>
       <c r="J52" s="3">
-        <v>1488700</v>
+        <v>1643300</v>
       </c>
       <c r="K52" s="3">
         <v>792100</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16858400</v>
+        <v>18609200</v>
       </c>
       <c r="E54" s="3">
-        <v>15698000</v>
+        <v>17328300</v>
       </c>
       <c r="F54" s="3">
-        <v>16793400</v>
+        <v>18537500</v>
       </c>
       <c r="G54" s="3">
-        <v>15367700</v>
+        <v>16963700</v>
       </c>
       <c r="H54" s="3">
-        <v>15379300</v>
+        <v>16976500</v>
       </c>
       <c r="I54" s="3">
-        <v>15094900</v>
+        <v>16662500</v>
       </c>
       <c r="J54" s="3">
-        <v>13777600</v>
+        <v>15208500</v>
       </c>
       <c r="K54" s="3">
         <v>12583400</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1863400</v>
+        <v>2056900</v>
       </c>
       <c r="E57" s="3">
-        <v>1906400</v>
+        <v>2104400</v>
       </c>
       <c r="F57" s="3">
-        <v>2446700</v>
+        <v>2700800</v>
       </c>
       <c r="G57" s="3">
-        <v>1775600</v>
+        <v>1960000</v>
       </c>
       <c r="H57" s="3">
-        <v>1583200</v>
+        <v>1747600</v>
       </c>
       <c r="I57" s="3">
-        <v>1529400</v>
+        <v>1688200</v>
       </c>
       <c r="J57" s="3">
-        <v>1761600</v>
+        <v>1944600</v>
       </c>
       <c r="K57" s="3">
         <v>1683900</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1606400</v>
+        <v>1773300</v>
       </c>
       <c r="E58" s="3">
-        <v>1822200</v>
+        <v>2011400</v>
       </c>
       <c r="F58" s="3">
-        <v>1864900</v>
+        <v>2058600</v>
       </c>
       <c r="G58" s="3">
-        <v>1772500</v>
+        <v>1956500</v>
       </c>
       <c r="H58" s="3">
-        <v>616100</v>
+        <v>680100</v>
       </c>
       <c r="I58" s="3">
-        <v>996100</v>
+        <v>1099500</v>
       </c>
       <c r="J58" s="3">
-        <v>712300</v>
+        <v>786300</v>
       </c>
       <c r="K58" s="3">
         <v>414200</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2307700</v>
+        <v>2547400</v>
       </c>
       <c r="E59" s="3">
-        <v>1813200</v>
+        <v>2001600</v>
       </c>
       <c r="F59" s="3">
-        <v>1656000</v>
+        <v>1828000</v>
       </c>
       <c r="G59" s="3">
-        <v>1519600</v>
+        <v>1677400</v>
       </c>
       <c r="H59" s="3">
-        <v>1525200</v>
+        <v>1683600</v>
       </c>
       <c r="I59" s="3">
-        <v>1315100</v>
+        <v>1451600</v>
       </c>
       <c r="J59" s="3">
-        <v>1084200</v>
+        <v>1196900</v>
       </c>
       <c r="K59" s="3">
         <v>897100</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5777500</v>
+        <v>6377600</v>
       </c>
       <c r="E60" s="3">
-        <v>5541800</v>
+        <v>6117300</v>
       </c>
       <c r="F60" s="3">
-        <v>5967600</v>
+        <v>6587400</v>
       </c>
       <c r="G60" s="3">
-        <v>5067700</v>
+        <v>5594000</v>
       </c>
       <c r="H60" s="3">
-        <v>3724500</v>
+        <v>4111300</v>
       </c>
       <c r="I60" s="3">
-        <v>3840500</v>
+        <v>4239400</v>
       </c>
       <c r="J60" s="3">
-        <v>3558200</v>
+        <v>3927700</v>
       </c>
       <c r="K60" s="3">
         <v>2995100</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7084200</v>
+        <v>7819900</v>
       </c>
       <c r="E61" s="3">
-        <v>6748300</v>
+        <v>7449200</v>
       </c>
       <c r="F61" s="3">
-        <v>8616300</v>
+        <v>9511200</v>
       </c>
       <c r="G61" s="3">
-        <v>8445200</v>
+        <v>9322300</v>
       </c>
       <c r="H61" s="3">
-        <v>10542500</v>
+        <v>11637300</v>
       </c>
       <c r="I61" s="3">
-        <v>10398900</v>
+        <v>11478900</v>
       </c>
       <c r="J61" s="3">
-        <v>9094800</v>
+        <v>10039400</v>
       </c>
       <c r="K61" s="3">
         <v>7334000</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2009000</v>
+        <v>2217600</v>
       </c>
       <c r="E62" s="3">
-        <v>2128400</v>
+        <v>2349500</v>
       </c>
       <c r="F62" s="3">
-        <v>2475500</v>
+        <v>2732600</v>
       </c>
       <c r="G62" s="3">
-        <v>2545100</v>
+        <v>2809400</v>
       </c>
       <c r="H62" s="3">
-        <v>2257100</v>
+        <v>2491500</v>
       </c>
       <c r="I62" s="3">
-        <v>1808400</v>
+        <v>1996200</v>
       </c>
       <c r="J62" s="3">
-        <v>1636400</v>
+        <v>1806400</v>
       </c>
       <c r="K62" s="3">
         <v>1525700</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14579800</v>
+        <v>16093900</v>
       </c>
       <c r="E66" s="3">
-        <v>14152000</v>
+        <v>15621700</v>
       </c>
       <c r="F66" s="3">
-        <v>16716600</v>
+        <v>18452700</v>
       </c>
       <c r="G66" s="3">
-        <v>15760900</v>
+        <v>17397700</v>
       </c>
       <c r="H66" s="3">
-        <v>16176300</v>
+        <v>17856300</v>
       </c>
       <c r="I66" s="3">
-        <v>15698300</v>
+        <v>17328600</v>
       </c>
       <c r="J66" s="3">
-        <v>13956200</v>
+        <v>15405600</v>
       </c>
       <c r="K66" s="3">
         <v>11681100</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1597800</v>
+        <v>1763800</v>
       </c>
       <c r="E72" s="3">
-        <v>965200</v>
+        <v>1065500</v>
       </c>
       <c r="F72" s="3">
-        <v>-362100</v>
+        <v>-399800</v>
       </c>
       <c r="G72" s="3">
-        <v>-808600</v>
+        <v>-892600</v>
       </c>
       <c r="H72" s="3">
-        <v>-960500</v>
+        <v>-1060200</v>
       </c>
       <c r="I72" s="3">
-        <v>-709400</v>
+        <v>-783000</v>
       </c>
       <c r="J72" s="3">
-        <v>-268600</v>
+        <v>-296500</v>
       </c>
       <c r="K72" s="3">
         <v>394800</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2278700</v>
+        <v>2515300</v>
       </c>
       <c r="E76" s="3">
-        <v>1546000</v>
+        <v>1706500</v>
       </c>
       <c r="F76" s="3">
-        <v>76800</v>
+        <v>84800</v>
       </c>
       <c r="G76" s="3">
-        <v>-393200</v>
+        <v>-434000</v>
       </c>
       <c r="H76" s="3">
-        <v>-797000</v>
+        <v>-879800</v>
       </c>
       <c r="I76" s="3">
-        <v>-603400</v>
+        <v>-666100</v>
       </c>
       <c r="J76" s="3">
-        <v>-178500</v>
+        <v>-197100</v>
       </c>
       <c r="K76" s="3">
         <v>902300</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>631400</v>
+        <v>697000</v>
       </c>
       <c r="E81" s="3">
-        <v>1325300</v>
+        <v>1462900</v>
       </c>
       <c r="F81" s="3">
-        <v>445300</v>
+        <v>491500</v>
       </c>
       <c r="G81" s="3">
-        <v>151100</v>
+        <v>166800</v>
       </c>
       <c r="H81" s="3">
-        <v>-252200</v>
+        <v>-278400</v>
       </c>
       <c r="I81" s="3">
-        <v>-442000</v>
+        <v>-487900</v>
       </c>
       <c r="J81" s="3">
-        <v>-651400</v>
+        <v>-719100</v>
       </c>
       <c r="K81" s="3">
         <v>-539700</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>171100</v>
+        <v>188900</v>
       </c>
       <c r="E83" s="3">
-        <v>164700</v>
+        <v>181800</v>
       </c>
       <c r="F83" s="3">
-        <v>166300</v>
+        <v>183600</v>
       </c>
       <c r="G83" s="3">
-        <v>186800</v>
+        <v>206200</v>
       </c>
       <c r="H83" s="3">
-        <v>189000</v>
+        <v>208600</v>
       </c>
       <c r="I83" s="3">
-        <v>173100</v>
+        <v>191000</v>
       </c>
       <c r="J83" s="3">
-        <v>173800</v>
+        <v>191800</v>
       </c>
       <c r="K83" s="3">
         <v>189200</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1024200</v>
+        <v>1130600</v>
       </c>
       <c r="E89" s="3">
-        <v>448500</v>
+        <v>495100</v>
       </c>
       <c r="F89" s="3">
-        <v>411300</v>
+        <v>454000</v>
       </c>
       <c r="G89" s="3">
-        <v>685400</v>
+        <v>756600</v>
       </c>
       <c r="H89" s="3">
-        <v>173400</v>
+        <v>191400</v>
       </c>
       <c r="I89" s="3">
-        <v>-117700</v>
+        <v>-129900</v>
       </c>
       <c r="J89" s="3">
-        <v>382300</v>
+        <v>422000</v>
       </c>
       <c r="K89" s="3">
         <v>169400</v>
@@ -5726,25 +5726,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-146300</v>
+        <v>-161400</v>
       </c>
       <c r="E91" s="3">
-        <v>-130900</v>
+        <v>-144500</v>
       </c>
       <c r="F91" s="3">
-        <v>-87500</v>
+        <v>-96600</v>
       </c>
       <c r="G91" s="3">
-        <v>-148000</v>
+        <v>-163400</v>
       </c>
       <c r="H91" s="3">
-        <v>-81300</v>
+        <v>-89800</v>
       </c>
       <c r="I91" s="3">
-        <v>-101700</v>
+        <v>-112300</v>
       </c>
       <c r="J91" s="3">
-        <v>-161600</v>
+        <v>-178400</v>
       </c>
       <c r="K91" s="3">
         <v>-164900</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-146200</v>
+        <v>-161400</v>
       </c>
       <c r="E94" s="3">
-        <v>-126600</v>
+        <v>-139700</v>
       </c>
       <c r="F94" s="3">
-        <v>-84800</v>
+        <v>-93600</v>
       </c>
       <c r="G94" s="3">
-        <v>-144200</v>
+        <v>-159200</v>
       </c>
       <c r="H94" s="3">
-        <v>-81300</v>
+        <v>-89800</v>
       </c>
       <c r="I94" s="3">
-        <v>-99300</v>
+        <v>-109600</v>
       </c>
       <c r="J94" s="3">
-        <v>-161100</v>
+        <v>-177800</v>
       </c>
       <c r="K94" s="3">
         <v>-162900</v>
@@ -6024,7 +6024,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6039,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-537300</v>
+        <v>-593100</v>
       </c>
       <c r="E100" s="3">
-        <v>-698300</v>
+        <v>-770800</v>
       </c>
       <c r="F100" s="3">
-        <v>-651000</v>
+        <v>-718600</v>
       </c>
       <c r="G100" s="3">
-        <v>-207100</v>
+        <v>-228600</v>
       </c>
       <c r="H100" s="3">
-        <v>-592300</v>
+        <v>-653900</v>
       </c>
       <c r="I100" s="3">
-        <v>1020300</v>
+        <v>1126300</v>
       </c>
       <c r="J100" s="3">
-        <v>167100</v>
+        <v>184400</v>
       </c>
       <c r="K100" s="3">
         <v>212200</v>
@@ -6364,25 +6364,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>62900</v>
+        <v>69500</v>
       </c>
       <c r="E101" s="3">
-        <v>-110700</v>
+        <v>-122200</v>
       </c>
       <c r="F101" s="3">
-        <v>80000</v>
+        <v>88400</v>
       </c>
       <c r="G101" s="3">
-        <v>-59500</v>
+        <v>-65700</v>
       </c>
       <c r="H101" s="3">
-        <v>25300</v>
+        <v>27900</v>
       </c>
       <c r="I101" s="3">
-        <v>76600</v>
+        <v>84600</v>
       </c>
       <c r="J101" s="3">
-        <v>192200</v>
+        <v>212200</v>
       </c>
       <c r="K101" s="3">
         <v>-17600</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>403600</v>
+        <v>445500</v>
       </c>
       <c r="E102" s="3">
-        <v>-487100</v>
+        <v>-537700</v>
       </c>
       <c r="F102" s="3">
-        <v>-244500</v>
+        <v>-269900</v>
       </c>
       <c r="G102" s="3">
-        <v>274600</v>
+        <v>303200</v>
       </c>
       <c r="H102" s="3">
-        <v>-475000</v>
+        <v>-524300</v>
       </c>
       <c r="I102" s="3">
-        <v>880000</v>
+        <v>971300</v>
       </c>
       <c r="J102" s="3">
-        <v>580500</v>
+        <v>640800</v>
       </c>
       <c r="K102" s="3">
         <v>201100</v>

--- a/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,333 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5576700</v>
+        <v>5206700</v>
       </c>
       <c r="E8" s="3">
-        <v>5206600</v>
+        <v>5495200</v>
       </c>
       <c r="F8" s="3">
-        <v>4471700</v>
+        <v>5512200</v>
       </c>
       <c r="G8" s="3">
-        <v>3692600</v>
+        <v>5146400</v>
       </c>
       <c r="H8" s="3">
-        <v>3151400</v>
+        <v>4420000</v>
       </c>
       <c r="I8" s="3">
+        <v>3649900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3114900</v>
+      </c>
+      <c r="K8" s="3">
         <v>2204800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2487800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2334600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2507600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2361600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2428600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2646900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3024900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4961600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3042500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3237700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3118100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>3043300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>3125700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2988400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2972300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3940200</v>
+        <v>4207500</v>
       </c>
       <c r="E9" s="3">
-        <v>3272900</v>
+        <v>4189800</v>
       </c>
       <c r="F9" s="3">
-        <v>3045400</v>
+        <v>3894600</v>
       </c>
       <c r="G9" s="3">
-        <v>2719000</v>
+        <v>3235100</v>
       </c>
       <c r="H9" s="3">
-        <v>2448800</v>
+        <v>3010200</v>
       </c>
       <c r="I9" s="3">
+        <v>2687600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2420400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1902700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2256600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2043700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2185500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2071700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2107800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2300800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2358800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3868600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2411600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2405700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2349100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2319300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2210800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2269000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2174500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1636500</v>
+        <v>999200</v>
       </c>
       <c r="E10" s="3">
-        <v>1933700</v>
+        <v>1305400</v>
       </c>
       <c r="F10" s="3">
-        <v>1426300</v>
+        <v>1617600</v>
       </c>
       <c r="G10" s="3">
-        <v>973500</v>
+        <v>1911300</v>
       </c>
       <c r="H10" s="3">
-        <v>702600</v>
+        <v>1409800</v>
       </c>
       <c r="I10" s="3">
+        <v>962300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>694500</v>
+      </c>
+      <c r="K10" s="3">
         <v>302100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>231200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>291000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>322100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>289900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>320800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>346100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>666100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1093000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>630900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>831900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>769000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>724100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>914900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>719400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>797900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1016,84 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>14400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>12100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>12100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K12" s="3">
+        <v>10600</v>
+      </c>
+      <c r="L12" s="3">
+        <v>10900</v>
+      </c>
+      <c r="M12" s="3">
+        <v>14400</v>
+      </c>
+      <c r="N12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="O12" s="3">
+        <v>9900</v>
+      </c>
+      <c r="P12" s="3">
+        <v>10300</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>11700</v>
+      </c>
+      <c r="R12" s="3">
+        <v>10700</v>
+      </c>
+      <c r="S12" s="3">
+        <v>17700</v>
+      </c>
+      <c r="T12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="U12" s="3">
         <v>14500</v>
       </c>
-      <c r="E12" s="3">
-        <v>12200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>12300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>15300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>12500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>10900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>14400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>11000</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="V12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="W12" s="3">
         <v>9900</v>
       </c>
-      <c r="N12" s="3">
-        <v>10300</v>
-      </c>
-      <c r="O12" s="3">
-        <v>11700</v>
-      </c>
-      <c r="P12" s="3">
-        <v>10700</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>17700</v>
-      </c>
-      <c r="R12" s="3">
-        <v>9100</v>
-      </c>
-      <c r="S12" s="3">
-        <v>14500</v>
-      </c>
-      <c r="T12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="U12" s="3">
-        <v>9900</v>
-      </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>8400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>10500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,76 +1160,88 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-153600</v>
+        <v>23200</v>
       </c>
       <c r="E14" s="3">
-        <v>-107800</v>
+        <v>320700</v>
       </c>
       <c r="F14" s="3">
-        <v>-123100</v>
+        <v>46600</v>
       </c>
       <c r="G14" s="3">
-        <v>377700</v>
+        <v>-106500</v>
       </c>
       <c r="H14" s="3">
-        <v>635000</v>
+        <v>-121700</v>
       </c>
       <c r="I14" s="3">
+        <v>373300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>627600</v>
+      </c>
+      <c r="K14" s="3">
         <v>290800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>651700</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>77000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>60800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-15700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-30900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-6500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>15100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>10600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>-65200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>-700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>26900</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4091400</v>
+        <v>4472400</v>
       </c>
       <c r="E17" s="3">
-        <v>3420600</v>
+        <v>4770200</v>
       </c>
       <c r="F17" s="3">
-        <v>3143600</v>
+        <v>4242500</v>
       </c>
       <c r="G17" s="3">
-        <v>3469700</v>
+        <v>3381100</v>
       </c>
       <c r="H17" s="3">
-        <v>3266500</v>
+        <v>3107200</v>
       </c>
       <c r="I17" s="3">
+        <v>3429500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3228800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2401000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2413500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2994600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2402800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2212400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2032800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2439400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2508600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4156600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2595500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2671600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2622900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2450700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2404300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>3295900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2402600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1485300</v>
+        <v>734400</v>
       </c>
       <c r="E18" s="3">
-        <v>1786000</v>
+        <v>725000</v>
       </c>
       <c r="F18" s="3">
-        <v>1328200</v>
+        <v>1269700</v>
       </c>
       <c r="G18" s="3">
-        <v>222900</v>
+        <v>1765300</v>
       </c>
       <c r="H18" s="3">
-        <v>-115100</v>
+        <v>1312800</v>
       </c>
       <c r="I18" s="3">
+        <v>220300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-113800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-196200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>74300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-660000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>104800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>149300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>395800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>207500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>516300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>805000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>447000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>566000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>495200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>592600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>721500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-307500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>569700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1513,380 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-652700</v>
+        <v>376500</v>
       </c>
       <c r="E20" s="3">
-        <v>304800</v>
+        <v>-322300</v>
       </c>
       <c r="F20" s="3">
-        <v>-509200</v>
+        <v>-446800</v>
       </c>
       <c r="G20" s="3">
-        <v>322200</v>
+        <v>301200</v>
       </c>
       <c r="H20" s="3">
-        <v>-207600</v>
+        <v>-503300</v>
       </c>
       <c r="I20" s="3">
+        <v>318400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-205200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-324000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1075200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-51500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-381300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-61000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-70600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-102900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-70400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-297800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-3400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-365400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-99500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-26500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>46800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-229800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-283500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1021500</v>
+        <v>1307500</v>
       </c>
       <c r="E21" s="3">
-        <v>2272500</v>
+        <v>668600</v>
       </c>
       <c r="F21" s="3">
-        <v>1002500</v>
+        <v>1009600</v>
       </c>
       <c r="G21" s="3">
-        <v>751300</v>
+        <v>2246200</v>
       </c>
       <c r="H21" s="3">
-        <v>-114100</v>
+        <v>990900</v>
       </c>
       <c r="I21" s="3">
+        <v>742600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-112800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-329100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-809100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-522300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-112000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>242200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>486500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>236900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>591800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>777500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>616300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>395300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>586700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>751200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>942400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-356700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>462600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>159400</v>
+        <v>133500</v>
       </c>
       <c r="E22" s="3">
-        <v>116100</v>
+        <v>159500</v>
       </c>
       <c r="F22" s="3">
-        <v>173300</v>
+        <v>157600</v>
       </c>
       <c r="G22" s="3">
-        <v>145200</v>
+        <v>114800</v>
       </c>
       <c r="H22" s="3">
-        <v>153400</v>
+        <v>171300</v>
       </c>
       <c r="I22" s="3">
+        <v>143600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>151600</v>
+      </c>
+      <c r="K22" s="3">
         <v>153700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>157200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>109600</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>101700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>102100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>91800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>101900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>188500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>110300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>131700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>141600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>147200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>142400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>159500</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="Z22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>673100</v>
+        <v>977300</v>
       </c>
       <c r="E23" s="3">
-        <v>1974600</v>
+        <v>243100</v>
       </c>
       <c r="F23" s="3">
-        <v>645700</v>
+        <v>665300</v>
       </c>
       <c r="G23" s="3">
-        <v>399800</v>
+        <v>1951800</v>
       </c>
       <c r="H23" s="3">
-        <v>-476100</v>
+        <v>638200</v>
       </c>
       <c r="I23" s="3">
+        <v>395200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-470600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-673800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1158100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-821100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-276500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-13400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>223100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>12800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>344000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>318600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>333200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>68800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>254200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>418900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>625800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-696900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>286200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-20100</v>
+        <v>208500</v>
       </c>
       <c r="E24" s="3">
-        <v>484500</v>
+        <v>151900</v>
       </c>
       <c r="F24" s="3">
-        <v>170000</v>
+        <v>-19900</v>
       </c>
       <c r="G24" s="3">
-        <v>226900</v>
+        <v>478900</v>
       </c>
       <c r="H24" s="3">
-        <v>-212600</v>
+        <v>168100</v>
       </c>
       <c r="I24" s="3">
+        <v>224300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-210100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-181900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-358300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-288200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-91400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-23600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>51500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>44600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>77100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>14500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>64500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-11400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>58400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>126000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>153200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-46600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>693200</v>
+        <v>768900</v>
       </c>
       <c r="E26" s="3">
-        <v>1490200</v>
+        <v>91200</v>
       </c>
       <c r="F26" s="3">
-        <v>475700</v>
+        <v>685200</v>
       </c>
       <c r="G26" s="3">
-        <v>172900</v>
+        <v>1472900</v>
       </c>
       <c r="H26" s="3">
-        <v>-263500</v>
+        <v>470200</v>
       </c>
       <c r="I26" s="3">
+        <v>170900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-260500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-492000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-799900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-532900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-185000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>10200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>171600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-31900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>266800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>304100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>268800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>80200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>195800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>292900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>472700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-650200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>201700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>697000</v>
+        <v>756500</v>
       </c>
       <c r="E27" s="3">
-        <v>1462900</v>
+        <v>103300</v>
       </c>
       <c r="F27" s="3">
-        <v>491500</v>
+        <v>688900</v>
       </c>
       <c r="G27" s="3">
-        <v>166800</v>
+        <v>1446000</v>
       </c>
       <c r="H27" s="3">
-        <v>-278400</v>
+        <v>485800</v>
       </c>
       <c r="I27" s="3">
+        <v>164800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-275200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-487900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-719100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-539700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-166500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>14900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>173700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-14000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>248700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>296200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>246000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>99000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>204900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>279400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>446200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-628800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>219400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2120,16 +2241,22 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>2200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>900</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2397,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>652700</v>
+        <v>-376500</v>
       </c>
       <c r="E32" s="3">
-        <v>-304800</v>
+        <v>322300</v>
       </c>
       <c r="F32" s="3">
-        <v>509200</v>
+        <v>446800</v>
       </c>
       <c r="G32" s="3">
-        <v>-322200</v>
+        <v>-301200</v>
       </c>
       <c r="H32" s="3">
-        <v>207600</v>
+        <v>503300</v>
       </c>
       <c r="I32" s="3">
+        <v>-318400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>205200</v>
+      </c>
+      <c r="K32" s="3">
         <v>324000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1075200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>51500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>381300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>61000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>70600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>102900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>70400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>297800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>3400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>365400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>99500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>26500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-46800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>229800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>283500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>697000</v>
+        <v>756500</v>
       </c>
       <c r="E33" s="3">
-        <v>1462900</v>
+        <v>103300</v>
       </c>
       <c r="F33" s="3">
-        <v>491500</v>
+        <v>688900</v>
       </c>
       <c r="G33" s="3">
-        <v>166800</v>
+        <v>1446000</v>
       </c>
       <c r="H33" s="3">
-        <v>-278400</v>
+        <v>485800</v>
       </c>
       <c r="I33" s="3">
+        <v>164800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-275200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-487900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-719100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-539700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-166500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>14900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>173700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-14000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>248700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>296200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>246000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>99000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>204900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>279400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>448400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-628000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>697000</v>
+        <v>756500</v>
       </c>
       <c r="E35" s="3">
-        <v>1462900</v>
+        <v>103300</v>
       </c>
       <c r="F35" s="3">
-        <v>491500</v>
+        <v>688900</v>
       </c>
       <c r="G35" s="3">
-        <v>166800</v>
+        <v>1446000</v>
       </c>
       <c r="H35" s="3">
-        <v>-278400</v>
+        <v>485800</v>
       </c>
       <c r="I35" s="3">
+        <v>164800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-275200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-487900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-719100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-539700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-166500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>14900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>173700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-14000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>248700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>296200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>246000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>99000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>204900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>279400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>448400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-628000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2832,676 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2369800</v>
+        <v>1970200</v>
       </c>
       <c r="E41" s="3">
-        <v>1924300</v>
+        <v>1690800</v>
       </c>
       <c r="F41" s="3">
-        <v>2462000</v>
+        <v>2342400</v>
       </c>
       <c r="G41" s="3">
-        <v>2731800</v>
+        <v>1902000</v>
       </c>
       <c r="H41" s="3">
-        <v>2428600</v>
+        <v>2433500</v>
       </c>
       <c r="I41" s="3">
+        <v>2700200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2400500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2953000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1981600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1256700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1072000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1024900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1142200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>989700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>905000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>952900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>797100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>967900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1397900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1464300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1641600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1662600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2034300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>578600</v>
+        <v>404300</v>
       </c>
       <c r="E42" s="3">
-        <v>749900</v>
+        <v>680300</v>
       </c>
       <c r="F42" s="3">
-        <v>764300</v>
+        <v>571900</v>
       </c>
       <c r="G42" s="3">
-        <v>714800</v>
+        <v>741200</v>
       </c>
       <c r="H42" s="3">
-        <v>631500</v>
+        <v>755400</v>
       </c>
       <c r="I42" s="3">
+        <v>706500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>624200</v>
+      </c>
+      <c r="K42" s="3">
         <v>542500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>451600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>311700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>241600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>120300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>321900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>420600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>385000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>380400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>569800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>590400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>585700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>686500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>250900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>295300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>107400</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2679300</v>
+        <v>1923300</v>
       </c>
       <c r="E43" s="3">
-        <v>2445800</v>
+        <v>2009300</v>
       </c>
       <c r="F43" s="3">
-        <v>2172800</v>
+        <v>2648300</v>
       </c>
       <c r="G43" s="3">
-        <v>1564200</v>
+        <v>2417500</v>
       </c>
       <c r="H43" s="3">
-        <v>1335200</v>
+        <v>2147700</v>
       </c>
       <c r="I43" s="3">
+        <v>1546100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1319700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1157500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1084200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1321200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1026100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>893800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>861400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>842900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1091300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>836300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1029700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1263800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1077900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1019500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>752400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>658900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>796900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2831000</v>
+        <v>3301300</v>
       </c>
       <c r="E44" s="3">
-        <v>2504200</v>
+        <v>3181800</v>
       </c>
       <c r="F44" s="3">
-        <v>2352700</v>
+        <v>2798200</v>
       </c>
       <c r="G44" s="3">
-        <v>1652100</v>
+        <v>2475300</v>
       </c>
       <c r="H44" s="3">
-        <v>1589400</v>
+        <v>2325500</v>
       </c>
       <c r="I44" s="3">
+        <v>1633000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1571000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1452200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1543800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1408400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1476000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1464000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1515400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1514000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1655100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1501300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1559800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1755400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1473200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1514600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1375900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1299400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1209100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>38300</v>
+        <v>145100</v>
       </c>
       <c r="E45" s="3">
-        <v>68800</v>
+        <v>91400</v>
       </c>
       <c r="F45" s="3">
-        <v>70400</v>
+        <v>37800</v>
       </c>
       <c r="G45" s="3">
-        <v>74600</v>
+        <v>68000</v>
       </c>
       <c r="H45" s="3">
-        <v>85700</v>
+        <v>69600</v>
       </c>
       <c r="I45" s="3">
+        <v>73800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>84700</v>
+      </c>
+      <c r="K45" s="3">
         <v>79500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>18600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>22100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>29700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>39900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>59800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>47700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>24700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>29100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>31200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>35400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>51200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>52400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>111400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>116600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8497000</v>
+        <v>7744000</v>
       </c>
       <c r="E46" s="3">
-        <v>7693100</v>
+        <v>7653600</v>
       </c>
       <c r="F46" s="3">
-        <v>7822200</v>
+        <v>8398700</v>
       </c>
       <c r="G46" s="3">
-        <v>6737500</v>
+        <v>7604100</v>
       </c>
       <c r="H46" s="3">
-        <v>6070400</v>
+        <v>7731700</v>
       </c>
       <c r="I46" s="3">
+        <v>6659600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>6000200</v>
+      </c>
+      <c r="K46" s="3">
         <v>6184600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5079800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4320100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3845500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3542900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3900600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3814900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4061100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3700000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3987600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4612900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4585900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>4737400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4132100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>4032900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>4186700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>352600</v>
+        <v>365800</v>
       </c>
       <c r="E47" s="3">
-        <v>452400</v>
+        <v>377300</v>
       </c>
       <c r="F47" s="3">
-        <v>296800</v>
+        <v>348500</v>
       </c>
       <c r="G47" s="3">
-        <v>286600</v>
+        <v>447100</v>
       </c>
       <c r="H47" s="3">
-        <v>459800</v>
+        <v>293400</v>
       </c>
       <c r="I47" s="3">
+        <v>283300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>454400</v>
+      </c>
+      <c r="K47" s="3">
         <v>516900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>628100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>511200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>441100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>506500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>562700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>338000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>238400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>250800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>309100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>329600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>378500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>380000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>362800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>345300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>426900</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7690300</v>
+        <v>7137900</v>
       </c>
       <c r="E48" s="3">
-        <v>7407000</v>
+        <v>7792200</v>
       </c>
       <c r="F48" s="3">
-        <v>7943800</v>
+        <v>7601300</v>
       </c>
       <c r="G48" s="3">
-        <v>7652100</v>
+        <v>7321300</v>
       </c>
       <c r="H48" s="3">
-        <v>7702000</v>
+        <v>7851800</v>
       </c>
       <c r="I48" s="3">
+        <v>7563600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>7612900</v>
+      </c>
+      <c r="K48" s="3">
         <v>7485700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>7310600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6449900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6356800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5860000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6264500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5666000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6059100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>5851700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>7088700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>7630300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>7640900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>7806300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>7344800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>7277900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>7403700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>557500</v>
+        <v>549500</v>
       </c>
       <c r="E49" s="3">
-        <v>552900</v>
+        <v>560400</v>
       </c>
       <c r="F49" s="3">
-        <v>559700</v>
+        <v>551100</v>
       </c>
       <c r="G49" s="3">
-        <v>557400</v>
+        <v>546500</v>
       </c>
       <c r="H49" s="3">
-        <v>553800</v>
+        <v>553200</v>
       </c>
       <c r="I49" s="3">
+        <v>551000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>547400</v>
+      </c>
+      <c r="K49" s="3">
         <v>548300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>546700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>510200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>515400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>483000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>510800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>489000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>508500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>506900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>633500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>699300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>704400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>714300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>689900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>696900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>699100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3642,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1511800</v>
+        <v>1135200</v>
       </c>
       <c r="E52" s="3">
-        <v>1222900</v>
+        <v>1646200</v>
       </c>
       <c r="F52" s="3">
-        <v>1915000</v>
+        <v>1494300</v>
       </c>
       <c r="G52" s="3">
-        <v>1730000</v>
+        <v>1208800</v>
       </c>
       <c r="H52" s="3">
-        <v>2190500</v>
+        <v>1892900</v>
       </c>
       <c r="I52" s="3">
+        <v>1710000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2165100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1926900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1643300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>792100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1120900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>905000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>258100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>252400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>381100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>451100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>313100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>403600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>326100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>353300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>386600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>503100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>457300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18609200</v>
+        <v>16932500</v>
       </c>
       <c r="E54" s="3">
-        <v>17328300</v>
+        <v>18029700</v>
       </c>
       <c r="F54" s="3">
-        <v>18537500</v>
+        <v>18393900</v>
       </c>
       <c r="G54" s="3">
-        <v>16963700</v>
+        <v>17127800</v>
       </c>
       <c r="H54" s="3">
-        <v>16976500</v>
+        <v>18323000</v>
       </c>
       <c r="I54" s="3">
+        <v>16767400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>16780100</v>
+      </c>
+      <c r="K54" s="3">
         <v>16662500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>15208500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>12583400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12279700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>11297500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>11496800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10560200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>11248200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10760600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>12332000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>13675700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>13635900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>13991200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>12916200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>12856000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>13173700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3924,454 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2056900</v>
+        <v>2347800</v>
       </c>
       <c r="E57" s="3">
-        <v>2104400</v>
+        <v>2347700</v>
       </c>
       <c r="F57" s="3">
-        <v>2700800</v>
+        <v>2033100</v>
       </c>
       <c r="G57" s="3">
-        <v>1960000</v>
+        <v>2080000</v>
       </c>
       <c r="H57" s="3">
-        <v>1747600</v>
+        <v>2669500</v>
       </c>
       <c r="I57" s="3">
+        <v>1937300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1727400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1688200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1944600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1683900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1707000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1614000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1543200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1488100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1736200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1528000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1323600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1350000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1233400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1348000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1257900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1623700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1777600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1773300</v>
+        <v>597500</v>
       </c>
       <c r="E58" s="3">
-        <v>2011400</v>
+        <v>421600</v>
       </c>
       <c r="F58" s="3">
-        <v>2058600</v>
+        <v>1752800</v>
       </c>
       <c r="G58" s="3">
-        <v>1956500</v>
+        <v>1988100</v>
       </c>
       <c r="H58" s="3">
-        <v>680100</v>
+        <v>2034800</v>
       </c>
       <c r="I58" s="3">
+        <v>1933900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>672200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1099500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>786300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>414200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2599500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2298100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2118700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2010500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2235800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2243600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2379100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2795400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3374100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>3695000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>3205900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>3233000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2547400</v>
+        <v>1801400</v>
       </c>
       <c r="E59" s="3">
-        <v>2001600</v>
+        <v>2137800</v>
       </c>
       <c r="F59" s="3">
-        <v>1828000</v>
+        <v>2517900</v>
       </c>
       <c r="G59" s="3">
-        <v>1677400</v>
+        <v>1978400</v>
       </c>
       <c r="H59" s="3">
-        <v>1683600</v>
+        <v>1806900</v>
       </c>
       <c r="I59" s="3">
+        <v>1658000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1664100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1451600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1196900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>897100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>679000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>571900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>546700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>625300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>522000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>498700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>526100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>761100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>719900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>760100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>881200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>858600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>814100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6377600</v>
+        <v>4746700</v>
       </c>
       <c r="E60" s="3">
-        <v>6117300</v>
+        <v>4907200</v>
       </c>
       <c r="F60" s="3">
-        <v>6587400</v>
+        <v>6303800</v>
       </c>
       <c r="G60" s="3">
-        <v>5594000</v>
+        <v>6046600</v>
       </c>
       <c r="H60" s="3">
-        <v>4111300</v>
+        <v>6511100</v>
       </c>
       <c r="I60" s="3">
+        <v>5529300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4063700</v>
+      </c>
+      <c r="K60" s="3">
         <v>4239400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3927700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2995100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4985500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4483900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4208600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4123900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4494000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4270300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4228800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4906500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>5327400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5803000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>5344900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>5715300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>3323500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7819900</v>
+        <v>8028400</v>
       </c>
       <c r="E61" s="3">
-        <v>7449200</v>
+        <v>9426800</v>
       </c>
       <c r="F61" s="3">
-        <v>9511200</v>
+        <v>7729400</v>
       </c>
       <c r="G61" s="3">
-        <v>9322300</v>
+        <v>7363000</v>
       </c>
       <c r="H61" s="3">
-        <v>11637300</v>
+        <v>9401100</v>
       </c>
       <c r="I61" s="3">
+        <v>9214400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>11502700</v>
+      </c>
+      <c r="K61" s="3">
         <v>11478900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>10039400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>7334000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4956900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4362300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4937800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4310300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4438500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4496800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>4981500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5685600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>4740400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>4970200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>4871100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>5144300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>7597500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2217600</v>
+        <v>2153100</v>
       </c>
       <c r="E62" s="3">
-        <v>2349500</v>
+        <v>2487300</v>
       </c>
       <c r="F62" s="3">
-        <v>2732600</v>
+        <v>2192000</v>
       </c>
       <c r="G62" s="3">
-        <v>2809400</v>
+        <v>2322300</v>
       </c>
       <c r="H62" s="3">
-        <v>2491500</v>
+        <v>2701000</v>
       </c>
       <c r="I62" s="3">
+        <v>2776900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2462700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1996200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1806400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1525700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1173400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1112200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1004100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1071500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1129300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1096400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1408600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1624600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1772800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1746400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1575400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1569400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1162700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16093900</v>
+        <v>14673300</v>
       </c>
       <c r="E66" s="3">
-        <v>15621700</v>
+        <v>16497600</v>
       </c>
       <c r="F66" s="3">
-        <v>18452700</v>
+        <v>15907700</v>
       </c>
       <c r="G66" s="3">
-        <v>17397700</v>
+        <v>15441000</v>
       </c>
       <c r="H66" s="3">
-        <v>17856300</v>
+        <v>18239200</v>
       </c>
       <c r="I66" s="3">
+        <v>17196400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>17649700</v>
+      </c>
+      <c r="K66" s="3">
         <v>17328600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>15405600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11681100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10917200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9805200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9987100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9349300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9920900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>9696800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>10466600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>12004700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>11654000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>12338600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>11595600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>12176600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>11845300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1763800</v>
+        <v>1437100</v>
       </c>
       <c r="E72" s="3">
-        <v>1065500</v>
+        <v>679300</v>
       </c>
       <c r="F72" s="3">
-        <v>-399800</v>
+        <v>1743300</v>
       </c>
       <c r="G72" s="3">
-        <v>-892600</v>
+        <v>1053100</v>
       </c>
       <c r="H72" s="3">
-        <v>-1060200</v>
+        <v>-395100</v>
       </c>
       <c r="I72" s="3">
+        <v>-882300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-1047900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-783000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-296500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>394800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>947600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1050500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1111600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>875200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1044400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>794400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1223400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1071200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1226800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1020100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>714900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>264700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>914200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2515300</v>
+        <v>2259200</v>
       </c>
       <c r="E76" s="3">
-        <v>1706500</v>
+        <v>1532100</v>
       </c>
       <c r="F76" s="3">
-        <v>84800</v>
+        <v>2486200</v>
       </c>
       <c r="G76" s="3">
-        <v>-434000</v>
+        <v>1686800</v>
       </c>
       <c r="H76" s="3">
-        <v>-879800</v>
+        <v>83800</v>
       </c>
       <c r="I76" s="3">
+        <v>-429000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-869600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-666100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-197100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>902300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1362500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1492300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1509600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1210900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1327200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1063800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1865400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1671000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1981900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1652600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1320600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>679400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1328400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>697000</v>
+        <v>756500</v>
       </c>
       <c r="E81" s="3">
-        <v>1462900</v>
+        <v>103300</v>
       </c>
       <c r="F81" s="3">
-        <v>491500</v>
+        <v>688900</v>
       </c>
       <c r="G81" s="3">
-        <v>166800</v>
+        <v>1446000</v>
       </c>
       <c r="H81" s="3">
-        <v>-278400</v>
+        <v>485800</v>
       </c>
       <c r="I81" s="3">
+        <v>164800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-275200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-487900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-719100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-539700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-166500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>14900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>173700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-14000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>248700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>296200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>246000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>99000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>204900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>279400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>448400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-628000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5613,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>188900</v>
+        <v>196700</v>
       </c>
       <c r="E83" s="3">
-        <v>181800</v>
+        <v>266000</v>
       </c>
       <c r="F83" s="3">
-        <v>183600</v>
+        <v>186700</v>
       </c>
       <c r="G83" s="3">
+        <v>179700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>181500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>203800</v>
+      </c>
+      <c r="J83" s="3">
         <v>206200</v>
       </c>
-      <c r="H83" s="3">
-        <v>208600</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>191000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>191800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>189200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>164500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>153900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>161300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>132300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>145800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>270300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>172800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>194800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>191000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>185100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>174200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>177700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1130600</v>
+        <v>332900</v>
       </c>
       <c r="E89" s="3">
-        <v>495100</v>
+        <v>824500</v>
       </c>
       <c r="F89" s="3">
-        <v>454000</v>
+        <v>1117500</v>
       </c>
       <c r="G89" s="3">
-        <v>756600</v>
+        <v>489300</v>
       </c>
       <c r="H89" s="3">
-        <v>191400</v>
+        <v>448700</v>
       </c>
       <c r="I89" s="3">
+        <v>747900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>189200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-129900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>422000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>169400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>150400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-88200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>195400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>179800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>391200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1133900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>420500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>341000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>377300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-232900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>141000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>179800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>704800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6159,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-161400</v>
+        <v>-136000</v>
       </c>
       <c r="E91" s="3">
-        <v>-144500</v>
+        <v>-268500</v>
       </c>
       <c r="F91" s="3">
-        <v>-96600</v>
+        <v>-159600</v>
       </c>
       <c r="G91" s="3">
-        <v>-163400</v>
+        <v>-142900</v>
       </c>
       <c r="H91" s="3">
-        <v>-89800</v>
+        <v>-95500</v>
       </c>
       <c r="I91" s="3">
+        <v>-161500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-88700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-112300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-178400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-164900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-118100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-124700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-85300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-160800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-122100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-211900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-94500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-187200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-198300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-120300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-67700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-418100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-262200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6377,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-161400</v>
+        <v>-138700</v>
       </c>
       <c r="E94" s="3">
-        <v>-139700</v>
+        <v>-268300</v>
       </c>
       <c r="F94" s="3">
-        <v>-93600</v>
+        <v>-159600</v>
       </c>
       <c r="G94" s="3">
-        <v>-159200</v>
+        <v>-138100</v>
       </c>
       <c r="H94" s="3">
-        <v>-89800</v>
+        <v>-92500</v>
       </c>
       <c r="I94" s="3">
+        <v>-157300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-88700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-109600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-177800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-162900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-169800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-75000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-85300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-150800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-107300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-196700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-94200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-341100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-195500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-9900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-68200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-206800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-130100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,20 +6483,22 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1167000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-400</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -6039,55 +6506,61 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-500</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-123100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-277500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-256100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-247800</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6775,232 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-593100</v>
+        <v>257200</v>
       </c>
       <c r="E100" s="3">
-        <v>-770800</v>
+        <v>-1246200</v>
       </c>
       <c r="F100" s="3">
-        <v>-718600</v>
+        <v>-586200</v>
       </c>
       <c r="G100" s="3">
-        <v>-228600</v>
+        <v>-761900</v>
       </c>
       <c r="H100" s="3">
-        <v>-653900</v>
+        <v>-710300</v>
       </c>
       <c r="I100" s="3">
+        <v>-225900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-646300</v>
+      </c>
+      <c r="K100" s="3">
         <v>1126300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>184400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>212200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-24900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>123000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-13900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>73500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-297900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-630100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-405100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-416900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-275700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>35200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-105200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-237800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-197800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>69500</v>
+        <v>-172200</v>
       </c>
       <c r="E101" s="3">
-        <v>-122200</v>
+        <v>38300</v>
       </c>
       <c r="F101" s="3">
-        <v>88400</v>
+        <v>68700</v>
       </c>
       <c r="G101" s="3">
-        <v>-65700</v>
+        <v>-120800</v>
       </c>
       <c r="H101" s="3">
-        <v>27900</v>
+        <v>87300</v>
       </c>
       <c r="I101" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>27600</v>
+      </c>
+      <c r="K101" s="3">
         <v>84600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>212200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-17600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>30500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-15700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>7900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>14500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-33800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-52700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-5700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-13000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>27500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-24500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>11300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>14900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>445500</v>
+        <v>279300</v>
       </c>
       <c r="E102" s="3">
-        <v>-537700</v>
+        <v>-651600</v>
       </c>
       <c r="F102" s="3">
-        <v>-269900</v>
+        <v>440400</v>
       </c>
       <c r="G102" s="3">
-        <v>303200</v>
+        <v>-531400</v>
       </c>
       <c r="H102" s="3">
-        <v>-524300</v>
+        <v>-266700</v>
       </c>
       <c r="I102" s="3">
+        <v>299700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-518300</v>
+      </c>
+      <c r="K102" s="3">
         <v>971300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>640800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>201100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-13700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-55900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>104100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>117100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-47900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>254400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-84500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-430000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-66400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-232200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-21000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-254500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>362100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5206700</v>
+        <v>4973000</v>
       </c>
       <c r="E8" s="3">
-        <v>5495200</v>
+        <v>5231300</v>
       </c>
       <c r="F8" s="3">
-        <v>5512200</v>
+        <v>5521100</v>
       </c>
       <c r="G8" s="3">
-        <v>5146400</v>
+        <v>5538200</v>
       </c>
       <c r="H8" s="3">
-        <v>4420000</v>
+        <v>5170700</v>
       </c>
       <c r="I8" s="3">
-        <v>3649900</v>
+        <v>4440900</v>
       </c>
       <c r="J8" s="3">
+        <v>3667100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3114900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2204800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2487800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2334600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2507600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2361600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2428600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2646900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3024900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4961600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3042500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3237700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3118100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3043300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3125700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2988400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2972300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4207500</v>
+        <v>4174800</v>
       </c>
       <c r="E9" s="3">
-        <v>4189800</v>
+        <v>4227400</v>
       </c>
       <c r="F9" s="3">
-        <v>3894600</v>
+        <v>4209600</v>
       </c>
       <c r="G9" s="3">
-        <v>3235100</v>
+        <v>3913000</v>
       </c>
       <c r="H9" s="3">
-        <v>3010200</v>
+        <v>3250400</v>
       </c>
       <c r="I9" s="3">
-        <v>2687600</v>
+        <v>3024400</v>
       </c>
       <c r="J9" s="3">
+        <v>2700300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2420400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1902700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2256600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2043700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2185500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2071700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2107800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2300800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2358800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3868600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2411600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2405700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2349100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2319300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2210800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2269000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2174500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>999200</v>
+        <v>798200</v>
       </c>
       <c r="E10" s="3">
-        <v>1305400</v>
+        <v>1003900</v>
       </c>
       <c r="F10" s="3">
-        <v>1617600</v>
+        <v>1311500</v>
       </c>
       <c r="G10" s="3">
-        <v>1911300</v>
+        <v>1625200</v>
       </c>
       <c r="H10" s="3">
-        <v>1409800</v>
+        <v>1920300</v>
       </c>
       <c r="I10" s="3">
-        <v>962300</v>
+        <v>1416500</v>
       </c>
       <c r="J10" s="3">
+        <v>966800</v>
+      </c>
+      <c r="K10" s="3">
         <v>694500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>302100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>231200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>291000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>322100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>289900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>320800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>346100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>666100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1093000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>630900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>831900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>769000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>724100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>914900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>719400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>797900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14200</v>
+        <v>15300</v>
       </c>
       <c r="E12" s="3">
-        <v>19200</v>
+        <v>14300</v>
       </c>
       <c r="F12" s="3">
+        <v>19300</v>
+      </c>
+      <c r="G12" s="3">
         <v>14400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>12100</v>
       </c>
       <c r="H12" s="3">
         <v>12100</v>
       </c>
       <c r="I12" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J12" s="3">
         <v>15200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>17700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>14500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>10000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>9900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>8400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>10500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,82 +1183,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>23200</v>
+        <v>232500</v>
       </c>
       <c r="E14" s="3">
-        <v>320700</v>
+        <v>23300</v>
       </c>
       <c r="F14" s="3">
-        <v>46600</v>
+        <v>322200</v>
       </c>
       <c r="G14" s="3">
-        <v>-106500</v>
+        <v>46800</v>
       </c>
       <c r="H14" s="3">
-        <v>-121700</v>
+        <v>-107000</v>
       </c>
       <c r="I14" s="3">
-        <v>373300</v>
+        <v>-122300</v>
       </c>
       <c r="J14" s="3">
+        <v>375100</v>
+      </c>
+      <c r="K14" s="3">
         <v>627600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>290800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-3000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>651700</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>77000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>60800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-15700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-30900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-6500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>15100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>10600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-65200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>26900</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4472400</v>
+        <v>4649200</v>
       </c>
       <c r="E17" s="3">
-        <v>4770200</v>
+        <v>4493500</v>
       </c>
       <c r="F17" s="3">
-        <v>4242500</v>
+        <v>4792700</v>
       </c>
       <c r="G17" s="3">
-        <v>3381100</v>
+        <v>4262500</v>
       </c>
       <c r="H17" s="3">
-        <v>3107200</v>
+        <v>3397000</v>
       </c>
       <c r="I17" s="3">
-        <v>3429500</v>
+        <v>3121900</v>
       </c>
       <c r="J17" s="3">
+        <v>3445700</v>
+      </c>
+      <c r="K17" s="3">
         <v>3228800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2401000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2413500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2994600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2402800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2212400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2032800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2439400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2508600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4156600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2595500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2671600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2622900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2450700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2404300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3295900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2402600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>734400</v>
+        <v>323800</v>
       </c>
       <c r="E18" s="3">
-        <v>725000</v>
+        <v>737800</v>
       </c>
       <c r="F18" s="3">
-        <v>1269700</v>
+        <v>728400</v>
       </c>
       <c r="G18" s="3">
-        <v>1765300</v>
+        <v>1275700</v>
       </c>
       <c r="H18" s="3">
-        <v>1312800</v>
+        <v>1773700</v>
       </c>
       <c r="I18" s="3">
-        <v>220300</v>
+        <v>1319000</v>
       </c>
       <c r="J18" s="3">
+        <v>221400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-113800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-196200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>74300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-660000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>104800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>149300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>395800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>207500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>516300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>805000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>447000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>566000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>495200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>592600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>721500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-307500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>569700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>376500</v>
+        <v>-496000</v>
       </c>
       <c r="E20" s="3">
-        <v>-322300</v>
+        <v>378200</v>
       </c>
       <c r="F20" s="3">
-        <v>-446800</v>
+        <v>-323800</v>
       </c>
       <c r="G20" s="3">
-        <v>301200</v>
+        <v>-448900</v>
       </c>
       <c r="H20" s="3">
-        <v>-503300</v>
+        <v>302700</v>
       </c>
       <c r="I20" s="3">
-        <v>318400</v>
+        <v>-505700</v>
       </c>
       <c r="J20" s="3">
+        <v>319900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-205200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-324000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1075200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-51500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-381300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-61000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-70600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-102900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-70400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-297800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-365400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-99500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-26500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>46800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-229800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-283500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1307500</v>
+        <v>46100</v>
       </c>
       <c r="E21" s="3">
-        <v>668600</v>
+        <v>1313700</v>
       </c>
       <c r="F21" s="3">
-        <v>1009600</v>
+        <v>671800</v>
       </c>
       <c r="G21" s="3">
-        <v>2246200</v>
+        <v>1014400</v>
       </c>
       <c r="H21" s="3">
-        <v>990900</v>
+        <v>2256800</v>
       </c>
       <c r="I21" s="3">
-        <v>742600</v>
+        <v>995600</v>
       </c>
       <c r="J21" s="3">
+        <v>746100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-112800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-329100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-809100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-522300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-112000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>242200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>486500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>236900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>591800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>777500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>616300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>395300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>586700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>751200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>942400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-356700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>462600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>133500</v>
+        <v>167900</v>
       </c>
       <c r="E22" s="3">
+        <v>134100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>160300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>158300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>115300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>172100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>144200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>151600</v>
+      </c>
+      <c r="L22" s="3">
+        <v>153700</v>
+      </c>
+      <c r="M22" s="3">
+        <v>157200</v>
+      </c>
+      <c r="N22" s="3">
+        <v>109600</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="3">
+        <v>101700</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>102100</v>
+      </c>
+      <c r="R22" s="3">
+        <v>91800</v>
+      </c>
+      <c r="S22" s="3">
+        <v>101900</v>
+      </c>
+      <c r="T22" s="3">
+        <v>188500</v>
+      </c>
+      <c r="U22" s="3">
+        <v>110300</v>
+      </c>
+      <c r="V22" s="3">
+        <v>131700</v>
+      </c>
+      <c r="W22" s="3">
+        <v>141600</v>
+      </c>
+      <c r="X22" s="3">
+        <v>147200</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>142400</v>
+      </c>
+      <c r="Z22" s="3">
         <v>159500</v>
       </c>
-      <c r="F22" s="3">
-        <v>157600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>114800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>171300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>143600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>151600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>153700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>157200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>109600</v>
-      </c>
-      <c r="N22" s="3" t="s">
+      <c r="AA22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="3">
-        <v>101700</v>
-      </c>
-      <c r="P22" s="3">
-        <v>102100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>91800</v>
-      </c>
-      <c r="R22" s="3">
-        <v>101900</v>
-      </c>
-      <c r="S22" s="3">
-        <v>188500</v>
-      </c>
-      <c r="T22" s="3">
-        <v>110300</v>
-      </c>
-      <c r="U22" s="3">
-        <v>131700</v>
-      </c>
-      <c r="V22" s="3">
-        <v>141600</v>
-      </c>
-      <c r="W22" s="3">
-        <v>147200</v>
-      </c>
-      <c r="X22" s="3">
-        <v>142400</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>159500</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>977300</v>
+        <v>-340100</v>
       </c>
       <c r="E23" s="3">
-        <v>243100</v>
+        <v>982000</v>
       </c>
       <c r="F23" s="3">
-        <v>665300</v>
+        <v>244300</v>
       </c>
       <c r="G23" s="3">
-        <v>1951800</v>
+        <v>668500</v>
       </c>
       <c r="H23" s="3">
-        <v>638200</v>
+        <v>1961000</v>
       </c>
       <c r="I23" s="3">
-        <v>395200</v>
+        <v>641200</v>
       </c>
       <c r="J23" s="3">
+        <v>397000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-470600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-673800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1158100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-821100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-276500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>223100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>344000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>318600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>333200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>68800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>254200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>418900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>625800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-696900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>286200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>208500</v>
+        <v>-53900</v>
       </c>
       <c r="E24" s="3">
-        <v>151900</v>
+        <v>209500</v>
       </c>
       <c r="F24" s="3">
-        <v>-19900</v>
+        <v>152700</v>
       </c>
       <c r="G24" s="3">
-        <v>478900</v>
+        <v>-20000</v>
       </c>
       <c r="H24" s="3">
-        <v>168100</v>
+        <v>481100</v>
       </c>
       <c r="I24" s="3">
-        <v>224300</v>
+        <v>168800</v>
       </c>
       <c r="J24" s="3">
+        <v>225300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-210100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-181900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-358300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-288200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-91400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-23600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>51500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>44600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>77100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>64500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-11400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>58400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>126000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>153200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-46600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>768900</v>
+        <v>-286300</v>
       </c>
       <c r="E26" s="3">
-        <v>91200</v>
+        <v>772500</v>
       </c>
       <c r="F26" s="3">
-        <v>685200</v>
+        <v>91600</v>
       </c>
       <c r="G26" s="3">
-        <v>1472900</v>
+        <v>688400</v>
       </c>
       <c r="H26" s="3">
-        <v>470200</v>
+        <v>1479900</v>
       </c>
       <c r="I26" s="3">
-        <v>170900</v>
+        <v>472400</v>
       </c>
       <c r="J26" s="3">
+        <v>171700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-260500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-492000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-799900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-532900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-185000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>171600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-31900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>266800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>304100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>268800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>80200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>195800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>292900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>472700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-650200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>201700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>756500</v>
+        <v>-275200</v>
       </c>
       <c r="E27" s="3">
-        <v>103300</v>
+        <v>760100</v>
       </c>
       <c r="F27" s="3">
-        <v>688900</v>
+        <v>103800</v>
       </c>
       <c r="G27" s="3">
-        <v>1446000</v>
+        <v>692200</v>
       </c>
       <c r="H27" s="3">
-        <v>485800</v>
+        <v>1452800</v>
       </c>
       <c r="I27" s="3">
-        <v>164800</v>
+        <v>488100</v>
       </c>
       <c r="J27" s="3">
+        <v>165600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-275200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-487900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-719100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-539700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-166500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>14900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>173700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>248700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>296200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>246000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>99000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>204900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>279400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>446200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-628800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>219400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2247,16 +2308,19 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>2200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>900</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-376500</v>
+        <v>496000</v>
       </c>
       <c r="E32" s="3">
-        <v>322300</v>
+        <v>-378200</v>
       </c>
       <c r="F32" s="3">
-        <v>446800</v>
+        <v>323800</v>
       </c>
       <c r="G32" s="3">
-        <v>-301200</v>
+        <v>448900</v>
       </c>
       <c r="H32" s="3">
-        <v>503300</v>
+        <v>-302700</v>
       </c>
       <c r="I32" s="3">
-        <v>-318400</v>
+        <v>505700</v>
       </c>
       <c r="J32" s="3">
+        <v>-319900</v>
+      </c>
+      <c r="K32" s="3">
         <v>205200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>324000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1075200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>51500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>381300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>61000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>70600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>102900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>70400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>297800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>365400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>99500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>26500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-46800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>229800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>283500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>756500</v>
+        <v>-275200</v>
       </c>
       <c r="E33" s="3">
-        <v>103300</v>
+        <v>760100</v>
       </c>
       <c r="F33" s="3">
-        <v>688900</v>
+        <v>103800</v>
       </c>
       <c r="G33" s="3">
-        <v>1446000</v>
+        <v>692200</v>
       </c>
       <c r="H33" s="3">
-        <v>485800</v>
+        <v>1452800</v>
       </c>
       <c r="I33" s="3">
-        <v>164800</v>
+        <v>488100</v>
       </c>
       <c r="J33" s="3">
+        <v>165600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-275200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-487900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-719100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-539700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-166500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>173700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-14000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>248700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>296200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>246000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>99000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>204900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>279400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>448400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-628000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>756500</v>
+        <v>-275200</v>
       </c>
       <c r="E35" s="3">
-        <v>103300</v>
+        <v>760100</v>
       </c>
       <c r="F35" s="3">
-        <v>688900</v>
+        <v>103800</v>
       </c>
       <c r="G35" s="3">
-        <v>1446000</v>
+        <v>692200</v>
       </c>
       <c r="H35" s="3">
-        <v>485800</v>
+        <v>1452800</v>
       </c>
       <c r="I35" s="3">
-        <v>164800</v>
+        <v>488100</v>
       </c>
       <c r="J35" s="3">
+        <v>165600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-275200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-487900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-719100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-539700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-166500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>173700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-14000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>248700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>296200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>246000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>99000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>204900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>279400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>448400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-628000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1970200</v>
+        <v>1864600</v>
       </c>
       <c r="E41" s="3">
-        <v>1690800</v>
+        <v>1979500</v>
       </c>
       <c r="F41" s="3">
-        <v>2342400</v>
+        <v>1698800</v>
       </c>
       <c r="G41" s="3">
-        <v>1902000</v>
+        <v>2353500</v>
       </c>
       <c r="H41" s="3">
-        <v>2433500</v>
+        <v>1911000</v>
       </c>
       <c r="I41" s="3">
-        <v>2700200</v>
+        <v>2445000</v>
       </c>
       <c r="J41" s="3">
+        <v>2713000</v>
+      </c>
+      <c r="K41" s="3">
         <v>2400500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2953000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1981600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1256700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1072000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1024900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1142200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>989700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>905000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>952900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>797100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>967900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1397900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1464300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1641600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1662600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2034300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>404300</v>
+        <v>748600</v>
       </c>
       <c r="E42" s="3">
-        <v>680300</v>
+        <v>406200</v>
       </c>
       <c r="F42" s="3">
-        <v>571900</v>
+        <v>683500</v>
       </c>
       <c r="G42" s="3">
-        <v>741200</v>
+        <v>574600</v>
       </c>
       <c r="H42" s="3">
-        <v>755400</v>
+        <v>744700</v>
       </c>
       <c r="I42" s="3">
-        <v>706500</v>
+        <v>759000</v>
       </c>
       <c r="J42" s="3">
+        <v>709800</v>
+      </c>
+      <c r="K42" s="3">
         <v>624200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>542500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>451600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>311700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>241600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>120300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>321900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>420600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>385000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>380400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>569800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>590400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>585700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>686500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>250900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>295300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>107400</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1923300</v>
+        <v>1844500</v>
       </c>
       <c r="E43" s="3">
-        <v>2009300</v>
+        <v>1932400</v>
       </c>
       <c r="F43" s="3">
-        <v>2648300</v>
+        <v>2018800</v>
       </c>
       <c r="G43" s="3">
-        <v>2417500</v>
+        <v>2660900</v>
       </c>
       <c r="H43" s="3">
-        <v>2147700</v>
+        <v>2429000</v>
       </c>
       <c r="I43" s="3">
-        <v>1546100</v>
+        <v>2157800</v>
       </c>
       <c r="J43" s="3">
+        <v>1553400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1319700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1157500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1084200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1321200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1026100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>893800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>861400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>842900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1091300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>836300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1029700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1263800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1077900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1019500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>752400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>658900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>796900</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3301300</v>
+        <v>3331300</v>
       </c>
       <c r="E44" s="3">
-        <v>3181800</v>
+        <v>3316800</v>
       </c>
       <c r="F44" s="3">
-        <v>2798200</v>
+        <v>3196800</v>
       </c>
       <c r="G44" s="3">
-        <v>2475300</v>
+        <v>2811400</v>
       </c>
       <c r="H44" s="3">
-        <v>2325500</v>
+        <v>2487000</v>
       </c>
       <c r="I44" s="3">
-        <v>1633000</v>
+        <v>2336500</v>
       </c>
       <c r="J44" s="3">
+        <v>1640700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1571000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1452200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1543800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1408400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1476000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1464000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1515400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1514000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1655100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1501300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1559800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1755400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1473200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1514600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1375900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1299400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1209100</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>145100</v>
+        <v>18100</v>
       </c>
       <c r="E45" s="3">
-        <v>91400</v>
+        <v>145800</v>
       </c>
       <c r="F45" s="3">
-        <v>37800</v>
+        <v>91800</v>
       </c>
       <c r="G45" s="3">
-        <v>68000</v>
+        <v>38000</v>
       </c>
       <c r="H45" s="3">
-        <v>69600</v>
+        <v>68400</v>
       </c>
       <c r="I45" s="3">
-        <v>73800</v>
+        <v>69900</v>
       </c>
       <c r="J45" s="3">
+        <v>74100</v>
+      </c>
+      <c r="K45" s="3">
         <v>84700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>79500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>29700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>39900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>59800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>47700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>24700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>29100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>31200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>35400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>51200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>52400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>111400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>116600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7744000</v>
+        <v>7807100</v>
       </c>
       <c r="E46" s="3">
-        <v>7653600</v>
+        <v>7780600</v>
       </c>
       <c r="F46" s="3">
-        <v>8398700</v>
+        <v>7689700</v>
       </c>
       <c r="G46" s="3">
-        <v>7604100</v>
+        <v>8438400</v>
       </c>
       <c r="H46" s="3">
-        <v>7731700</v>
+        <v>7640000</v>
       </c>
       <c r="I46" s="3">
-        <v>6659600</v>
+        <v>7768200</v>
       </c>
       <c r="J46" s="3">
+        <v>6691000</v>
+      </c>
+      <c r="K46" s="3">
         <v>6000200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6184600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5079800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4320100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3845500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3542900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3900600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3814900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4061100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3700000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3987600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4612900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4585900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4737400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4132100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4032900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4186700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>365800</v>
+        <v>427900</v>
       </c>
       <c r="E47" s="3">
-        <v>377300</v>
+        <v>367500</v>
       </c>
       <c r="F47" s="3">
-        <v>348500</v>
+        <v>379100</v>
       </c>
       <c r="G47" s="3">
-        <v>447100</v>
+        <v>350100</v>
       </c>
       <c r="H47" s="3">
-        <v>293400</v>
+        <v>449200</v>
       </c>
       <c r="I47" s="3">
-        <v>283300</v>
+        <v>294800</v>
       </c>
       <c r="J47" s="3">
+        <v>284600</v>
+      </c>
+      <c r="K47" s="3">
         <v>454400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>516900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>628100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>511200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>441100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>506500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>562700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>338000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>238400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>250800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>309100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>329600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>378500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>380000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>362800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>345300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>426900</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7137900</v>
+        <v>7712100</v>
       </c>
       <c r="E48" s="3">
-        <v>7792200</v>
+        <v>7171600</v>
       </c>
       <c r="F48" s="3">
-        <v>7601300</v>
+        <v>7829000</v>
       </c>
       <c r="G48" s="3">
-        <v>7321300</v>
+        <v>7637200</v>
       </c>
       <c r="H48" s="3">
-        <v>7851800</v>
+        <v>7355900</v>
       </c>
       <c r="I48" s="3">
-        <v>7563600</v>
+        <v>7888900</v>
       </c>
       <c r="J48" s="3">
+        <v>7599300</v>
+      </c>
+      <c r="K48" s="3">
         <v>7612900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7485700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7310600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6449900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6356800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5860000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6264500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5666000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6059100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5851700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7088700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7630300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7640900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7806300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7344800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7277900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7403700</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>549500</v>
+        <v>558000</v>
       </c>
       <c r="E49" s="3">
-        <v>560400</v>
+        <v>552100</v>
       </c>
       <c r="F49" s="3">
-        <v>551100</v>
+        <v>563100</v>
       </c>
       <c r="G49" s="3">
-        <v>546500</v>
+        <v>553700</v>
       </c>
       <c r="H49" s="3">
-        <v>553200</v>
+        <v>549100</v>
       </c>
       <c r="I49" s="3">
-        <v>551000</v>
+        <v>555800</v>
       </c>
       <c r="J49" s="3">
+        <v>553600</v>
+      </c>
+      <c r="K49" s="3">
         <v>547400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>548300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>546700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>510200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>515400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>483000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>510800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>489000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>508500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>506900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>633500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>699300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>704400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>714300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>689900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>696900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>699100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1135200</v>
+        <v>1454200</v>
       </c>
       <c r="E52" s="3">
-        <v>1646200</v>
+        <v>1140600</v>
       </c>
       <c r="F52" s="3">
-        <v>1494300</v>
+        <v>1654000</v>
       </c>
       <c r="G52" s="3">
-        <v>1208800</v>
+        <v>1501400</v>
       </c>
       <c r="H52" s="3">
-        <v>1892900</v>
+        <v>1214500</v>
       </c>
       <c r="I52" s="3">
-        <v>1710000</v>
+        <v>1901800</v>
       </c>
       <c r="J52" s="3">
+        <v>1718100</v>
+      </c>
+      <c r="K52" s="3">
         <v>2165100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1926900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1643300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>792100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1120900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>905000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>258100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>252400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>381100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>451100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>313100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>403600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>326100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>353300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>386600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>503100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>457300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16932500</v>
+        <v>17959300</v>
       </c>
       <c r="E54" s="3">
-        <v>18029700</v>
+        <v>17012500</v>
       </c>
       <c r="F54" s="3">
-        <v>18393900</v>
+        <v>18114800</v>
       </c>
       <c r="G54" s="3">
-        <v>17127800</v>
+        <v>18480800</v>
       </c>
       <c r="H54" s="3">
-        <v>18323000</v>
+        <v>17208700</v>
       </c>
       <c r="I54" s="3">
-        <v>16767400</v>
+        <v>18409500</v>
       </c>
       <c r="J54" s="3">
+        <v>16846600</v>
+      </c>
+      <c r="K54" s="3">
         <v>16780100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16662500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15208500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12583400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12279700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11297500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11496800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10560200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11248200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10760600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12332000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13675700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13635900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>13991200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12916200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12856000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>13173700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2347800</v>
+        <v>2487700</v>
       </c>
       <c r="E57" s="3">
-        <v>2347700</v>
+        <v>2358900</v>
       </c>
       <c r="F57" s="3">
-        <v>2033100</v>
+        <v>2358800</v>
       </c>
       <c r="G57" s="3">
-        <v>2080000</v>
+        <v>2042700</v>
       </c>
       <c r="H57" s="3">
-        <v>2669500</v>
+        <v>2089900</v>
       </c>
       <c r="I57" s="3">
-        <v>1937300</v>
+        <v>2682100</v>
       </c>
       <c r="J57" s="3">
+        <v>1946500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1727400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1688200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1944600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1683900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1707000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1614000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1543200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1488100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1736200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1528000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1323600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1350000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1233400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1348000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1257900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1623700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1777600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>597500</v>
+        <v>521300</v>
       </c>
       <c r="E58" s="3">
-        <v>421600</v>
+        <v>600300</v>
       </c>
       <c r="F58" s="3">
-        <v>1752800</v>
+        <v>423600</v>
       </c>
       <c r="G58" s="3">
-        <v>1988100</v>
+        <v>1761000</v>
       </c>
       <c r="H58" s="3">
-        <v>2034800</v>
+        <v>1997500</v>
       </c>
       <c r="I58" s="3">
-        <v>1933900</v>
+        <v>2044400</v>
       </c>
       <c r="J58" s="3">
+        <v>1943000</v>
+      </c>
+      <c r="K58" s="3">
         <v>672200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1099500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>786300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>414200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2599500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2298100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2118700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2010500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2235800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2243600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2379100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2795400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3374100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3695000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3205900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3233000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1801400</v>
+        <v>2019300</v>
       </c>
       <c r="E59" s="3">
-        <v>2137800</v>
+        <v>1810000</v>
       </c>
       <c r="F59" s="3">
-        <v>2517900</v>
+        <v>2147900</v>
       </c>
       <c r="G59" s="3">
-        <v>1978400</v>
+        <v>2529800</v>
       </c>
       <c r="H59" s="3">
-        <v>1806900</v>
+        <v>1987700</v>
       </c>
       <c r="I59" s="3">
-        <v>1658000</v>
+        <v>1815400</v>
       </c>
       <c r="J59" s="3">
+        <v>1665800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1664100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1451600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1196900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>897100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>679000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>571900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>546700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>625300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>522000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>498700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>526100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>761100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>719900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>760100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>881200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>858600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>814100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4746700</v>
+        <v>5028300</v>
       </c>
       <c r="E60" s="3">
-        <v>4907200</v>
+        <v>4769200</v>
       </c>
       <c r="F60" s="3">
-        <v>6303800</v>
+        <v>4930400</v>
       </c>
       <c r="G60" s="3">
-        <v>6046600</v>
+        <v>6333500</v>
       </c>
       <c r="H60" s="3">
-        <v>6511100</v>
+        <v>6075100</v>
       </c>
       <c r="I60" s="3">
-        <v>5529300</v>
+        <v>6541900</v>
       </c>
       <c r="J60" s="3">
+        <v>5555400</v>
+      </c>
+      <c r="K60" s="3">
         <v>4063700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4239400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3927700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2995100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4985500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4483900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4208600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4123900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4494000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4270300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4228800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4906500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5327400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5803000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5344900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5715300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3323500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8028400</v>
+        <v>9128000</v>
       </c>
       <c r="E61" s="3">
-        <v>9426800</v>
+        <v>8066300</v>
       </c>
       <c r="F61" s="3">
-        <v>7729400</v>
+        <v>9471400</v>
       </c>
       <c r="G61" s="3">
-        <v>7363000</v>
+        <v>7765900</v>
       </c>
       <c r="H61" s="3">
-        <v>9401100</v>
+        <v>7397800</v>
       </c>
       <c r="I61" s="3">
-        <v>9214400</v>
+        <v>9445500</v>
       </c>
       <c r="J61" s="3">
+        <v>9257900</v>
+      </c>
+      <c r="K61" s="3">
         <v>11502700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11478900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10039400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7334000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4956900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4362300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4937800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4310300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4438500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4496800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4981500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5685600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4740400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4970200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4871100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5144300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7597500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2153100</v>
+        <v>2239800</v>
       </c>
       <c r="E62" s="3">
-        <v>2487300</v>
+        <v>2163300</v>
       </c>
       <c r="F62" s="3">
-        <v>2192000</v>
+        <v>2499000</v>
       </c>
       <c r="G62" s="3">
-        <v>2322300</v>
+        <v>2202300</v>
       </c>
       <c r="H62" s="3">
-        <v>2701000</v>
+        <v>2333300</v>
       </c>
       <c r="I62" s="3">
-        <v>2776900</v>
+        <v>2713700</v>
       </c>
       <c r="J62" s="3">
+        <v>2790000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2462700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1996200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1806400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1525700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1173400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1112200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1004100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1071500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1129300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1096400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1408600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1624600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1772800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1746400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1575400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1569400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1162700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14673300</v>
+        <v>16106100</v>
       </c>
       <c r="E66" s="3">
-        <v>16497600</v>
+        <v>14742600</v>
       </c>
       <c r="F66" s="3">
-        <v>15907700</v>
+        <v>16575500</v>
       </c>
       <c r="G66" s="3">
-        <v>15441000</v>
+        <v>15982900</v>
       </c>
       <c r="H66" s="3">
-        <v>18239200</v>
+        <v>15513900</v>
       </c>
       <c r="I66" s="3">
-        <v>17196400</v>
+        <v>18325400</v>
       </c>
       <c r="J66" s="3">
+        <v>17277600</v>
+      </c>
+      <c r="K66" s="3">
         <v>17649700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17328600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15405600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11681100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10917200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9805200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9987100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9349300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9920900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9696800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10466600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12004700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11654000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12338600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11595600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12176600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11845300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1437100</v>
+        <v>906300</v>
       </c>
       <c r="E72" s="3">
-        <v>679300</v>
+        <v>1443900</v>
       </c>
       <c r="F72" s="3">
-        <v>1743300</v>
+        <v>682500</v>
       </c>
       <c r="G72" s="3">
-        <v>1053100</v>
+        <v>1751600</v>
       </c>
       <c r="H72" s="3">
-        <v>-395100</v>
+        <v>1058100</v>
       </c>
       <c r="I72" s="3">
-        <v>-882300</v>
+        <v>-397000</v>
       </c>
       <c r="J72" s="3">
+        <v>-886400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1047900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-783000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-296500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>394800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>947600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1050500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1111600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>875200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1044400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>794400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1223400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1071200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1226800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1020100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>714900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>264700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>914200</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2259200</v>
+        <v>1853100</v>
       </c>
       <c r="E76" s="3">
-        <v>1532100</v>
+        <v>2269900</v>
       </c>
       <c r="F76" s="3">
-        <v>2486200</v>
+        <v>1539300</v>
       </c>
       <c r="G76" s="3">
-        <v>1686800</v>
+        <v>2497900</v>
       </c>
       <c r="H76" s="3">
-        <v>83800</v>
+        <v>1694800</v>
       </c>
       <c r="I76" s="3">
-        <v>-429000</v>
+        <v>84200</v>
       </c>
       <c r="J76" s="3">
+        <v>-431000</v>
+      </c>
+      <c r="K76" s="3">
         <v>-869600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-666100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-197100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>902300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1362500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1492300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1509600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1210900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1327200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1063800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1865400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1671000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1981900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1652600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1320600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>679400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1328400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>756500</v>
+        <v>-275200</v>
       </c>
       <c r="E81" s="3">
-        <v>103300</v>
+        <v>760100</v>
       </c>
       <c r="F81" s="3">
-        <v>688900</v>
+        <v>103800</v>
       </c>
       <c r="G81" s="3">
-        <v>1446000</v>
+        <v>692200</v>
       </c>
       <c r="H81" s="3">
-        <v>485800</v>
+        <v>1452800</v>
       </c>
       <c r="I81" s="3">
-        <v>164800</v>
+        <v>488100</v>
       </c>
       <c r="J81" s="3">
+        <v>165600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-275200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-487900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-719100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-539700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-166500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>173700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-14000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>248700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>296200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>246000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>99000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>204900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>279400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>448400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-628000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>196700</v>
+        <v>218300</v>
       </c>
       <c r="E83" s="3">
-        <v>266000</v>
+        <v>197600</v>
       </c>
       <c r="F83" s="3">
-        <v>186700</v>
+        <v>267300</v>
       </c>
       <c r="G83" s="3">
-        <v>179700</v>
+        <v>187600</v>
       </c>
       <c r="H83" s="3">
-        <v>181500</v>
+        <v>180500</v>
       </c>
       <c r="I83" s="3">
-        <v>203800</v>
+        <v>182300</v>
       </c>
       <c r="J83" s="3">
+        <v>204800</v>
+      </c>
+      <c r="K83" s="3">
         <v>206200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>191000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>191800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>189200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>164500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>153900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>161300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>132300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>145800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>270300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>172800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>194800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>191000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>185100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>174200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>177700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>332900</v>
+        <v>390600</v>
       </c>
       <c r="E89" s="3">
-        <v>824500</v>
+        <v>334500</v>
       </c>
       <c r="F89" s="3">
-        <v>1117500</v>
+        <v>828400</v>
       </c>
       <c r="G89" s="3">
-        <v>489300</v>
+        <v>1122800</v>
       </c>
       <c r="H89" s="3">
-        <v>448700</v>
+        <v>491700</v>
       </c>
       <c r="I89" s="3">
-        <v>747900</v>
+        <v>450900</v>
       </c>
       <c r="J89" s="3">
+        <v>751400</v>
+      </c>
+      <c r="K89" s="3">
         <v>189200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-129900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>422000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>169400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>150400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-88200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>195400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>179800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>391200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1133900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>420500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>341000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>377300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-232900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>141000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>179800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>704800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-136000</v>
+        <v>-217000</v>
       </c>
       <c r="E91" s="3">
-        <v>-268500</v>
+        <v>-136700</v>
       </c>
       <c r="F91" s="3">
-        <v>-159600</v>
+        <v>-269700</v>
       </c>
       <c r="G91" s="3">
-        <v>-142900</v>
+        <v>-160300</v>
       </c>
       <c r="H91" s="3">
-        <v>-95500</v>
+        <v>-143500</v>
       </c>
       <c r="I91" s="3">
-        <v>-161500</v>
+        <v>-95900</v>
       </c>
       <c r="J91" s="3">
+        <v>-162300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-88700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-112300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-178400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-164900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-118100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-124700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-85300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-160800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-122100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-211900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-94500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-187200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-198300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-120300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-67700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-418100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-262200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-224600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-139300</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-269600</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-160300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-138700</v>
       </c>
-      <c r="E94" s="3">
-        <v>-268300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-159600</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-138100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-92500</v>
-      </c>
       <c r="I94" s="3">
-        <v>-157300</v>
+        <v>-93000</v>
       </c>
       <c r="J94" s="3">
+        <v>-158100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-88700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-109600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-177800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-162900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-169800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-75000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-85300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-150800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-107300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-196700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-94200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-341100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-195500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-68200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-206800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-130100</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,23 +6718,24 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-264200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1167000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>-1172500</v>
+      </c>
+      <c r="G96" s="3">
         <v>-400</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -6512,23 +6746,23 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-123100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -6536,17 +6770,17 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-277500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-256100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -6554,13 +6788,16 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-247800</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>257200</v>
+        <v>-368800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1246200</v>
+        <v>258500</v>
       </c>
       <c r="F100" s="3">
-        <v>-586200</v>
+        <v>-1252000</v>
       </c>
       <c r="G100" s="3">
-        <v>-761900</v>
+        <v>-589000</v>
       </c>
       <c r="H100" s="3">
-        <v>-710300</v>
+        <v>-765500</v>
       </c>
       <c r="I100" s="3">
-        <v>-225900</v>
+        <v>-713600</v>
       </c>
       <c r="J100" s="3">
+        <v>-227000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-646300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1126300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>184400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>212200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-24900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>123000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>73500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-297900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-630100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-405100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-416900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-275700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>35200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-105200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-237800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-197800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-172200</v>
+        <v>87900</v>
       </c>
       <c r="E101" s="3">
-        <v>38300</v>
+        <v>-173000</v>
       </c>
       <c r="F101" s="3">
-        <v>68700</v>
+        <v>38500</v>
       </c>
       <c r="G101" s="3">
-        <v>-120800</v>
+        <v>69000</v>
       </c>
       <c r="H101" s="3">
-        <v>87300</v>
+        <v>-121400</v>
       </c>
       <c r="I101" s="3">
-        <v>-64900</v>
+        <v>87700</v>
       </c>
       <c r="J101" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="K101" s="3">
         <v>27600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>84600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>212200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-17600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>30500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-15700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>14500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-33800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-52700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-13000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>27500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-24500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>11300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>14900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>279300</v>
+        <v>-114900</v>
       </c>
       <c r="E102" s="3">
-        <v>-651600</v>
+        <v>280600</v>
       </c>
       <c r="F102" s="3">
-        <v>440400</v>
+        <v>-654700</v>
       </c>
       <c r="G102" s="3">
-        <v>-531400</v>
+        <v>442500</v>
       </c>
       <c r="H102" s="3">
-        <v>-266700</v>
+        <v>-533900</v>
       </c>
       <c r="I102" s="3">
-        <v>299700</v>
+        <v>-268000</v>
       </c>
       <c r="J102" s="3">
+        <v>301100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-518300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>971300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>640800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>201100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-55900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>104100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>117100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-47900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>254400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-84500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-430000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-66400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-232200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-21000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-254500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>362100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
@@ -778,25 +778,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4973000</v>
+        <v>4754200</v>
       </c>
       <c r="E8" s="3">
-        <v>5231300</v>
+        <v>5001200</v>
       </c>
       <c r="F8" s="3">
-        <v>5521100</v>
+        <v>5278200</v>
       </c>
       <c r="G8" s="3">
-        <v>5538200</v>
+        <v>5294600</v>
       </c>
       <c r="H8" s="3">
-        <v>5170700</v>
+        <v>4943200</v>
       </c>
       <c r="I8" s="3">
-        <v>4440900</v>
+        <v>4245500</v>
       </c>
       <c r="J8" s="3">
-        <v>3667100</v>
+        <v>3505800</v>
       </c>
       <c r="K8" s="3">
         <v>3114900</v>
@@ -855,25 +855,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4174800</v>
+        <v>3991200</v>
       </c>
       <c r="E9" s="3">
-        <v>4227400</v>
+        <v>4041400</v>
       </c>
       <c r="F9" s="3">
-        <v>4209600</v>
+        <v>4024400</v>
       </c>
       <c r="G9" s="3">
-        <v>3913000</v>
+        <v>3740800</v>
       </c>
       <c r="H9" s="3">
-        <v>3250400</v>
+        <v>3107400</v>
       </c>
       <c r="I9" s="3">
-        <v>3024400</v>
+        <v>2891300</v>
       </c>
       <c r="J9" s="3">
-        <v>2700300</v>
+        <v>2581500</v>
       </c>
       <c r="K9" s="3">
         <v>2420400</v>
@@ -932,25 +932,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>798200</v>
+        <v>763000</v>
       </c>
       <c r="E10" s="3">
-        <v>1003900</v>
+        <v>959800</v>
       </c>
       <c r="F10" s="3">
-        <v>1311500</v>
+        <v>1253800</v>
       </c>
       <c r="G10" s="3">
-        <v>1625200</v>
+        <v>1553700</v>
       </c>
       <c r="H10" s="3">
-        <v>1920300</v>
+        <v>1835800</v>
       </c>
       <c r="I10" s="3">
-        <v>1416500</v>
+        <v>1354200</v>
       </c>
       <c r="J10" s="3">
-        <v>966800</v>
+        <v>924300</v>
       </c>
       <c r="K10" s="3">
         <v>694500</v>
@@ -1038,25 +1038,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>15300</v>
+        <v>14600</v>
       </c>
       <c r="E12" s="3">
-        <v>14300</v>
+        <v>13600</v>
       </c>
       <c r="F12" s="3">
-        <v>19300</v>
+        <v>18400</v>
       </c>
       <c r="G12" s="3">
-        <v>14400</v>
+        <v>13800</v>
       </c>
       <c r="H12" s="3">
-        <v>12100</v>
+        <v>11600</v>
       </c>
       <c r="I12" s="3">
-        <v>12200</v>
+        <v>11600</v>
       </c>
       <c r="J12" s="3">
-        <v>15200</v>
+        <v>14600</v>
       </c>
       <c r="K12" s="3">
         <v>12300</v>
@@ -1192,25 +1192,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>232500</v>
+        <v>222300</v>
       </c>
       <c r="E14" s="3">
-        <v>23300</v>
+        <v>22300</v>
       </c>
       <c r="F14" s="3">
-        <v>322200</v>
+        <v>308000</v>
       </c>
       <c r="G14" s="3">
-        <v>46800</v>
+        <v>44700</v>
       </c>
       <c r="H14" s="3">
-        <v>-107000</v>
+        <v>-102300</v>
       </c>
       <c r="I14" s="3">
-        <v>-122300</v>
+        <v>-116900</v>
       </c>
       <c r="J14" s="3">
-        <v>375100</v>
+        <v>358600</v>
       </c>
       <c r="K14" s="3">
         <v>627600</v>
@@ -1372,25 +1372,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4649200</v>
+        <v>4444600</v>
       </c>
       <c r="E17" s="3">
-        <v>4493500</v>
+        <v>4295800</v>
       </c>
       <c r="F17" s="3">
-        <v>4792700</v>
+        <v>4581900</v>
       </c>
       <c r="G17" s="3">
-        <v>4262500</v>
+        <v>4075000</v>
       </c>
       <c r="H17" s="3">
-        <v>3397000</v>
+        <v>3247600</v>
       </c>
       <c r="I17" s="3">
-        <v>3121900</v>
+        <v>2984500</v>
       </c>
       <c r="J17" s="3">
-        <v>3445700</v>
+        <v>3294100</v>
       </c>
       <c r="K17" s="3">
         <v>3228800</v>
@@ -1449,25 +1449,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>323800</v>
+        <v>309600</v>
       </c>
       <c r="E18" s="3">
-        <v>737800</v>
+        <v>705400</v>
       </c>
       <c r="F18" s="3">
-        <v>728400</v>
+        <v>696300</v>
       </c>
       <c r="G18" s="3">
-        <v>1275700</v>
+        <v>1219600</v>
       </c>
       <c r="H18" s="3">
-        <v>1773700</v>
+        <v>1695600</v>
       </c>
       <c r="I18" s="3">
-        <v>1319000</v>
+        <v>1261000</v>
       </c>
       <c r="J18" s="3">
-        <v>221400</v>
+        <v>211600</v>
       </c>
       <c r="K18" s="3">
         <v>-113800</v>
@@ -1555,25 +1555,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-496000</v>
+        <v>-474200</v>
       </c>
       <c r="E20" s="3">
-        <v>378200</v>
+        <v>361600</v>
       </c>
       <c r="F20" s="3">
-        <v>-323800</v>
+        <v>-309600</v>
       </c>
       <c r="G20" s="3">
-        <v>-448900</v>
+        <v>-429100</v>
       </c>
       <c r="H20" s="3">
-        <v>302700</v>
+        <v>289300</v>
       </c>
       <c r="I20" s="3">
-        <v>-505700</v>
+        <v>-483500</v>
       </c>
       <c r="J20" s="3">
-        <v>319900</v>
+        <v>305900</v>
       </c>
       <c r="K20" s="3">
         <v>-205200</v>
@@ -1632,25 +1632,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>46100</v>
+        <v>44100</v>
       </c>
       <c r="E21" s="3">
-        <v>1313700</v>
+        <v>1255900</v>
       </c>
       <c r="F21" s="3">
-        <v>671800</v>
+        <v>642200</v>
       </c>
       <c r="G21" s="3">
-        <v>1014400</v>
+        <v>969800</v>
       </c>
       <c r="H21" s="3">
-        <v>2256800</v>
+        <v>2157600</v>
       </c>
       <c r="I21" s="3">
-        <v>995600</v>
+        <v>951800</v>
       </c>
       <c r="J21" s="3">
-        <v>746100</v>
+        <v>713300</v>
       </c>
       <c r="K21" s="3">
         <v>-112800</v>
@@ -1709,25 +1709,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>167900</v>
+        <v>160500</v>
       </c>
       <c r="E22" s="3">
-        <v>134100</v>
+        <v>128200</v>
       </c>
       <c r="F22" s="3">
-        <v>160300</v>
+        <v>153200</v>
       </c>
       <c r="G22" s="3">
-        <v>158300</v>
+        <v>151400</v>
       </c>
       <c r="H22" s="3">
-        <v>115300</v>
+        <v>110200</v>
       </c>
       <c r="I22" s="3">
-        <v>172100</v>
+        <v>164500</v>
       </c>
       <c r="J22" s="3">
-        <v>144200</v>
+        <v>137900</v>
       </c>
       <c r="K22" s="3">
         <v>151600</v>
@@ -1786,25 +1786,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-340100</v>
+        <v>-325200</v>
       </c>
       <c r="E23" s="3">
-        <v>982000</v>
+        <v>938800</v>
       </c>
       <c r="F23" s="3">
-        <v>244300</v>
+        <v>233500</v>
       </c>
       <c r="G23" s="3">
-        <v>668500</v>
+        <v>639100</v>
       </c>
       <c r="H23" s="3">
-        <v>1961000</v>
+        <v>1874700</v>
       </c>
       <c r="I23" s="3">
-        <v>641200</v>
+        <v>613000</v>
       </c>
       <c r="J23" s="3">
-        <v>397000</v>
+        <v>379600</v>
       </c>
       <c r="K23" s="3">
         <v>-470600</v>
@@ -1863,25 +1863,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-53900</v>
+        <v>-51500</v>
       </c>
       <c r="E24" s="3">
-        <v>209500</v>
+        <v>200200</v>
       </c>
       <c r="F24" s="3">
-        <v>152700</v>
+        <v>145900</v>
       </c>
       <c r="G24" s="3">
-        <v>-20000</v>
+        <v>-19100</v>
       </c>
       <c r="H24" s="3">
-        <v>481100</v>
+        <v>460000</v>
       </c>
       <c r="I24" s="3">
-        <v>168800</v>
+        <v>161400</v>
       </c>
       <c r="J24" s="3">
-        <v>225300</v>
+        <v>215400</v>
       </c>
       <c r="K24" s="3">
         <v>-210100</v>
@@ -2017,25 +2017,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-286300</v>
+        <v>-273700</v>
       </c>
       <c r="E26" s="3">
-        <v>772500</v>
+        <v>738500</v>
       </c>
       <c r="F26" s="3">
-        <v>91600</v>
+        <v>87600</v>
       </c>
       <c r="G26" s="3">
-        <v>688400</v>
+        <v>658100</v>
       </c>
       <c r="H26" s="3">
-        <v>1479900</v>
+        <v>1414800</v>
       </c>
       <c r="I26" s="3">
-        <v>472400</v>
+        <v>451600</v>
       </c>
       <c r="J26" s="3">
-        <v>171700</v>
+        <v>164200</v>
       </c>
       <c r="K26" s="3">
         <v>-260500</v>
@@ -2094,25 +2094,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-275200</v>
+        <v>-263100</v>
       </c>
       <c r="E27" s="3">
-        <v>760100</v>
+        <v>726600</v>
       </c>
       <c r="F27" s="3">
-        <v>103800</v>
+        <v>99200</v>
       </c>
       <c r="G27" s="3">
-        <v>692200</v>
+        <v>661700</v>
       </c>
       <c r="H27" s="3">
-        <v>1452800</v>
+        <v>1388900</v>
       </c>
       <c r="I27" s="3">
-        <v>488100</v>
+        <v>466600</v>
       </c>
       <c r="J27" s="3">
-        <v>165600</v>
+        <v>158300</v>
       </c>
       <c r="K27" s="3">
         <v>-275200</v>
@@ -2479,25 +2479,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>496000</v>
+        <v>474200</v>
       </c>
       <c r="E32" s="3">
-        <v>-378200</v>
+        <v>-361600</v>
       </c>
       <c r="F32" s="3">
-        <v>323800</v>
+        <v>309600</v>
       </c>
       <c r="G32" s="3">
-        <v>448900</v>
+        <v>429100</v>
       </c>
       <c r="H32" s="3">
-        <v>-302700</v>
+        <v>-289300</v>
       </c>
       <c r="I32" s="3">
-        <v>505700</v>
+        <v>483500</v>
       </c>
       <c r="J32" s="3">
-        <v>-319900</v>
+        <v>-305900</v>
       </c>
       <c r="K32" s="3">
         <v>205200</v>
@@ -2556,25 +2556,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-275200</v>
+        <v>-263100</v>
       </c>
       <c r="E33" s="3">
-        <v>760100</v>
+        <v>726600</v>
       </c>
       <c r="F33" s="3">
-        <v>103800</v>
+        <v>99200</v>
       </c>
       <c r="G33" s="3">
-        <v>692200</v>
+        <v>661700</v>
       </c>
       <c r="H33" s="3">
-        <v>1452800</v>
+        <v>1388900</v>
       </c>
       <c r="I33" s="3">
-        <v>488100</v>
+        <v>466600</v>
       </c>
       <c r="J33" s="3">
-        <v>165600</v>
+        <v>158300</v>
       </c>
       <c r="K33" s="3">
         <v>-275200</v>
@@ -2710,25 +2710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-275200</v>
+        <v>-263100</v>
       </c>
       <c r="E35" s="3">
-        <v>760100</v>
+        <v>726600</v>
       </c>
       <c r="F35" s="3">
-        <v>103800</v>
+        <v>99200</v>
       </c>
       <c r="G35" s="3">
-        <v>692200</v>
+        <v>661700</v>
       </c>
       <c r="H35" s="3">
-        <v>1452800</v>
+        <v>1388900</v>
       </c>
       <c r="I35" s="3">
-        <v>488100</v>
+        <v>466600</v>
       </c>
       <c r="J35" s="3">
-        <v>165600</v>
+        <v>158300</v>
       </c>
       <c r="K35" s="3">
         <v>-275200</v>
@@ -2927,25 +2927,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1864600</v>
+        <v>1782500</v>
       </c>
       <c r="E41" s="3">
-        <v>1979500</v>
+        <v>1892400</v>
       </c>
       <c r="F41" s="3">
-        <v>1698800</v>
+        <v>1624100</v>
       </c>
       <c r="G41" s="3">
-        <v>2353500</v>
+        <v>2249900</v>
       </c>
       <c r="H41" s="3">
-        <v>1911000</v>
+        <v>1826900</v>
       </c>
       <c r="I41" s="3">
-        <v>2445000</v>
+        <v>2337400</v>
       </c>
       <c r="J41" s="3">
-        <v>2713000</v>
+        <v>2593600</v>
       </c>
       <c r="K41" s="3">
         <v>2400500</v>
@@ -3004,25 +3004,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>748600</v>
+        <v>715700</v>
       </c>
       <c r="E42" s="3">
-        <v>406200</v>
+        <v>388300</v>
       </c>
       <c r="F42" s="3">
-        <v>683500</v>
+        <v>653500</v>
       </c>
       <c r="G42" s="3">
-        <v>574600</v>
+        <v>549300</v>
       </c>
       <c r="H42" s="3">
-        <v>744700</v>
+        <v>712000</v>
       </c>
       <c r="I42" s="3">
-        <v>759000</v>
+        <v>725600</v>
       </c>
       <c r="J42" s="3">
-        <v>709800</v>
+        <v>678600</v>
       </c>
       <c r="K42" s="3">
         <v>624200</v>
@@ -3081,25 +3081,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1844500</v>
+        <v>1763400</v>
       </c>
       <c r="E43" s="3">
-        <v>1932400</v>
+        <v>1847300</v>
       </c>
       <c r="F43" s="3">
-        <v>2018800</v>
+        <v>1930000</v>
       </c>
       <c r="G43" s="3">
-        <v>2660900</v>
+        <v>2543800</v>
       </c>
       <c r="H43" s="3">
-        <v>2429000</v>
+        <v>2322100</v>
       </c>
       <c r="I43" s="3">
-        <v>2157800</v>
+        <v>2062900</v>
       </c>
       <c r="J43" s="3">
-        <v>1553400</v>
+        <v>1485100</v>
       </c>
       <c r="K43" s="3">
         <v>1319700</v>
@@ -3158,25 +3158,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3331300</v>
+        <v>3184800</v>
       </c>
       <c r="E44" s="3">
-        <v>3316800</v>
+        <v>3170900</v>
       </c>
       <c r="F44" s="3">
-        <v>3196800</v>
+        <v>3056100</v>
       </c>
       <c r="G44" s="3">
-        <v>2811400</v>
+        <v>2687700</v>
       </c>
       <c r="H44" s="3">
-        <v>2487000</v>
+        <v>2377600</v>
       </c>
       <c r="I44" s="3">
-        <v>2336500</v>
+        <v>2233700</v>
       </c>
       <c r="J44" s="3">
-        <v>1640700</v>
+        <v>1568500</v>
       </c>
       <c r="K44" s="3">
         <v>1571000</v>
@@ -3235,25 +3235,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18100</v>
+        <v>17300</v>
       </c>
       <c r="E45" s="3">
-        <v>145800</v>
+        <v>139300</v>
       </c>
       <c r="F45" s="3">
-        <v>91800</v>
+        <v>87800</v>
       </c>
       <c r="G45" s="3">
-        <v>38000</v>
+        <v>36300</v>
       </c>
       <c r="H45" s="3">
-        <v>68400</v>
+        <v>65400</v>
       </c>
       <c r="I45" s="3">
-        <v>69900</v>
+        <v>66800</v>
       </c>
       <c r="J45" s="3">
-        <v>74100</v>
+        <v>70800</v>
       </c>
       <c r="K45" s="3">
         <v>84700</v>
@@ -3312,25 +3312,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7807100</v>
+        <v>7463700</v>
       </c>
       <c r="E46" s="3">
-        <v>7780600</v>
+        <v>7438300</v>
       </c>
       <c r="F46" s="3">
-        <v>7689700</v>
+        <v>7351400</v>
       </c>
       <c r="G46" s="3">
-        <v>8438400</v>
+        <v>8067100</v>
       </c>
       <c r="H46" s="3">
-        <v>7640000</v>
+        <v>7303900</v>
       </c>
       <c r="I46" s="3">
-        <v>7768200</v>
+        <v>7426400</v>
       </c>
       <c r="J46" s="3">
-        <v>6691000</v>
+        <v>6396700</v>
       </c>
       <c r="K46" s="3">
         <v>6000200</v>
@@ -3389,25 +3389,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>427900</v>
+        <v>409100</v>
       </c>
       <c r="E47" s="3">
-        <v>367500</v>
+        <v>351300</v>
       </c>
       <c r="F47" s="3">
-        <v>379100</v>
+        <v>362400</v>
       </c>
       <c r="G47" s="3">
-        <v>350100</v>
+        <v>334700</v>
       </c>
       <c r="H47" s="3">
-        <v>449200</v>
+        <v>429500</v>
       </c>
       <c r="I47" s="3">
-        <v>294800</v>
+        <v>281800</v>
       </c>
       <c r="J47" s="3">
-        <v>284600</v>
+        <v>272100</v>
       </c>
       <c r="K47" s="3">
         <v>454400</v>
@@ -3466,25 +3466,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7712100</v>
+        <v>7372800</v>
       </c>
       <c r="E48" s="3">
-        <v>7171600</v>
+        <v>6856100</v>
       </c>
       <c r="F48" s="3">
-        <v>7829000</v>
+        <v>7484600</v>
       </c>
       <c r="G48" s="3">
-        <v>7637200</v>
+        <v>7301200</v>
       </c>
       <c r="H48" s="3">
-        <v>7355900</v>
+        <v>7032200</v>
       </c>
       <c r="I48" s="3">
-        <v>7888900</v>
+        <v>7541800</v>
       </c>
       <c r="J48" s="3">
-        <v>7599300</v>
+        <v>7265000</v>
       </c>
       <c r="K48" s="3">
         <v>7612900</v>
@@ -3543,25 +3543,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>558000</v>
+        <v>533400</v>
       </c>
       <c r="E49" s="3">
-        <v>552100</v>
+        <v>527800</v>
       </c>
       <c r="F49" s="3">
-        <v>563100</v>
+        <v>538300</v>
       </c>
       <c r="G49" s="3">
-        <v>553700</v>
+        <v>529300</v>
       </c>
       <c r="H49" s="3">
-        <v>549100</v>
+        <v>524900</v>
       </c>
       <c r="I49" s="3">
-        <v>555800</v>
+        <v>531400</v>
       </c>
       <c r="J49" s="3">
-        <v>553600</v>
+        <v>529200</v>
       </c>
       <c r="K49" s="3">
         <v>547400</v>
@@ -3774,25 +3774,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1454200</v>
+        <v>1390200</v>
       </c>
       <c r="E52" s="3">
-        <v>1140600</v>
+        <v>1090400</v>
       </c>
       <c r="F52" s="3">
-        <v>1654000</v>
+        <v>1581200</v>
       </c>
       <c r="G52" s="3">
-        <v>1501400</v>
+        <v>1435300</v>
       </c>
       <c r="H52" s="3">
-        <v>1214500</v>
+        <v>1161000</v>
       </c>
       <c r="I52" s="3">
-        <v>1901800</v>
+        <v>1818100</v>
       </c>
       <c r="J52" s="3">
-        <v>1718100</v>
+        <v>1642500</v>
       </c>
       <c r="K52" s="3">
         <v>2165100</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17959300</v>
+        <v>17169100</v>
       </c>
       <c r="E54" s="3">
-        <v>17012500</v>
+        <v>16264000</v>
       </c>
       <c r="F54" s="3">
-        <v>18114800</v>
+        <v>17317900</v>
       </c>
       <c r="G54" s="3">
-        <v>18480800</v>
+        <v>17667700</v>
       </c>
       <c r="H54" s="3">
-        <v>17208700</v>
+        <v>16451600</v>
       </c>
       <c r="I54" s="3">
-        <v>18409500</v>
+        <v>17599600</v>
       </c>
       <c r="J54" s="3">
-        <v>16846600</v>
+        <v>16105400</v>
       </c>
       <c r="K54" s="3">
         <v>16780100</v>
@@ -4063,25 +4063,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2487700</v>
+        <v>2378200</v>
       </c>
       <c r="E57" s="3">
-        <v>2358900</v>
+        <v>2255100</v>
       </c>
       <c r="F57" s="3">
-        <v>2358800</v>
+        <v>2255000</v>
       </c>
       <c r="G57" s="3">
-        <v>2042700</v>
+        <v>1952900</v>
       </c>
       <c r="H57" s="3">
-        <v>2089900</v>
+        <v>1997900</v>
       </c>
       <c r="I57" s="3">
-        <v>2682100</v>
+        <v>2564100</v>
       </c>
       <c r="J57" s="3">
-        <v>1946500</v>
+        <v>1860900</v>
       </c>
       <c r="K57" s="3">
         <v>1727400</v>
@@ -4140,25 +4140,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>521300</v>
+        <v>498300</v>
       </c>
       <c r="E58" s="3">
-        <v>600300</v>
+        <v>573900</v>
       </c>
       <c r="F58" s="3">
-        <v>423600</v>
+        <v>405000</v>
       </c>
       <c r="G58" s="3">
-        <v>1761000</v>
+        <v>1683600</v>
       </c>
       <c r="H58" s="3">
-        <v>1997500</v>
+        <v>1909600</v>
       </c>
       <c r="I58" s="3">
-        <v>2044400</v>
+        <v>1954400</v>
       </c>
       <c r="J58" s="3">
-        <v>1943000</v>
+        <v>1857500</v>
       </c>
       <c r="K58" s="3">
         <v>672200</v>
@@ -4217,25 +4217,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2019300</v>
+        <v>1930500</v>
       </c>
       <c r="E59" s="3">
-        <v>1810000</v>
+        <v>1730300</v>
       </c>
       <c r="F59" s="3">
-        <v>2147900</v>
+        <v>2053400</v>
       </c>
       <c r="G59" s="3">
-        <v>2529800</v>
+        <v>2418500</v>
       </c>
       <c r="H59" s="3">
-        <v>1987700</v>
+        <v>1900300</v>
       </c>
       <c r="I59" s="3">
-        <v>1815400</v>
+        <v>1735500</v>
       </c>
       <c r="J59" s="3">
-        <v>1665800</v>
+        <v>1592600</v>
       </c>
       <c r="K59" s="3">
         <v>1664100</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5028300</v>
+        <v>4807000</v>
       </c>
       <c r="E60" s="3">
-        <v>4769200</v>
+        <v>4559300</v>
       </c>
       <c r="F60" s="3">
-        <v>4930400</v>
+        <v>4713500</v>
       </c>
       <c r="G60" s="3">
-        <v>6333500</v>
+        <v>6054900</v>
       </c>
       <c r="H60" s="3">
-        <v>6075100</v>
+        <v>5807800</v>
       </c>
       <c r="I60" s="3">
-        <v>6541900</v>
+        <v>6254100</v>
       </c>
       <c r="J60" s="3">
-        <v>5555400</v>
+        <v>5311000</v>
       </c>
       <c r="K60" s="3">
         <v>4063700</v>
@@ -4371,25 +4371,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9128000</v>
+        <v>8726400</v>
       </c>
       <c r="E61" s="3">
-        <v>8066300</v>
+        <v>7711500</v>
       </c>
       <c r="F61" s="3">
-        <v>9471400</v>
+        <v>9054700</v>
       </c>
       <c r="G61" s="3">
-        <v>7765900</v>
+        <v>7424200</v>
       </c>
       <c r="H61" s="3">
-        <v>7397800</v>
+        <v>7072300</v>
       </c>
       <c r="I61" s="3">
-        <v>9445500</v>
+        <v>9030000</v>
       </c>
       <c r="J61" s="3">
-        <v>9257900</v>
+        <v>8850600</v>
       </c>
       <c r="K61" s="3">
         <v>11502700</v>
@@ -4448,25 +4448,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2239800</v>
+        <v>2141200</v>
       </c>
       <c r="E62" s="3">
-        <v>2163300</v>
+        <v>2068100</v>
       </c>
       <c r="F62" s="3">
-        <v>2499000</v>
+        <v>2389100</v>
       </c>
       <c r="G62" s="3">
-        <v>2202300</v>
+        <v>2105400</v>
       </c>
       <c r="H62" s="3">
-        <v>2333300</v>
+        <v>2230600</v>
       </c>
       <c r="I62" s="3">
-        <v>2713700</v>
+        <v>2594300</v>
       </c>
       <c r="J62" s="3">
-        <v>2790000</v>
+        <v>2667200</v>
       </c>
       <c r="K62" s="3">
         <v>2462700</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16106100</v>
+        <v>15397500</v>
       </c>
       <c r="E66" s="3">
-        <v>14742600</v>
+        <v>14094000</v>
       </c>
       <c r="F66" s="3">
-        <v>16575500</v>
+        <v>15846300</v>
       </c>
       <c r="G66" s="3">
-        <v>15982900</v>
+        <v>15279700</v>
       </c>
       <c r="H66" s="3">
-        <v>15513900</v>
+        <v>14831400</v>
       </c>
       <c r="I66" s="3">
-        <v>18325400</v>
+        <v>17519100</v>
       </c>
       <c r="J66" s="3">
-        <v>17277600</v>
+        <v>16517500</v>
       </c>
       <c r="K66" s="3">
         <v>17649700</v>
@@ -5170,25 +5170,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>906300</v>
+        <v>866400</v>
       </c>
       <c r="E72" s="3">
-        <v>1443900</v>
+        <v>1380300</v>
       </c>
       <c r="F72" s="3">
-        <v>682500</v>
+        <v>652500</v>
       </c>
       <c r="G72" s="3">
-        <v>1751600</v>
+        <v>1674500</v>
       </c>
       <c r="H72" s="3">
-        <v>1058100</v>
+        <v>1011600</v>
       </c>
       <c r="I72" s="3">
-        <v>-397000</v>
+        <v>-379500</v>
       </c>
       <c r="J72" s="3">
-        <v>-886400</v>
+        <v>-847400</v>
       </c>
       <c r="K72" s="3">
         <v>-1047900</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1853100</v>
+        <v>1771600</v>
       </c>
       <c r="E76" s="3">
-        <v>2269900</v>
+        <v>2170000</v>
       </c>
       <c r="F76" s="3">
-        <v>1539300</v>
+        <v>1471600</v>
       </c>
       <c r="G76" s="3">
-        <v>2497900</v>
+        <v>2388000</v>
       </c>
       <c r="H76" s="3">
-        <v>1694800</v>
+        <v>1620200</v>
       </c>
       <c r="I76" s="3">
-        <v>84200</v>
+        <v>80500</v>
       </c>
       <c r="J76" s="3">
-        <v>-431000</v>
+        <v>-412000</v>
       </c>
       <c r="K76" s="3">
         <v>-869600</v>
@@ -5714,25 +5714,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-275200</v>
+        <v>-263100</v>
       </c>
       <c r="E81" s="3">
-        <v>760100</v>
+        <v>726600</v>
       </c>
       <c r="F81" s="3">
-        <v>103800</v>
+        <v>99200</v>
       </c>
       <c r="G81" s="3">
-        <v>692200</v>
+        <v>661700</v>
       </c>
       <c r="H81" s="3">
-        <v>1452800</v>
+        <v>1388900</v>
       </c>
       <c r="I81" s="3">
-        <v>488100</v>
+        <v>466600</v>
       </c>
       <c r="J81" s="3">
-        <v>165600</v>
+        <v>158300</v>
       </c>
       <c r="K81" s="3">
         <v>-275200</v>
@@ -5820,25 +5820,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>218300</v>
+        <v>208700</v>
       </c>
       <c r="E83" s="3">
-        <v>197600</v>
+        <v>189000</v>
       </c>
       <c r="F83" s="3">
-        <v>267300</v>
+        <v>255500</v>
       </c>
       <c r="G83" s="3">
-        <v>187600</v>
+        <v>179400</v>
       </c>
       <c r="H83" s="3">
-        <v>180500</v>
+        <v>172600</v>
       </c>
       <c r="I83" s="3">
-        <v>182300</v>
+        <v>174300</v>
       </c>
       <c r="J83" s="3">
-        <v>204800</v>
+        <v>195800</v>
       </c>
       <c r="K83" s="3">
         <v>206200</v>
@@ -6282,25 +6282,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>390600</v>
+        <v>373400</v>
       </c>
       <c r="E89" s="3">
-        <v>334500</v>
+        <v>319800</v>
       </c>
       <c r="F89" s="3">
-        <v>828400</v>
+        <v>792000</v>
       </c>
       <c r="G89" s="3">
-        <v>1122800</v>
+        <v>1073400</v>
       </c>
       <c r="H89" s="3">
-        <v>491700</v>
+        <v>470000</v>
       </c>
       <c r="I89" s="3">
-        <v>450900</v>
+        <v>431000</v>
       </c>
       <c r="J89" s="3">
-        <v>751400</v>
+        <v>718300</v>
       </c>
       <c r="K89" s="3">
         <v>189200</v>
@@ -6388,25 +6388,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-217000</v>
+        <v>-207400</v>
       </c>
       <c r="E91" s="3">
-        <v>-136700</v>
+        <v>-130700</v>
       </c>
       <c r="F91" s="3">
-        <v>-269700</v>
+        <v>-257900</v>
       </c>
       <c r="G91" s="3">
-        <v>-160300</v>
+        <v>-153300</v>
       </c>
       <c r="H91" s="3">
-        <v>-143500</v>
+        <v>-137200</v>
       </c>
       <c r="I91" s="3">
-        <v>-95900</v>
+        <v>-91700</v>
       </c>
       <c r="J91" s="3">
-        <v>-162300</v>
+        <v>-155100</v>
       </c>
       <c r="K91" s="3">
         <v>-88700</v>
@@ -6619,25 +6619,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-224600</v>
+        <v>-214700</v>
       </c>
       <c r="E94" s="3">
-        <v>-139300</v>
+        <v>-133200</v>
       </c>
       <c r="F94" s="3">
-        <v>-269600</v>
+        <v>-257700</v>
       </c>
       <c r="G94" s="3">
-        <v>-160300</v>
+        <v>-153300</v>
       </c>
       <c r="H94" s="3">
-        <v>-138700</v>
+        <v>-132600</v>
       </c>
       <c r="I94" s="3">
-        <v>-93000</v>
+        <v>-88900</v>
       </c>
       <c r="J94" s="3">
-        <v>-158100</v>
+        <v>-151100</v>
       </c>
       <c r="K94" s="3">
         <v>-88700</v>
@@ -6725,13 +6725,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-264200</v>
+        <v>-252600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1172500</v>
+        <v>-1120900</v>
       </c>
       <c r="G96" s="3">
         <v>-400</v>
@@ -7033,25 +7033,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-368800</v>
+        <v>-352600</v>
       </c>
       <c r="E100" s="3">
-        <v>258500</v>
+        <v>247100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1252000</v>
+        <v>-1197000</v>
       </c>
       <c r="G100" s="3">
-        <v>-589000</v>
+        <v>-563100</v>
       </c>
       <c r="H100" s="3">
-        <v>-765500</v>
+        <v>-731800</v>
       </c>
       <c r="I100" s="3">
-        <v>-713600</v>
+        <v>-682200</v>
       </c>
       <c r="J100" s="3">
-        <v>-227000</v>
+        <v>-217000</v>
       </c>
       <c r="K100" s="3">
         <v>-646300</v>
@@ -7110,25 +7110,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>87900</v>
+        <v>84000</v>
       </c>
       <c r="E101" s="3">
-        <v>-173000</v>
+        <v>-165400</v>
       </c>
       <c r="F101" s="3">
-        <v>38500</v>
+        <v>36800</v>
       </c>
       <c r="G101" s="3">
-        <v>69000</v>
+        <v>65900</v>
       </c>
       <c r="H101" s="3">
-        <v>-121400</v>
+        <v>-116000</v>
       </c>
       <c r="I101" s="3">
-        <v>87700</v>
+        <v>83900</v>
       </c>
       <c r="J101" s="3">
-        <v>-65200</v>
+        <v>-62400</v>
       </c>
       <c r="K101" s="3">
         <v>27600</v>
@@ -7187,25 +7187,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-114900</v>
+        <v>-109800</v>
       </c>
       <c r="E102" s="3">
-        <v>280600</v>
+        <v>268300</v>
       </c>
       <c r="F102" s="3">
-        <v>-654700</v>
+        <v>-625900</v>
       </c>
       <c r="G102" s="3">
-        <v>442500</v>
+        <v>423000</v>
       </c>
       <c r="H102" s="3">
-        <v>-533900</v>
+        <v>-510500</v>
       </c>
       <c r="I102" s="3">
-        <v>-268000</v>
+        <v>-256200</v>
       </c>
       <c r="J102" s="3">
-        <v>301100</v>
+        <v>287800</v>
       </c>
       <c r="K102" s="3">
         <v>-518300</v>

--- a/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4754200</v>
+        <v>4915600</v>
       </c>
       <c r="E8" s="3">
-        <v>5001200</v>
+        <v>4920400</v>
       </c>
       <c r="F8" s="3">
-        <v>5278200</v>
+        <v>5176000</v>
       </c>
       <c r="G8" s="3">
-        <v>5294600</v>
+        <v>5462700</v>
       </c>
       <c r="H8" s="3">
-        <v>4943200</v>
+        <v>5479600</v>
       </c>
       <c r="I8" s="3">
-        <v>4245500</v>
+        <v>5116000</v>
       </c>
       <c r="J8" s="3">
+        <v>4393900</v>
+      </c>
+      <c r="K8" s="3">
         <v>3505800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3114900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2204800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2487800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2334600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2507600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2361600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2428600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2646900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3024900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4961600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3042500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3237700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3118100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3043300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3125700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2988400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2972300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3991200</v>
+        <v>4484100</v>
       </c>
       <c r="E9" s="3">
-        <v>4041400</v>
+        <v>4130700</v>
       </c>
       <c r="F9" s="3">
-        <v>4024400</v>
+        <v>4182700</v>
       </c>
       <c r="G9" s="3">
-        <v>3740800</v>
+        <v>4165000</v>
       </c>
       <c r="H9" s="3">
-        <v>3107400</v>
+        <v>3871600</v>
       </c>
       <c r="I9" s="3">
-        <v>2891300</v>
+        <v>3216000</v>
       </c>
       <c r="J9" s="3">
+        <v>2992400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2581500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2420400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1902700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2256600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2043700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2185500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2071700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2107800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2300800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2358800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3868600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2411600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2405700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2349100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2319300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2210800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2269000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2174500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>763000</v>
+        <v>431500</v>
       </c>
       <c r="E10" s="3">
-        <v>959800</v>
+        <v>789700</v>
       </c>
       <c r="F10" s="3">
-        <v>1253800</v>
+        <v>993300</v>
       </c>
       <c r="G10" s="3">
-        <v>1553700</v>
+        <v>1297700</v>
       </c>
       <c r="H10" s="3">
-        <v>1835800</v>
+        <v>1608000</v>
       </c>
       <c r="I10" s="3">
-        <v>1354200</v>
+        <v>1900000</v>
       </c>
       <c r="J10" s="3">
+        <v>1401500</v>
+      </c>
+      <c r="K10" s="3">
         <v>924300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>694500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>302100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>231200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>291000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>322100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>289900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>320800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>346100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>666100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1093000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>630900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>831900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>769000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>724100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>914900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>719400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>797900</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>19100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>14300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K12" s="3">
         <v>14600</v>
       </c>
-      <c r="E12" s="3">
-        <v>13600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>18400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>13800</v>
-      </c>
-      <c r="H12" s="3">
-        <v>11600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>11600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>14600</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>17700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>14500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>10000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>9900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>8400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>10500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,85 +1203,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>222300</v>
+        <v>28700</v>
       </c>
       <c r="E14" s="3">
-        <v>22300</v>
+        <v>230000</v>
       </c>
       <c r="F14" s="3">
-        <v>308000</v>
+        <v>23000</v>
       </c>
       <c r="G14" s="3">
-        <v>44700</v>
+        <v>318800</v>
       </c>
       <c r="H14" s="3">
-        <v>-102300</v>
+        <v>46300</v>
       </c>
       <c r="I14" s="3">
-        <v>-116900</v>
+        <v>-105900</v>
       </c>
       <c r="J14" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="K14" s="3">
         <v>358600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>627600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>290800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-3000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>651700</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>77000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>60800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-15700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-30900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-6500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>15100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>10600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-65200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>26900</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4444600</v>
+        <v>4782000</v>
       </c>
       <c r="E17" s="3">
-        <v>4295800</v>
+        <v>4600000</v>
       </c>
       <c r="F17" s="3">
-        <v>4581900</v>
+        <v>4446000</v>
       </c>
       <c r="G17" s="3">
-        <v>4075000</v>
+        <v>4742000</v>
       </c>
       <c r="H17" s="3">
-        <v>3247600</v>
+        <v>4217400</v>
       </c>
       <c r="I17" s="3">
-        <v>2984500</v>
+        <v>3361100</v>
       </c>
       <c r="J17" s="3">
+        <v>3088800</v>
+      </c>
+      <c r="K17" s="3">
         <v>3294100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3228800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2401000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2413500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2994600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2402800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2212400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2032800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2439400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2508600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4156600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2595500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2671600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2622900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2450700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2404300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3295900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2402600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>309600</v>
+        <v>133700</v>
       </c>
       <c r="E18" s="3">
-        <v>705400</v>
+        <v>320400</v>
       </c>
       <c r="F18" s="3">
-        <v>696300</v>
+        <v>730000</v>
       </c>
       <c r="G18" s="3">
-        <v>1219600</v>
+        <v>720700</v>
       </c>
       <c r="H18" s="3">
-        <v>1695600</v>
+        <v>1262200</v>
       </c>
       <c r="I18" s="3">
-        <v>1261000</v>
+        <v>1754900</v>
       </c>
       <c r="J18" s="3">
+        <v>1305000</v>
+      </c>
+      <c r="K18" s="3">
         <v>211600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-113800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-196200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>74300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-660000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>104800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>149300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>395800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>207500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>516300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>805000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>447000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>566000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>495200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>592600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>721500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-307500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>569700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-474200</v>
+        <v>-155400</v>
       </c>
       <c r="E20" s="3">
-        <v>361600</v>
+        <v>-490800</v>
       </c>
       <c r="F20" s="3">
-        <v>-309600</v>
+        <v>374200</v>
       </c>
       <c r="G20" s="3">
-        <v>-429100</v>
+        <v>-320400</v>
       </c>
       <c r="H20" s="3">
-        <v>289300</v>
+        <v>-444200</v>
       </c>
       <c r="I20" s="3">
-        <v>-483500</v>
+        <v>299500</v>
       </c>
       <c r="J20" s="3">
+        <v>-500400</v>
+      </c>
+      <c r="K20" s="3">
         <v>305900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-205200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-324000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1075200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-51500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-381300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-70600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-102900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-70400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-297800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-365400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-99500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-26500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>46800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-229800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-283500</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>44100</v>
+        <v>206000</v>
       </c>
       <c r="E21" s="3">
-        <v>1255900</v>
+        <v>45600</v>
       </c>
       <c r="F21" s="3">
-        <v>642200</v>
+        <v>1299800</v>
       </c>
       <c r="G21" s="3">
-        <v>969800</v>
+        <v>664700</v>
       </c>
       <c r="H21" s="3">
-        <v>2157600</v>
+        <v>1003700</v>
       </c>
       <c r="I21" s="3">
-        <v>951800</v>
+        <v>2233000</v>
       </c>
       <c r="J21" s="3">
+        <v>985100</v>
+      </c>
+      <c r="K21" s="3">
         <v>713300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-112800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-329100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-809100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-522300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-112000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>242200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>486500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>236900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>591800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>777500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>616300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>395300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>586700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>751200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>942400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-356700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>462600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>160500</v>
+        <v>172900</v>
       </c>
       <c r="E22" s="3">
-        <v>128200</v>
+        <v>166200</v>
       </c>
       <c r="F22" s="3">
-        <v>153200</v>
+        <v>132700</v>
       </c>
       <c r="G22" s="3">
-        <v>151400</v>
+        <v>158600</v>
       </c>
       <c r="H22" s="3">
-        <v>110200</v>
+        <v>156700</v>
       </c>
       <c r="I22" s="3">
-        <v>164500</v>
+        <v>114100</v>
       </c>
       <c r="J22" s="3">
+        <v>170300</v>
+      </c>
+      <c r="K22" s="3">
         <v>137900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>151600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>153700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>157200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>109600</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>101700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>102100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>91800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>101900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>188500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>110300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>131700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>141600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>147200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>142400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>159500</v>
       </c>
-      <c r="AA22" s="3" t="s">
+      <c r="AB22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-325200</v>
+        <v>-194700</v>
       </c>
       <c r="E23" s="3">
-        <v>938800</v>
+        <v>-336500</v>
       </c>
       <c r="F23" s="3">
-        <v>233500</v>
+        <v>971600</v>
       </c>
       <c r="G23" s="3">
-        <v>639100</v>
+        <v>241700</v>
       </c>
       <c r="H23" s="3">
-        <v>1874700</v>
+        <v>661400</v>
       </c>
       <c r="I23" s="3">
-        <v>613000</v>
+        <v>1940300</v>
       </c>
       <c r="J23" s="3">
+        <v>634400</v>
+      </c>
+      <c r="K23" s="3">
         <v>379600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-470600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-673800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1158100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-821100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-276500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>223100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>344000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>318600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>333200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>68800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>254200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>418900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>625800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-696900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>286200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-51500</v>
+        <v>80600</v>
       </c>
       <c r="E24" s="3">
-        <v>200200</v>
+        <v>-53300</v>
       </c>
       <c r="F24" s="3">
-        <v>145900</v>
+        <v>207200</v>
       </c>
       <c r="G24" s="3">
-        <v>-19100</v>
+        <v>151000</v>
       </c>
       <c r="H24" s="3">
-        <v>460000</v>
+        <v>-19700</v>
       </c>
       <c r="I24" s="3">
-        <v>161400</v>
+        <v>476000</v>
       </c>
       <c r="J24" s="3">
+        <v>167100</v>
+      </c>
+      <c r="K24" s="3">
         <v>215400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-210100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-181900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-358300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-288200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-91400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-23600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>51500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>44600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>77100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>14500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>64500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-11400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>58400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>126000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>153200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-46600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-273700</v>
+        <v>-275300</v>
       </c>
       <c r="E26" s="3">
-        <v>738500</v>
+        <v>-283200</v>
       </c>
       <c r="F26" s="3">
-        <v>87600</v>
+        <v>764300</v>
       </c>
       <c r="G26" s="3">
-        <v>658100</v>
+        <v>90700</v>
       </c>
       <c r="H26" s="3">
-        <v>1414800</v>
+        <v>681100</v>
       </c>
       <c r="I26" s="3">
-        <v>451600</v>
+        <v>1464200</v>
       </c>
       <c r="J26" s="3">
+        <v>467400</v>
+      </c>
+      <c r="K26" s="3">
         <v>164200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-260500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-492000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-799900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-532900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-185000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>171600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-31900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>266800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>304100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>268800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>80200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>195800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>292900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>472700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-650200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>201700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-263100</v>
+        <v>-213600</v>
       </c>
       <c r="E27" s="3">
-        <v>726600</v>
+        <v>-272300</v>
       </c>
       <c r="F27" s="3">
-        <v>99200</v>
+        <v>752000</v>
       </c>
       <c r="G27" s="3">
-        <v>661700</v>
+        <v>102700</v>
       </c>
       <c r="H27" s="3">
-        <v>1388900</v>
+        <v>684800</v>
       </c>
       <c r="I27" s="3">
-        <v>466600</v>
+        <v>1437400</v>
       </c>
       <c r="J27" s="3">
+        <v>483000</v>
+      </c>
+      <c r="K27" s="3">
         <v>158300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-275200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-487900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-719100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-539700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-166500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>14900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>173700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-14000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>248700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>296200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>246000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>99000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>204900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>279400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>446200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-628800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>219400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2311,16 +2372,19 @@
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>2200</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>900</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>474200</v>
+        <v>155400</v>
       </c>
       <c r="E32" s="3">
-        <v>-361600</v>
+        <v>490800</v>
       </c>
       <c r="F32" s="3">
-        <v>309600</v>
+        <v>-374200</v>
       </c>
       <c r="G32" s="3">
-        <v>429100</v>
+        <v>320400</v>
       </c>
       <c r="H32" s="3">
-        <v>-289300</v>
+        <v>444200</v>
       </c>
       <c r="I32" s="3">
-        <v>483500</v>
+        <v>-299500</v>
       </c>
       <c r="J32" s="3">
+        <v>500400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-305900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>205200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>324000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1075200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>51500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>381300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>61000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>70600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>102900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>70400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>297800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>365400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>99500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>26500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-46800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>229800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>283500</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-263100</v>
+        <v>-213600</v>
       </c>
       <c r="E33" s="3">
-        <v>726600</v>
+        <v>-272300</v>
       </c>
       <c r="F33" s="3">
-        <v>99200</v>
+        <v>752000</v>
       </c>
       <c r="G33" s="3">
-        <v>661700</v>
+        <v>102700</v>
       </c>
       <c r="H33" s="3">
-        <v>1388900</v>
+        <v>684800</v>
       </c>
       <c r="I33" s="3">
-        <v>466600</v>
+        <v>1437400</v>
       </c>
       <c r="J33" s="3">
+        <v>483000</v>
+      </c>
+      <c r="K33" s="3">
         <v>158300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-275200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-487900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-719100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-539700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-166500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>14900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>173700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-14000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>248700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>296200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>246000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>99000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>204900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>279400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>448400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-628000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-263100</v>
+        <v>-213600</v>
       </c>
       <c r="E35" s="3">
-        <v>726600</v>
+        <v>-272300</v>
       </c>
       <c r="F35" s="3">
-        <v>99200</v>
+        <v>752000</v>
       </c>
       <c r="G35" s="3">
-        <v>661700</v>
+        <v>102700</v>
       </c>
       <c r="H35" s="3">
-        <v>1388900</v>
+        <v>684800</v>
       </c>
       <c r="I35" s="3">
-        <v>466600</v>
+        <v>1437400</v>
       </c>
       <c r="J35" s="3">
+        <v>483000</v>
+      </c>
+      <c r="K35" s="3">
         <v>158300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-275200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-487900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-719100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-539700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-166500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>14900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>173700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-14000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>248700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>296200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>246000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>99000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>204900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>279400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>448400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-628000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3007,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1782500</v>
+        <v>2272700</v>
       </c>
       <c r="E41" s="3">
-        <v>1892400</v>
+        <v>1844900</v>
       </c>
       <c r="F41" s="3">
-        <v>1624100</v>
+        <v>1958500</v>
       </c>
       <c r="G41" s="3">
-        <v>2249900</v>
+        <v>1680800</v>
       </c>
       <c r="H41" s="3">
-        <v>1826900</v>
+        <v>2328600</v>
       </c>
       <c r="I41" s="3">
-        <v>2337400</v>
+        <v>1890800</v>
       </c>
       <c r="J41" s="3">
+        <v>2419100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2593600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2400500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2953000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1981600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1256700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1072000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1024900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1142200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>989700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>905000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>952900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>797100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>967900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1397900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1464300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1641600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1662600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2034300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>715700</v>
+        <v>482500</v>
       </c>
       <c r="E42" s="3">
-        <v>388300</v>
+        <v>740700</v>
       </c>
       <c r="F42" s="3">
-        <v>653500</v>
+        <v>401900</v>
       </c>
       <c r="G42" s="3">
-        <v>549300</v>
+        <v>676300</v>
       </c>
       <c r="H42" s="3">
-        <v>712000</v>
+        <v>568500</v>
       </c>
       <c r="I42" s="3">
-        <v>725600</v>
+        <v>736800</v>
       </c>
       <c r="J42" s="3">
+        <v>751000</v>
+      </c>
+      <c r="K42" s="3">
         <v>678600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>624200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>542500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>451600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>311700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>241600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>120300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>321900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>420600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>385000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>380400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>569800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>590400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>585700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>686500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>250900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>295300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>107400</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1763400</v>
+        <v>1768300</v>
       </c>
       <c r="E43" s="3">
-        <v>1847300</v>
+        <v>1825000</v>
       </c>
       <c r="F43" s="3">
-        <v>1930000</v>
+        <v>1911900</v>
       </c>
       <c r="G43" s="3">
-        <v>2543800</v>
+        <v>1997400</v>
       </c>
       <c r="H43" s="3">
-        <v>2322100</v>
+        <v>2632700</v>
       </c>
       <c r="I43" s="3">
-        <v>2062900</v>
+        <v>2403300</v>
       </c>
       <c r="J43" s="3">
+        <v>2135000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1485100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1319700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1157500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1084200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1321200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1026100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>893800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>861400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>842900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1091300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>836300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1029700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1263800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1077900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1019500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>752400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>658900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>796900</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3184800</v>
+        <v>2907100</v>
       </c>
       <c r="E44" s="3">
-        <v>3170900</v>
+        <v>3296100</v>
       </c>
       <c r="F44" s="3">
-        <v>3056100</v>
+        <v>3281800</v>
       </c>
       <c r="G44" s="3">
-        <v>2687700</v>
+        <v>3163000</v>
       </c>
       <c r="H44" s="3">
-        <v>2377600</v>
+        <v>2781700</v>
       </c>
       <c r="I44" s="3">
-        <v>2233700</v>
+        <v>2460700</v>
       </c>
       <c r="J44" s="3">
+        <v>2311800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1568500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1571000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1452200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1543800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1408400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1476000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1464000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1515400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1514000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1655100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1501300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1559800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1755400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1473200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1514600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1375900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1299400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1209100</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17300</v>
+        <v>10900</v>
       </c>
       <c r="E45" s="3">
-        <v>139300</v>
+        <v>17900</v>
       </c>
       <c r="F45" s="3">
-        <v>87800</v>
+        <v>144200</v>
       </c>
       <c r="G45" s="3">
-        <v>36300</v>
+        <v>90900</v>
       </c>
       <c r="H45" s="3">
-        <v>65400</v>
+        <v>37600</v>
       </c>
       <c r="I45" s="3">
-        <v>66800</v>
+        <v>67600</v>
       </c>
       <c r="J45" s="3">
+        <v>69200</v>
+      </c>
+      <c r="K45" s="3">
         <v>70800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>84700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>79500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>29700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>39900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>59800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>47700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>24700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>29100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>31200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>35400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>51200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>52400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>111400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>116600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7463700</v>
+        <v>7441400</v>
       </c>
       <c r="E46" s="3">
-        <v>7438300</v>
+        <v>7724600</v>
       </c>
       <c r="F46" s="3">
-        <v>7351400</v>
+        <v>7698300</v>
       </c>
       <c r="G46" s="3">
-        <v>8067100</v>
+        <v>7608400</v>
       </c>
       <c r="H46" s="3">
-        <v>7303900</v>
+        <v>8349100</v>
       </c>
       <c r="I46" s="3">
-        <v>7426400</v>
+        <v>7559200</v>
       </c>
       <c r="J46" s="3">
+        <v>7686000</v>
+      </c>
+      <c r="K46" s="3">
         <v>6396700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6000200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6184600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5079800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4320100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3845500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3542900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3900600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3814900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4061100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3700000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3987600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4612900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4585900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4737400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4132100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4032900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4186700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>409100</v>
+        <v>456400</v>
       </c>
       <c r="E47" s="3">
-        <v>351300</v>
+        <v>423400</v>
       </c>
       <c r="F47" s="3">
-        <v>362400</v>
+        <v>363600</v>
       </c>
       <c r="G47" s="3">
-        <v>334700</v>
+        <v>375100</v>
       </c>
       <c r="H47" s="3">
-        <v>429500</v>
+        <v>346400</v>
       </c>
       <c r="I47" s="3">
-        <v>281800</v>
+        <v>444500</v>
       </c>
       <c r="J47" s="3">
+        <v>291700</v>
+      </c>
+      <c r="K47" s="3">
         <v>272100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>454400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>516900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>628100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>511200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>441100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>506500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>562700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>338000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>238400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>250800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>309100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>329600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>378500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>380000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>362800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>345300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>426900</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7372800</v>
+        <v>7960700</v>
       </c>
       <c r="E48" s="3">
-        <v>6856100</v>
+        <v>7630500</v>
       </c>
       <c r="F48" s="3">
-        <v>7484600</v>
+        <v>7095800</v>
       </c>
       <c r="G48" s="3">
-        <v>7301200</v>
+        <v>7746200</v>
       </c>
       <c r="H48" s="3">
-        <v>7032200</v>
+        <v>7556400</v>
       </c>
       <c r="I48" s="3">
-        <v>7541800</v>
+        <v>7278100</v>
       </c>
       <c r="J48" s="3">
+        <v>7805500</v>
+      </c>
+      <c r="K48" s="3">
         <v>7265000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7612900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7485700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7310600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6449900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6356800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5860000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6264500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5666000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6059100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5851700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7088700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7630300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7640900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7806300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7344800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7277900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>7403700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>533400</v>
+        <v>570000</v>
       </c>
       <c r="E49" s="3">
-        <v>527800</v>
+        <v>552100</v>
       </c>
       <c r="F49" s="3">
-        <v>538300</v>
+        <v>546300</v>
       </c>
       <c r="G49" s="3">
-        <v>529300</v>
+        <v>557100</v>
       </c>
       <c r="H49" s="3">
-        <v>524900</v>
+        <v>547800</v>
       </c>
       <c r="I49" s="3">
-        <v>531400</v>
+        <v>543300</v>
       </c>
       <c r="J49" s="3">
+        <v>550000</v>
+      </c>
+      <c r="K49" s="3">
         <v>529200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>547400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>548300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>546700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>510200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>515400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>483000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>510800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>489000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>508500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>506900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>633500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>699300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>704400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>714300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>689900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>696900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>699100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1390200</v>
+        <v>1425900</v>
       </c>
       <c r="E52" s="3">
-        <v>1090400</v>
+        <v>1438800</v>
       </c>
       <c r="F52" s="3">
-        <v>1581200</v>
+        <v>1128500</v>
       </c>
       <c r="G52" s="3">
-        <v>1435300</v>
+        <v>1636500</v>
       </c>
       <c r="H52" s="3">
-        <v>1161000</v>
+        <v>1485500</v>
       </c>
       <c r="I52" s="3">
-        <v>1818100</v>
+        <v>1201600</v>
       </c>
       <c r="J52" s="3">
+        <v>1881700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1642500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2165100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1926900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1643300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>792100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1120900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>905000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>258100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>252400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>381100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>451100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>313100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>403600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>326100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>353300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>386600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>503100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>457300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17169100</v>
+        <v>17854400</v>
       </c>
       <c r="E54" s="3">
-        <v>16264000</v>
+        <v>17769300</v>
       </c>
       <c r="F54" s="3">
-        <v>17317900</v>
+        <v>16832500</v>
       </c>
       <c r="G54" s="3">
-        <v>17667700</v>
+        <v>17923200</v>
       </c>
       <c r="H54" s="3">
-        <v>16451600</v>
+        <v>18285300</v>
       </c>
       <c r="I54" s="3">
-        <v>17599600</v>
+        <v>17026700</v>
       </c>
       <c r="J54" s="3">
+        <v>18214800</v>
+      </c>
+      <c r="K54" s="3">
         <v>16105400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16780100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16662500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15208500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12583400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12279700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11297500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11496800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10560200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11248200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10760600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12332000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13675700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>13635900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>13991200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12916200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12856000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>13173700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2378200</v>
+        <v>2489900</v>
       </c>
       <c r="E57" s="3">
-        <v>2255100</v>
+        <v>2461400</v>
       </c>
       <c r="F57" s="3">
-        <v>2255000</v>
+        <v>2334000</v>
       </c>
       <c r="G57" s="3">
-        <v>1952900</v>
+        <v>2333900</v>
       </c>
       <c r="H57" s="3">
-        <v>1997900</v>
+        <v>2021100</v>
       </c>
       <c r="I57" s="3">
-        <v>2564100</v>
+        <v>2067800</v>
       </c>
       <c r="J57" s="3">
+        <v>2653800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1860900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1727400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1688200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1944600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1683900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1707000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1614000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1543200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1488100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1736200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1528000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1323600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1350000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1233400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1348000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1257900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1623700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1777600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>498300</v>
+        <v>490600</v>
       </c>
       <c r="E58" s="3">
-        <v>573900</v>
+        <v>515800</v>
       </c>
       <c r="F58" s="3">
-        <v>405000</v>
+        <v>593900</v>
       </c>
       <c r="G58" s="3">
-        <v>1683600</v>
+        <v>419200</v>
       </c>
       <c r="H58" s="3">
-        <v>1909600</v>
+        <v>1742400</v>
       </c>
       <c r="I58" s="3">
-        <v>1954400</v>
+        <v>1976400</v>
       </c>
       <c r="J58" s="3">
+        <v>2022700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1857500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>672200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1099500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>786300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>414200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2599500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2298100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2118700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2010500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2235800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2243600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2379100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2795400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3374100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3695000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3205900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3233000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1930500</v>
+        <v>1877900</v>
       </c>
       <c r="E59" s="3">
-        <v>1730300</v>
+        <v>1998000</v>
       </c>
       <c r="F59" s="3">
-        <v>2053400</v>
+        <v>1790800</v>
       </c>
       <c r="G59" s="3">
-        <v>2418500</v>
+        <v>2125200</v>
       </c>
       <c r="H59" s="3">
-        <v>1900300</v>
+        <v>2503000</v>
       </c>
       <c r="I59" s="3">
-        <v>1735500</v>
+        <v>1966700</v>
       </c>
       <c r="J59" s="3">
+        <v>1796200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1592600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1664100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1451600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1196900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>897100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>679000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>571900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>546700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>625300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>522000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>498700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>526100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>761100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>719900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>760100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>881200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>858600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>814100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4807000</v>
+        <v>4858500</v>
       </c>
       <c r="E60" s="3">
-        <v>4559300</v>
+        <v>4975100</v>
       </c>
       <c r="F60" s="3">
-        <v>4713500</v>
+        <v>4718700</v>
       </c>
       <c r="G60" s="3">
-        <v>6054900</v>
+        <v>4878200</v>
       </c>
       <c r="H60" s="3">
-        <v>5807800</v>
+        <v>6266500</v>
       </c>
       <c r="I60" s="3">
-        <v>6254100</v>
+        <v>6010900</v>
       </c>
       <c r="J60" s="3">
+        <v>6472700</v>
+      </c>
+      <c r="K60" s="3">
         <v>5311000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4063700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4239400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3927700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2995100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4985500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4483900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4208600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4123900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4494000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4270300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4228800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4906500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5327400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5803000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5344900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5715300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3323500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8726400</v>
+        <v>9564800</v>
       </c>
       <c r="E61" s="3">
-        <v>7711500</v>
+        <v>9031500</v>
       </c>
       <c r="F61" s="3">
-        <v>9054700</v>
+        <v>7981000</v>
       </c>
       <c r="G61" s="3">
-        <v>7424200</v>
+        <v>9371200</v>
       </c>
       <c r="H61" s="3">
-        <v>7072300</v>
+        <v>7683800</v>
       </c>
       <c r="I61" s="3">
-        <v>9030000</v>
+        <v>7319500</v>
       </c>
       <c r="J61" s="3">
+        <v>9345600</v>
+      </c>
+      <c r="K61" s="3">
         <v>8850600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11502700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11478900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10039400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7334000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4956900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4362300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4937800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4310300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4438500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4496800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4981500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5685600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4740400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4970200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4871100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5144300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7597500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2141200</v>
+        <v>2108900</v>
       </c>
       <c r="E62" s="3">
-        <v>2068100</v>
+        <v>2216100</v>
       </c>
       <c r="F62" s="3">
-        <v>2389100</v>
+        <v>2140400</v>
       </c>
       <c r="G62" s="3">
-        <v>2105400</v>
+        <v>2472600</v>
       </c>
       <c r="H62" s="3">
-        <v>2230600</v>
+        <v>2179000</v>
       </c>
       <c r="I62" s="3">
-        <v>2594300</v>
+        <v>2308600</v>
       </c>
       <c r="J62" s="3">
+        <v>2685000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2667200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2462700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1996200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1806400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1525700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1173400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1112200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1004100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1071500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1129300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1096400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1408600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1624600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1772800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1746400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1575400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1569400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1162700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15397500</v>
+        <v>16171900</v>
       </c>
       <c r="E66" s="3">
-        <v>14094000</v>
+        <v>15935800</v>
       </c>
       <c r="F66" s="3">
-        <v>15846300</v>
+        <v>14586700</v>
       </c>
       <c r="G66" s="3">
-        <v>15279700</v>
+        <v>16400200</v>
       </c>
       <c r="H66" s="3">
-        <v>14831400</v>
+        <v>15813800</v>
       </c>
       <c r="I66" s="3">
-        <v>17519100</v>
+        <v>15349800</v>
       </c>
       <c r="J66" s="3">
+        <v>18131500</v>
+      </c>
+      <c r="K66" s="3">
         <v>16517500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17649700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17328600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15405600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11681100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10917200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9805200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9987100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9349300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9920900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9696800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10466600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12004700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11654000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12338600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11595600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12176600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>11845300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>866400</v>
+        <v>684400</v>
       </c>
       <c r="E72" s="3">
-        <v>1380300</v>
+        <v>896700</v>
       </c>
       <c r="F72" s="3">
-        <v>652500</v>
+        <v>1428600</v>
       </c>
       <c r="G72" s="3">
-        <v>1674500</v>
+        <v>675300</v>
       </c>
       <c r="H72" s="3">
-        <v>1011600</v>
+        <v>1733100</v>
       </c>
       <c r="I72" s="3">
-        <v>-379500</v>
+        <v>1046900</v>
       </c>
       <c r="J72" s="3">
+        <v>-392800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-847400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1047900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-783000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-296500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>394800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>947600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1050500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1111600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>875200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1044400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>794400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1223400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1071200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1226800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1020100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>714900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>264700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>914200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1771600</v>
+        <v>1682500</v>
       </c>
       <c r="E76" s="3">
-        <v>2170000</v>
+        <v>1833500</v>
       </c>
       <c r="F76" s="3">
-        <v>1471600</v>
+        <v>2245900</v>
       </c>
       <c r="G76" s="3">
-        <v>2388000</v>
+        <v>1523100</v>
       </c>
       <c r="H76" s="3">
-        <v>1620200</v>
+        <v>2471500</v>
       </c>
       <c r="I76" s="3">
-        <v>80500</v>
+        <v>1676800</v>
       </c>
       <c r="J76" s="3">
+        <v>83300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-412000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-869600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-666100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-197100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>902300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1362500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1492300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1509600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1210900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1327200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1063800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1865400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1671000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1981900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1652600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1320600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>679400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1328400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-263100</v>
+        <v>-213600</v>
       </c>
       <c r="E81" s="3">
-        <v>726600</v>
+        <v>-272300</v>
       </c>
       <c r="F81" s="3">
-        <v>99200</v>
+        <v>752000</v>
       </c>
       <c r="G81" s="3">
-        <v>661700</v>
+        <v>102700</v>
       </c>
       <c r="H81" s="3">
-        <v>1388900</v>
+        <v>684800</v>
       </c>
       <c r="I81" s="3">
-        <v>466600</v>
+        <v>1437400</v>
       </c>
       <c r="J81" s="3">
+        <v>483000</v>
+      </c>
+      <c r="K81" s="3">
         <v>158300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-275200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-487900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-719100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-539700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-166500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>14900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>173700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-14000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>248700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>296200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>246000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>99000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>204900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>279400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>448400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-628000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>208700</v>
+        <v>227800</v>
       </c>
       <c r="E83" s="3">
-        <v>189000</v>
+        <v>216000</v>
       </c>
       <c r="F83" s="3">
-        <v>255500</v>
+        <v>195600</v>
       </c>
       <c r="G83" s="3">
-        <v>179400</v>
+        <v>264400</v>
       </c>
       <c r="H83" s="3">
-        <v>172600</v>
+        <v>185600</v>
       </c>
       <c r="I83" s="3">
-        <v>174300</v>
+        <v>178600</v>
       </c>
       <c r="J83" s="3">
+        <v>180400</v>
+      </c>
+      <c r="K83" s="3">
         <v>195800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>206200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>191000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>191800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>189200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>164500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>153900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>161300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>132300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>145800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>270300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>172800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>194800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>191000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>185100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>174200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>177700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>373400</v>
+        <v>568500</v>
       </c>
       <c r="E89" s="3">
-        <v>319800</v>
+        <v>386500</v>
       </c>
       <c r="F89" s="3">
-        <v>792000</v>
+        <v>331000</v>
       </c>
       <c r="G89" s="3">
-        <v>1073400</v>
+        <v>819700</v>
       </c>
       <c r="H89" s="3">
-        <v>470000</v>
+        <v>1110900</v>
       </c>
       <c r="I89" s="3">
-        <v>431000</v>
+        <v>486500</v>
       </c>
       <c r="J89" s="3">
+        <v>446100</v>
+      </c>
+      <c r="K89" s="3">
         <v>718300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>189200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-129900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>422000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>169400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>150400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-88200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>195400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>179800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>391200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1133900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>420500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>341000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>377300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-232900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>141000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>179800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>704800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-207400</v>
+        <v>-292400</v>
       </c>
       <c r="E91" s="3">
-        <v>-130700</v>
+        <v>-214700</v>
       </c>
       <c r="F91" s="3">
-        <v>-257900</v>
+        <v>-135200</v>
       </c>
       <c r="G91" s="3">
-        <v>-153300</v>
+        <v>-266900</v>
       </c>
       <c r="H91" s="3">
-        <v>-137200</v>
+        <v>-158600</v>
       </c>
       <c r="I91" s="3">
-        <v>-91700</v>
+        <v>-142000</v>
       </c>
       <c r="J91" s="3">
+        <v>-94900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-155100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-88700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-112300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-178400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-164900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-118100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-124700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-85300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-160800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-122100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-211900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-94500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-187200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-198300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-120300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-67700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-418100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-262200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-214700</v>
+        <v>-300400</v>
       </c>
       <c r="E94" s="3">
-        <v>-133200</v>
+        <v>-222200</v>
       </c>
       <c r="F94" s="3">
-        <v>-257700</v>
+        <v>-137800</v>
       </c>
       <c r="G94" s="3">
-        <v>-153300</v>
+        <v>-266700</v>
       </c>
       <c r="H94" s="3">
-        <v>-132600</v>
+        <v>-158600</v>
       </c>
       <c r="I94" s="3">
-        <v>-88900</v>
+        <v>-137300</v>
       </c>
       <c r="J94" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-151100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-88700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-109600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-177800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-162900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-169800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-75000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-85300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-150800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-107300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-196700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-94200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-341100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-195500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-68200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-206800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-130100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,26 +6952,27 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-252600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-261400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1120900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>-1160100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-400</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -6749,23 +6983,23 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-123100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6773,17 +7007,17 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-277500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-256100</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -6791,13 +7025,16 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-247800</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-352600</v>
+        <v>124600</v>
       </c>
       <c r="E100" s="3">
-        <v>247100</v>
+        <v>-364900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1197000</v>
+        <v>255700</v>
       </c>
       <c r="G100" s="3">
-        <v>-563100</v>
+        <v>-1238800</v>
       </c>
       <c r="H100" s="3">
-        <v>-731800</v>
+        <v>-582700</v>
       </c>
       <c r="I100" s="3">
-        <v>-682200</v>
+        <v>-757400</v>
       </c>
       <c r="J100" s="3">
+        <v>-706100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-217000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-646300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1126300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>184400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>212200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-24900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>123000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>73500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-297900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-630100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-405100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-416900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-275700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>35200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-105200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-237800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-197800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>84000</v>
+        <v>35200</v>
       </c>
       <c r="E101" s="3">
-        <v>-165400</v>
+        <v>87000</v>
       </c>
       <c r="F101" s="3">
-        <v>36800</v>
+        <v>-171200</v>
       </c>
       <c r="G101" s="3">
-        <v>65900</v>
+        <v>38100</v>
       </c>
       <c r="H101" s="3">
-        <v>-116000</v>
+        <v>68300</v>
       </c>
       <c r="I101" s="3">
-        <v>83900</v>
+        <v>-120100</v>
       </c>
       <c r="J101" s="3">
+        <v>86800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-62400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>27600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>84600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>212200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-17600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>30500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>7900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>14500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-33800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-52700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-13000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>27500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-24500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>11300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>14900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-109800</v>
+        <v>427800</v>
       </c>
       <c r="E102" s="3">
-        <v>268300</v>
+        <v>-113700</v>
       </c>
       <c r="F102" s="3">
-        <v>-625900</v>
+        <v>277700</v>
       </c>
       <c r="G102" s="3">
-        <v>423000</v>
+        <v>-647700</v>
       </c>
       <c r="H102" s="3">
-        <v>-510500</v>
+        <v>437800</v>
       </c>
       <c r="I102" s="3">
-        <v>-256200</v>
+        <v>-528300</v>
       </c>
       <c r="J102" s="3">
+        <v>-265200</v>
+      </c>
+      <c r="K102" s="3">
         <v>287800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-518300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>971300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>640800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>201100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-55900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>104100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>117100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-47900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>254400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-84500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-430000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-66400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-232200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-21000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-254500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>362100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,384 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4915600</v>
+        <v>3916400</v>
       </c>
       <c r="E8" s="3">
-        <v>4920400</v>
+        <v>3824500</v>
       </c>
       <c r="F8" s="3">
-        <v>5176000</v>
+        <v>5112900</v>
       </c>
       <c r="G8" s="3">
-        <v>5462700</v>
+        <v>5117800</v>
       </c>
       <c r="H8" s="3">
-        <v>5479600</v>
+        <v>5383700</v>
       </c>
       <c r="I8" s="3">
+        <v>5681900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5699500</v>
+      </c>
+      <c r="K8" s="3">
         <v>5116000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4393900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3505800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3114900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2204800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2487800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2334600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2507600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2361600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2428600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2646900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3024900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4961600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>3042500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>3237700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>3118100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>3043300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>3125700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2988400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>2972300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4484100</v>
+        <v>3718100</v>
       </c>
       <c r="E9" s="3">
-        <v>4130700</v>
+        <v>3840300</v>
       </c>
       <c r="F9" s="3">
-        <v>4182700</v>
+        <v>4664100</v>
       </c>
       <c r="G9" s="3">
-        <v>4165000</v>
+        <v>4296400</v>
       </c>
       <c r="H9" s="3">
-        <v>3871600</v>
+        <v>4350500</v>
       </c>
       <c r="I9" s="3">
+        <v>4332200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4027000</v>
+      </c>
+      <c r="K9" s="3">
         <v>3216000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2992400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2581500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2420400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1902700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2256600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2043700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2185500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2071700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2107800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2300800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2358800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>3868600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2411600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2405700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2349100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>2319300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>2210800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>2269000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>2174500</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>431500</v>
+        <v>198300</v>
       </c>
       <c r="E10" s="3">
-        <v>789700</v>
+        <v>-15800</v>
       </c>
       <c r="F10" s="3">
-        <v>993300</v>
+        <v>448800</v>
       </c>
       <c r="G10" s="3">
-        <v>1297700</v>
+        <v>821400</v>
       </c>
       <c r="H10" s="3">
-        <v>1608000</v>
+        <v>1033200</v>
       </c>
       <c r="I10" s="3">
+        <v>1349700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1672600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1900000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1401500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>924300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>694500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>302100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>231200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>291000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>322100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>289900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>320800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>346100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>666100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1093000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>630900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>831900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>769000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>724100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>914900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>719400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>797900</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1071,96 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>20200</v>
+        <v>18900</v>
       </c>
       <c r="E12" s="3">
-        <v>15100</v>
+        <v>24000</v>
       </c>
       <c r="F12" s="3">
-        <v>14100</v>
+        <v>21000</v>
       </c>
       <c r="G12" s="3">
-        <v>19100</v>
+        <v>15700</v>
       </c>
       <c r="H12" s="3">
-        <v>14300</v>
+        <v>14700</v>
       </c>
       <c r="I12" s="3">
+        <v>19900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K12" s="3">
         <v>12000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>12000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>14600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>12300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>10600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>10900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>14400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>11000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>9900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>10300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>11700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>10700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>17700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>9100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>14500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>10000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>9900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>8400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>10500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,88 +1239,100 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>28700</v>
+        <v>29600</v>
       </c>
       <c r="E14" s="3">
-        <v>230000</v>
+        <v>18900</v>
       </c>
       <c r="F14" s="3">
-        <v>23000</v>
+        <v>29800</v>
       </c>
       <c r="G14" s="3">
-        <v>318800</v>
+        <v>239300</v>
       </c>
       <c r="H14" s="3">
-        <v>46300</v>
+        <v>24000</v>
       </c>
       <c r="I14" s="3">
+        <v>331600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-105900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-121000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>358600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>627600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>290800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-3000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>651700</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>77000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>60800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>-15700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>-30900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>-6500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>15100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>10600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>-65200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>-700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>26900</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4782000</v>
+        <v>3816500</v>
       </c>
       <c r="E17" s="3">
-        <v>4600000</v>
+        <v>4195700</v>
       </c>
       <c r="F17" s="3">
-        <v>4446000</v>
+        <v>4973900</v>
       </c>
       <c r="G17" s="3">
-        <v>4742000</v>
+        <v>4784600</v>
       </c>
       <c r="H17" s="3">
-        <v>4217400</v>
+        <v>4624400</v>
       </c>
       <c r="I17" s="3">
+        <v>4932300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4386700</v>
+      </c>
+      <c r="K17" s="3">
         <v>3361100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3088800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3294100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3228800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2401000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2413500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2994600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2402800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2212400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2032800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2439400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2508600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>4156600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2595500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2671600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2622900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2450700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2404300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>3295900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>2402600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>133700</v>
+        <v>99900</v>
       </c>
       <c r="E18" s="3">
-        <v>320400</v>
+        <v>-371200</v>
       </c>
       <c r="F18" s="3">
-        <v>730000</v>
+        <v>139000</v>
       </c>
       <c r="G18" s="3">
-        <v>720700</v>
+        <v>333200</v>
       </c>
       <c r="H18" s="3">
-        <v>1262200</v>
+        <v>759300</v>
       </c>
       <c r="I18" s="3">
+        <v>749600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1312900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1754900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1305000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>211600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-113800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-196200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>74300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-660000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>104800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>149300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>395800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>207500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>516300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>805000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>447000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>566000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>495200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>592600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>721500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-307500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>569700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1648,440 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-155400</v>
+        <v>141000</v>
       </c>
       <c r="E20" s="3">
-        <v>-490800</v>
+        <v>102300</v>
       </c>
       <c r="F20" s="3">
-        <v>374200</v>
+        <v>-161600</v>
       </c>
       <c r="G20" s="3">
-        <v>-320400</v>
+        <v>-510400</v>
       </c>
       <c r="H20" s="3">
-        <v>-444200</v>
+        <v>389200</v>
       </c>
       <c r="I20" s="3">
+        <v>-333300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-462000</v>
+      </c>
+      <c r="K20" s="3">
         <v>299500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-500400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>305900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-205200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-324000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1075200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-51500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-381300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-61000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-70600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-102900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-70400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-297800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-3400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-365400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-99500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-26500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>46800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-229800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-283500</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>206000</v>
+        <v>488700</v>
       </c>
       <c r="E21" s="3">
-        <v>45600</v>
+        <v>19400</v>
       </c>
       <c r="F21" s="3">
-        <v>1299800</v>
+        <v>214300</v>
       </c>
       <c r="G21" s="3">
-        <v>664700</v>
+        <v>47500</v>
       </c>
       <c r="H21" s="3">
-        <v>1003700</v>
+        <v>1352000</v>
       </c>
       <c r="I21" s="3">
+        <v>691400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1044000</v>
+      </c>
+      <c r="K21" s="3">
         <v>2233000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>985100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>713300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-112800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-329100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-809100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-522300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-112000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>242200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>486500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>236900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>591800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>777500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>616300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>395300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>586700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>751200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>942400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-356700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>462600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>172900</v>
+        <v>211900</v>
       </c>
       <c r="E22" s="3">
-        <v>166200</v>
+        <v>179600</v>
       </c>
       <c r="F22" s="3">
-        <v>132700</v>
+        <v>179900</v>
       </c>
       <c r="G22" s="3">
-        <v>158600</v>
+        <v>172800</v>
       </c>
       <c r="H22" s="3">
-        <v>156700</v>
+        <v>138000</v>
       </c>
       <c r="I22" s="3">
+        <v>164900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>163000</v>
+      </c>
+      <c r="K22" s="3">
         <v>114100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>170300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>137900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>151600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>153700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>157200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>109600</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>101700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>102100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>91800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>101900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>188500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>110300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>131700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>141600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>147200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>142400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>159500</v>
       </c>
-      <c r="AB22" s="3" t="s">
+      <c r="AD22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-194700</v>
+        <v>29000</v>
       </c>
       <c r="E23" s="3">
-        <v>-336500</v>
+        <v>-448500</v>
       </c>
       <c r="F23" s="3">
-        <v>971600</v>
+        <v>-202500</v>
       </c>
       <c r="G23" s="3">
-        <v>241700</v>
+        <v>-350000</v>
       </c>
       <c r="H23" s="3">
-        <v>661400</v>
+        <v>1010600</v>
       </c>
       <c r="I23" s="3">
+        <v>251400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>687900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1940300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>634400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>379600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-470600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-673800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1158100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-821100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-276500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-13400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>223100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>12800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>344000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>318600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>333200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>68800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>254200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>418900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>625800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-696900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>286200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>80600</v>
+        <v>-19800</v>
       </c>
       <c r="E24" s="3">
-        <v>-53300</v>
+        <v>-69200</v>
       </c>
       <c r="F24" s="3">
-        <v>207200</v>
+        <v>83900</v>
       </c>
       <c r="G24" s="3">
-        <v>151000</v>
+        <v>-55400</v>
       </c>
       <c r="H24" s="3">
-        <v>-19700</v>
+        <v>215600</v>
       </c>
       <c r="I24" s="3">
+        <v>157100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="K24" s="3">
         <v>476000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>167100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>215400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-210100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-181900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-358300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-288200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-91400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-23600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>51500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>44600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>77100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>14500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>64500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-11400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>58400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>126000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>153200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-46600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-275300</v>
+        <v>48800</v>
       </c>
       <c r="E26" s="3">
-        <v>-283200</v>
+        <v>-379300</v>
       </c>
       <c r="F26" s="3">
-        <v>764300</v>
+        <v>-286300</v>
       </c>
       <c r="G26" s="3">
-        <v>90700</v>
+        <v>-294600</v>
       </c>
       <c r="H26" s="3">
-        <v>681100</v>
+        <v>795000</v>
       </c>
       <c r="I26" s="3">
+        <v>94300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>708500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1464200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>467400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>164200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-260500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-492000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-799900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-532900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-185000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>10200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>171600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-31900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>266800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>304100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>268800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>80200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>195800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>292900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>472700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-650200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>201700</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-213600</v>
+        <v>37100</v>
       </c>
       <c r="E27" s="3">
-        <v>-272300</v>
+        <v>-344500</v>
       </c>
       <c r="F27" s="3">
-        <v>752000</v>
+        <v>-222100</v>
       </c>
       <c r="G27" s="3">
-        <v>102700</v>
+        <v>-283200</v>
       </c>
       <c r="H27" s="3">
-        <v>684800</v>
+        <v>782200</v>
       </c>
       <c r="I27" s="3">
+        <v>106800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>712300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1437400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>483000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>158300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-275200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-487900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-719100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-539700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-166500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>14900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>173700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-14000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>248700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>296200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>246000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>99000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>204900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>279400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>446200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-628800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>219400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2375,16 +2496,22 @@
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
         <v>2200</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AC29" s="3">
         <v>900</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AD29" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2676,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>155400</v>
+        <v>-141000</v>
       </c>
       <c r="E32" s="3">
-        <v>490800</v>
+        <v>-102300</v>
       </c>
       <c r="F32" s="3">
-        <v>-374200</v>
+        <v>161600</v>
       </c>
       <c r="G32" s="3">
-        <v>320400</v>
+        <v>510400</v>
       </c>
       <c r="H32" s="3">
-        <v>444200</v>
+        <v>-389200</v>
       </c>
       <c r="I32" s="3">
+        <v>333300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>462000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-299500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>500400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-305900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>205200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>324000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1075200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>51500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>381300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>61000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>70600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>102900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>70400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>297800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>3400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>365400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>99500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>26500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-46800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>229800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>283500</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-213600</v>
+        <v>37100</v>
       </c>
       <c r="E33" s="3">
-        <v>-272300</v>
+        <v>-344500</v>
       </c>
       <c r="F33" s="3">
-        <v>752000</v>
+        <v>-222100</v>
       </c>
       <c r="G33" s="3">
-        <v>102700</v>
+        <v>-283200</v>
       </c>
       <c r="H33" s="3">
-        <v>684800</v>
+        <v>782200</v>
       </c>
       <c r="I33" s="3">
+        <v>106800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>712300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1437400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>483000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>158300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-275200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-487900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-719100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-539700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-166500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>14900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>173700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-14000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>248700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>296200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>246000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>99000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>204900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>279400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>448400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-628000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-213600</v>
+        <v>37100</v>
       </c>
       <c r="E35" s="3">
-        <v>-272300</v>
+        <v>-344500</v>
       </c>
       <c r="F35" s="3">
-        <v>752000</v>
+        <v>-222100</v>
       </c>
       <c r="G35" s="3">
-        <v>102700</v>
+        <v>-283200</v>
       </c>
       <c r="H35" s="3">
-        <v>684800</v>
+        <v>782200</v>
       </c>
       <c r="I35" s="3">
+        <v>106800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>712300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1437400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>483000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>158300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-275200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-487900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-719100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-539700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-166500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>14900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>173700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-14000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>248700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>296200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>246000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>99000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>204900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>279400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>448400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-628000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,728 +3179,784 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2272700</v>
+        <v>2494000</v>
       </c>
       <c r="E41" s="3">
-        <v>1844900</v>
+        <v>2510700</v>
       </c>
       <c r="F41" s="3">
-        <v>1958500</v>
+        <v>2363900</v>
       </c>
       <c r="G41" s="3">
-        <v>1680800</v>
+        <v>1918900</v>
       </c>
       <c r="H41" s="3">
-        <v>2328600</v>
+        <v>2037100</v>
       </c>
       <c r="I41" s="3">
+        <v>1748300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2422000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1890800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2419100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2593600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2400500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2953000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1981600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1256700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1072000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1024900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1142200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>989700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>905000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>952900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>797100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>967900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1397900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1464300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>1641600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1662600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>2034300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>482500</v>
+        <v>771000</v>
       </c>
       <c r="E42" s="3">
-        <v>740700</v>
+        <v>462300</v>
       </c>
       <c r="F42" s="3">
-        <v>401900</v>
+        <v>501900</v>
       </c>
       <c r="G42" s="3">
-        <v>676300</v>
+        <v>770400</v>
       </c>
       <c r="H42" s="3">
-        <v>568500</v>
+        <v>418000</v>
       </c>
       <c r="I42" s="3">
+        <v>703400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>591300</v>
+      </c>
+      <c r="K42" s="3">
         <v>736800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>751000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>678600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>624200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>542500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>451600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>311700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>241600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>120300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>321900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>420600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>385000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>380400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>569800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>590400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>585700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>686500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>250900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>295300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>107400</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1768300</v>
+        <v>1303100</v>
       </c>
       <c r="E43" s="3">
-        <v>1825000</v>
+        <v>1109300</v>
       </c>
       <c r="F43" s="3">
-        <v>1911900</v>
+        <v>1839200</v>
       </c>
       <c r="G43" s="3">
-        <v>1997400</v>
+        <v>1898200</v>
       </c>
       <c r="H43" s="3">
-        <v>2632700</v>
+        <v>1988600</v>
       </c>
       <c r="I43" s="3">
+        <v>2077600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2738400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2403300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2135000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1485100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1319700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1157500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1084200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1321200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1026100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>893800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>861400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>842900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1091300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>836300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1029700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1263800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1077900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1019500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>752400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>658900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>796900</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2907100</v>
+        <v>2775600</v>
       </c>
       <c r="E44" s="3">
-        <v>3296100</v>
+        <v>2825700</v>
       </c>
       <c r="F44" s="3">
-        <v>3281800</v>
+        <v>3023700</v>
       </c>
       <c r="G44" s="3">
-        <v>3163000</v>
+        <v>3428400</v>
       </c>
       <c r="H44" s="3">
-        <v>2781700</v>
+        <v>3413500</v>
       </c>
       <c r="I44" s="3">
+        <v>3289900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2893300</v>
+      </c>
+      <c r="K44" s="3">
         <v>2460700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2311800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1568500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1571000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1452200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1543800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1408400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1476000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1464000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1515400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1514000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1655100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1501300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1559800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1755400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1473200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1514600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>1375900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>1299400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>1209100</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10900</v>
+        <v>34900</v>
       </c>
       <c r="E45" s="3">
-        <v>17900</v>
+        <v>31800</v>
       </c>
       <c r="F45" s="3">
-        <v>144200</v>
+        <v>11300</v>
       </c>
       <c r="G45" s="3">
-        <v>90900</v>
+        <v>18600</v>
       </c>
       <c r="H45" s="3">
-        <v>37600</v>
+        <v>150000</v>
       </c>
       <c r="I45" s="3">
+        <v>94500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>39100</v>
+      </c>
+      <c r="K45" s="3">
         <v>67600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>69200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>70800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>84700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>79500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>18600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>22100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>29700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>39900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>59800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>47700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>24700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>29100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>31200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>35400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>51200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>52400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>111400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>116600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7441400</v>
+        <v>7378600</v>
       </c>
       <c r="E46" s="3">
-        <v>7724600</v>
+        <v>6939800</v>
       </c>
       <c r="F46" s="3">
-        <v>7698300</v>
+        <v>7740000</v>
       </c>
       <c r="G46" s="3">
-        <v>7608400</v>
+        <v>8034500</v>
       </c>
       <c r="H46" s="3">
-        <v>8349100</v>
+        <v>8007200</v>
       </c>
       <c r="I46" s="3">
+        <v>7913700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>8684100</v>
+      </c>
+      <c r="K46" s="3">
         <v>7559200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7686000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6396700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6000200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6184600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5079800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4320100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3845500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3542900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3900600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3814900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4061100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>3700000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3987600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>4612900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>4585900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>4737400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>4132100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>4032900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>4186700</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>456400</v>
+        <v>468900</v>
       </c>
       <c r="E47" s="3">
-        <v>423400</v>
+        <v>444600</v>
       </c>
       <c r="F47" s="3">
-        <v>363600</v>
+        <v>474700</v>
       </c>
       <c r="G47" s="3">
-        <v>375100</v>
+        <v>440400</v>
       </c>
       <c r="H47" s="3">
-        <v>346400</v>
+        <v>378200</v>
       </c>
       <c r="I47" s="3">
+        <v>390100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>360300</v>
+      </c>
+      <c r="K47" s="3">
         <v>444500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>291700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>272100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>454400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>516900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>628100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>511200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>441100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>506500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>562700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>338000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>238400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>250800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>309100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>329600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>378500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>380000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>362800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>345300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>426900</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7960700</v>
+        <v>8484100</v>
       </c>
       <c r="E48" s="3">
-        <v>7630500</v>
+        <v>8401700</v>
       </c>
       <c r="F48" s="3">
-        <v>7095800</v>
+        <v>8280200</v>
       </c>
       <c r="G48" s="3">
-        <v>7746200</v>
+        <v>7936700</v>
       </c>
       <c r="H48" s="3">
-        <v>7556400</v>
+        <v>7380500</v>
       </c>
       <c r="I48" s="3">
+        <v>8057000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>7859700</v>
+      </c>
+      <c r="K48" s="3">
         <v>7278100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>7805500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>7265000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>7612900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>7485700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>7310600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6449900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6356800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>5860000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>6264500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>5666000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>6059100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>5851700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>7088700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>7630300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>7640900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>7806300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>7344800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>7277900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>7403700</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>570000</v>
+        <v>621100</v>
       </c>
       <c r="E49" s="3">
-        <v>552100</v>
+        <v>608700</v>
       </c>
       <c r="F49" s="3">
-        <v>546300</v>
+        <v>592900</v>
       </c>
       <c r="G49" s="3">
-        <v>557100</v>
+        <v>574200</v>
       </c>
       <c r="H49" s="3">
-        <v>547800</v>
+        <v>568200</v>
       </c>
       <c r="I49" s="3">
+        <v>579500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>569800</v>
+      </c>
+      <c r="K49" s="3">
         <v>543300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>550000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>529200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>547400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>548300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>546700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>510200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>515400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>483000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>510800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>489000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>508500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>506900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>633500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>699300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>704400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>714300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>689900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>696900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>699100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4121,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1425900</v>
+        <v>1263800</v>
       </c>
       <c r="E52" s="3">
-        <v>1438800</v>
+        <v>1338400</v>
       </c>
       <c r="F52" s="3">
-        <v>1128500</v>
+        <v>1483100</v>
       </c>
       <c r="G52" s="3">
-        <v>1636500</v>
+        <v>1496600</v>
       </c>
       <c r="H52" s="3">
-        <v>1485500</v>
+        <v>1173800</v>
       </c>
       <c r="I52" s="3">
+        <v>1702100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1545100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1201600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1881700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1642500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2165100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1926900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1643300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>792100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1120900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>905000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>258100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>252400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>381100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>451100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>313100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>403600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>326100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>353300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>386600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>503100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>457300</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17854400</v>
+        <v>18216500</v>
       </c>
       <c r="E54" s="3">
-        <v>17769300</v>
+        <v>17733000</v>
       </c>
       <c r="F54" s="3">
-        <v>16832500</v>
+        <v>18570900</v>
       </c>
       <c r="G54" s="3">
-        <v>17923200</v>
+        <v>18482400</v>
       </c>
       <c r="H54" s="3">
-        <v>18285300</v>
+        <v>17508000</v>
       </c>
       <c r="I54" s="3">
+        <v>18642500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>19019100</v>
+      </c>
+      <c r="K54" s="3">
         <v>17026700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>18214800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>16105400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>16780100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>16662500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>15208500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>12583400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>12279700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>11297500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>11496800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10560200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>11248200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>10760600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>12332000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>13675700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>13635900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>13991200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>12916200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>12856000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>13173700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4447,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2489900</v>
+        <v>2465800</v>
       </c>
       <c r="E57" s="3">
-        <v>2461400</v>
+        <v>2466500</v>
       </c>
       <c r="F57" s="3">
-        <v>2334000</v>
+        <v>2589800</v>
       </c>
       <c r="G57" s="3">
-        <v>2333900</v>
+        <v>2560100</v>
       </c>
       <c r="H57" s="3">
-        <v>2021100</v>
+        <v>2427600</v>
       </c>
       <c r="I57" s="3">
+        <v>2427500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2102200</v>
+      </c>
+      <c r="K57" s="3">
         <v>2067800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2653800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1860900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1727400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1688200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1944600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1683900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1707000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1614000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1543200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1488100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1736200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1528000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1323600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1350000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1233400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1348000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1257900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1623700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>1777600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>490600</v>
+        <v>672300</v>
       </c>
       <c r="E58" s="3">
-        <v>515800</v>
+        <v>662700</v>
       </c>
       <c r="F58" s="3">
-        <v>593900</v>
+        <v>510300</v>
       </c>
       <c r="G58" s="3">
-        <v>419200</v>
+        <v>536400</v>
       </c>
       <c r="H58" s="3">
-        <v>1742400</v>
+        <v>617800</v>
       </c>
       <c r="I58" s="3">
+        <v>436000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1812300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1976400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2022700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1857500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>672200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1099500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>786300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>414200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2599500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2298100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2118700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2010500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>2235800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>2243600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2379100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>2795400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>3374100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>3695000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>3205900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>3233000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1877900</v>
+        <v>1707000</v>
       </c>
       <c r="E59" s="3">
-        <v>1998000</v>
+        <v>1741700</v>
       </c>
       <c r="F59" s="3">
-        <v>1790800</v>
+        <v>1953300</v>
       </c>
       <c r="G59" s="3">
-        <v>2125200</v>
+        <v>2078100</v>
       </c>
       <c r="H59" s="3">
-        <v>2503000</v>
+        <v>1862700</v>
       </c>
       <c r="I59" s="3">
+        <v>2210500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2603500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1966700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1796200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1592600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1664100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1451600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1196900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>897100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>679000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>571900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>546700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>625300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>522000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>498700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>526100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>761100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>719900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>760100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>881200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>858600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>814100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4858500</v>
+        <v>4845100</v>
       </c>
       <c r="E60" s="3">
-        <v>4975100</v>
+        <v>4870900</v>
       </c>
       <c r="F60" s="3">
-        <v>4718700</v>
+        <v>5053400</v>
       </c>
       <c r="G60" s="3">
-        <v>4878200</v>
+        <v>5174700</v>
       </c>
       <c r="H60" s="3">
-        <v>6266500</v>
+        <v>4908100</v>
       </c>
       <c r="I60" s="3">
+        <v>5074000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>6518000</v>
+      </c>
+      <c r="K60" s="3">
         <v>6010900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6472700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5311000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4063700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4239400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3927700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2995100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4985500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4483900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4208600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4123900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4494000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4270300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>4228800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>4906500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>5327400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>5803000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>5344900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>5715300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>3323500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9564800</v>
+        <v>10150000</v>
       </c>
       <c r="E61" s="3">
-        <v>9031500</v>
+        <v>9674600</v>
       </c>
       <c r="F61" s="3">
-        <v>7981000</v>
+        <v>9948600</v>
       </c>
       <c r="G61" s="3">
-        <v>9371200</v>
+        <v>9393900</v>
       </c>
       <c r="H61" s="3">
-        <v>7683800</v>
+        <v>8301300</v>
       </c>
       <c r="I61" s="3">
+        <v>9747200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>7992100</v>
+      </c>
+      <c r="K61" s="3">
         <v>7319500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>9345600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>8850600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>11502700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>11478900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>10039400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>7334000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4956900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4362300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>4937800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>4310300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>4438500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>4496800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>4981500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>5685600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>4740400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>4970200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>4871100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>5144300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>7597500</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2108900</v>
+        <v>1780900</v>
       </c>
       <c r="E62" s="3">
-        <v>2216100</v>
+        <v>1957300</v>
       </c>
       <c r="F62" s="3">
-        <v>2140400</v>
+        <v>2193500</v>
       </c>
       <c r="G62" s="3">
-        <v>2472600</v>
+        <v>2305000</v>
       </c>
       <c r="H62" s="3">
-        <v>2179000</v>
+        <v>2226300</v>
       </c>
       <c r="I62" s="3">
+        <v>2571800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2266500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2308600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2685000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2667200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2462700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1996200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1806400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1525700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1173400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1112200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1004100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1071500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1129300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1096400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1408600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1624600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1772800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1746400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>1575400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>1569400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>1162700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16171900</v>
+        <v>16640200</v>
       </c>
       <c r="E66" s="3">
-        <v>15935800</v>
+        <v>16258400</v>
       </c>
       <c r="F66" s="3">
-        <v>14586700</v>
+        <v>16820800</v>
       </c>
       <c r="G66" s="3">
-        <v>16400200</v>
+        <v>16575300</v>
       </c>
       <c r="H66" s="3">
-        <v>15813800</v>
+        <v>15172000</v>
       </c>
       <c r="I66" s="3">
+        <v>17058300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>16448400</v>
+      </c>
+      <c r="K66" s="3">
         <v>15349800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>18131500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>16517500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>17649700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>17328600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>15405600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>11681100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>10917200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>9805200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>9987100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>9349300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>9920900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>9696800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>10466600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>12004700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>11654000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>12338600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>11595600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>12176600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>11845300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>684400</v>
+        <v>407400</v>
       </c>
       <c r="E72" s="3">
-        <v>896700</v>
+        <v>368900</v>
       </c>
       <c r="F72" s="3">
-        <v>1428600</v>
+        <v>711900</v>
       </c>
       <c r="G72" s="3">
-        <v>675300</v>
+        <v>932700</v>
       </c>
       <c r="H72" s="3">
-        <v>1733100</v>
+        <v>1485900</v>
       </c>
       <c r="I72" s="3">
+        <v>702400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1802600</v>
+      </c>
+      <c r="K72" s="3">
         <v>1046900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-392800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-847400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1047900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-783000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-296500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>394800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>947600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1050500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1111600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>875200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1044400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>794400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1223400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1071200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1226800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1020100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>714900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>264700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>914200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1682500</v>
+        <v>1576300</v>
       </c>
       <c r="E76" s="3">
-        <v>1833500</v>
+        <v>1474600</v>
       </c>
       <c r="F76" s="3">
-        <v>2245900</v>
+        <v>1750000</v>
       </c>
       <c r="G76" s="3">
-        <v>1523100</v>
+        <v>1907100</v>
       </c>
       <c r="H76" s="3">
-        <v>2471500</v>
+        <v>2336000</v>
       </c>
       <c r="I76" s="3">
+        <v>1584200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2570700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1676800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>83300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-412000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-869600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-666100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-197100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>902300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1362500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1492300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1509600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1210900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1327200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1063800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1865400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1671000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1981900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1652600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1320600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>679400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>1328400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-213600</v>
+        <v>37100</v>
       </c>
       <c r="E81" s="3">
-        <v>-272300</v>
+        <v>-344500</v>
       </c>
       <c r="F81" s="3">
-        <v>752000</v>
+        <v>-222100</v>
       </c>
       <c r="G81" s="3">
-        <v>102700</v>
+        <v>-283200</v>
       </c>
       <c r="H81" s="3">
-        <v>684800</v>
+        <v>782200</v>
       </c>
       <c r="I81" s="3">
+        <v>106800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>712300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1437400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>483000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>158300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-275200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-487900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-719100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-539700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-166500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>14900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>173700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-14000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>248700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>296200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>246000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>99000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>204900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>279400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>448400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-628000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6408,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>227800</v>
+        <v>247800</v>
       </c>
       <c r="E83" s="3">
-        <v>216000</v>
+        <v>288300</v>
       </c>
       <c r="F83" s="3">
-        <v>195600</v>
+        <v>236900</v>
       </c>
       <c r="G83" s="3">
-        <v>264400</v>
+        <v>224700</v>
       </c>
       <c r="H83" s="3">
-        <v>185600</v>
+        <v>203400</v>
       </c>
       <c r="I83" s="3">
+        <v>275000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>193100</v>
+      </c>
+      <c r="K83" s="3">
         <v>178600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>180400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>195800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>206200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>191000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>191800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>189200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>164500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>153900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>161300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>132300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>145800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>270300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>172800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>194800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>191000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>185100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>174200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>177700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>568500</v>
+        <v>-564300</v>
       </c>
       <c r="E89" s="3">
-        <v>386500</v>
+        <v>465400</v>
       </c>
       <c r="F89" s="3">
-        <v>331000</v>
+        <v>591300</v>
       </c>
       <c r="G89" s="3">
-        <v>819700</v>
+        <v>402000</v>
       </c>
       <c r="H89" s="3">
-        <v>1110900</v>
+        <v>344200</v>
       </c>
       <c r="I89" s="3">
+        <v>852600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1155500</v>
+      </c>
+      <c r="K89" s="3">
         <v>486500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>446100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>718300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>189200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-129900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>422000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>169400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>150400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-88200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>195400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>179800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>391200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1133900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>420500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>341000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>377300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-232900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>141000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>179800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>704800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7042,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-292400</v>
+        <v>-1164300</v>
       </c>
       <c r="E91" s="3">
-        <v>-214700</v>
+        <v>-1531300</v>
       </c>
       <c r="F91" s="3">
-        <v>-135200</v>
+        <v>-1509900</v>
       </c>
       <c r="G91" s="3">
-        <v>-266900</v>
+        <v>-1108600</v>
       </c>
       <c r="H91" s="3">
-        <v>-158600</v>
+        <v>-698500</v>
       </c>
       <c r="I91" s="3">
+        <v>-1378400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-819300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-142000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-94900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-155100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-88700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-112300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-178400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-164900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-118100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-124700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-85300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-160800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-122100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-211900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-94500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-187200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-198300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-120300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-67700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-418100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-262200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7296,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300400</v>
+        <v>-186300</v>
       </c>
       <c r="E94" s="3">
-        <v>-222200</v>
+        <v>-309500</v>
       </c>
       <c r="F94" s="3">
-        <v>-137800</v>
+        <v>-312500</v>
       </c>
       <c r="G94" s="3">
-        <v>-266700</v>
+        <v>-231100</v>
       </c>
       <c r="H94" s="3">
-        <v>-158600</v>
+        <v>-143400</v>
       </c>
       <c r="I94" s="3">
+        <v>-277400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-165000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-137300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-92000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-151100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-88700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-109600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-177800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-162900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-169800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-75000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-85300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-150800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-107300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-196700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-94200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-341100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-195500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-9900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-68200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-206800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-130100</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6962,23 +7429,23 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-261400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1160100</v>
+        <v>-271900</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-1206600</v>
+      </c>
+      <c r="J96" s="3">
         <v>-400</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -6986,55 +7453,61 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-123100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-277500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-256100</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-247800</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7758,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>124600</v>
+        <v>748500</v>
       </c>
       <c r="E100" s="3">
-        <v>-364900</v>
+        <v>29300</v>
       </c>
       <c r="F100" s="3">
-        <v>255700</v>
+        <v>129600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1238800</v>
+        <v>-379600</v>
       </c>
       <c r="H100" s="3">
-        <v>-582700</v>
+        <v>266000</v>
       </c>
       <c r="I100" s="3">
+        <v>-1288500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-606100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-757400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-706100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-217000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-646300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1126300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>184400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>212200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-24900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>123000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-13900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>73500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-297900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-630100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-405100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-416900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-275700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>35200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-105200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-237800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-197800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>35200</v>
+        <v>-14700</v>
       </c>
       <c r="E101" s="3">
-        <v>87000</v>
+        <v>-38400</v>
       </c>
       <c r="F101" s="3">
-        <v>-171200</v>
+        <v>36600</v>
       </c>
       <c r="G101" s="3">
-        <v>38100</v>
+        <v>90500</v>
       </c>
       <c r="H101" s="3">
-        <v>68300</v>
+        <v>-178000</v>
       </c>
       <c r="I101" s="3">
+        <v>39600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>71000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-120100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>86800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-62400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>27600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>84600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>212200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-17600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>30500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-15700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>7900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>14500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-33800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-52700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-5700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-13000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>27500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-24500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>11300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>14900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>427800</v>
+        <v>-16800</v>
       </c>
       <c r="E102" s="3">
-        <v>-113700</v>
+        <v>146900</v>
       </c>
       <c r="F102" s="3">
-        <v>277700</v>
+        <v>445000</v>
       </c>
       <c r="G102" s="3">
-        <v>-647700</v>
+        <v>-118200</v>
       </c>
       <c r="H102" s="3">
-        <v>437800</v>
+        <v>288800</v>
       </c>
       <c r="I102" s="3">
+        <v>-673700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>455300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-528300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-265200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>287800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-518300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>971300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>640800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>201100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-55900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>104100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>117100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-47900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>254400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-84500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-430000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-66400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-232200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-21000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-254500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>362100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3916400</v>
+        <v>3583900</v>
       </c>
       <c r="E8" s="3">
-        <v>3824500</v>
+        <v>3925000</v>
       </c>
       <c r="F8" s="3">
-        <v>5112900</v>
+        <v>3832900</v>
       </c>
       <c r="G8" s="3">
-        <v>5117800</v>
+        <v>5124100</v>
       </c>
       <c r="H8" s="3">
-        <v>5383700</v>
+        <v>5129000</v>
       </c>
       <c r="I8" s="3">
-        <v>5681900</v>
+        <v>5395500</v>
       </c>
       <c r="J8" s="3">
+        <v>5694300</v>
+      </c>
+      <c r="K8" s="3">
         <v>5699500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5116000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4393900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3505800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3114900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2204800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2487800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2334600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2507600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2361600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2428600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2646900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3024900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4961600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3042500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3237700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3118100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3043300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3125700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2988400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2972300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3718100</v>
+        <v>3491300</v>
       </c>
       <c r="E9" s="3">
-        <v>3840300</v>
+        <v>3726200</v>
       </c>
       <c r="F9" s="3">
-        <v>4664100</v>
+        <v>3848700</v>
       </c>
       <c r="G9" s="3">
-        <v>4296400</v>
+        <v>4674300</v>
       </c>
       <c r="H9" s="3">
-        <v>4350500</v>
+        <v>4305800</v>
       </c>
       <c r="I9" s="3">
-        <v>4332200</v>
+        <v>4360000</v>
       </c>
       <c r="J9" s="3">
+        <v>4341600</v>
+      </c>
+      <c r="K9" s="3">
         <v>4027000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3216000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2992400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2581500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2420400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1902700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2256600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2043700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2185500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2071700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2107800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2300800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2358800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3868600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2411600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2405700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2349100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2319300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2210800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2269000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2174500</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>198300</v>
+        <v>92600</v>
       </c>
       <c r="E10" s="3">
+        <v>198800</v>
+      </c>
+      <c r="F10" s="3">
         <v>-15800</v>
       </c>
-      <c r="F10" s="3">
-        <v>448800</v>
-      </c>
       <c r="G10" s="3">
-        <v>821400</v>
+        <v>449800</v>
       </c>
       <c r="H10" s="3">
-        <v>1033200</v>
+        <v>823200</v>
       </c>
       <c r="I10" s="3">
-        <v>1349700</v>
+        <v>1035400</v>
       </c>
       <c r="J10" s="3">
+        <v>1352700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1672600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1900000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1401500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>924300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>694500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>302100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>231200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>291000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>322100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>289900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>320800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>346100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>666100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1093000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>630900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>831900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>769000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>724100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>914900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>719400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>797900</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,94 +1086,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E12" s="3">
         <v>18900</v>
       </c>
-      <c r="E12" s="3">
-        <v>24000</v>
-      </c>
       <c r="F12" s="3">
+        <v>24100</v>
+      </c>
+      <c r="G12" s="3">
         <v>21000</v>
       </c>
-      <c r="G12" s="3">
-        <v>15700</v>
-      </c>
       <c r="H12" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I12" s="3">
         <v>14700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>12000</v>
       </c>
       <c r="L12" s="3">
         <v>12000</v>
       </c>
       <c r="M12" s="3">
+        <v>12000</v>
+      </c>
+      <c r="N12" s="3">
         <v>14600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>10700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>17700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>9100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>14500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>10000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>9900</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>8400</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>10500</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,94 +1262,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>29600</v>
+        <v>216600</v>
       </c>
       <c r="E14" s="3">
-        <v>18900</v>
+        <v>29700</v>
       </c>
       <c r="F14" s="3">
-        <v>29800</v>
+        <v>19000</v>
       </c>
       <c r="G14" s="3">
-        <v>239300</v>
+        <v>29900</v>
       </c>
       <c r="H14" s="3">
+        <v>239800</v>
+      </c>
+      <c r="I14" s="3">
         <v>24000</v>
       </c>
-      <c r="I14" s="3">
-        <v>331600</v>
-      </c>
       <c r="J14" s="3">
+        <v>332300</v>
+      </c>
+      <c r="K14" s="3">
         <v>48100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-105900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-121000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>358600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>627600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>290800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>651700</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>77000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>60800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-15700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-30900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>15100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>10600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-65200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-700</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>26900</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3816500</v>
+        <v>3915000</v>
       </c>
       <c r="E17" s="3">
-        <v>4195700</v>
+        <v>3824900</v>
       </c>
       <c r="F17" s="3">
-        <v>4973900</v>
+        <v>4204900</v>
       </c>
       <c r="G17" s="3">
-        <v>4784600</v>
+        <v>4984700</v>
       </c>
       <c r="H17" s="3">
-        <v>4624400</v>
+        <v>4795100</v>
       </c>
       <c r="I17" s="3">
-        <v>4932300</v>
+        <v>4634500</v>
       </c>
       <c r="J17" s="3">
+        <v>4943100</v>
+      </c>
+      <c r="K17" s="3">
         <v>4386700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3361100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3088800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3294100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3228800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2401000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2413500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2994600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2402800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2212400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2032800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2439400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2508600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4156600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2595500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2671600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2622900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2450700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2404300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3295900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2402600</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>99900</v>
+        <v>-331100</v>
       </c>
       <c r="E18" s="3">
-        <v>-371200</v>
+        <v>100100</v>
       </c>
       <c r="F18" s="3">
-        <v>139000</v>
+        <v>-372000</v>
       </c>
       <c r="G18" s="3">
-        <v>333200</v>
+        <v>139300</v>
       </c>
       <c r="H18" s="3">
-        <v>759300</v>
+        <v>334000</v>
       </c>
       <c r="I18" s="3">
-        <v>749600</v>
+        <v>761000</v>
       </c>
       <c r="J18" s="3">
+        <v>751200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1312900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1754900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1305000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>211600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-113800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-196200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>74300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-660000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>104800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>149300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>395800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>207500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>516300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>805000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>447000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>566000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>495200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>592600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>721500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-307500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>569700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>141000</v>
+        <v>221200</v>
       </c>
       <c r="E20" s="3">
-        <v>102300</v>
+        <v>141300</v>
       </c>
       <c r="F20" s="3">
-        <v>-161600</v>
+        <v>102500</v>
       </c>
       <c r="G20" s="3">
-        <v>-510400</v>
+        <v>-162000</v>
       </c>
       <c r="H20" s="3">
-        <v>389200</v>
+        <v>-511600</v>
       </c>
       <c r="I20" s="3">
-        <v>-333300</v>
+        <v>390100</v>
       </c>
       <c r="J20" s="3">
+        <v>-334000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-462000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>299500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>305900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-205200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-324000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1075200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-51500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-381300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-61000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-70600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-102900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-70400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-297800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-365400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-99500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-26500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>46800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-229800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-283500</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>488700</v>
+        <v>153300</v>
       </c>
       <c r="E21" s="3">
+        <v>489800</v>
+      </c>
+      <c r="F21" s="3">
         <v>19400</v>
       </c>
-      <c r="F21" s="3">
-        <v>214300</v>
-      </c>
       <c r="G21" s="3">
-        <v>47500</v>
+        <v>214800</v>
       </c>
       <c r="H21" s="3">
-        <v>1352000</v>
+        <v>47600</v>
       </c>
       <c r="I21" s="3">
-        <v>691400</v>
+        <v>1354900</v>
       </c>
       <c r="J21" s="3">
+        <v>692900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1044000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2233000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>985100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>713300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-112800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-329100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-809100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-522300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-112000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>242200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>486500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>236900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>591800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>777500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>616300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>395300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>586700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>751200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>942400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-356700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>462600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>211900</v>
+        <v>188800</v>
       </c>
       <c r="E22" s="3">
-        <v>179600</v>
+        <v>212400</v>
       </c>
       <c r="F22" s="3">
-        <v>179900</v>
+        <v>180000</v>
       </c>
       <c r="G22" s="3">
-        <v>172800</v>
+        <v>180300</v>
       </c>
       <c r="H22" s="3">
-        <v>138000</v>
+        <v>173200</v>
       </c>
       <c r="I22" s="3">
-        <v>164900</v>
+        <v>138300</v>
       </c>
       <c r="J22" s="3">
+        <v>165300</v>
+      </c>
+      <c r="K22" s="3">
         <v>163000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>114100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>170300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>137900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>151600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>153700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>157200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>109600</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>101700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>102100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>91800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>101900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>188500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>110300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>131700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>141600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>147200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>142400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>159500</v>
       </c>
-      <c r="AD22" s="3" t="s">
+      <c r="AE22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>29000</v>
+        <v>-298600</v>
       </c>
       <c r="E23" s="3">
-        <v>-448500</v>
+        <v>29100</v>
       </c>
       <c r="F23" s="3">
-        <v>-202500</v>
+        <v>-449500</v>
       </c>
       <c r="G23" s="3">
-        <v>-350000</v>
+        <v>-202900</v>
       </c>
       <c r="H23" s="3">
-        <v>1010600</v>
+        <v>-350800</v>
       </c>
       <c r="I23" s="3">
-        <v>251400</v>
+        <v>1012800</v>
       </c>
       <c r="J23" s="3">
+        <v>251900</v>
+      </c>
+      <c r="K23" s="3">
         <v>687900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1940300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>634400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>379600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-470600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-673800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1158100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-821100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-276500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-13400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>223100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>12800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>344000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>318600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>333200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>68800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>254200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>418900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>625800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-696900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>286200</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-132400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-19800</v>
       </c>
-      <c r="E24" s="3">
-        <v>-69200</v>
-      </c>
       <c r="F24" s="3">
-        <v>83900</v>
+        <v>-69400</v>
       </c>
       <c r="G24" s="3">
-        <v>-55400</v>
+        <v>84000</v>
       </c>
       <c r="H24" s="3">
-        <v>215600</v>
+        <v>-55600</v>
       </c>
       <c r="I24" s="3">
-        <v>157100</v>
+        <v>216000</v>
       </c>
       <c r="J24" s="3">
+        <v>157400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-20500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>476000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>167100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>215400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-210100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-181900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-358300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-288200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-91400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-23600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>51500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>44600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>77100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>14500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>64500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-11400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>58400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>126000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>153200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-46600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>48800</v>
+        <v>-166200</v>
       </c>
       <c r="E26" s="3">
-        <v>-379300</v>
+        <v>48900</v>
       </c>
       <c r="F26" s="3">
-        <v>-286300</v>
+        <v>-380100</v>
       </c>
       <c r="G26" s="3">
-        <v>-294600</v>
+        <v>-287000</v>
       </c>
       <c r="H26" s="3">
-        <v>795000</v>
+        <v>-295200</v>
       </c>
       <c r="I26" s="3">
-        <v>94300</v>
+        <v>796700</v>
       </c>
       <c r="J26" s="3">
+        <v>94500</v>
+      </c>
+      <c r="K26" s="3">
         <v>708500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1464200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>467400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>164200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-260500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-492000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-799900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-532900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-185000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>171600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-31900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>266800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>304100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>268800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>80200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>195800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>292900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>472700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-650200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>201700</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>37100</v>
+        <v>-155500</v>
       </c>
       <c r="E27" s="3">
-        <v>-344500</v>
+        <v>37200</v>
       </c>
       <c r="F27" s="3">
-        <v>-222100</v>
+        <v>-345200</v>
       </c>
       <c r="G27" s="3">
-        <v>-283200</v>
+        <v>-222600</v>
       </c>
       <c r="H27" s="3">
-        <v>782200</v>
+        <v>-283800</v>
       </c>
       <c r="I27" s="3">
-        <v>106800</v>
+        <v>783900</v>
       </c>
       <c r="J27" s="3">
+        <v>107000</v>
+      </c>
+      <c r="K27" s="3">
         <v>712300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1437400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>483000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>158300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-275200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-487900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-719100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-539700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-166500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>14900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>173700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-14000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>248700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>296200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>246000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>99000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>204900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>279400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>446200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-628800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>219400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2502,16 +2563,19 @@
         <v>0</v>
       </c>
       <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>2200</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>900</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-141000</v>
+        <v>-221200</v>
       </c>
       <c r="E32" s="3">
-        <v>-102300</v>
+        <v>-141300</v>
       </c>
       <c r="F32" s="3">
-        <v>161600</v>
+        <v>-102500</v>
       </c>
       <c r="G32" s="3">
-        <v>510400</v>
+        <v>162000</v>
       </c>
       <c r="H32" s="3">
-        <v>-389200</v>
+        <v>511600</v>
       </c>
       <c r="I32" s="3">
-        <v>333300</v>
+        <v>-390100</v>
       </c>
       <c r="J32" s="3">
+        <v>334000</v>
+      </c>
+      <c r="K32" s="3">
         <v>462000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-299500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-305900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>205200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>324000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1075200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>51500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>381300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>61000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>70600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>102900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>70400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>297800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>365400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>99500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>26500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-46800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>229800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>283500</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>37100</v>
+        <v>-155500</v>
       </c>
       <c r="E33" s="3">
-        <v>-344500</v>
+        <v>37200</v>
       </c>
       <c r="F33" s="3">
-        <v>-222100</v>
+        <v>-345200</v>
       </c>
       <c r="G33" s="3">
-        <v>-283200</v>
+        <v>-222600</v>
       </c>
       <c r="H33" s="3">
-        <v>782200</v>
+        <v>-283800</v>
       </c>
       <c r="I33" s="3">
-        <v>106800</v>
+        <v>783900</v>
       </c>
       <c r="J33" s="3">
+        <v>107000</v>
+      </c>
+      <c r="K33" s="3">
         <v>712300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1437400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>483000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>158300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-275200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-487900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-719100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-539700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-166500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>14900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>173700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-14000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>248700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>296200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>246000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>99000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>204900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>279400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>448400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-628000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>37100</v>
+        <v>-155500</v>
       </c>
       <c r="E35" s="3">
-        <v>-344500</v>
+        <v>37200</v>
       </c>
       <c r="F35" s="3">
-        <v>-222100</v>
+        <v>-345200</v>
       </c>
       <c r="G35" s="3">
-        <v>-283200</v>
+        <v>-222600</v>
       </c>
       <c r="H35" s="3">
-        <v>782200</v>
+        <v>-283800</v>
       </c>
       <c r="I35" s="3">
-        <v>106800</v>
+        <v>783900</v>
       </c>
       <c r="J35" s="3">
+        <v>107000</v>
+      </c>
+      <c r="K35" s="3">
         <v>712300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1437400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>483000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>158300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-275200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-487900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-719100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-539700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-166500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>14900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>173700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-14000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>248700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>296200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>246000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>99000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>204900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>279400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>448400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-628000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,782 +3267,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2494000</v>
+        <v>2672400</v>
       </c>
       <c r="E41" s="3">
-        <v>2510700</v>
+        <v>2499400</v>
       </c>
       <c r="F41" s="3">
-        <v>2363900</v>
+        <v>2516200</v>
       </c>
       <c r="G41" s="3">
-        <v>1918900</v>
+        <v>2369000</v>
       </c>
       <c r="H41" s="3">
-        <v>2037100</v>
+        <v>1923100</v>
       </c>
       <c r="I41" s="3">
-        <v>1748300</v>
+        <v>2041600</v>
       </c>
       <c r="J41" s="3">
+        <v>1752100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2422000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1890800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2419100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2593600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2400500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2953000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1981600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1256700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1072000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1024900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1142200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>989700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>905000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>952900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>797100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>967900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1397900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1464300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1641600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1662600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2034300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>771000</v>
+        <v>472300</v>
       </c>
       <c r="E42" s="3">
-        <v>462300</v>
+        <v>772700</v>
       </c>
       <c r="F42" s="3">
-        <v>501900</v>
+        <v>463300</v>
       </c>
       <c r="G42" s="3">
-        <v>770400</v>
+        <v>503000</v>
       </c>
       <c r="H42" s="3">
-        <v>418000</v>
+        <v>772100</v>
       </c>
       <c r="I42" s="3">
-        <v>703400</v>
+        <v>418900</v>
       </c>
       <c r="J42" s="3">
+        <v>705000</v>
+      </c>
+      <c r="K42" s="3">
         <v>591300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>736800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>751000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>678600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>624200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>542500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>451600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>311700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>241600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>120300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>321900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>420600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>385000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>380400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>569800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>590400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>585700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>686500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>250900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>295300</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>107400</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1303100</v>
+        <v>1111100</v>
       </c>
       <c r="E43" s="3">
-        <v>1109300</v>
+        <v>1306000</v>
       </c>
       <c r="F43" s="3">
-        <v>1839200</v>
+        <v>1111700</v>
       </c>
       <c r="G43" s="3">
-        <v>1898200</v>
+        <v>1843300</v>
       </c>
       <c r="H43" s="3">
-        <v>1988600</v>
+        <v>1902400</v>
       </c>
       <c r="I43" s="3">
-        <v>2077600</v>
+        <v>1993000</v>
       </c>
       <c r="J43" s="3">
+        <v>2082100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2738400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2403300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2135000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1485100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1319700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1157500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1084200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1321200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1026100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>893800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>861400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>842900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1091300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>836300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1029700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1263800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1077900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1019500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>752400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>658900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>796900</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2775600</v>
+        <v>2620800</v>
       </c>
       <c r="E44" s="3">
-        <v>2825700</v>
+        <v>2781700</v>
       </c>
       <c r="F44" s="3">
-        <v>3023700</v>
+        <v>2831800</v>
       </c>
       <c r="G44" s="3">
-        <v>3428400</v>
+        <v>3030300</v>
       </c>
       <c r="H44" s="3">
-        <v>3413500</v>
+        <v>3435800</v>
       </c>
       <c r="I44" s="3">
-        <v>3289900</v>
+        <v>3420900</v>
       </c>
       <c r="J44" s="3">
+        <v>3297100</v>
+      </c>
+      <c r="K44" s="3">
         <v>2893300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2460700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2311800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1568500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1571000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1452200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1543800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1408400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1476000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1464000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1515400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1514000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1655100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1501300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1559800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1755400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1473200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1514600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1375900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1299400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1209100</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34900</v>
+        <v>54400</v>
       </c>
       <c r="E45" s="3">
-        <v>31800</v>
+        <v>35000</v>
       </c>
       <c r="F45" s="3">
+        <v>31900</v>
+      </c>
+      <c r="G45" s="3">
         <v>11300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
+        <v>18700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>150300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>94700</v>
+      </c>
+      <c r="K45" s="3">
+        <v>39100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>67600</v>
+      </c>
+      <c r="M45" s="3">
+        <v>69200</v>
+      </c>
+      <c r="N45" s="3">
+        <v>70800</v>
+      </c>
+      <c r="O45" s="3">
+        <v>84700</v>
+      </c>
+      <c r="P45" s="3">
+        <v>79500</v>
+      </c>
+      <c r="Q45" s="3">
         <v>18600</v>
       </c>
-      <c r="H45" s="3">
-        <v>150000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>94500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>39100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>67600</v>
-      </c>
-      <c r="L45" s="3">
-        <v>69200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>70800</v>
-      </c>
-      <c r="N45" s="3">
-        <v>84700</v>
-      </c>
-      <c r="O45" s="3">
-        <v>79500</v>
-      </c>
-      <c r="P45" s="3">
-        <v>18600</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>29700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>39900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>59800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>47700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>24700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>29100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>31200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>35400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>51200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>52400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>111400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>116600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7378600</v>
+        <v>6931000</v>
       </c>
       <c r="E46" s="3">
-        <v>6939800</v>
+        <v>7394800</v>
       </c>
       <c r="F46" s="3">
-        <v>7740000</v>
+        <v>6954900</v>
       </c>
       <c r="G46" s="3">
-        <v>8034500</v>
+        <v>7756900</v>
       </c>
       <c r="H46" s="3">
-        <v>8007200</v>
+        <v>8052100</v>
       </c>
       <c r="I46" s="3">
-        <v>7913700</v>
+        <v>8024700</v>
       </c>
       <c r="J46" s="3">
+        <v>7931000</v>
+      </c>
+      <c r="K46" s="3">
         <v>8684100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7559200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7686000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6396700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6000200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6184600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5079800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4320100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3845500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3542900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3900600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3814900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4061100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3700000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3987600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4612900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4585900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4737400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4132100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4032900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>4186700</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>468900</v>
+        <v>472400</v>
       </c>
       <c r="E47" s="3">
-        <v>444600</v>
+        <v>469900</v>
       </c>
       <c r="F47" s="3">
-        <v>474700</v>
+        <v>445500</v>
       </c>
       <c r="G47" s="3">
-        <v>440400</v>
+        <v>475700</v>
       </c>
       <c r="H47" s="3">
-        <v>378200</v>
+        <v>441400</v>
       </c>
       <c r="I47" s="3">
-        <v>390100</v>
+        <v>379000</v>
       </c>
       <c r="J47" s="3">
+        <v>391000</v>
+      </c>
+      <c r="K47" s="3">
         <v>360300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>444500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>291700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>272100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>454400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>516900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>628100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>511200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>441100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>506500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>562700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>338000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>238400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>250800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>309100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>329600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>378500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>380000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>362800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>345300</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>426900</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8484100</v>
+        <v>8394700</v>
       </c>
       <c r="E48" s="3">
-        <v>8401700</v>
+        <v>8502600</v>
       </c>
       <c r="F48" s="3">
-        <v>8280200</v>
+        <v>8420000</v>
       </c>
       <c r="G48" s="3">
-        <v>7936700</v>
+        <v>8298300</v>
       </c>
       <c r="H48" s="3">
-        <v>7380500</v>
+        <v>7954000</v>
       </c>
       <c r="I48" s="3">
-        <v>8057000</v>
+        <v>7396600</v>
       </c>
       <c r="J48" s="3">
+        <v>8074600</v>
+      </c>
+      <c r="K48" s="3">
         <v>7859700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7278100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7805500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7265000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7612900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7485700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7310600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6449900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6356800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5860000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6264500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5666000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6059100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5851700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7088700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7630300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7640900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>7806300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>7344800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>7277900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>7403700</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>621100</v>
+        <v>621400</v>
       </c>
       <c r="E49" s="3">
-        <v>608700</v>
+        <v>622500</v>
       </c>
       <c r="F49" s="3">
-        <v>592900</v>
+        <v>610000</v>
       </c>
       <c r="G49" s="3">
-        <v>574200</v>
+        <v>594200</v>
       </c>
       <c r="H49" s="3">
-        <v>568200</v>
+        <v>575500</v>
       </c>
       <c r="I49" s="3">
-        <v>579500</v>
+        <v>569500</v>
       </c>
       <c r="J49" s="3">
+        <v>580800</v>
+      </c>
+      <c r="K49" s="3">
         <v>569800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>543300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>550000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>529200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>547400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>548300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>546700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>510200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>515400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>483000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>510800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>489000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>508500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>506900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>633500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>699300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>704400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>714300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>689900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>696900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>699100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1263800</v>
+        <v>1344400</v>
       </c>
       <c r="E52" s="3">
-        <v>1338400</v>
+        <v>1266600</v>
       </c>
       <c r="F52" s="3">
-        <v>1483100</v>
+        <v>1341300</v>
       </c>
       <c r="G52" s="3">
-        <v>1496600</v>
+        <v>1486300</v>
       </c>
       <c r="H52" s="3">
-        <v>1173800</v>
+        <v>1499800</v>
       </c>
       <c r="I52" s="3">
-        <v>1702100</v>
+        <v>1176400</v>
       </c>
       <c r="J52" s="3">
+        <v>1705900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1545100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1201600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1881700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1642500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2165100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1926900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1643300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>792100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1120900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>905000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>258100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>252400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>381100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>451100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>313100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>403600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>326100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>353300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>386600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>503100</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>457300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18216500</v>
+        <v>17763800</v>
       </c>
       <c r="E54" s="3">
-        <v>17733000</v>
+        <v>18256300</v>
       </c>
       <c r="F54" s="3">
-        <v>18570900</v>
+        <v>17771800</v>
       </c>
       <c r="G54" s="3">
-        <v>18482400</v>
+        <v>18611400</v>
       </c>
       <c r="H54" s="3">
-        <v>17508000</v>
+        <v>18522700</v>
       </c>
       <c r="I54" s="3">
-        <v>18642500</v>
+        <v>17546200</v>
       </c>
       <c r="J54" s="3">
+        <v>18683200</v>
+      </c>
+      <c r="K54" s="3">
         <v>19019100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17026700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18214800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16105400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16780100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16662500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15208500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12583400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12279700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11297500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11496800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10560200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11248200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10760600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12332000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>13675700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>13635900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>13991200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>12916200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>12856000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>13173700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2465800</v>
+        <v>2414700</v>
       </c>
       <c r="E57" s="3">
-        <v>2466500</v>
+        <v>2471200</v>
       </c>
       <c r="F57" s="3">
-        <v>2589800</v>
+        <v>2471900</v>
       </c>
       <c r="G57" s="3">
-        <v>2560100</v>
+        <v>2595500</v>
       </c>
       <c r="H57" s="3">
-        <v>2427600</v>
+        <v>2565700</v>
       </c>
       <c r="I57" s="3">
-        <v>2427500</v>
+        <v>2432900</v>
       </c>
       <c r="J57" s="3">
+        <v>2432800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2102200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2067800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2653800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1860900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1727400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1688200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1944600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1683900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1707000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1614000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1543200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1488100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1736200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1528000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1323600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1350000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1233400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1348000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1257900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1623700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1777600</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>672300</v>
+        <v>707600</v>
       </c>
       <c r="E58" s="3">
-        <v>662700</v>
+        <v>673800</v>
       </c>
       <c r="F58" s="3">
-        <v>510300</v>
+        <v>664200</v>
       </c>
       <c r="G58" s="3">
-        <v>536400</v>
+        <v>511400</v>
       </c>
       <c r="H58" s="3">
-        <v>617800</v>
+        <v>537600</v>
       </c>
       <c r="I58" s="3">
-        <v>436000</v>
+        <v>619100</v>
       </c>
       <c r="J58" s="3">
+        <v>436900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1812300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1976400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2022700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1857500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>672200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1099500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>786300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>414200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2599500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2298100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2118700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2010500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2235800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2243600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2379100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2795400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3374100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3695000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3205900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3233000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1707000</v>
+        <v>1542700</v>
       </c>
       <c r="E59" s="3">
-        <v>1741700</v>
+        <v>1710800</v>
       </c>
       <c r="F59" s="3">
-        <v>1953300</v>
+        <v>1745500</v>
       </c>
       <c r="G59" s="3">
-        <v>2078100</v>
+        <v>1957600</v>
       </c>
       <c r="H59" s="3">
-        <v>1862700</v>
+        <v>2082700</v>
       </c>
       <c r="I59" s="3">
-        <v>2210500</v>
+        <v>1866700</v>
       </c>
       <c r="J59" s="3">
+        <v>2215300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2603500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1966700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1796200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1592600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1664100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1451600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1196900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>897100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>679000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>571900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>546700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>625300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>522000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>498700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>526100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>761100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>719900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>760100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>881200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>858600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>814100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4845100</v>
+        <v>4665000</v>
       </c>
       <c r="E60" s="3">
-        <v>4870900</v>
+        <v>4855700</v>
       </c>
       <c r="F60" s="3">
-        <v>5053400</v>
+        <v>4881600</v>
       </c>
       <c r="G60" s="3">
-        <v>5174700</v>
+        <v>5064500</v>
       </c>
       <c r="H60" s="3">
-        <v>4908100</v>
+        <v>5186000</v>
       </c>
       <c r="I60" s="3">
-        <v>5074000</v>
+        <v>4918800</v>
       </c>
       <c r="J60" s="3">
+        <v>5085100</v>
+      </c>
+      <c r="K60" s="3">
         <v>6518000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6010900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6472700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5311000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4063700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4239400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3927700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2995100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4985500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4483900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4208600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4123900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4494000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4270300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4228800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4906500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5327400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5803000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5344900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5715300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>3323500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10150000</v>
+        <v>9734600</v>
       </c>
       <c r="E61" s="3">
-        <v>9674600</v>
+        <v>10172100</v>
       </c>
       <c r="F61" s="3">
-        <v>9948600</v>
+        <v>9695800</v>
       </c>
       <c r="G61" s="3">
-        <v>9393900</v>
+        <v>9970300</v>
       </c>
       <c r="H61" s="3">
-        <v>8301300</v>
+        <v>9414400</v>
       </c>
       <c r="I61" s="3">
-        <v>9747200</v>
+        <v>8319400</v>
       </c>
       <c r="J61" s="3">
+        <v>9768500</v>
+      </c>
+      <c r="K61" s="3">
         <v>7992100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7319500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9345600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8850600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11502700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11478900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10039400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7334000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4956900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4362300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4937800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4310300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4438500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4496800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4981500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5685600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4740400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4970200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4871100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5144300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>7597500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1780900</v>
+        <v>2003200</v>
       </c>
       <c r="E62" s="3">
-        <v>1957300</v>
+        <v>1784700</v>
       </c>
       <c r="F62" s="3">
-        <v>2193500</v>
+        <v>1961600</v>
       </c>
       <c r="G62" s="3">
-        <v>2305000</v>
+        <v>2198300</v>
       </c>
       <c r="H62" s="3">
-        <v>2226300</v>
+        <v>2310000</v>
       </c>
       <c r="I62" s="3">
-        <v>2571800</v>
+        <v>2231200</v>
       </c>
       <c r="J62" s="3">
+        <v>2577400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2266500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2308600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2685000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2667200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2462700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1996200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1806400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1525700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1173400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1112200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1004100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1071500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1129300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1096400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1408600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1624600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1772800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1746400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1575400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1569400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1162700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16640200</v>
+        <v>16304000</v>
       </c>
       <c r="E66" s="3">
-        <v>16258400</v>
+        <v>16676600</v>
       </c>
       <c r="F66" s="3">
-        <v>16820800</v>
+        <v>16293900</v>
       </c>
       <c r="G66" s="3">
-        <v>16575300</v>
+        <v>16857600</v>
       </c>
       <c r="H66" s="3">
-        <v>15172000</v>
+        <v>16611500</v>
       </c>
       <c r="I66" s="3">
-        <v>17058300</v>
+        <v>15205200</v>
       </c>
       <c r="J66" s="3">
+        <v>17095600</v>
+      </c>
+      <c r="K66" s="3">
         <v>16448400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15349800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18131500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16517500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17649700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17328600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15405600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11681100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10917200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9805200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9987100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9349300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9920900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9696800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10466600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12004700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11654000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>12338600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>11595600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>12176600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>11845300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>407400</v>
+        <v>252100</v>
       </c>
       <c r="E72" s="3">
-        <v>368900</v>
+        <v>408300</v>
       </c>
       <c r="F72" s="3">
-        <v>711900</v>
+        <v>369700</v>
       </c>
       <c r="G72" s="3">
-        <v>932700</v>
+        <v>713400</v>
       </c>
       <c r="H72" s="3">
-        <v>1485900</v>
+        <v>934700</v>
       </c>
       <c r="I72" s="3">
-        <v>702400</v>
+        <v>1489200</v>
       </c>
       <c r="J72" s="3">
+        <v>703900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1802600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1046900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-392800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-847400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1047900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-783000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-296500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>394800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>947600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1050500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1111600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>875200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1044400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>794400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1223400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1071200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1226800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1020100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>714900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>264700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>914200</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1576300</v>
+        <v>1459800</v>
       </c>
       <c r="E76" s="3">
-        <v>1474600</v>
+        <v>1579800</v>
       </c>
       <c r="F76" s="3">
-        <v>1750000</v>
+        <v>1477800</v>
       </c>
       <c r="G76" s="3">
-        <v>1907100</v>
+        <v>1753900</v>
       </c>
       <c r="H76" s="3">
-        <v>2336000</v>
+        <v>1911300</v>
       </c>
       <c r="I76" s="3">
-        <v>1584200</v>
+        <v>2341100</v>
       </c>
       <c r="J76" s="3">
+        <v>1587600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2570700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1676800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>83300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-412000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-869600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-666100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-197100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>902300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1362500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1492300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1509600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1210900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1327200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1063800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1865400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1671000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1981900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1652600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1320600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>679400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1328400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>37100</v>
+        <v>-155500</v>
       </c>
       <c r="E81" s="3">
-        <v>-344500</v>
+        <v>37200</v>
       </c>
       <c r="F81" s="3">
-        <v>-222100</v>
+        <v>-345200</v>
       </c>
       <c r="G81" s="3">
-        <v>-283200</v>
+        <v>-222600</v>
       </c>
       <c r="H81" s="3">
-        <v>782200</v>
+        <v>-283800</v>
       </c>
       <c r="I81" s="3">
-        <v>106800</v>
+        <v>783900</v>
       </c>
       <c r="J81" s="3">
+        <v>107000</v>
+      </c>
+      <c r="K81" s="3">
         <v>712300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1437400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>483000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>158300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-275200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-487900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-719100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-539700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-166500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>14900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>173700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-14000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>248700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>296200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>246000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>99000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>204900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>279400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>448400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-628000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>247800</v>
+        <v>263200</v>
       </c>
       <c r="E83" s="3">
-        <v>288300</v>
+        <v>248400</v>
       </c>
       <c r="F83" s="3">
-        <v>236900</v>
+        <v>288900</v>
       </c>
       <c r="G83" s="3">
-        <v>224700</v>
+        <v>237400</v>
       </c>
       <c r="H83" s="3">
-        <v>203400</v>
+        <v>225200</v>
       </c>
       <c r="I83" s="3">
-        <v>275000</v>
+        <v>203800</v>
       </c>
       <c r="J83" s="3">
+        <v>275600</v>
+      </c>
+      <c r="K83" s="3">
         <v>193100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>178600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>180400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>195800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>206200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>191000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>191800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>189200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>164500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>153900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>161300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>132300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>145800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>270300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>172800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>194800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>191000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>185100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>174200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>177700</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-564300</v>
+        <v>399500</v>
       </c>
       <c r="E89" s="3">
-        <v>465400</v>
+        <v>-565500</v>
       </c>
       <c r="F89" s="3">
-        <v>591300</v>
+        <v>466400</v>
       </c>
       <c r="G89" s="3">
-        <v>402000</v>
+        <v>592600</v>
       </c>
       <c r="H89" s="3">
-        <v>344200</v>
+        <v>402900</v>
       </c>
       <c r="I89" s="3">
-        <v>852600</v>
+        <v>345000</v>
       </c>
       <c r="J89" s="3">
+        <v>854400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1155500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>486500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>446100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>718300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>189200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-129900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>422000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>169400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>150400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-88200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>195400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>179800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>391200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1133900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>420500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>341000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>377300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-232900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>141000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>179800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>704800</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-908300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1164300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1531300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1509900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1108600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-698500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1378400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-819300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-142000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-94900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-155100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-88700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-112300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-178400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-164900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-118100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-124700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-85300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-160800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-122100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-211900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-94500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-187200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-198300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-120300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-67700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-418100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-262200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-186300</v>
+        <v>-175300</v>
       </c>
       <c r="E94" s="3">
-        <v>-309500</v>
+        <v>-186700</v>
       </c>
       <c r="F94" s="3">
-        <v>-312500</v>
+        <v>-310100</v>
       </c>
       <c r="G94" s="3">
-        <v>-231100</v>
+        <v>-313100</v>
       </c>
       <c r="H94" s="3">
-        <v>-143400</v>
+        <v>-231600</v>
       </c>
       <c r="I94" s="3">
-        <v>-277400</v>
+        <v>-143700</v>
       </c>
       <c r="J94" s="3">
+        <v>-278000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-165000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-137300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-92000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-151100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-88700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-109600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-177800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-162900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-169800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-75000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-85300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-150800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-107300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-196700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-94200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-341100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-195500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-9900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-68200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-206800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-130100</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,13 +7653,14 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -7435,20 +7669,20 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-271900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-272500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1206600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-1209300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -7459,23 +7693,23 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-123100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -7483,17 +7717,17 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-277500</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-256100</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
@@ -7501,13 +7735,16 @@
         <v>0</v>
       </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-247800</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>748500</v>
+        <v>12500</v>
       </c>
       <c r="E100" s="3">
-        <v>29300</v>
+        <v>750200</v>
       </c>
       <c r="F100" s="3">
-        <v>129600</v>
+        <v>29400</v>
       </c>
       <c r="G100" s="3">
-        <v>-379600</v>
+        <v>129900</v>
       </c>
       <c r="H100" s="3">
-        <v>266000</v>
+        <v>-380400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1288500</v>
+        <v>266600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1291300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-606100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-757400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-706100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-217000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-646300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1126300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>184400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>212200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-24900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>123000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-13900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>73500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-297900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-630100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-405100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-416900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-275700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>35200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-105200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-237800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-197800</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-14700</v>
+        <v>-63700</v>
       </c>
       <c r="E101" s="3">
-        <v>-38400</v>
+        <v>-14800</v>
       </c>
       <c r="F101" s="3">
-        <v>36600</v>
+        <v>-38500</v>
       </c>
       <c r="G101" s="3">
-        <v>90500</v>
+        <v>36700</v>
       </c>
       <c r="H101" s="3">
-        <v>-178000</v>
+        <v>90700</v>
       </c>
       <c r="I101" s="3">
-        <v>39600</v>
+        <v>-178400</v>
       </c>
       <c r="J101" s="3">
+        <v>39700</v>
+      </c>
+      <c r="K101" s="3">
         <v>71000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-120100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>86800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-62400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>27600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>84600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>212200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-17600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>30500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-15700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>7900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>14500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-33800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-52700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>27500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-24500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>11300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>14900</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16800</v>
       </c>
-      <c r="E102" s="3">
-        <v>146900</v>
-      </c>
       <c r="F102" s="3">
-        <v>445000</v>
+        <v>147200</v>
       </c>
       <c r="G102" s="3">
-        <v>-118200</v>
+        <v>445900</v>
       </c>
       <c r="H102" s="3">
-        <v>288800</v>
+        <v>-118500</v>
       </c>
       <c r="I102" s="3">
-        <v>-673700</v>
+        <v>289500</v>
       </c>
       <c r="J102" s="3">
+        <v>-675200</v>
+      </c>
+      <c r="K102" s="3">
         <v>455300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-528300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-265200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>287800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-518300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>971300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>640800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>201100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-13700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-55900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>104100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>117100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-47900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>254400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-84500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-430000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-66400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-232200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-21000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-254500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>362100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>BAK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3583900</v>
+        <v>3429000</v>
       </c>
       <c r="E8" s="3">
-        <v>3925000</v>
+        <v>3651200</v>
       </c>
       <c r="F8" s="3">
-        <v>3832900</v>
+        <v>3998700</v>
       </c>
       <c r="G8" s="3">
-        <v>5124100</v>
+        <v>3904900</v>
       </c>
       <c r="H8" s="3">
-        <v>5129000</v>
+        <v>5220300</v>
       </c>
       <c r="I8" s="3">
-        <v>5395500</v>
+        <v>5225300</v>
       </c>
       <c r="J8" s="3">
+        <v>5496800</v>
+      </c>
+      <c r="K8" s="3">
         <v>5694300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5699500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5116000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4393900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3505800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3114900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2204800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2487800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2334600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2507600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2361600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2428600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2646900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3024900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4961600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3042500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3237700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3118100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3043300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3125700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2988400</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>2972300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3491300</v>
+        <v>3312000</v>
       </c>
       <c r="E9" s="3">
-        <v>3726200</v>
+        <v>3556900</v>
       </c>
       <c r="F9" s="3">
-        <v>3848700</v>
+        <v>3796200</v>
       </c>
       <c r="G9" s="3">
-        <v>4674300</v>
+        <v>3921000</v>
       </c>
       <c r="H9" s="3">
-        <v>4305800</v>
+        <v>4762000</v>
       </c>
       <c r="I9" s="3">
-        <v>4360000</v>
+        <v>4386700</v>
       </c>
       <c r="J9" s="3">
+        <v>4441900</v>
+      </c>
+      <c r="K9" s="3">
         <v>4341600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4027000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3216000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2992400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2581500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2420400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1902700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2256600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2043700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2185500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2071700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2107800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2300800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2358800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3868600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2411600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2405700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2349100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2319300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2210800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2269000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>2174500</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>92600</v>
+        <v>117000</v>
       </c>
       <c r="E10" s="3">
-        <v>198800</v>
+        <v>94300</v>
       </c>
       <c r="F10" s="3">
-        <v>-15800</v>
+        <v>202500</v>
       </c>
       <c r="G10" s="3">
-        <v>449800</v>
+        <v>-16100</v>
       </c>
       <c r="H10" s="3">
-        <v>823200</v>
+        <v>458300</v>
       </c>
       <c r="I10" s="3">
-        <v>1035400</v>
+        <v>838700</v>
       </c>
       <c r="J10" s="3">
+        <v>1054900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1352700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1672600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1900000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1401500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>924300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>694500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>302100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>231200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>291000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>322100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>289900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>320800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>346100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>666100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1093000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>630900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>831900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>769000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>724100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>914900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>719400</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>797900</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,97 +1100,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>16400</v>
+        <v>18900</v>
       </c>
       <c r="E12" s="3">
-        <v>18900</v>
+        <v>16700</v>
       </c>
       <c r="F12" s="3">
-        <v>24100</v>
+        <v>19300</v>
       </c>
       <c r="G12" s="3">
-        <v>21000</v>
+        <v>24500</v>
       </c>
       <c r="H12" s="3">
-        <v>15800</v>
+        <v>21400</v>
       </c>
       <c r="I12" s="3">
-        <v>14700</v>
+        <v>16100</v>
       </c>
       <c r="J12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K12" s="3">
         <v>19900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14900</v>
-      </c>
-      <c r="L12" s="3">
-        <v>12000</v>
       </c>
       <c r="M12" s="3">
         <v>12000</v>
       </c>
       <c r="N12" s="3">
+        <v>12000</v>
+      </c>
+      <c r="O12" s="3">
         <v>14600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>14400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>10700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>17700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>9100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>14500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>10000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>9900</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>8400</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>10500</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,97 +1282,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>216600</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>29700</v>
+        <v>220600</v>
       </c>
       <c r="F14" s="3">
-        <v>19000</v>
+        <v>30200</v>
       </c>
       <c r="G14" s="3">
-        <v>29900</v>
+        <v>19300</v>
       </c>
       <c r="H14" s="3">
-        <v>239800</v>
+        <v>30400</v>
       </c>
       <c r="I14" s="3">
-        <v>24000</v>
+        <v>244300</v>
       </c>
       <c r="J14" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K14" s="3">
         <v>332300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>48100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-105900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-121000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>358600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>627600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>290800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-3000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>651700</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>77000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>60800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-15700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-30900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>15100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>10600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-65200</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-700</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>26900</v>
       </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AF14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>3915000</v>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="3">
-        <v>3824900</v>
+        <v>3988500</v>
       </c>
       <c r="F17" s="3">
-        <v>4204900</v>
+        <v>3896700</v>
       </c>
       <c r="G17" s="3">
-        <v>4984700</v>
+        <v>4283900</v>
       </c>
       <c r="H17" s="3">
-        <v>4795100</v>
+        <v>5078300</v>
       </c>
       <c r="I17" s="3">
-        <v>4634500</v>
+        <v>4885100</v>
       </c>
       <c r="J17" s="3">
+        <v>4721500</v>
+      </c>
+      <c r="K17" s="3">
         <v>4943100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4386700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3361100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3088800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3294100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3228800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2401000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2413500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2994600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2402800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2212400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2032800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2439400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2508600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4156600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2595500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2671600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2622900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2450700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2404300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3295900</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2402600</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-331100</v>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E18" s="3">
-        <v>100100</v>
+        <v>-337300</v>
       </c>
       <c r="F18" s="3">
-        <v>-372000</v>
+        <v>102000</v>
       </c>
       <c r="G18" s="3">
-        <v>139300</v>
+        <v>-379000</v>
       </c>
       <c r="H18" s="3">
-        <v>334000</v>
+        <v>141900</v>
       </c>
       <c r="I18" s="3">
-        <v>761000</v>
+        <v>340200</v>
       </c>
       <c r="J18" s="3">
+        <v>775300</v>
+      </c>
+      <c r="K18" s="3">
         <v>751200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1312900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1754900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1305000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>211600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-113800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-196200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>74300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-660000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>104800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>149300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>395800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>207500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>516300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>805000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>447000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>566000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>495200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>592600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>721500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-307500</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>569700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>221200</v>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="3">
-        <v>141300</v>
+        <v>225300</v>
       </c>
       <c r="F20" s="3">
-        <v>102500</v>
+        <v>144000</v>
       </c>
       <c r="G20" s="3">
-        <v>-162000</v>
+        <v>104500</v>
       </c>
       <c r="H20" s="3">
-        <v>-511600</v>
+        <v>-165000</v>
       </c>
       <c r="I20" s="3">
-        <v>390100</v>
+        <v>-521200</v>
       </c>
       <c r="J20" s="3">
+        <v>397400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-334000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-462000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>299500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>305900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-205200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-324000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1075200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-51500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-381300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-61000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-70600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-102900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-70400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-297800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-365400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-99500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-26500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>46800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-229800</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-283500</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>153300</v>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E21" s="3">
-        <v>489800</v>
+        <v>156200</v>
       </c>
       <c r="F21" s="3">
-        <v>19400</v>
+        <v>499000</v>
       </c>
       <c r="G21" s="3">
-        <v>214800</v>
+        <v>19800</v>
       </c>
       <c r="H21" s="3">
-        <v>47600</v>
+        <v>218800</v>
       </c>
       <c r="I21" s="3">
-        <v>1354900</v>
+        <v>48500</v>
       </c>
       <c r="J21" s="3">
+        <v>1380400</v>
+      </c>
+      <c r="K21" s="3">
         <v>692900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1044000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2233000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>985100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>713300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-112800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-329100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-809100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-522300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-112000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>242200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>486500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>236900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>591800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>777500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>616300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>395300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>586700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>751200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>942400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-356700</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>462600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>188800</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="3">
-        <v>212400</v>
+        <v>192300</v>
       </c>
       <c r="F22" s="3">
-        <v>180000</v>
+        <v>216300</v>
       </c>
       <c r="G22" s="3">
-        <v>180300</v>
+        <v>183400</v>
       </c>
       <c r="H22" s="3">
-        <v>173200</v>
+        <v>183600</v>
       </c>
       <c r="I22" s="3">
-        <v>138300</v>
+        <v>176500</v>
       </c>
       <c r="J22" s="3">
+        <v>140900</v>
+      </c>
+      <c r="K22" s="3">
         <v>165300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>163000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>114100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>170300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>137900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>151600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>153700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>157200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>109600</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>101700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>102100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>91800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>101900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>188500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>110300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>131700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>141600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>147200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>142400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>159500</v>
       </c>
-      <c r="AE22" s="3" t="s">
+      <c r="AF22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-298600</v>
+        <v>-623100</v>
       </c>
       <c r="E23" s="3">
-        <v>29100</v>
+        <v>-304200</v>
       </c>
       <c r="F23" s="3">
-        <v>-449500</v>
+        <v>29600</v>
       </c>
       <c r="G23" s="3">
-        <v>-202900</v>
+        <v>-457900</v>
       </c>
       <c r="H23" s="3">
-        <v>-350800</v>
+        <v>-206700</v>
       </c>
       <c r="I23" s="3">
-        <v>1012800</v>
+        <v>-357400</v>
       </c>
       <c r="J23" s="3">
+        <v>1031800</v>
+      </c>
+      <c r="K23" s="3">
         <v>251900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>687900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1940300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>634400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>379600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-470600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-673800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1158100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-821100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-276500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-13400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>223100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>12800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>344000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>318600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>333200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>68800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>254200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>418900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>625800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-696900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>286200</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-132400</v>
+        <v>-97100</v>
       </c>
       <c r="E24" s="3">
-        <v>-19800</v>
+        <v>-134900</v>
       </c>
       <c r="F24" s="3">
-        <v>-69400</v>
+        <v>-20200</v>
       </c>
       <c r="G24" s="3">
-        <v>84000</v>
+        <v>-70700</v>
       </c>
       <c r="H24" s="3">
-        <v>-55600</v>
+        <v>85600</v>
       </c>
       <c r="I24" s="3">
-        <v>216000</v>
+        <v>-56600</v>
       </c>
       <c r="J24" s="3">
+        <v>220100</v>
+      </c>
+      <c r="K24" s="3">
         <v>157400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-20500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>476000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>167100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>215400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-210100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-181900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-358300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-288200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-91400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-23600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>51500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>44600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>77100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>14500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>64500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-11400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>58400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>126000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>153200</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-46600</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-166200</v>
+        <v>-526000</v>
       </c>
       <c r="E26" s="3">
-        <v>48900</v>
+        <v>-169300</v>
       </c>
       <c r="F26" s="3">
-        <v>-380100</v>
+        <v>49900</v>
       </c>
       <c r="G26" s="3">
-        <v>-287000</v>
+        <v>-387300</v>
       </c>
       <c r="H26" s="3">
-        <v>-295200</v>
+        <v>-292400</v>
       </c>
       <c r="I26" s="3">
-        <v>796700</v>
+        <v>-300800</v>
       </c>
       <c r="J26" s="3">
+        <v>811700</v>
+      </c>
+      <c r="K26" s="3">
         <v>94500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>708500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1464200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>467400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>164200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-260500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-492000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-799900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-532900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-185000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>10200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>171600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-31900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>266800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>304100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>268800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>80200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>195800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>292900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>472700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-650200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>201700</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-155500</v>
+        <v>-497300</v>
       </c>
       <c r="E27" s="3">
-        <v>37200</v>
+        <v>-158500</v>
       </c>
       <c r="F27" s="3">
-        <v>-345200</v>
+        <v>37900</v>
       </c>
       <c r="G27" s="3">
-        <v>-222600</v>
+        <v>-351700</v>
       </c>
       <c r="H27" s="3">
-        <v>-283800</v>
+        <v>-226800</v>
       </c>
       <c r="I27" s="3">
-        <v>783900</v>
+        <v>-289100</v>
       </c>
       <c r="J27" s="3">
+        <v>798600</v>
+      </c>
+      <c r="K27" s="3">
         <v>107000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>712300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1437400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>483000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>158300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-275200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-487900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-719100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-539700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-166500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>14900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>173700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-14000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>248700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>296200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>246000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>99000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>204900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>279400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>446200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-628800</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>219400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2566,16 +2627,19 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
         <v>2200</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>900</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-221200</v>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="3">
-        <v>-141300</v>
+        <v>-225300</v>
       </c>
       <c r="F32" s="3">
-        <v>-102500</v>
+        <v>-144000</v>
       </c>
       <c r="G32" s="3">
-        <v>162000</v>
+        <v>-104500</v>
       </c>
       <c r="H32" s="3">
-        <v>511600</v>
+        <v>165000</v>
       </c>
       <c r="I32" s="3">
-        <v>-390100</v>
+        <v>521200</v>
       </c>
       <c r="J32" s="3">
+        <v>-397400</v>
+      </c>
+      <c r="K32" s="3">
         <v>334000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>462000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-299500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-305900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>205200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>324000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1075200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>51500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>381300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>61000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>70600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>102900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>70400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>297800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>365400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>99500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>26500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-46800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>229800</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>283500</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-155500</v>
+        <v>-497300</v>
       </c>
       <c r="E33" s="3">
-        <v>37200</v>
+        <v>-158500</v>
       </c>
       <c r="F33" s="3">
-        <v>-345200</v>
+        <v>37900</v>
       </c>
       <c r="G33" s="3">
-        <v>-222600</v>
+        <v>-351700</v>
       </c>
       <c r="H33" s="3">
-        <v>-283800</v>
+        <v>-226800</v>
       </c>
       <c r="I33" s="3">
-        <v>783900</v>
+        <v>-289100</v>
       </c>
       <c r="J33" s="3">
+        <v>798600</v>
+      </c>
+      <c r="K33" s="3">
         <v>107000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>712300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1437400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>483000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>158300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-275200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-487900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-719100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-539700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-166500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>14900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>173700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-14000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>248700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>296200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>246000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>99000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>204900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>279400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>448400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-628000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-155500</v>
+        <v>-497300</v>
       </c>
       <c r="E35" s="3">
-        <v>37200</v>
+        <v>-158500</v>
       </c>
       <c r="F35" s="3">
-        <v>-345200</v>
+        <v>37900</v>
       </c>
       <c r="G35" s="3">
-        <v>-222600</v>
+        <v>-351700</v>
       </c>
       <c r="H35" s="3">
-        <v>-283800</v>
+        <v>-226800</v>
       </c>
       <c r="I35" s="3">
-        <v>783900</v>
+        <v>-289100</v>
       </c>
       <c r="J35" s="3">
+        <v>798600</v>
+      </c>
+      <c r="K35" s="3">
         <v>107000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>712300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1437400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>483000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>158300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-275200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-487900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-719100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-539700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-166500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>14900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>173700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-14000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>248700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>296200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>246000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>99000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>204900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>279400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>448400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-628000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,809 +3354,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2672400</v>
+        <v>2804100</v>
       </c>
       <c r="E41" s="3">
-        <v>2499400</v>
+        <v>2722600</v>
       </c>
       <c r="F41" s="3">
-        <v>2516200</v>
+        <v>2546400</v>
       </c>
       <c r="G41" s="3">
-        <v>2369000</v>
+        <v>2563500</v>
       </c>
       <c r="H41" s="3">
-        <v>1923100</v>
+        <v>2413500</v>
       </c>
       <c r="I41" s="3">
-        <v>2041600</v>
+        <v>1959200</v>
       </c>
       <c r="J41" s="3">
+        <v>2079900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1752100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2422000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1890800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2419100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2593600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2400500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2953000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1981600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1256700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1072000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1024900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1142200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>989700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>905000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>952900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>797100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>967900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1397900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1464300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1641600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1662600</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>2034300</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>472300</v>
+        <v>1036900</v>
       </c>
       <c r="E42" s="3">
-        <v>772700</v>
+        <v>481200</v>
       </c>
       <c r="F42" s="3">
-        <v>463300</v>
+        <v>787200</v>
       </c>
       <c r="G42" s="3">
-        <v>503000</v>
+        <v>472000</v>
       </c>
       <c r="H42" s="3">
-        <v>772100</v>
+        <v>512400</v>
       </c>
       <c r="I42" s="3">
-        <v>418900</v>
+        <v>786600</v>
       </c>
       <c r="J42" s="3">
+        <v>426800</v>
+      </c>
+      <c r="K42" s="3">
         <v>705000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>591300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>736800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>751000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>678600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>624200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>542500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>451600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>311700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>241600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>120300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>321900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>420600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>385000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>380400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>569800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>590400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>585700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>686500</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>250900</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>295300</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>107400</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1111100</v>
+        <v>1225300</v>
       </c>
       <c r="E43" s="3">
-        <v>1306000</v>
+        <v>1131900</v>
       </c>
       <c r="F43" s="3">
-        <v>1111700</v>
+        <v>1330500</v>
       </c>
       <c r="G43" s="3">
-        <v>1843300</v>
+        <v>1132600</v>
       </c>
       <c r="H43" s="3">
-        <v>1902400</v>
+        <v>1877900</v>
       </c>
       <c r="I43" s="3">
-        <v>1993000</v>
+        <v>1938100</v>
       </c>
       <c r="J43" s="3">
+        <v>2030400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2082100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2738400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2403300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2135000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1485100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1319700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1157500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1084200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1321200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1026100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>893800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>861400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>842900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1091300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>836300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1029700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1263800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1077900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1019500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>752400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>658900</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>796900</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2620800</v>
+        <v>2565400</v>
       </c>
       <c r="E44" s="3">
-        <v>2781700</v>
+        <v>2670000</v>
       </c>
       <c r="F44" s="3">
-        <v>2831800</v>
+        <v>2833900</v>
       </c>
       <c r="G44" s="3">
-        <v>3030300</v>
+        <v>2885000</v>
       </c>
       <c r="H44" s="3">
-        <v>3435800</v>
+        <v>3087200</v>
       </c>
       <c r="I44" s="3">
-        <v>3420900</v>
+        <v>3500400</v>
       </c>
       <c r="J44" s="3">
+        <v>3485100</v>
+      </c>
+      <c r="K44" s="3">
         <v>3297100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2893300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2460700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2311800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1568500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1571000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1452200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1543800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1408400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1476000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1464000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1515400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1514000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1655100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1501300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1559800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1755400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1473200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1514600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1375900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1299400</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>1209100</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>54400</v>
+        <v>33300</v>
       </c>
       <c r="E45" s="3">
-        <v>35000</v>
+        <v>55400</v>
       </c>
       <c r="F45" s="3">
-        <v>31900</v>
+        <v>35600</v>
       </c>
       <c r="G45" s="3">
-        <v>11300</v>
+        <v>32500</v>
       </c>
       <c r="H45" s="3">
-        <v>18700</v>
+        <v>11500</v>
       </c>
       <c r="I45" s="3">
-        <v>150300</v>
+        <v>19000</v>
       </c>
       <c r="J45" s="3">
+        <v>153200</v>
+      </c>
+      <c r="K45" s="3">
         <v>94700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>67600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>69200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>70800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>84700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>79500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>18600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>29700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>39900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>59800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>47700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>24700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>29100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>31200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>35400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>51200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>52400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>111400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>116600</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6931000</v>
+        <v>7665000</v>
       </c>
       <c r="E46" s="3">
-        <v>7394800</v>
+        <v>7061100</v>
       </c>
       <c r="F46" s="3">
-        <v>6954900</v>
+        <v>7533600</v>
       </c>
       <c r="G46" s="3">
-        <v>7756900</v>
+        <v>7085500</v>
       </c>
       <c r="H46" s="3">
-        <v>8052100</v>
+        <v>7902600</v>
       </c>
       <c r="I46" s="3">
-        <v>8024700</v>
+        <v>8203300</v>
       </c>
       <c r="J46" s="3">
+        <v>8175400</v>
+      </c>
+      <c r="K46" s="3">
         <v>7931000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8684100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7559200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7686000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6396700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6000200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6184600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5079800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4320100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3845500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3542900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3900600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3814900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4061100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3700000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3987600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4612900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4585900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4737400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4132100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>4032900</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>4186700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>472400</v>
+        <v>1516900</v>
       </c>
       <c r="E47" s="3">
-        <v>469900</v>
+        <v>481200</v>
       </c>
       <c r="F47" s="3">
-        <v>445500</v>
+        <v>478700</v>
       </c>
       <c r="G47" s="3">
-        <v>475700</v>
+        <v>453900</v>
       </c>
       <c r="H47" s="3">
-        <v>441400</v>
+        <v>484700</v>
       </c>
       <c r="I47" s="3">
-        <v>379000</v>
+        <v>449600</v>
       </c>
       <c r="J47" s="3">
+        <v>386200</v>
+      </c>
+      <c r="K47" s="3">
         <v>391000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>360300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>444500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>291700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>272100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>454400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>516900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>628100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>511200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>441100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>506500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>562700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>338000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>238400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>250800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>309100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>329600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>378500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>380000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>362800</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>345300</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>426900</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8394700</v>
+        <v>8660800</v>
       </c>
       <c r="E48" s="3">
-        <v>8502600</v>
+        <v>8552300</v>
       </c>
       <c r="F48" s="3">
-        <v>8420000</v>
+        <v>8662300</v>
       </c>
       <c r="G48" s="3">
-        <v>8298300</v>
+        <v>8578100</v>
       </c>
       <c r="H48" s="3">
-        <v>7954000</v>
+        <v>8454100</v>
       </c>
       <c r="I48" s="3">
-        <v>7396600</v>
+        <v>8103400</v>
       </c>
       <c r="J48" s="3">
+        <v>7535500</v>
+      </c>
+      <c r="K48" s="3">
         <v>8074600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7859700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7278100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7805500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7265000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7612900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7485700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7310600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6449900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6356800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5860000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6264500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5666000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6059100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5851700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7088700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7630300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>7640900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>7806300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>7344800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>7277900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>7403700</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>638900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>633100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>634200</v>
+      </c>
+      <c r="G49" s="3">
         <v>621400</v>
       </c>
-      <c r="E49" s="3">
-        <v>622500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>610000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>594200</v>
-      </c>
       <c r="H49" s="3">
-        <v>575500</v>
+        <v>605400</v>
       </c>
       <c r="I49" s="3">
-        <v>569500</v>
+        <v>586300</v>
       </c>
       <c r="J49" s="3">
+        <v>580100</v>
+      </c>
+      <c r="K49" s="3">
         <v>580800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>569800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>543300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>550000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>529200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>547400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>548300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>546700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>510200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>515400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>483000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>510800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>489000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>508500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>506900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>633500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>699300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>704400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>714300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>689900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>696900</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>699100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1344400</v>
+        <v>82200</v>
       </c>
       <c r="E52" s="3">
-        <v>1266600</v>
+        <v>1369600</v>
       </c>
       <c r="F52" s="3">
-        <v>1341300</v>
+        <v>1290400</v>
       </c>
       <c r="G52" s="3">
-        <v>1486300</v>
+        <v>1366500</v>
       </c>
       <c r="H52" s="3">
-        <v>1499800</v>
+        <v>1514200</v>
       </c>
       <c r="I52" s="3">
-        <v>1176400</v>
+        <v>1528000</v>
       </c>
       <c r="J52" s="3">
+        <v>1198500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1705900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1545100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1201600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1881700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1642500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2165100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1926900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1643300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>792100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1120900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>905000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>258100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>252400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>381100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>451100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>313100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>403600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>326100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>353300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>386600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>503100</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>457300</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17763800</v>
+        <v>18921100</v>
       </c>
       <c r="E54" s="3">
-        <v>18256300</v>
+        <v>18097300</v>
       </c>
       <c r="F54" s="3">
-        <v>17771800</v>
+        <v>18599100</v>
       </c>
       <c r="G54" s="3">
-        <v>18611400</v>
+        <v>18105500</v>
       </c>
       <c r="H54" s="3">
-        <v>18522700</v>
+        <v>18960900</v>
       </c>
       <c r="I54" s="3">
-        <v>17546200</v>
+        <v>18870500</v>
       </c>
       <c r="J54" s="3">
+        <v>17875700</v>
+      </c>
+      <c r="K54" s="3">
         <v>18683200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19019100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17026700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18214800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16105400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16780100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16662500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15208500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12583400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12279700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11297500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11496800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10560200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11248200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10760600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12332000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>13675700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>13635900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>13991200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>12916200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>12856000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>13173700</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2414700</v>
+        <v>2730300</v>
       </c>
       <c r="E57" s="3">
-        <v>2471200</v>
+        <v>2460000</v>
       </c>
       <c r="F57" s="3">
-        <v>2471900</v>
+        <v>2517600</v>
       </c>
       <c r="G57" s="3">
-        <v>2595500</v>
+        <v>2518300</v>
       </c>
       <c r="H57" s="3">
-        <v>2565700</v>
+        <v>2644200</v>
       </c>
       <c r="I57" s="3">
-        <v>2432900</v>
+        <v>2613900</v>
       </c>
       <c r="J57" s="3">
+        <v>2478600</v>
+      </c>
+      <c r="K57" s="3">
         <v>2432800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2102200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2067800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2653800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1860900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1727400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1688200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1944600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1683900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1707000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1614000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1543200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1488100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1736200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1528000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1323600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1350000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1233400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1348000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1257900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1623700</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1777600</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>707600</v>
+        <v>691500</v>
       </c>
       <c r="E58" s="3">
-        <v>673800</v>
+        <v>720800</v>
       </c>
       <c r="F58" s="3">
-        <v>664200</v>
+        <v>686400</v>
       </c>
       <c r="G58" s="3">
-        <v>511400</v>
+        <v>676700</v>
       </c>
       <c r="H58" s="3">
-        <v>537600</v>
+        <v>521000</v>
       </c>
       <c r="I58" s="3">
-        <v>619100</v>
+        <v>547700</v>
       </c>
       <c r="J58" s="3">
+        <v>630700</v>
+      </c>
+      <c r="K58" s="3">
         <v>436900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1812300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1976400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2022700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1857500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>672200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1099500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>786300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>414200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2599500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2298100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2118700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2010500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2235800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2243600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2379100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2795400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3374100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3695000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3205900</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>3233000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1542700</v>
+        <v>1550400</v>
       </c>
       <c r="E59" s="3">
-        <v>1710800</v>
+        <v>1571700</v>
       </c>
       <c r="F59" s="3">
-        <v>1745500</v>
+        <v>1742900</v>
       </c>
       <c r="G59" s="3">
-        <v>1957600</v>
+        <v>1778200</v>
       </c>
       <c r="H59" s="3">
-        <v>2082700</v>
+        <v>1994300</v>
       </c>
       <c r="I59" s="3">
-        <v>1866700</v>
+        <v>2121800</v>
       </c>
       <c r="J59" s="3">
+        <v>1901800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2215300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2603500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1966700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1796200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1592600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1664100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1451600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1196900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>897100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>679000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>571900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>546700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>625300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>522000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>498700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>526100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>761100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>719900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>760100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>881200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>858600</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>814100</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4665000</v>
+        <v>4972200</v>
       </c>
       <c r="E60" s="3">
-        <v>4855700</v>
+        <v>4752600</v>
       </c>
       <c r="F60" s="3">
-        <v>4881600</v>
+        <v>4946900</v>
       </c>
       <c r="G60" s="3">
-        <v>5064500</v>
+        <v>4973200</v>
       </c>
       <c r="H60" s="3">
-        <v>5186000</v>
+        <v>5159600</v>
       </c>
       <c r="I60" s="3">
-        <v>4918800</v>
+        <v>5283400</v>
       </c>
       <c r="J60" s="3">
+        <v>5011100</v>
+      </c>
+      <c r="K60" s="3">
         <v>5085100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6518000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6010900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6472700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5311000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4063700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4239400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3927700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2995100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4985500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4483900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4208600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4123900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4494000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4270300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4228800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4906500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5327400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5803000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5344900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>5715300</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>3323500</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9734600</v>
+        <v>11121100</v>
       </c>
       <c r="E61" s="3">
-        <v>10172100</v>
+        <v>9917400</v>
       </c>
       <c r="F61" s="3">
-        <v>9695800</v>
+        <v>10363100</v>
       </c>
       <c r="G61" s="3">
-        <v>9970300</v>
+        <v>9877800</v>
       </c>
       <c r="H61" s="3">
-        <v>9414400</v>
+        <v>10157500</v>
       </c>
       <c r="I61" s="3">
-        <v>8319400</v>
+        <v>9591200</v>
       </c>
       <c r="J61" s="3">
+        <v>8475600</v>
+      </c>
+      <c r="K61" s="3">
         <v>9768500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7992100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7319500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9345600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8850600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11502700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11478900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10039400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7334000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4956900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4362300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4937800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4310300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4438500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4496800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4981500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5685600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4740400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4970200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>4871100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>5144300</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>7597500</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2003200</v>
+        <v>4658000</v>
       </c>
       <c r="E62" s="3">
-        <v>1784700</v>
+        <v>2040800</v>
       </c>
       <c r="F62" s="3">
-        <v>1961600</v>
+        <v>1818300</v>
       </c>
       <c r="G62" s="3">
-        <v>2198300</v>
+        <v>1998400</v>
       </c>
       <c r="H62" s="3">
-        <v>2310000</v>
+        <v>2239600</v>
       </c>
       <c r="I62" s="3">
-        <v>2231200</v>
+        <v>2353400</v>
       </c>
       <c r="J62" s="3">
+        <v>2273100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2577400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2266500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2308600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2685000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2667200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2462700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1996200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1806400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1525700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1173400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1112200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1004100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1071500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1129300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1096400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1408600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1624600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1772800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1746400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1575400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1569400</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1162700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16304000</v>
+        <v>17888300</v>
       </c>
       <c r="E66" s="3">
-        <v>16676600</v>
+        <v>16610100</v>
       </c>
       <c r="F66" s="3">
-        <v>16293900</v>
+        <v>16989700</v>
       </c>
       <c r="G66" s="3">
-        <v>16857600</v>
+        <v>16599900</v>
       </c>
       <c r="H66" s="3">
-        <v>16611500</v>
+        <v>17174100</v>
       </c>
       <c r="I66" s="3">
-        <v>15205200</v>
+        <v>16923400</v>
       </c>
       <c r="J66" s="3">
+        <v>15490700</v>
+      </c>
+      <c r="K66" s="3">
         <v>17095600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16448400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15349800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18131500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16517500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17649700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17328600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15405600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11681100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10917200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9805200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9987100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9349300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9920900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9696800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10466600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12004700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>11654000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>12338600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>11595600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>12176600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>11845300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>252100</v>
+        <v>-239900</v>
       </c>
       <c r="E72" s="3">
-        <v>408300</v>
+        <v>256800</v>
       </c>
       <c r="F72" s="3">
-        <v>369700</v>
+        <v>416000</v>
       </c>
       <c r="G72" s="3">
-        <v>713400</v>
+        <v>376700</v>
       </c>
       <c r="H72" s="3">
-        <v>934700</v>
+        <v>726800</v>
       </c>
       <c r="I72" s="3">
-        <v>1489200</v>
+        <v>952300</v>
       </c>
       <c r="J72" s="3">
+        <v>1517100</v>
+      </c>
+      <c r="K72" s="3">
         <v>703900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1802600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1046900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-392800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-847400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1047900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-783000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-296500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>394800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>947600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1050500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1111600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>875200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1044400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>794400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1223400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1071200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1226800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1020100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>714900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>264700</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>914200</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1459800</v>
+        <v>1032800</v>
       </c>
       <c r="E76" s="3">
-        <v>1579800</v>
+        <v>1487200</v>
       </c>
       <c r="F76" s="3">
-        <v>1477800</v>
+        <v>1609400</v>
       </c>
       <c r="G76" s="3">
-        <v>1753900</v>
+        <v>1505600</v>
       </c>
       <c r="H76" s="3">
-        <v>1911300</v>
+        <v>1786800</v>
       </c>
       <c r="I76" s="3">
-        <v>2341100</v>
+        <v>1947200</v>
       </c>
       <c r="J76" s="3">
+        <v>2385000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1587600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2570700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1676800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>83300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-412000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-869600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-666100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-197100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>902300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1362500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1492300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1509600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1210900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1327200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1063800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1865400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1671000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1981900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1652600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1320600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>679400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>1328400</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-155500</v>
+        <v>-497300</v>
       </c>
       <c r="E81" s="3">
-        <v>37200</v>
+        <v>-158500</v>
       </c>
       <c r="F81" s="3">
-        <v>-345200</v>
+        <v>37900</v>
       </c>
       <c r="G81" s="3">
-        <v>-222600</v>
+        <v>-351700</v>
       </c>
       <c r="H81" s="3">
-        <v>-283800</v>
+        <v>-226800</v>
       </c>
       <c r="I81" s="3">
-        <v>783900</v>
+        <v>-289100</v>
       </c>
       <c r="J81" s="3">
+        <v>798600</v>
+      </c>
+      <c r="K81" s="3">
         <v>107000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>712300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1437400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>483000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>158300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-275200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-487900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-719100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-539700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-166500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>14900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>173700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-14000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>248700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>296200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>246000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>99000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>204900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>279400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>448400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-628000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>220700</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>263200</v>
+        <v>264300</v>
       </c>
       <c r="E83" s="3">
-        <v>248400</v>
+        <v>268200</v>
       </c>
       <c r="F83" s="3">
-        <v>288900</v>
+        <v>253000</v>
       </c>
       <c r="G83" s="3">
-        <v>237400</v>
+        <v>294300</v>
       </c>
       <c r="H83" s="3">
-        <v>225200</v>
+        <v>241900</v>
       </c>
       <c r="I83" s="3">
-        <v>203800</v>
+        <v>229400</v>
       </c>
       <c r="J83" s="3">
+        <v>207700</v>
+      </c>
+      <c r="K83" s="3">
         <v>275600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>193100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>178600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>180400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>195800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>206200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>191000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>191800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>189200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>164500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>153900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>161300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>132300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>145800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>270300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>172800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>194800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>191000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>185100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>174200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>177700</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>399500</v>
+        <v>-506600</v>
       </c>
       <c r="E89" s="3">
-        <v>-565500</v>
+        <v>407000</v>
       </c>
       <c r="F89" s="3">
-        <v>466400</v>
+        <v>-576100</v>
       </c>
       <c r="G89" s="3">
-        <v>592600</v>
+        <v>475200</v>
       </c>
       <c r="H89" s="3">
-        <v>402900</v>
+        <v>603700</v>
       </c>
       <c r="I89" s="3">
-        <v>345000</v>
+        <v>410400</v>
       </c>
       <c r="J89" s="3">
+        <v>351500</v>
+      </c>
+      <c r="K89" s="3">
         <v>854400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1155500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>486500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>446100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>718300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>189200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-129900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>422000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>169400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>150400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-88200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>195400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>179800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>391200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1133900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>420500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>341000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>377300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-232900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>141000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>179800</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>704800</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1224500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-908300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1164300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1531300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1509900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1108600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-698500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1378400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-819300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-142000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-94900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-155100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-88700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-112300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-178400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-164900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-118100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-124700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-85300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-160800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-122100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-211900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-94500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-187200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-198300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-120300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-67700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-418100</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-262200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-175300</v>
+        <v>-251600</v>
       </c>
       <c r="E94" s="3">
-        <v>-186700</v>
+        <v>-178600</v>
       </c>
       <c r="F94" s="3">
-        <v>-310100</v>
+        <v>-190200</v>
       </c>
       <c r="G94" s="3">
-        <v>-313100</v>
+        <v>-316000</v>
       </c>
       <c r="H94" s="3">
-        <v>-231600</v>
+        <v>-319000</v>
       </c>
       <c r="I94" s="3">
-        <v>-143700</v>
+        <v>-236000</v>
       </c>
       <c r="J94" s="3">
+        <v>-146400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-278000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-165000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-137300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-92000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-151100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-88700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-109600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-177800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-162900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-169800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-75000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-85300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-150800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-107300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-196700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-94200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-341100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-195500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-9900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-68200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-206800</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-130100</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,17 +7887,18 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-500</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -7672,20 +7906,20 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-272500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-277600</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1209300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -7696,23 +7930,23 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-123100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -7720,17 +7954,17 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-277500</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-256100</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
@@ -7738,13 +7972,16 @@
         <v>0</v>
       </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-247800</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>12500</v>
+        <v>809400</v>
       </c>
       <c r="E100" s="3">
-        <v>750200</v>
+        <v>12700</v>
       </c>
       <c r="F100" s="3">
-        <v>29400</v>
+        <v>764200</v>
       </c>
       <c r="G100" s="3">
-        <v>129900</v>
+        <v>30000</v>
       </c>
       <c r="H100" s="3">
-        <v>-380400</v>
+        <v>132300</v>
       </c>
       <c r="I100" s="3">
-        <v>266600</v>
+        <v>-387600</v>
       </c>
       <c r="J100" s="3">
+        <v>271600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1291300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-606100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-757400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-706100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-217000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-646300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1126300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>184400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>212200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-24900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>123000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-13900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>73500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-297900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-630100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-405100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-416900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-275700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>35200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-105200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-237800</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-197800</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-63700</v>
+        <v>30400</v>
       </c>
       <c r="E101" s="3">
-        <v>-14800</v>
+        <v>-64900</v>
       </c>
       <c r="F101" s="3">
-        <v>-38500</v>
+        <v>-15000</v>
       </c>
       <c r="G101" s="3">
-        <v>36700</v>
+        <v>-39200</v>
       </c>
       <c r="H101" s="3">
-        <v>90700</v>
+        <v>37300</v>
       </c>
       <c r="I101" s="3">
-        <v>-178400</v>
+        <v>92400</v>
       </c>
       <c r="J101" s="3">
+        <v>-181800</v>
+      </c>
+      <c r="K101" s="3">
         <v>39700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>71000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-120100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>86800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-62400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>27600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>84600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>212200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-17600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>30500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-15700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>7900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>14500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-33800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-52700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>27500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-24500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>11300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>14900</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>173000</v>
+        <v>81600</v>
       </c>
       <c r="E102" s="3">
-        <v>-16800</v>
+        <v>176200</v>
       </c>
       <c r="F102" s="3">
-        <v>147200</v>
+        <v>-17100</v>
       </c>
       <c r="G102" s="3">
-        <v>445900</v>
+        <v>150000</v>
       </c>
       <c r="H102" s="3">
-        <v>-118500</v>
+        <v>454300</v>
       </c>
       <c r="I102" s="3">
-        <v>289500</v>
+        <v>-120700</v>
       </c>
       <c r="J102" s="3">
+        <v>294900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-675200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>455300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-528300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-265200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>287800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-518300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>971300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>640800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>201100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-55900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>104100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>117100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-47900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>254400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-84500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-430000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-66400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-232200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-21000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-254500</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>362100</v>
       </c>
     </row>
